--- a/model_results/ConsolidatedModelPerformance.xlsx
+++ b/model_results/ConsolidatedModelPerformance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ConsolidatedModelPerformance.ts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="208">
   <si>
     <t>dir</t>
   </si>
@@ -270,6 +270,39 @@
     <t>Class_1.n.trees=700,Class_1.interaction.depth=13,Class_1.shrinkage=0.1,Class_2.n.trees=700,Class_2.interaction.depth=13,Class_2.shrinkage=0.1,Class_3.n.trees=700,Class_3.interaction.depth=13,Class_3.shrinkage=0.1,Class_4.n.trees=700,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=700,Class_6.interaction.depth=13,Class_6.shrinkage=0.1,Class_7.n.trees=700,Class_7.interaction.depth=13,Class_7.shrinkage=0.1,Class_8.n.trees=700,Class_8.interaction.depth=13,Class_8.shrinkage=0.1,Class_9.n.trees=700,Class_9.interaction.depth=13,Class_9.shrinkage=0.1</t>
   </si>
   <si>
+    <t>Class_1.n.trees=800,Class_1.interaction.depth=15,Class_1.shrinkage=0.1,Class_2.n.trees=800,Class_2.interaction.depth=15,Class_2.shrinkage=0.1,Class_3.n.trees=800,Class_3.interaction.depth=15,Class_3.shrinkage=0.1,Class_4.n.trees=800,Class_4.interaction.depth=15,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=800,Class_6.interaction.depth=15,Class_6.shrinkage=0.1,Class_7.n.trees=800,Class_7.interaction.depth=15,Class_7.shrinkage=0.1,Class_8.n.trees=800,Class_8.interaction.depth=15,Class_8.shrinkage=0.1,Class_9.n.trees=800,Class_9.interaction.depth=15,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>AWS(9) tuning run(train,calib,test data,test.raw) gbm one vs all with new features with non-zero count</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=900,Class_1.interaction.depth=17,Class_1.shrinkage=0.1,Class_2.n.trees=900,Class_2.interaction.depth=17,Class_2.shrinkage=0.1,Class_3.n.trees=900,Class_3.interaction.depth=17,Class_3.shrinkage=0.1,Class_4.n.trees=900,Class_4.interaction.depth=17,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=900,Class_6.interaction.depth=17,Class_6.shrinkage=0.1,Class_7.n.trees=900,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=900,Class_8.interaction.depth=17,Class_8.shrinkage=0.1,Class_9.n.trees=900,Class_9.interaction.depth=17,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1000,Class_1.interaction.depth=19,Class_1.shrinkage=0.1,Class_2.n.trees=1000,Class_2.interaction.depth=19,Class_2.shrinkage=0.1,Class_3.n.trees=1000,Class_3.interaction.depth=19,Class_3.shrinkage=0.1,Class_4.n.trees=1000,Class_4.interaction.depth=19,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=1000,Class_6.interaction.depth=19,Class_6.shrinkage=0.1,Class_7.n.trees=1000,Class_7.interaction.depth=19,Class_7.shrinkage=0.1,Class_8.n.trees=1000,Class_8.interaction.depth=19,Class_8.shrinkage=0.1,Class_9.n.trees=1000,Class_9.interaction.depth=19,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1100,Class_1.interaction.depth=21,Class_1.shrinkage=0.1,Class_2.n.trees=1100,Class_2.interaction.depth=21,Class_2.shrinkage=0.1,Class_3.n.trees=1100,Class_3.interaction.depth=21,Class_3.shrinkage=0.1,Class_4.n.trees=1100,Class_4.interaction.depth=21,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=1100,Class_6.interaction.depth=21,Class_6.shrinkage=0.1,Class_7.n.trees=1100,Class_7.interaction.depth=21,Class_7.shrinkage=0.1,Class_8.n.trees=1100,Class_8.interaction.depth=21,Class_8.shrinkage=0.1,Class_9.n.trees=1100,Class_9.interaction.depth=21,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1200,Class_1.interaction.depth=23,Class_1.shrinkage=0.1,Class_2.n.trees=1200,Class_2.interaction.depth=23,Class_2.shrinkage=0.1,Class_3.n.trees=1200,Class_3.interaction.depth=23,Class_3.shrinkage=0.1,Class_4.n.trees=1200,Class_4.interaction.depth=23,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=1200,Class_6.interaction.depth=23,Class_6.shrinkage=0.1,Class_7.n.trees=1200,Class_7.interaction.depth=23,Class_7.shrinkage=0.1,Class_8.n.trees=1200,Class_8.interaction.depth=23,Class_8.shrinkage=0.1,Class_9.n.trees=1200,Class_9.interaction.depth=23,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1300,Class_1.interaction.depth=25,Class_1.shrinkage=0.1,Class_2.n.trees=1300,Class_2.interaction.depth=25,Class_2.shrinkage=0.1,Class_3.n.trees=1300,Class_3.interaction.depth=25,Class_3.shrinkage=0.1,Class_4.n.trees=1300,Class_4.interaction.depth=25,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=1300,Class_6.interaction.depth=25,Class_6.shrinkage=0.1,Class_7.n.trees=1300,Class_7.interaction.depth=25,Class_7.shrinkage=0.1,Class_8.n.trees=1300,Class_8.interaction.depth=25,Class_8.shrinkage=0.1,Class_9.n.trees=1300,Class_9.interaction.depth=25,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1400,Class_1.interaction.depth=27,Class_1.shrinkage=0.1,Class_2.n.trees=1400,Class_2.interaction.depth=27,Class_2.shrinkage=0.1,Class_3.n.trees=1400,Class_3.interaction.depth=27,Class_3.shrinkage=0.1,Class_4.n.trees=1400,Class_4.interaction.depth=27,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=1400,Class_6.interaction.depth=27,Class_6.shrinkage=0.1,Class_7.n.trees=1400,Class_7.interaction.depth=27,Class_7.shrinkage=0.1,Class_8.n.trees=1400,Class_8.interaction.depth=27,Class_8.shrinkage=0.1,Class_9.n.trees=1400,Class_9.interaction.depth=27,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=150,Class_1.interaction.depth=3,Class_1.shrinkage=0.1,Class_2.n.trees=150,Class_2.interaction.depth=3,Class_2.shrinkage=0.1,Class_3.n.trees=150,Class_3.interaction.depth=3,Class_3.shrinkage=0.1,Class_4.n.trees=150,Class_4.interaction.depth=2,Class_4.shrinkage=0.1,Class_5.n.trees=150,Class_5.interaction.depth=2,Class_5.shrinkage=0.1,Class_6.n.trees=150,Class_6.interaction.depth=3,Class_6.shrinkage=0.1,Class_7.n.trees=150,Class_7.interaction.depth=3,Class_7.shrinkage=0.1,Class_8.n.trees=150,Class_8.interaction.depth=3,Class_8.shrinkage=0.1,Class_9.n.trees=150,Class_9.interaction.depth=3,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=100,Class_1.interaction.depth=3,Class_1.shrinkage=0.1,Class_2.n.trees=150,Class_2.interaction.depth=3,Class_2.shrinkage=0.1,Class_3.n.trees=150,Class_3.interaction.depth=3,Class_3.shrinkage=0.1,Class_4.n.trees=150,Class_4.interaction.depth=3,Class_4.shrinkage=0.1,Class_5.n.trees=150,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=150,Class_6.interaction.depth=3,Class_6.shrinkage=0.1,Class_7.n.trees=150,Class_7.interaction.depth=3,Class_7.shrinkage=0.1,Class_8.n.trees=150,Class_8.interaction.depth=3,Class_8.shrinkage=0.1,Class_9.n.trees=150,Class_9.interaction.depth=3,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>gbm one vs all with new features with non-zero count, transformed log predictors</t>
+  </si>
+  <si>
     <t>./src/gbm3_model</t>
   </si>
   <si>
@@ -277,6 +310,63 @@
   </si>
   <si>
     <t>predictors are all factor variables, binning in groups of 5</t>
+  </si>
+  <si>
+    <t>./src/gbm4_model</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=100,Class_1.interaction.depth=5,Class_1.shrinkage=0.1,Class_2.n.trees=300,Class_2.interaction.depth=7,Class_2.shrinkage=0.1,Class_3.n.trees=200,Class_3.interaction.depth=7,Class_3.shrinkage=0.1,Class_4.n.trees=100,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=300,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=500,Class_6.interaction.depth=9,Class_6.shrinkage=0.1,Class_7.n.trees=200,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=200,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=200,Class_9.interaction.depth=9,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>gbm one vs all with synthetic features</t>
+  </si>
+  <si>
+    <t>feat_1,feat_2,feat_3,feat_4,feat_5,feat_6,feat_7,feat_8,feat_9,feat_10,feat_11,feat_12,feat_13,feat_14,feat_15,feat_16,feat_17,feat_18,feat_19,feat_20,feat_21,feat_22,feat_23,feat_24,feat_25,feat_26,feat_27,feat_28,feat_29,feat_30,feat_31,feat_32,feat_33,feat_34,feat_35,feat_36,feat_37,feat_38,feat_39,feat_40,feat_41,feat_42,feat_43,feat_44,feat_45,feat_46,feat_47,feat_48,feat_49,feat_50,feat_51,feat_52,feat_53,feat_54,feat_55,feat_56,feat_57,feat_58,feat_59,feat_60,feat_61,feat_62,feat_63,feat_64,feat_65,feat_66,feat_67,feat_68,feat_69,feat_70,feat_71,feat_72,feat_73,feat_74,feat_75,feat_76,feat_77,feat_78,feat_79,feat_80,feat_81,feat_82,feat_83,feat_84,feat_85,feat_86,feat_87,feat_88,feat_89,feat_90,feat_91,feat_92,feat_93,non.zero.count,diff_1.2,diff_1.3,diff_1.4,diff_1.5,diff_1.6,diff_1.7,diff_1.8,diff_1.9,diff_1.10,diff_1.11,diff_1.12,diff_1.13,diff_1.14,diff_1.15,diff_1.16,diff_1.17,diff_1.18,diff_1.19,diff_1.20,diff_1.21,diff_1.22,diff_1.23,diff_1.24,diff_1.25,diff_1.26,diff_1.27,diff_1.28,diff_1.29,diff_1.30,diff_1.31,diff_1.32,diff_1.33,diff_1.34,diff_1.35,diff_1.36,diff_1.37,diff_1.38,diff_1.39,diff_1.40,diff_1.41,diff_1.42,diff_1.43,diff_1.44,diff_1.45,diff_1.46,diff_1.47,diff_1.48,diff_1.49,diff_1.50,diff_1.51,diff_1.52,diff_1.53,diff_1.54,diff_1.55,diff_1.56,diff_1.57,diff_1.58,diff_1.59,diff_1.60,diff_1.61,diff_1.62,diff_1.63,diff_1.64,diff_1.65,diff_1.66,diff_1.67,diff_1.68,diff_1.69,diff_1.70,diff_1.71,diff_1.72,diff_1.73,diff_1.74,diff_1.75,diff_1.76,diff_1.77,diff_1.78,diff_1.79,diff_1.80,diff_1.81,diff_1.82,diff_1.83,diff_1.84,diff_1.85,diff_1.86,diff_1.87,diff_1.88,diff_1.89,diff_1.90,diff_1.91,diff_1.92,diff_1.93,diff_2.3,diff_2.4,diff_2.5,diff_2.6,diff_2.7,diff_2.8,diff_2.9,diff_2.10,diff_2.11,diff_2.12,diff_2.13,diff_2.14,diff_2.15,diff_2.16,diff_2.17,diff_2.18,diff_2.19,diff_2.20,diff_2.21,diff_2.22,diff_2.23,diff_2.24,diff_2.25,diff_2.26,diff_2.27,diff_2.28,diff_2.29,diff_2.30,diff_2.31,diff_2.32,diff_2.33,diff_2.34,diff_2.35,diff_2.36,diff_2.37,diff_2.38,diff_2.39,diff_2.40,diff_2.41,diff_2.42,diff_2.43,diff_2.44,diff_2.45,diff_2.46,diff_2.47,diff_2.48,diff_2.49,diff_2.50,diff_2.51,diff_2.52,diff_2.53,diff_2.54,diff_2.55,diff_2.56,diff_2.57,diff_2.58,diff_2.59,diff_2.60,diff_2.61,diff_2.62,diff_2.63,diff_2.64,diff_2.65,diff_2.66,diff_2.67,diff_2.68,diff_2.69,diff_2.70,diff_2.71,diff_2.72,diff_2.73,diff_2.74,diff_2.75,diff_2.76,diff_2.77,diff_2.78,diff_2.79,diff_2.80,diff_2.81,diff_2.82,diff_2.83,diff_2.84,diff_2.85,diff_2.86,diff_2.87,diff_2.88,diff_2.89,diff_2.90,diff_2.91,diff_2.92,diff_2.93,diff_3.4,diff_3.5,diff_3.6,diff_3.7,diff_3.8,diff_3.9,diff_3.10,diff_3.11,diff_3.12,diff_3.13,diff_3.14,diff_3.15,diff_3.16,diff_3.17,diff_3.18,diff_3.19,diff_3.20,diff_3.21,diff_3.22,diff_3.23,diff_3.24,diff_3.25,diff_3.26,diff_3.27,diff_3.28,diff_3.29,diff_3.30,diff_3.31,diff_3.32,diff_3.33,diff_3.34,diff_3.35,diff_3.36,diff_3.37,diff_3.38,diff_3.39,diff_3.40,diff_3.41,diff_3.42,diff_3.43,diff_3.44,diff_3.45,diff_3.46,diff_3.47,diff_3.48,diff_3.49,diff_3.50,diff_3.51,diff_3.52,diff_3.53,diff_3.54,diff_3.55,diff_3.56,diff_3.57,diff_3.58,diff_3.59,diff_3.60,diff_3.61,diff_3.62,diff_3.63,diff_3.64,diff_3.65,diff_3.66,diff_3.67,diff_3.68,diff_3.69,diff_3.70,diff_3.71,diff_3.72,diff_3.73,diff_3.74,diff_3.75,diff_3.76,diff_3.77,diff_3.78,diff_3.79,diff_3.80,diff_3.81,diff_3.82,diff_3.83,diff_3.84,diff_3.85,diff_3.86,diff_3.87,diff_3.88,diff_3.89,diff_3.90,diff_3.91,diff_3.92,diff_3.93,diff_4.5,diff_4.6,diff_4.7,diff_4.8,diff_4.9,diff_4.10,diff_4.11,diff_4.12,diff_4.13,diff_4.14,diff_4.15,diff_4.16,diff_4.17,diff_4.18,diff_4.19,diff_4.20,diff_4.21,diff_4.22,diff_4.23,diff_4.24,diff_4.25,diff_4.26,diff_4.27,diff_4.28,diff_4.29,diff_4.30,diff_4.31,diff_4.32,diff_4.33,diff_4.34,diff_4.35,diff_4.36,diff_4.37,diff_4.38,diff_4.39,diff_4.40,diff_4.41,diff_4.42,diff_4.43,diff_4.44,diff_4.45,diff_4.46,diff_4.47,diff_4.48,diff_4.49,diff_4.50,diff_4.51,diff_4.52,diff_4.53,diff_4.54,diff_4.55,diff_4.56,diff_4.57,diff_4.58,diff_4.59,diff_4.60,diff_4.61,diff_4.62,diff_4.63,diff_4.64,diff_4.65,diff_4.66,diff_4.67,diff_4.68,diff_4.69,diff_4.70,diff_4.71,diff_4.72,diff_4.73,diff_4.74,diff_4.75,diff_4.76,diff_4.77,diff_4.78,diff_4.79,diff_4.80,diff_4.81,diff_4.82,diff_4.83,diff_4.84,diff_4.85,diff_4.86,diff_4.87,diff_4.88,diff_4.89,diff_4.90,diff_4.91,diff_4.92,diff_4.93,diff_5.6,diff_5.7,diff_5.8,diff_5.9,diff_5.10,diff_5.11,diff_5.12,diff_5.13,diff_5.14,diff_5.15,diff_5.16,diff_5.17,diff_5.18,diff_5.19,diff_5.20,diff_5.21,diff_5.22,diff_5.23,diff_5.24,diff_5.25,diff_5.26,diff_5.27,diff_5.28,diff_5.29,diff_5.30,diff_5.31,diff_5.32,diff_5.33,diff_5.34,diff_5.35,diff_5.36,diff_5.37,diff_5.38,diff_5.39,diff_5.40,diff_5.41,diff_5.42,diff_5.43,diff_5.44,diff_5.45,diff_5.46,diff_5.47,diff_5.48,diff_5.49,diff_5.50,diff_5.51,diff_5.52,diff_5.53,diff_5.54,diff_5.55,diff_5.56,diff_5.57,diff_5.58,diff_5.59,diff_5.60,diff_5.61,diff_5.62,diff_5.63,diff_5.64,diff_5.65,diff_5.66,diff_5.67,diff_5.68,diff_5.69,diff_5.70,diff_5.71,diff_5.72,diff_5.73,diff_5.74,diff_5.75,diff_5.76,diff_5.77,diff_5.78,diff_5.79,diff_5.80,diff_5.81,diff_5.82,diff_5.83,diff_5.84,diff_5.85,diff_5.86,diff_5.87,diff_5.88,diff_5.89,diff_5.90,diff_5.91,diff_5.92,diff_5.93,diff_6.7,diff_6.8,diff_6.9,diff_6.10,diff_6.11,diff_6.12,diff_6.13,diff_6.14,diff_6.15,diff_6.16,diff_6.17,diff_6.18,diff_6.19,diff_6.20,diff_6.21,diff_6.22,diff_6.23,diff_6.24,diff_6.25,diff_6.26,diff_6.27,diff_6.28,diff_6.29,diff_6.30,diff_6.31,diff_6.32,diff_6.33,diff_6.34,diff_6.35,diff_6.36,diff_6.37,diff_6.38,diff_6.39,diff_6.40,diff_6.41,diff_6.42,diff_6.43,diff_6.44,diff_6.45,diff_6.46,diff_6.47,diff_6.48,diff_6.49,diff_6.50,diff_6.51,diff_6.52,diff_6.53,diff_6.54,diff_6.55,diff_6.56,diff_6.57,diff_6.58,diff_6.59,diff_6.60,diff_6.61,diff_6.62,diff_6.63,diff_6.64,diff_6.65,diff_6.66,diff_6.67,diff_6.68,diff_6.69,diff_6.70,diff_6.71,diff_6.72,diff_6.73,diff_6.74,diff_6.75,diff_6.76,diff_6.77,diff_6.78,diff_6.79,diff_6.80,diff_6.81,diff_6.82,diff_6.83,diff_6.84,diff_6.85,diff_6.86,diff_6.87,diff_6.88,diff_6.89,diff_6.90,diff_6.91,diff_6.92,diff_6.93,diff_7.8,diff_7.9,diff_7.10,diff_7.11,diff_7.12,diff_7.13,diff_7.14,diff_7.15,diff_7.16,diff_7.17,diff_7.18,diff_7.19,diff_7.20,diff_7.21,diff_7.22,diff_7.23,diff_7.24,diff_7.25,diff_7.26,diff_7.27,diff_7.28,diff_7.29,diff_7.30,diff_7.31,diff_7.32,diff_7.33,diff_7.34,diff_7.35,diff_7.36,diff_7.37,diff_7.38,diff_7.39,diff_7.40,diff_7.41,diff_7.42,diff_7.43,diff_7.44,diff_7.45,diff_7.46,diff_7.47,diff_7.48,diff_7.49,diff_7.50,diff_7.51,diff_7.52,diff_7.53,diff_7.54,diff_7.55,diff_7.56,diff_7.57,diff_7.58,diff_7.59,diff_7.60,diff_7.61,diff_7.62,diff_7.63,diff_7.64,diff_7.65,diff_7.66,diff_7.67,diff_7.68,diff_7.69,diff_7.70,diff_7.71,diff_7.72,diff_7.73,diff_7.74,diff_7.75,diff_7.76,diff_7.77,diff_7.78,diff_7.79,diff_7.80,diff_7.81,diff_7.82,diff_7.83,diff_7.84,diff_7.85,diff_7.86,diff_7.87,diff_7.88,diff_7.89,diff_7.90,diff_7.91,diff_7.92,diff_7.93,diff_8.9,diff_8.10,diff_8.11,diff_8.12,diff_8.13,diff_8.14,diff_8.15,diff_8.16,diff_8.17,diff_8.18,diff_8.19,diff_8.20,diff_8.21,diff_8.22,diff_8.23,diff_8.24,diff_8.25,diff_8.26,diff_8.27,diff_8.28,diff_8.29,diff_8.30,diff_8.31,diff_8.32,diff_8.33,diff_8.34,diff_8.35,diff_8.36,diff_8.37,diff_8.38,diff_8.39,diff_8.40,diff_8.41,diff_8.42,diff_8.43,diff_8.44,diff_8.45,diff_8.46,diff_8.47,diff_8.48,diff_8.49,diff_8.50,diff_8.51,diff_8.52,diff_8.53,diff_8.54,diff_8.55,diff_8.56,diff_8.57,diff_8.58,diff_8.59,diff_8.60,diff_8.61,diff_8.62,diff_8.63,diff_8.64,diff_8.65,diff_8.66,diff_8.67,diff_8.68,diff_8.69,diff_8.70,diff_8.71,diff_8.72,diff_8.73,diff_8.74,diff_8.75,diff_8.76,diff_8.77,diff_8.78,diff_8.79,diff_8.80,diff_8.81,diff_8.82,diff_8.83,diff_8.84,diff_8.85,diff_8.86,diff_8.87,diff_8.88,diff_8.89,diff_8.90,diff_8.91,diff_8.92,diff_8.93,diff_9.10,diff_9.11,diff_9.12,diff_9.13,diff_9.14,diff_9.15,diff_9.16,diff_9.17,diff_9.18,diff_9.19,diff_9.20,diff_9.21,diff_9.22,diff_9.23,diff_9.24,diff_9.25,diff_9.26,diff_9.27,diff_9.28,diff_9.29,diff_9.30,diff_9.31,diff_9.32,diff_9.33,diff_9.34,diff_9.35,diff_9.36,diff_9.37,diff_9.38,diff_9.39,diff_9.40,diff_9.41,diff_9.42,diff_9.43,diff_9.44,diff_9.45,diff_9.46,diff_9.47,diff_9.48,diff_9.49,diff_9.50,diff_9.51,diff_9.52,diff_9.53,diff_9.54,diff_9.55,diff_9.56,diff_9.57,diff_9.58,diff_9.59,diff_9.60,diff_9.61,diff_9.62,diff_9.63,diff_9.64,diff_9.65,diff_9.66,diff_9.67,diff_9.68,diff_9.69,diff_9.70,diff_9.71,diff_9.72,diff_9.73,diff_9.74,diff_9.75,diff_9.76,diff_9.77,diff_9.78,diff_9.79,diff_9.80,diff_9.81,diff_9.82,diff_9.83,diff_9.84,diff_9.85,diff_9.86,diff_9.87,diff_9.88,diff_9.89,diff_9.90,diff_9.91,diff_9.92,diff_9.93,diff_10.11,diff_10.12,diff_10.13,diff_10.14,diff_10.15,diff_10.16,diff_10.17,diff_10.18,diff_10.19,diff_10.20,diff_10.21,diff_10.22,diff_10.23,diff_10.24,diff_10.25,diff_10.26,diff_10.27,diff_10.28,diff_10.29,diff_10.30,diff_10.31,diff_10.32,diff_10.33,diff_10.34,diff_10.35,diff_10.36,diff_10.37,diff_10.38,diff_10.39,diff_10.40,diff_10.41,diff_10.42,diff_10.43,diff_10.44,diff_10.45,diff_10.46,diff_10.47,diff_10.48,diff_10.49,diff_10.50,diff_10.51,diff_10.52,diff_10.53,diff_10.54,diff_10.55,diff_10.56,diff_10.57,diff_10.58,diff_10.59,diff_10.60,diff_10.61,diff_10.62,diff_10.63,diff_10.64,diff_10.65,diff_10.66,diff_10.67,diff_10.68,diff_10.69,diff_10.70,diff_10.71,diff_10.72,diff_10.73,diff_10.74,diff_10.75,diff_10.76,diff_10.77,diff_10.78,diff_10.79,diff_10.80,diff_10.81,diff_10.82,diff_10.83,diff_10.84,diff_10.85,diff_10.86,diff_10.87,diff_10.88,diff_10.89,diff_10.90,diff_10.91,diff_10.92,diff_10.93,diff_11.12,diff_11.13,diff_11.14,diff_11.15,diff_11.16,diff_11.17,diff_11.18,diff_11.19,diff_11.20,diff_11.21,diff_11.22,diff_11.23,diff_11.24,diff_11.25,diff_11.26,diff_11.27,diff_11.28,diff_11.29,diff_11.30,diff_11.31,diff_11.32,diff_11.33,diff_11.34,diff_11.35,diff_11.36,diff_11.37,diff_11.38,diff_11.39,diff_11.40,diff_11.41,diff_11.42,diff_11.43,diff_11.44,diff_11.45,diff_11.46,diff_11.47,diff_11.48,diff_11.49,diff_11.50,diff_11.51,diff_11.52,diff_11.53,diff_11.54,diff_11.55,diff_11.56,diff_11.57,diff_11.58,diff_11.59,diff_11.60,diff_11.61,diff_11.62,diff_11.63,diff_11.64,diff_11.65,diff_11.66,diff_11.67,diff_11.68,diff_11.69,diff_11.70,diff_11.71,diff_11.72,diff_11.73,diff_11.74,diff_11.75,diff_11.76,diff_11.77,diff_11.78,diff_11.79,diff_11.80,diff_11.81,diff_11.82,diff_11.83,diff_11.84,diff_11.85,diff_11.86,diff_11.87,diff_11.88,diff_11.89,diff_11.90,diff_11.91,diff_11.92,diff_11.93,diff_12.13,diff_12.14,diff_12.15,diff_12.16,diff_12.17,diff_12.18,diff_12.19,diff_12.20,diff_12.21,diff_12.22,diff_12.23,diff_12.24,diff_12.25,diff_12.26,diff_12.27,diff_12.28,diff_12.29,diff_12.30,diff_12.31,diff_12.32,diff_12.33,diff_12.34,diff_12.35,diff_12.36,diff_12.37,diff_12.38,diff_12.39,diff_12.40,diff_12.41,diff_12.42,diff_12.43,diff_12.44,diff_12.45,diff_12.46,diff_12.47,diff_12.48,diff_12.49,diff_12.50,diff_12.51,diff_12.52,diff_12.53,diff_12.54,diff_12.55,diff_12.56,diff_12.57,diff_12.58,diff_12.59,diff_12.60,diff_12.61,diff_12.62,diff_12.63,diff_12.64,diff_12.65,diff_12.66,diff_12.67,diff_12.68,diff_12.69,diff_12.70,diff_12.71,diff_12.72,diff_12.73,diff_12.74,diff_12.75,diff_12.76,diff_12.77,diff_12.78,diff_12.79,diff_12.80,diff_12.81,diff_12.82,diff_12.83,diff_12.84,diff_12.85,diff_12.86,diff_12.87,diff_12.88,diff_12.89,diff_12.90,diff_12.91,diff_12.92,diff_12.93,diff_13.14,diff_13.15,diff_13.16,diff_13.17,diff_13.18,diff_13.19,diff_13.20,diff_13.21,diff_13.22,diff_13.23,diff_13.24,diff_13.25,diff_13.26,diff_13.27,diff_13.28,diff_13.29,diff_13.30,diff_13.31,diff_13.32,diff_13.33,diff_13.34,diff_13.35,diff_13.36,diff_13.37,diff_13.38,diff_13.39,diff_13.40,diff_13.41,diff_13.42,diff_13.43,diff_13.44,diff_13.45,diff_13.46,diff_13.47,diff_13.48,diff_13.49,diff_13.50,diff_13.51,diff_13.52,diff_13.53,diff_13.54,diff_13.55,diff_13.56,diff_13.57,diff_13.58,diff_13.59,diff_13.60,diff_13.61,diff_13.62,diff_13.63,diff_13.64,diff_13.65,diff_13.66,diff_13.67,diff_13.68,diff_13.69,diff_13.70,diff_13.71,diff_13.72,diff_13.73,diff_13.74,diff_13.75,diff_13.76,diff_13.77,diff_13.78,diff_13.79,diff_13.80,diff_13.81,diff_13.82,diff_13.83,diff_13.84,diff_13.85,diff_13.86,diff_13.87,diff_13.88,diff_13.89,diff_13.90,diff_13.91,diff_13.92,diff_13.93,diff_14.15,diff_14.16,diff_14.17,diff_14.18,diff_14.19,diff_14.20,diff_14.21,diff_14.22,diff_14.23,diff_14.24,diff_14.25,diff_14.26,diff_14.27,diff_14.28,diff_14.29,diff_14.30,diff_14.31,diff_14.32,diff_14.33,diff_14.34,diff_14.35,diff_14.36,diff_14.37,diff_14.38,diff_14.39,diff_14.40,diff_14.41,diff_14.42,diff_14.43,diff_14.44,diff_14.45,diff_14.46,diff_14.47,diff_14.48,diff_14.49,diff_14.50,diff_14.51,diff_14.52,diff_14.53,diff_14.54,diff_14.55,diff_14.56,diff_14.57,diff_14.58,diff_14.59,diff_14.60,diff_14.61,diff_14.62,diff_14.63,diff_14.64,diff_14.65,diff_14.66,diff_14.67,diff_14.68,diff_14.69,diff_14.70,diff_14.71,diff_14.72,diff_14.73,diff_14.74,diff_14.75,diff_14.76,diff_14.77,diff_14.78,diff_14.79,diff_14.80,diff_14.81,diff_14.82,diff_14.83,diff_14.84,diff_14.85,diff_14.86,diff_14.87,diff_14.88,diff_14.89,diff_14.90,diff_14.91,diff_14.92,diff_14.93,diff_15.16,diff_15.17,diff_15.18,diff_15.19,diff_15.20,diff_15.21,diff_15.22,diff_15.23,diff_15.24,diff_15.25,diff_15.26,diff_15.27,diff_15.28,diff_15.29,diff_15.30,diff_15.31,diff_15.32,diff_15.33,diff_15.34,diff_15.35,diff_15.36,diff_15.37,diff_15.38,diff_15.39,diff_15.40,diff_15.41,diff_15.42,diff_15.43,diff_15.44,diff_15.45,diff_15.46,diff_15.47,diff_15.48,diff_15.49,diff_15.50,diff_15.51,diff_15.52,diff_15.53,diff_15.54,diff_15.55,diff_15.56,diff_15.57,diff_15.58,diff_15.59,diff_15.60,diff_15.61,diff_15.62,diff_15.63,diff_15.64,diff_15.65,diff_15.66,diff_15.67,diff_15.68,diff_15.69,diff_15.70,diff_15.71,diff_15.72,diff_15.73,diff_15.74,diff_15.75,diff_15.76,diff_15.77,diff_15.78,diff_15.79,diff_15.80,diff_15.81,diff_15.82,diff_15.83,diff_15.84,diff_15.85,diff_15.86,diff_15.87,diff_15.88,diff_15.89,diff_15.90,diff_15.91,diff_15.92,diff_15.93,diff_16.17,diff_16.18,diff_16.19,diff_16.20,diff_16.21,diff_16.22,diff_16.23,diff_16.24,diff_16.25,diff_16.26,diff_16.27,diff_16.28,diff_16.29,diff_16.30,diff_16.31,diff_16.32,diff_16.33,diff_16.34,diff_16.35,diff_16.36,diff_16.37,diff_16.38,diff_16.39,diff_16.40,diff_16.41,diff_16.42,diff_16.43,diff_16.44,diff_16.45,diff_16.46,diff_16.47,diff_16.48,diff_16.49,diff_16.50,diff_16.51,diff_16.52,diff_16.53,diff_16.54,diff_16.55,diff_16.56,diff_16.57,diff_16.58,diff_16.59,diff_16.60,diff_16.61,diff_16.62,diff_16.63,diff_16.64,diff_16.65,diff_16.66,diff_16.67,diff_16.68,diff_16.69,diff_16.70,diff_16.71,diff_16.72,diff_16.73,diff_16.74,diff_16.75,diff_16.76,diff_16.77,diff_16.78,diff_16.79,diff_16.80,diff_16.81,diff_16.82,diff_16.83,diff_16.84,diff_16.85,diff_16.86,diff_16.87,diff_16.88,diff_16.89,diff_16.90,diff_16.91,diff_16.92,diff_16.93,diff_17.18,diff_17.19,diff_17.20,diff_17.21,diff_17.22,diff_17.23,diff_17.24,diff_17.25,diff_17.26,diff_17.27,diff_17.28,diff_17.29,diff_17.30,diff_17.31,diff_17.32,diff_17.33,diff_17.34,diff_17.35,diff_17.36,diff_17.37,diff_17.38,diff_17.39,diff_17.40,diff_17.41,diff_17.42,diff_17.43,diff_17.44,diff_17.45,diff_17.46,diff_17.47,diff_17.48,diff_17.49,diff_17.50,diff_17.51,diff_17.52,diff_17.53,diff_17.54,diff_17.55,diff_17.56,diff_17.57,diff_17.58,diff_17.59,diff_17.60,diff_17.61,diff_17.62,diff_17.63,diff_17.64,diff_17.65,diff_17.66,diff_17.67,diff_17.68,diff_17.69,diff_17.70,diff_17.71,diff_17.72,diff_17.73,diff_17.74,diff_17.75,diff_17.76,diff_17.77,diff_17.78,diff_17.79,diff_17.80,diff_17.81,diff_17.82,diff_17.83,diff_17.84,diff_17.85,diff_17.86,diff_17.87,diff_17.88,diff_17.89,diff_17.90,diff_17.91,diff_17.92,diff_17.93,diff_18.19,diff_18.20,diff_18.21,diff_18.22,diff_18.23,diff_18.24,diff_18.25,diff_18.26,diff_18.27,diff_18.28,diff_18.29,diff_18.30,diff_18.31,diff_18.32,diff_18.33,diff_18.34,diff_18.35,diff_18.36,diff_18.37,diff_18.38,diff_18.39,diff_18.40,diff_18.41,diff_18.42,diff_18.43,diff_18.44,diff_18.45,diff_18.46,diff_18.47,diff_18.48,diff_18.49,diff_18.50,diff_18.51,diff_18.52,diff_18.53,diff_18.54,diff_18.55,diff_18.56,diff_18.57,diff_18.58,diff_18.59,diff_18.60,diff_18.61,diff_18.62,diff_18.63,diff_18.64,diff_18.65,diff_18.66,diff_18.67,diff_18.68,diff_18.69,diff_18.70,diff_18.71,diff_18.72,diff_18.73,diff_18.74,diff_18.75,diff_18.76,diff_18.77,diff_18.78,diff_18.79,diff_18.80,diff_18.81,diff_18.82,diff_18.83,diff_18.84,diff_18.85,diff_18.86,diff_18.87,diff_18.88,diff_18.89,diff_18.90,diff_18.91,diff_18.92,diff_18.93,diff_19.20,diff_19.21,diff_19.22,diff_19.23,diff_19.24,diff_19.25,diff_19.26,diff_19.27,diff_19.28,diff_19.29,diff_19.30,diff_19.31,diff_19.32,diff_19.33,diff_19.34,diff_19.35,diff_19.36,diff_19.37,diff_19.38,diff_19.39,diff_19.40,diff_19.41,diff_19.42,diff_19.43,diff_19.44,diff_19.45,diff_19.46,diff_19.47,diff_19.48,diff_19.49,diff_19.50,diff_19.51,diff_19.52,diff_19.53,diff_19.54,diff_19.55,diff_19.56,diff_19.57,diff_19.58,diff_19.59,diff_19.60,diff_19.61,diff_19.62,diff_19.63,diff_19.64,diff_19.65,diff_19.66,diff_19.67,diff_19.68,diff_19.69,diff_19.70,diff_19.71,diff_19.72,diff_19.73,diff_19.74,diff_19.75,diff_19.76,diff_19.77,diff_19.78,diff_19.79,diff_19.80,diff_19.81,diff_19.82,diff_19.83,diff_19.84,diff_19.85,diff_19.86,diff_19.87,diff_19.88,diff_19.89,diff_19.90,diff_19.91,diff_19.92,diff_19.93,diff_20.21,diff_20.22,diff_20.23,diff_20.24,diff_20.25,diff_20.26,diff_20.27,diff_20.28,diff_20.29,diff_20.30,diff_20.31,diff_20.32,diff_20.33,diff_20.34,diff_20.35,diff_20.36,diff_20.37,diff_20.38,diff_20.39,diff_20.40,diff_20.41,diff_20.42,diff_20.43,diff_20.44,diff_20.45,diff_20.46,diff_20.47,diff_20.48,diff_20.49,diff_20.50,diff_20.51,diff_20.52,diff_20.53,diff_20.54,diff_20.55,diff_20.56,diff_20.57,diff_20.58,diff_20.59,diff_20.60,diff_20.61,diff_20.62,diff_20.63,diff_20.64,diff_20.65,diff_20.66,diff_20.67,diff_20.68,diff_20.69,diff_20.70,diff_20.71,diff_20.72,diff_20.73,diff_20.74,diff_20.75,diff_20.76,diff_20.77,diff_20.78,diff_20.79,diff_20.80,diff_20.81,diff_20.82,diff_20.83,diff_20.84,diff_20.85,diff_20.86,diff_20.87,diff_20.88,diff_20.89,diff_20.90,diff_20.91,diff_20.92,diff_20.93,diff_21.22,diff_21.23,diff_21.24,diff_21.25,diff_21.26,diff_21.27,diff_21.28,diff_21.29,diff_21.30,diff_21.31,diff_21.32,diff_21.33,diff_21.34,diff_21.35,diff_21.36,diff_21.37,diff_21.38,diff_21.39,diff_21.40,diff_21.41,diff_21.42,diff_21.43,diff_21.44,diff_21.45,diff_21.46,diff_21.47,diff_21.48,diff_21.49,diff_21.50,diff_21.51,diff_21.52,diff_21.53,diff_21.54,diff_21.55,diff_21.56,diff_21.57,diff_21.58,diff_21.59,diff_21.60,diff_21.61,diff_21.62,diff_21.63,diff_21.64,diff_21.65,diff_21.66,diff_21.67,diff_21.68,diff_21.69,diff_21.70,diff_21.71,diff_21.72,diff_21.73,diff_21.74,diff_21.75,diff_21.76,diff_21.77,diff_21.78,diff_21.79,diff_21.80,diff_21.81,diff_21.82,diff_21.83,diff_21.84,diff_21.85,diff_21.86,diff_21.87,diff_21.88,diff_21.89,diff_21.90,diff_21.91,diff_21.92,diff_21.93,diff_22.23,diff_22.24,diff_22.25,diff_22.26,diff_22.27,diff_22.28,diff_22.29,diff_22.30,diff_22.31,diff_22.32,diff_22.33,diff_22.34,diff_22.35,diff_22.36,diff_22.37,diff_22.38,diff_22.39,diff_22.40,diff_22.41,diff_22.42,diff_22.43,diff_22.44,diff_22.45,diff_22.46,diff_22.47,diff_22.48,diff_22.49,diff_22.50,diff_22.51,diff_22.52,diff_22.53,diff_22.54,diff_22.55,diff_22.56,diff_22.57,diff_22.58,diff_22.59,diff_22.60,diff_22.61,diff_22.62,diff_22.63,diff_22.64,diff_22.65,diff_22.66,diff_22.67,diff_22.68,diff_22.69,diff_22.70,diff_22.71,diff_22.72,diff_22.73,diff_22.74,diff_22.75,diff_22.76,diff_22.77,diff_22.78,diff_22.79,diff_22.80,diff_22.81,diff_22.82,diff_22.83,diff_22.84,diff_22.85,diff_22.86,diff_22.87,diff_22.88,diff_22.89,diff_22.90,diff_22.91,diff_22.92,diff_22.93,diff_23.24,diff_23.25,diff_23.26,diff_23.27,diff_23.28,diff_23.29,diff_23.30,diff_23.31,diff_23.32,diff_23.33,diff_23.34,diff_23.35,diff_23.36,diff_23.37,diff_23.38,diff_23.39,diff_23.40,diff_23.41,diff_23.42,diff_23.43,diff_23.44,diff_23.45,diff_23.46,diff_23.47,diff_23.48,diff_23.49,diff_23.50,diff_23.51,diff_23.52,diff_23.53,diff_23.54,diff_23.55,diff_23.56,diff_23.57,diff_23.58,diff_23.59,diff_23.60,diff_23.61,diff_23.62,diff_23.63,diff_23.64,diff_23.65,diff_23.66,diff_23.67,diff_23.68,diff_23.69,diff_23.70,diff_23.71,diff_23.72,diff_23.73,diff_23.74,diff_23.75,diff_23.76,diff_23.77,diff_23.78,diff_23.79,diff_23.80,diff_23.81,diff_23.82,diff_23.83,diff_23.84,diff_23.85,diff_23.86,diff_23.87,diff_23.88,diff_23.89,diff_23.90,diff_23.91,diff_23.92,diff_23.93,diff_24.25,diff_24.26,diff_24.27,diff_24.28,diff_24.29,diff_24.30,diff_24.31,diff_24.32,diff_24.33,diff_24.34,diff_24.35,diff_24.36,diff_24.37,diff_24.38,diff_24.39,diff_24.40,diff_24.41,diff_24.42,diff_24.43,diff_24.44,diff_24.45,diff_24.46,diff_24.47,diff_24.48,diff_24.49,diff_24.50,diff_24.51,diff_24.52,diff_24.53,diff_24.54,diff_24.55,diff_24.56,diff_24.57,diff_24.58,diff_24.59,diff_24.60,diff_24.61,diff_24.62,diff_24.63,diff_24.64,diff_24.65,diff_24.66,diff_24.67,diff_24.68,diff_24.69,diff_24.70,diff_24.71,diff_24.72,diff_24.73,diff_24.74,diff_24.75,diff_24.76,diff_24.77,diff_24.78,diff_24.79,diff_24.80,diff_24.81,diff_24.82,diff_24.83,diff_24.84,diff_24.85,diff_24.86,diff_24.87,diff_24.88,diff_24.89,diff_24.90,diff_24.91,diff_24.92,diff_24.93,diff_25.26,diff_25.27,diff_25.28,diff_25.29,diff_25.30,diff_25.31,diff_25.32,diff_25.33,diff_25.34,diff_25.35,diff_25.36,diff_25.37,diff_25.38,diff_25.39,diff_25.40,diff_25.41,diff_25.42,diff_25.43,diff_25.44,diff_25.45,diff_25.46,diff_25.47,diff_25.48,diff_25.49,diff_25.50,diff_25.51,diff_25.52,diff_25.53,diff_25.54,diff_25.55,diff_25.56,diff_25.57,diff_25.58,diff_25.59,diff_25.60,diff_25.61,diff_25.62,diff_25.63,diff_25.64,diff_25.65,diff_25.66,diff_25.67,diff_25.68,diff_25.69,diff_25.70,diff_25.71,diff_25.72,diff_25.73,diff_25.74,diff_25.75,diff_25.76,diff_25.77,diff_25.78,diff_25.79,diff_25.80,diff_25.81,diff_25.82,diff_25.83,diff_25.84,diff_25.85,diff_25.86,diff_25.87,diff_25.88,diff_25.89,diff_25.90,diff_25.91,diff_25.92,diff_25.93,diff_26.27,diff_26.28,diff_26.29,diff_26.30,diff_26.31,diff_26.32,diff_26.33,diff_26.34,diff_26.35,diff_26.36,diff_26.37,diff_26.38,diff_26.39,diff_26.40,diff_26.41,diff_26.42,diff_26.43,diff_26.44,diff_26.45,diff_26.46,diff_26.47,diff_26.48,diff_26.49,diff_26.50,diff_26.51,diff_26.52,diff_26.53,diff_26.54,diff_26.55,diff_26.56,diff_26.57,diff_26.58,diff_26.59,diff_26.60,diff_26.61,diff_26.62,diff_26.63,diff_26.64,diff_26.65,diff_26.66,diff_26.67,diff_26.68,diff_26.69,diff_26.70,diff_26.71,diff_26.72,diff_26.73,diff_26.74,diff_26.75,diff_26.76,diff_26.77,diff_26.78,diff_26.79,diff_26.80,diff_26.81,diff_26.82,diff_26.83,diff_26.84,diff_26.85,diff_26.86,diff_26.87,diff_26.88,diff_26.89,diff_26.90,diff_26.91,diff_26.92,diff_26.93,diff_27.28,diff_27.29,diff_27.30,diff_27.31,diff_27.32,diff_27.33,diff_27.34,diff_27.35,diff_27.36,diff_27.37,diff_27.38,diff_27.39,diff_27.40,diff_27.41,diff_27.42,diff_27.43,diff_27.44,diff_27.45,diff_27.46,diff_27.47,diff_27.48,diff_27.49,diff_27.50,diff_27.51,diff_27.52,diff_27.53,diff_27.54,diff_27.55,diff_27.56,diff_27.57,diff_27.58,diff_27.59,diff_27.60,diff_27.61,diff_27.62,diff_27.63,diff_27.64,diff_27.65,diff_27.66,diff_27.67,diff_27.68,diff_27.69,diff_27.70,diff_27.71,diff_27.72,diff_27.73,diff_27.74,diff_27.75,diff_27.76,diff_27.77,diff_27.78,diff_27.79,diff_27.80,diff_27.81,diff_27.82,diff_27.83,diff_27.84,diff_27.85,diff_27.86,diff_27.87,diff_27.88,diff_27.89,diff_27.90,diff_27.91,diff_27.92,diff_27.93,diff_28.29,diff_28.30,diff_28.31,diff_28.32,diff_28.33,diff_28.34,diff_28.35,diff_28.36,diff_28.37,diff_28.38,diff_28.39,diff_28.40,diff_28.41,diff_28.42,diff_28.43,diff_28.44,diff_28.45,diff_28.46,diff_28.47,diff_28.48,diff_28.49,diff_28.50,diff_28.51,diff_28.52,diff_28.53,diff_28.54,diff_28.55,diff_28.56,diff_28.57,diff_28.58,diff_28.59,diff_28.60,diff_28.61,diff_28.62,diff_28.63,diff_28.64,diff_28.65,diff_28.66,diff_28.67,diff_28.68,diff_28.69,diff_28.70,diff_28.71,diff_28.72,diff_28.73,diff_28.74,diff_28.75,diff_28.76,diff_28.77,diff_28.78,diff_28.79,diff_28.80,diff_28.81,diff_28.82,diff_28.83,diff_28.84,diff_28.85,diff_28.86,diff_28.87,diff_28.88,diff_28.89,diff_28.90,diff_28.91,diff_28.92,diff_28.93,diff_29.30,diff_29.31,diff_29.32,diff_29.33,diff_29.34,diff_29.35,diff_29.36,diff_29.37,diff_29.38,diff_29.39,diff_29.40,diff_29.41,diff_29.42,diff_29.43,diff_29.44,diff_29.45,diff_29.46,diff_29.47,diff_29.48,diff_29.49,diff_29.50,diff_29.51,diff_29.52,diff_29.53,diff_29.54,diff_29.55,diff_29.56,diff_29.57,diff_29.58,diff_29.59,diff_29.60,diff_29.61,diff_29.62,diff_29.63,diff_29.64,diff_29.65,diff_29.66,diff_29.67,diff_29.68,diff_29.69,diff_29.70,diff_29.71,diff_29.72,diff_29.73,diff_29.74,diff_29.75,diff_29.76,diff_29.77,diff_29.78,diff_29.79,diff_29.80,diff_29.81,diff_29.82,diff_29.83,diff_29.84,diff_29.85,diff_29.86,diff_29.87,diff_29.88,diff_29.89,diff_29.90,diff_29.91,diff_29.92,diff_29.93,diff_30.31,diff_30.32,diff_30.33,diff_30.34,diff_30.35,diff_30.36,diff_30.37,diff_30.38,diff_30.39,diff_30.40,diff_30.41,diff_30.42,diff_30.43,diff_30.44,diff_30.45,diff_30.46,diff_30.47,diff_30.48,diff_30.49,diff_30.50,diff_30.51,diff_30.52,diff_30.53,diff_30.54,diff_30.55,diff_30.56,diff_30.57,diff_30.58,diff_30.59,diff_30.60,diff_30.61,diff_30.62,diff_30.63,diff_30.64,diff_30.65,diff_30.66,diff_30.67,diff_30.68,diff_30.69,diff_30.70,diff_30.71,diff_30.72,diff_30.73,diff_30.74,diff_30.75,diff_30.76,diff_30.77,diff_30.78,diff_30.79,diff_30.80,diff_30.81,diff_30.82,diff_30.83,diff_30.84,diff_30.85,diff_30.86,diff_30.87,diff_30.88,diff_30.89,diff_30.90,diff_30.91,diff_30.92,diff_30.93,diff_31.32,diff_31.33,diff_31.34,diff_31.35,diff_31.36,diff_31.37,diff_31.38,diff_31.39,diff_31.40,diff_31.41,diff_31.42,diff_31.43,diff_31.44,diff_31.45,diff_31.46,diff_31.47,diff_31.48,diff_31.49,diff_31.50,diff_31.51,diff_31.52,diff_31.53,diff_31.54,diff_31.55,diff_31.56,diff_31.57,diff_31.58,diff_31.59,diff_31.60,diff_31.61,diff_31.62,diff_31.63,diff_31.64,diff_31.65,diff_31.66,diff_31.67,diff_31.68,diff_31.69,diff_31.70,diff_31.71,diff_31.72,diff_31.73,diff_31.74,diff_31.75,diff_31.76,diff_31.77,diff_31.78,diff_31.79,diff_31.80,diff_31.81,diff_31.82,diff_31.83,diff_31.84,diff_31.85,diff_31.86,diff_31.87,diff_31.88,diff_31.89,diff_31.90,diff_31.91,diff_31.92,diff_31.93,diff_32.33,diff_32.34,diff_32.35,diff_32.36,diff_32.37,diff_32.38,diff_32.39,diff_32.40,diff_32.41,diff_32.42,diff_32.43,diff_32.44,diff_32.45,diff_32.46,diff_32.47,diff_32.48,diff_32.49,diff_32.50,diff_32.51,diff_32.52,diff_32.53,diff_32.54,diff_32.55,diff_32.56,diff_32.57,diff_32.58,diff_32.59,diff_32.60,diff_32.61,diff_32.62,diff_32.63,diff_32.64,diff_32.65,diff_32.66,diff_32.67,diff_32.68,diff_32.69,diff_32.70,diff_32.71,diff_32.72,diff_32.73,diff_32.74,diff_32.75,diff_32.76,diff_32.77,diff_32.78,diff_32.79,diff_32.80,diff_32.81,diff_32.82,diff_32.83,diff_32.84,diff_32.85,diff_32.86,diff_32.87,diff_32.88,diff_32.89,diff_32.90,diff_32.91,diff_32.92,diff_32.93,diff_33.34,diff_33.35,diff_33.36,diff_33.37,diff_33.38,diff_33.39,diff_33.40,diff_33.41,diff_33.42,diff_33.43,diff_33.44,diff_33.45,diff_33.46,diff_33.47,diff_33.48,diff_33.49,diff_33.50,diff_33.51,diff_33.52,diff_33.53,diff_33.54,diff_33.55,diff_33.56,diff_33.57,diff_33.58,diff_33.59,diff_33.60,diff_33.61,diff_33.62,diff_33.63,diff_33.64,diff_33.65,diff_33.66,diff_33.67,diff_33.68,diff_33.69,diff_33.70,diff_33.71,diff_33.72,diff_33.73,diff_33.74,diff_33.75,diff_33.76,diff_33.77,diff_33.78,diff_33.79,diff_33.80,diff_33.81,diff_33.82,diff_33.83,diff_33.84,diff_33.85,diff_33.86,diff_33.87,diff_33.88,diff_33.89,diff_33.90,diff_33.91,diff_33.92,diff_33.93,diff_34.35,diff_34.36,diff_34.37,diff_34.38,diff_34.39,diff_34.40,diff_34.41,diff_34.42,diff_34.43,diff_34.44,diff_34.45,diff_34.46,diff_34.47,diff_34.48,diff_34.49,diff_34.50,diff_34.51,diff_34.52,diff_34.53,diff_34.54,diff_34.55,diff_34.56,diff_34.57,diff_34.58,diff_34.59,diff_34.60,diff_34.61,diff_34.62,diff_34.63,diff_34.64,diff_34.65,diff_34.66,diff_34.67,diff_34.68,diff_34.69,diff_34.70,diff_34.71,diff_34.72,diff_34.73,diff_34.74,diff_34.75,diff_34.76,diff_34.77,diff_34.78,diff_34.79,diff_34.80,diff_34.81,diff_34.82,diff_34.83,diff_34.84,diff_34.85,diff_34.86,diff_34.87,diff_34.88,diff_34.89,diff_34.90,diff_34.91,diff_34.92,diff_34.93,diff_35.36,diff_35.37,diff_35.38,diff_35.39,diff_35.40,diff_35.41,diff_35.42,diff_35.43,diff_35.44,diff_35.45,diff_35.46,diff_35.47,diff_35.48,diff_35.49,diff_35.50,diff_35.51,diff_35.52,diff_35.53,diff_35.54,diff_35.55,diff_35.56,diff_35.57,diff_35.58,diff_35.59,diff_35.60,diff_35.61,diff_35.62,diff_35.63,diff_35.64,diff_35.65,diff_35.66,diff_35.67,diff_35.68,diff_35.69,diff_35.70,diff_35.71,diff_35.72,diff_35.73,diff_35.74,diff_35.75,diff_35.76,diff_35.77,diff_35.78,diff_35.79,diff_35.80,diff_35.81,diff_35.82,diff_35.83,diff_35.84,diff_35.85,diff_35.86,diff_35.87,diff_35.88,diff_35.89,diff_35.90,diff_35.91,diff_35.92,diff_35.93,diff_36.37,diff_36.38,diff_36.39,diff_36.40,diff_36.41,diff_36.42,diff_36.43,diff_36.44,diff_36.45,diff_36.46,diff_36.47,diff_36.48,diff_36.49,diff_36.50,diff_36.51,diff_36.52,diff_36.53,diff_36.54,diff_36.55,diff_36.56,diff_36.57,diff_36.58,diff_36.59,diff_36.60,diff_36.61,diff_36.62,diff_36.63,diff_36.64,diff_36.65,diff_36.66,diff_36.67,diff_36.68,diff_36.69,diff_36.70,diff_36.71,diff_36.72,diff_36.73,diff_36.74,diff_36.75,diff_36.76,diff_36.77,diff_36.78,diff_36.79,diff_36.80,diff_36.81,diff_36.82,diff_36.83,diff_36.84,diff_36.85,diff_36.86,diff_36.87,diff_36.88,diff_36.89,diff_36.90,diff_36.91,diff_36.92,diff_36.93,diff_37.38,diff_37.39,diff_37.40,diff_37.41,diff_37.42,diff_37.43,diff_37.44,diff_37.45,diff_37.46,diff_37.47,diff_37.48,diff_37.49,diff_37.50,diff_37.51,diff_37.52,diff_37.53,diff_37.54,diff_37.55,diff_37.56,diff_37.57,diff_37.58,diff_37.59,diff_37.60,diff_37.61,diff_37.62,diff_37.63,diff_37.64,diff_37.65,diff_37.66,diff_37.67,diff_37.68,diff_37.69,diff_37.70,diff_37.71,diff_37.72,diff_37.73,diff_37.74,diff_37.75,diff_37.76,diff_37.77,diff_37.78,diff_37.79,diff_37.80,diff_37.81,diff_37.82,diff_37.83,diff_37.84,diff_37.85,diff_37.86,diff_37.87,diff_37.88,diff_37.89,diff_37.90,diff_37.91,diff_37.92,diff_37.93,diff_38.39,diff_38.40,diff_38.41,diff_38.42,diff_38.43,diff_38.44,diff_38.45,diff_38.46,diff_38.47,diff_38.48,diff_38.49,diff_38.50,diff_38.51,diff_38.52,diff_38.53,diff_38.54,diff_38.55,diff_38.56,diff_38.57,diff_38.58,diff_38.59,diff_38.60,diff_38.61,diff_38.62,diff_38.63,diff_38.64,diff_38.65,diff_38.66,diff_38.67,diff_38.68,diff_38.69,diff_38.70,diff_38.71,diff_38.72,diff_38.73,diff_38.74,diff_38.75,diff_38.76,diff_38.77,diff_38.78,diff_38.79,diff_38.80,diff_38.81,diff_38.82,diff_38.83,diff_38.84,diff_38.85,diff_38.86,diff_38.87,diff_38.88,diff_38.89,diff_38.90,diff_38.91,diff_38.92,diff_38.93,diff_39.40,diff_39.41,diff_39.42,diff_39.43,diff_39.44,diff_39.45,diff_39.46,diff_39.47,diff_39.48,diff_39.49,diff_39.50,diff_39.51,diff_39.52,diff_39.53,diff_39.54,diff_39.55,diff_39.56,diff_39.57,diff_39.58,diff_39.59,diff_39.60,diff_39.61,diff_39.62,diff_39.63,diff_39.64,diff_39.65,diff_39.66,diff_39.67,diff_39.68,diff_39.69,diff_39.70,diff_39.71,diff_39.72,diff_39.73,diff_39.74,diff_39.75,diff_39.76,diff_39.77,diff_39.78,diff_39.79,diff_39.80,diff_39.81,diff_39.82,diff_39.83,diff_39.84,diff_39.85,diff_39.86,diff_39.87,diff_39.88,diff_39.89,diff_39.90,diff_39.91,diff_39.92,diff_39.93,diff_40.41,diff_40.42,diff_40.43,diff_40.44,diff_40.45,diff_40.46,diff_40.47,diff_40.48,diff_40.49,diff_40.50,diff_40.51,diff_40.52,diff_40.53,diff_40.54,diff_40.55,diff_40.56,diff_40.57,diff_40.58,diff_40.59,diff_40.60,diff_40.61,diff_40.62,diff_40.63,diff_40.64,diff_40.65,diff_40.66,diff_40.67,diff_40.68,diff_40.69,diff_40.70,diff_40.71,diff_40.72,diff_40.73,diff_40.74,diff_40.75,diff_40.76,diff_40.77,diff_40.78,diff_40.79,diff_40.80,diff_40.81,diff_40.82,diff_40.83,diff_40.84,diff_40.85,diff_40.86,diff_40.87,diff_40.88,diff_40.89,diff_40.90,diff_40.91,diff_40.92,diff_40.93,diff_41.42,diff_41.43,diff_41.44,diff_41.45,diff_41.46,diff_41.47,diff_41.48,diff_41.49,diff_41.50,diff_41.51,diff_41.52,diff_41.53,diff_41.54,diff_41.55,diff_41.56,diff_41.57,diff_41.58,diff_41.59,diff_41.60,diff_41.61,diff_41.62,diff_41.63,diff_41.64,diff_41.65,diff_41.66,diff_41.67,diff_41.68,diff_41.69,diff_41.70,diff_41.71,diff_41.72,diff_41.73,diff_41.74,diff_41.75,diff_41.76,diff_41.77,diff_41.78,diff_41.79,diff_41.80,diff_41.81,diff_41.82,diff_41.83,diff_41.84,diff_41.85,diff_41.86,diff_41.87,diff_41.88,diff_41.89,diff_41.90,diff_41.91,diff_41.92,diff_41.93,diff_42.43,diff_42.44,diff_42.45,diff_42.46,diff_42.47,diff_42.48,diff_42.49,diff_42.50,diff_42.51,diff_42.52,diff_42.53,diff_42.54,diff_42.55,diff_42.56,diff_42.57,diff_42.58,diff_42.59,diff_42.60,diff_42.61,diff_42.62,diff_42.63,diff_42.64,diff_42.65,diff_42.66,diff_42.67,diff_42.68,diff_42.69,diff_42.70,diff_42.71,diff_42.72,diff_42.73,diff_42.74,diff_42.75,</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=500,Class_1.interaction.depth=3,Class_1.shrinkage=0.1,Class_2.n.trees=400,Class_2.interaction.depth=7,Class_2.shrinkage=0.1,Class_3.n.trees=400,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=200,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=100,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=400,Class_6.interaction.depth=7,Class_6.shrinkage=0.1,Class_7.n.trees=300,Class_7.interaction.depth=9,Class_7.shrinkage=0.1,Class_8.n.trees=300,Class_8.interaction.depth=7,Class_8.shrinkage=0.1,Class_9.n.trees=400,Class_9.interaction.depth=9,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>synthetic features gbm one vs all</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=500,Class_1.interaction.depth=9,Class_1.shrinkage=0.1,Class_2.n.trees=500,Class_2.interaction.depth=11,Class_2.shrinkage=0.1,Class_3.n.trees=600,Class_3.interaction.depth=9,Class_3.shrinkage=0.1,Class_4.n.trees=500,Class_4.interaction.depth=11,Class_4.shrinkage=0.1,Class_5.n.trees=100,Class_5.interaction.depth=5,Class_5.shrinkage=0.1,Class_6.n.trees=700,Class_6.interaction.depth=11,Class_6.shrinkage=0.1,Class_7.n.trees=800,Class_7.interaction.depth=11,Class_7.shrinkage=0.1,Class_8.n.trees=700,Class_8.interaction.depth=11,Class_8.shrinkage=0.1,Class_9.n.trees=800,Class_9.interaction.depth=11,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=600,Class_1.interaction.depth=11,Class_1.shrinkage=0.1,Class_2.n.trees=600,Class_2.interaction.depth=13,Class_2.shrinkage=0.1,Class_3.n.trees=500,Class_3.interaction.depth=9,Class_3.shrinkage=0.1,Class_4.n.trees=500,Class_4.interaction.depth=11,Class_4.shrinkage=0.1,Class_5.n.trees=500,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=1000,Class_6.interaction.depth=9,Class_6.shrinkage=0.1,Class_7.n.trees=600,Class_7.interaction.depth=11,Class_7.shrinkage=0.1,Class_8.n.trees=500,Class_8.interaction.depth=13,Class_8.shrinkage=0.1,Class_9.n.trees=800,Class_9.interaction.depth=9,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>synthetic features gbm one vs all - top 150 class specific features</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=800,Class_1.interaction.depth=11,Class_1.shrinkage=0.1,Class_2.n.trees=500,Class_2.interaction.depth=15,Class_2.shrinkage=0.1,Class_3.n.trees=300,Class_3.interaction.depth=15,Class_3.shrinkage=0.1,Class_4.n.trees=300,Class_4.interaction.depth=9,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=900,Class_6.interaction.depth=15,Class_6.shrinkage=0.1,Class_7.n.trees=1000,Class_7.interaction.depth=15,Class_7.shrinkage=0.1,Class_8.n.trees=700,Class_8.interaction.depth=15,Class_8.shrinkage=0.1,Class_9.n.trees=300,Class_9.interaction.depth=9,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1000,Class_1.interaction.depth=11,Class_1.shrinkage=0.1,Class_2.n.trees=1000,Class_2.interaction.depth=15,Class_2.shrinkage=0.1,Class_3.n.trees=800,Class_3.interaction.depth=15,Class_3.shrinkage=0.1,Class_4.n.trees=800,Class_4.interaction.depth=11,Class_4.shrinkage=0.1,Class_5.n.trees=1000,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=1000,Class_6.interaction.depth=15,Class_6.shrinkage=0.1,Class_7.n.trees=1000,Class_7.interaction.depth=15,Class_7.shrinkage=0.1,Class_8.n.trees=600,Class_8.interaction.depth=13,Class_8.shrinkage=0.1,Class_9.n.trees=600,Class_9.interaction.depth=11,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>aws(9) synthetic features gbm one vs all - top 150 class specific features</t>
+  </si>
+  <si>
+    <t>aws(5) synthetic features gbm one vs all - top 150 class specific features</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1200,Class_1.interaction.depth=11,Class_1.shrinkage=0.1,Class_2.n.trees=1200,Class_2.interaction.depth=17,Class_2.shrinkage=0.1,Class_3.n.trees=1200,Class_3.interaction.depth=13,Class_3.shrinkage=0.1,Class_4.n.trees=1200,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=1200,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=1200,Class_6.interaction.depth=17,Class_6.shrinkage=0.1,Class_7.n.trees=1200,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=1200,Class_8.interaction.depth=13,Class_8.shrinkage=0.1,Class_9.n.trees=1200,Class_9.interaction.depth=11,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1500,Class_1.interaction.depth=13,Class_1.shrinkage=0.1,Class_2.n.trees=1500,Class_2.interaction.depth=19,Class_2.shrinkage=0.1,Class_3.n.trees=1500,Class_3.interaction.depth=15,Class_3.shrinkage=0.1,Class_4.n.trees=1500,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=1500,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=1500,Class_6.interaction.depth=19,Class_6.shrinkage=0.1,Class_7.n.trees=1500,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=1500,Class_8.interaction.depth=11,Class_8.shrinkage=0.1,Class_9.n.trees=1500,Class_9.interaction.depth=9,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1700,Class_1.interaction.depth=13,Class_1.shrinkage=0.1,Class_2.n.trees=1700,Class_2.interaction.depth=19,Class_2.shrinkage=0.1,Class_3.n.trees=1700,Class_3.interaction.depth=15,Class_3.shrinkage=0.1,Class_4.n.trees=1700,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=1700,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=1700,Class_6.interaction.depth=19,Class_6.shrinkage=0.1,Class_7.n.trees=1700,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=1700,Class_8.interaction.depth=11,Class_8.shrinkage=0.1,Class_9.n.trees=1700,Class_9.interaction.depth=9,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=1900,Class_1.interaction.depth=15,Class_1.shrinkage=0.1,Class_2.n.trees=1900,Class_2.interaction.depth=21,Class_2.shrinkage=0.1,Class_3.n.trees=1900,Class_3.interaction.depth=17,Class_3.shrinkage=0.1,Class_4.n.trees=1900,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=1900,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=1900,Class_6.interaction.depth=21,Class_6.shrinkage=0.1,Class_7.n.trees=1900,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=1900,Class_8.interaction.depth=13,Class_8.shrinkage=0.1,Class_9.n.trees=1900,Class_9.interaction.depth=11,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=2100,Class_1.interaction.depth=17,Class_1.shrinkage=0.1,Class_2.n.trees=2100,Class_2.interaction.depth=23,Class_2.shrinkage=0.1,Class_3.n.trees=2100,Class_3.interaction.depth=19,Class_3.shrinkage=0.1,Class_4.n.trees=2100,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=2100,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=2100,Class_6.interaction.depth=23,Class_6.shrinkage=0.1,Class_7.n.trees=2100,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=2100,Class_8.interaction.depth=15,Class_8.shrinkage=0.1,Class_9.n.trees=2100,Class_9.interaction.depth=13,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=2000,Class_1.interaction.depth=15,Class_1.shrinkage=0.1,Class_2.n.trees=2000,Class_2.interaction.depth=21,Class_2.shrinkage=0.1,Class_3.n.trees=2000,Class_3.interaction.depth=17,Class_3.shrinkage=0.1,Class_4.n.trees=2000,Class_4.interaction.depth=13,Class_4.shrinkage=0.1,Class_5.n.trees=2000,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=2000,Class_6.interaction.depth=21,Class_6.shrinkage=0.1,Class_7.n.trees=2000,Class_7.interaction.depth=17,Class_7.shrinkage=0.1,Class_8.n.trees=2000,Class_8.interaction.depth=13,Class_8.shrinkage=0.1,Class_9.n.trees=2000,Class_9.interaction.depth=11,Class_9.shrinkage=0.1</t>
   </si>
   <si>
     <t>./src/logitboost_model</t>
@@ -559,6 +649,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -590,14 +683,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yy\ hh:mm"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -605,11 +698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O148" totalsRowShown="0">
-  <autoFilter ref="A1:O148"/>
-  <sortState ref="A2:O148">
-    <sortCondition ref="I1:I148"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O171" totalsRowShown="0">
+  <autoFilter ref="A1:O171"/>
   <tableColumns count="15">
     <tableColumn id="1" name="dir"/>
     <tableColumn id="2" name="date.time" dataDxfId="0"/>
@@ -953,15 +1043,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -1023,43 +1113,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>40666.813668981478</v>
+        <v>40662.262199074074</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>1218.4059999999999</v>
+        <v>80.350999999999999</v>
       </c>
       <c r="E2">
-        <v>13.275</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F2">
-        <v>421.81500000000102</v>
+        <v>312.32500000000101</v>
       </c>
       <c r="G2">
-        <v>61878</v>
+        <v>1856</v>
       </c>
       <c r="H2">
         <v>94</v>
       </c>
       <c r="I2">
-        <v>0.12536189610905801</v>
+        <v>0.74622874070445699</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" t="s">
-        <v>128</v>
+      <c r="M2" t="s">
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
@@ -1067,43 +1154,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>40666.822210648148</v>
+        <v>40662.279085648152</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>1642.7940000000001</v>
+        <v>165.71700000000001</v>
       </c>
       <c r="E3">
-        <v>19.914000000000001</v>
+        <v>3.3540000000000001</v>
       </c>
       <c r="F3">
-        <v>433.00200000000001</v>
+        <v>755.58600000000001</v>
       </c>
       <c r="G3">
-        <v>61878</v>
+        <v>3713</v>
       </c>
       <c r="H3">
         <v>94</v>
       </c>
       <c r="I3">
-        <v>0.12538954403165201</v>
+        <v>0.68533854222555901</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -1111,43 +1195,40 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>40666.829050925924</v>
+        <v>40662.303981481484</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>823.846</v>
+        <v>394.16899999999998</v>
       </c>
       <c r="E4">
-        <v>11.052</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="F4">
-        <v>211.864</v>
+        <v>1974.134</v>
       </c>
       <c r="G4">
-        <v>61878</v>
+        <v>7426</v>
       </c>
       <c r="H4">
         <v>94</v>
       </c>
       <c r="I4">
-        <v>0.12544978906972201</v>
+        <v>0.64664136893869995</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" t="s">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -1155,43 +1236,40 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>40666.858576388891</v>
+        <v>40662.897407407407</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>1729.7170000000001</v>
+        <v>73.715000000000003</v>
       </c>
       <c r="E5">
-        <v>23.690999999999999</v>
+        <v>1.429</v>
       </c>
       <c r="F5">
-        <v>439.70899999999898</v>
+        <v>305.83699999999999</v>
       </c>
       <c r="G5">
-        <v>61878</v>
+        <v>1856</v>
       </c>
       <c r="H5">
         <v>94</v>
       </c>
       <c r="I5">
-        <v>0.12547118097591101</v>
+        <v>0.78549299436114095</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" t="s">
-        <v>130</v>
+      <c r="M5" t="s">
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
@@ -1199,43 +1277,40 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>40666.87090277778</v>
+        <v>40662.904675925929</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>1661.3409999999999</v>
+        <v>90.022000000000006</v>
       </c>
       <c r="E6">
-        <v>29.88</v>
+        <v>2.069</v>
       </c>
       <c r="F6">
-        <v>450.28500000000003</v>
+        <v>362.89400000000001</v>
       </c>
       <c r="G6">
-        <v>61878</v>
+        <v>1856</v>
       </c>
       <c r="H6">
         <v>94</v>
       </c>
       <c r="I6">
-        <v>0.12547938154128399</v>
+        <v>0.79944489497743798</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" t="s">
-        <v>132</v>
+      <c r="M6" t="s">
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -1243,43 +1318,40 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>40666.864722222221</v>
+        <v>40662.928738425922</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>1696.5940000000001</v>
+        <v>187.226</v>
       </c>
       <c r="E7">
-        <v>25.24</v>
+        <v>3.79</v>
       </c>
       <c r="F7">
-        <v>452.84400000000102</v>
+        <v>855.38300000000004</v>
       </c>
       <c r="G7">
-        <v>61878</v>
+        <v>3713</v>
       </c>
       <c r="H7">
         <v>94</v>
       </c>
       <c r="I7">
-        <v>0.125500889889751</v>
+        <v>0.69186377795907195</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" t="s">
-        <v>131</v>
+      <c r="M7" t="s">
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1287,43 +1359,40 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>40667.467453703706</v>
+        <v>40663.886111111111</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>3133.5479999999998</v>
+        <v>72.468000000000004</v>
       </c>
       <c r="E8">
-        <v>5.1020000000000003</v>
+        <v>1.62</v>
       </c>
       <c r="F8">
-        <v>1022.575</v>
+        <v>303.40899999999999</v>
       </c>
       <c r="G8">
-        <v>61869</v>
+        <v>1856</v>
       </c>
       <c r="H8">
         <v>94</v>
       </c>
       <c r="I8">
-        <v>0.30421375870439499</v>
+        <v>0.75551332289408202</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
         <v>20</v>
@@ -1331,43 +1400,40 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>40665.892245370371</v>
+        <v>40663.894259259258</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>27044.260999999999</v>
+        <v>73.712000000000003</v>
       </c>
       <c r="E9">
-        <v>60.171999999999997</v>
+        <v>1.677</v>
       </c>
       <c r="F9">
-        <v>8265.8639999999996</v>
+        <v>305.04400000000197</v>
       </c>
       <c r="G9">
-        <v>61869</v>
+        <v>1856</v>
       </c>
       <c r="H9">
         <v>94</v>
       </c>
       <c r="I9">
-        <v>0.35253276610751899</v>
+        <v>0.76165795442312301</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
@@ -1375,43 +1441,40 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>40664.973819444444</v>
+        <v>40663.907569444447</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2160.5479999999998</v>
+        <v>71.305000000000007</v>
       </c>
       <c r="E10">
-        <v>22.983000000000001</v>
+        <v>1.698</v>
       </c>
       <c r="F10">
-        <v>565.12099999999998</v>
+        <v>300.63900000000098</v>
       </c>
       <c r="G10">
-        <v>61869</v>
+        <v>1856</v>
       </c>
       <c r="H10">
         <v>94</v>
       </c>
       <c r="I10">
-        <v>0.40864490982979601</v>
+        <v>0.76500874540172104</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
@@ -1419,43 +1482,40 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>40664.964074074072</v>
+        <v>40663.913171296299</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>1450.83</v>
+        <v>69.188999999999993</v>
       </c>
       <c r="E11">
-        <v>15.536</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="F11">
-        <v>444.11200000000002</v>
+        <v>298.46900000000102</v>
       </c>
       <c r="G11">
-        <v>49498</v>
+        <v>1856</v>
       </c>
       <c r="H11">
         <v>94</v>
       </c>
       <c r="I11">
-        <v>0.52364286279315297</v>
+        <v>0.76638894196604401</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
         <v>20</v>
@@ -1463,69 +1523,63 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>40651.539988425924</v>
+        <v>40664.134918981479</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>18571.221000000001</v>
+        <v>91.316999999999993</v>
       </c>
       <c r="E12">
-        <v>159.828</v>
+        <v>102.008</v>
       </c>
       <c r="F12">
-        <v>4744.5739999999996</v>
+        <v>307.92099999999999</v>
       </c>
       <c r="G12">
-        <v>37122</v>
+        <v>1856</v>
       </c>
       <c r="H12">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12">
-        <v>0.52861996122346899</v>
+        <v>0.76214175152330399</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
-      </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>40656.837557870371</v>
+        <v>40664.531724537039</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>1216.6759999999999</v>
+        <v>9410.4060000000009</v>
       </c>
       <c r="E13">
-        <v>78.204999999999998</v>
+        <v>4184.7539999999999</v>
       </c>
       <c r="F13">
-        <v>351.79199999999997</v>
+        <v>33430.610999999997</v>
       </c>
       <c r="G13">
         <v>49507</v>
@@ -1534,19 +1588,16 @@
         <v>94</v>
       </c>
       <c r="I13">
-        <v>0.53930522813114501</v>
+        <v>0.55178634237603696</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" t="s">
-        <v>117</v>
+      <c r="M13" t="s">
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
         <v>20</v>
@@ -1554,928 +1605,901 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>40656.284328703703</v>
+        <v>40639.758009259262</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>5978.5940000000001</v>
+        <v>552.36199999999997</v>
       </c>
       <c r="E14">
-        <v>81.465000000000003</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="F14">
-        <v>1533.8150000000001</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G14">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H14">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I14">
-        <v>0.53932968453027097</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
+        <v>0.74287633479385795</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>40656.831354166665</v>
+        <v>40639.762152777781</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>1206.809</v>
+        <v>1234.6579999999999</v>
       </c>
       <c r="E15">
-        <v>70.075000000000003</v>
+        <v>11.066000000000001</v>
       </c>
       <c r="F15">
-        <v>345.29599999999999</v>
+        <v>289.71199999999999</v>
       </c>
       <c r="G15">
-        <v>49507</v>
+        <v>3713</v>
       </c>
       <c r="H15">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I15">
-        <v>0.53933957930639798</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
+        <v>0.68021707834110601</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>40656.825995370367</v>
+        <v>40639.763333333336</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>1197.2919999999999</v>
+        <v>355.37</v>
       </c>
       <c r="E16">
-        <v>60.024999999999999</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="F16">
-        <v>338.46699999999998</v>
+        <v>28.632999999999999</v>
       </c>
       <c r="G16">
-        <v>49507</v>
+        <v>371</v>
       </c>
       <c r="H16">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>0.53936143445911</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
+        <v>0.93215718230883904</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>40656.904513888891</v>
+        <v>40639.883819444447</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>1212.9780000000001</v>
+        <v>2581.277</v>
       </c>
       <c r="E17">
-        <v>28.611999999999998</v>
+        <v>24.963999999999999</v>
       </c>
       <c r="F17">
-        <v>333.71800000000002</v>
+        <v>2633.8989999999999</v>
       </c>
       <c r="G17">
-        <v>49507</v>
+        <v>11139</v>
       </c>
       <c r="H17">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I17">
-        <v>0.539700782307872</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
+        <v>0.594930653159085</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>40656.899618055555</v>
+        <v>40639.932210648149</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>1222.123</v>
+        <v>20097.652999999998</v>
       </c>
       <c r="E18">
-        <v>23.850999999999999</v>
+        <v>218.471</v>
       </c>
       <c r="F18">
-        <v>330.56400000000002</v>
+        <v>2926.3049999999998</v>
       </c>
       <c r="G18">
-        <v>49507</v>
+        <v>18565</v>
       </c>
       <c r="H18">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I18">
-        <v>0.53986151453897102</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
+        <v>0.65677416760662</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>40656.894976851851</v>
+        <v>40640.874699074076</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>1201.796</v>
+        <v>317.43799999999999</v>
       </c>
       <c r="E19">
-        <v>19.233000000000001</v>
+        <v>3.012</v>
       </c>
       <c r="F19">
-        <v>324.05200000000002</v>
+        <v>93.813999999999993</v>
       </c>
       <c r="G19">
-        <v>49507</v>
+        <v>3713</v>
       </c>
       <c r="H19">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I19">
-        <v>0.54207999278429297</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
+        <v>0.687169450355818</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" t="s">
-        <v>132</v>
-      </c>
-      <c r="N19" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>40655.898888888885</v>
+        <v>40647.942337962966</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3589.3890000000001</v>
+        <v>57.72</v>
       </c>
       <c r="E20">
-        <v>10.888999999999999</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>3603.6959999999999</v>
+        <v>18.855</v>
       </c>
       <c r="G20">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H20">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>0.54215361254059102</v>
+        <v>0.751467165885644</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>40656.890127314815</v>
+        <v>40647.944432870368</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>1160.682</v>
+        <v>93.206999999999994</v>
       </c>
       <c r="E21">
-        <v>17.484999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="F21">
-        <v>309.87200000000001</v>
+        <v>20.372000000000099</v>
       </c>
       <c r="G21">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H21">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I21">
-        <v>0.54424328908644304</v>
+        <v>0.74121875335933596</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>40656.885810185187</v>
+        <v>40647.945636574077</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>1151.5509999999999</v>
+        <v>62.183</v>
       </c>
       <c r="E22">
-        <v>15.643000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F22">
-        <v>306.65300000000002</v>
+        <v>20.033999999999999</v>
       </c>
       <c r="G22">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H22">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22">
-        <v>0.54654888965735504</v>
+        <v>0.74121875335933596</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>40646.939062500001</v>
+        <v>40649.846215277779</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
-        <v>11871.248</v>
+        <v>67.259</v>
       </c>
       <c r="E23">
-        <v>92.94</v>
+        <v>1.32</v>
       </c>
       <c r="F23">
-        <v>2957.05</v>
+        <v>21.386000000000401</v>
       </c>
       <c r="G23">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H23">
         <v>94</v>
       </c>
       <c r="I23">
-        <v>0.54972385286005598</v>
+        <v>0.73980531857912701</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>40664.531724537039</v>
+        <v>40649.85328703704</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>9410.4060000000009</v>
+        <v>572.024</v>
       </c>
       <c r="E24">
-        <v>4184.7539999999999</v>
+        <v>4.694</v>
       </c>
       <c r="F24">
-        <v>33430.610999999997</v>
+        <v>289.34099999999899</v>
       </c>
       <c r="G24">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H24">
         <v>94</v>
       </c>
       <c r="I24">
-        <v>0.55178634237603696</v>
+        <v>0.73635288429166001</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>40656.878275462965</v>
+        <v>40649.876226851855</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>1158.596</v>
+        <v>3728.6239999999998</v>
       </c>
       <c r="E25">
-        <v>13.955</v>
+        <v>24.244</v>
       </c>
       <c r="F25">
-        <v>301.77999999999997</v>
+        <v>1800.595</v>
       </c>
       <c r="G25">
-        <v>49507</v>
+        <v>11139</v>
       </c>
       <c r="H25">
         <v>94</v>
       </c>
       <c r="I25">
-        <v>0.55623853372381105</v>
+        <v>0.59294412064958801</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>128</v>
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>40</v>
       </c>
       <c r="N25" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>40656.884027777778</v>
+        <v>40652.750289351854</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>1151.5509999999999</v>
+        <v>177.60499999999999</v>
       </c>
       <c r="E26">
-        <v>15.643000000000001</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="F26">
-        <v>306.65300000000002</v>
+        <v>55.293000000000099</v>
       </c>
       <c r="G26">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H26">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I26">
-        <v>0.55623853372381105</v>
+        <v>0.74283828905403004</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>40654.897719907407</v>
+        <v>40652.759942129633</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>2490.451</v>
+        <v>2103.759</v>
       </c>
       <c r="E27">
-        <v>7.4210000000000003</v>
+        <v>13.521000000000001</v>
       </c>
       <c r="F27">
-        <v>2498.9189999999999</v>
+        <v>532.35500000000002</v>
       </c>
       <c r="G27">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H27">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I27">
-        <v>0.560539731881459</v>
+        <v>0.74000400932482002</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>40647.280289351853</v>
+        <v>40652.7653587963</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>2438.998</v>
+        <v>1007.5650000000001</v>
       </c>
       <c r="E28">
-        <v>5.6509999999999998</v>
+        <v>6.9240000000000004</v>
       </c>
       <c r="F28">
-        <v>2444.94</v>
+        <v>135.203</v>
       </c>
       <c r="G28">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H28">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="I28">
-        <v>0.56536779724153197</v>
+        <v>0.74000400932482002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
       </c>
       <c r="M28" t="s">
-        <v>105</v>
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>46</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>40656.872812499998</v>
+        <v>40652.835798611108</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>590.16</v>
+        <v>789.48299999999995</v>
       </c>
       <c r="E29">
-        <v>7.1760000000000002</v>
+        <v>5.4989999999999997</v>
       </c>
       <c r="F29">
-        <v>154.49600000000001</v>
+        <v>219.09200000000001</v>
       </c>
       <c r="G29">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H29">
-        <v>94</v>
+        <v>436</v>
       </c>
       <c r="I29">
-        <v>0.56569986367404701</v>
+        <v>0.75355722064198705</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="L29" t="s">
-        <v>125</v>
+        <v>49</v>
+      </c>
+      <c r="M29" t="s">
+        <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="O29" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>40641.962881944448</v>
+        <v>40652.839166666665</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>1647.414</v>
+        <v>984.07600000000002</v>
       </c>
       <c r="E30">
-        <v>5.6340000000000101</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="F30">
-        <v>1654.211</v>
+        <v>218.297</v>
       </c>
       <c r="G30">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H30">
-        <v>93</v>
+        <v>436</v>
       </c>
       <c r="I30">
-        <v>0.57026004489291504</v>
+        <v>0.75355722064198705</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="L30" t="s">
+        <v>49</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>40646.899583333332</v>
+        <v>40652.848761574074</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="D31">
-        <v>7577.2110000000002</v>
+        <v>1880.732</v>
       </c>
       <c r="E31">
-        <v>56.112000000000002</v>
+        <v>13.096</v>
       </c>
       <c r="F31">
-        <v>1891.6949999999999</v>
+        <v>464.53100000000001</v>
       </c>
       <c r="G31">
-        <v>14852</v>
+        <v>3713</v>
       </c>
       <c r="H31">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I31">
-        <v>0.580472043054439</v>
+        <v>0.67873746924929101</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>46</v>
       </c>
       <c r="O31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>40641.892905092594</v>
+        <v>40661.148125</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>1187.6130000000001</v>
+        <v>379.452</v>
       </c>
       <c r="E32">
-        <v>2.907</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="F32">
-        <v>1190.5989999999999</v>
+        <v>177.47</v>
       </c>
       <c r="G32">
-        <v>29704</v>
+        <v>3713</v>
       </c>
       <c r="H32">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32">
-        <v>0.581291879081961</v>
+        <v>0.82402699162210502</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1">
-        <v>40656.87060185185</v>
+        <v>40646.850069444445</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>180.42699999999999</v>
+        <v>3531.2289999999998</v>
       </c>
       <c r="E33">
-        <v>2.6480000000000001</v>
+        <v>26.353999999999999</v>
       </c>
       <c r="F33">
-        <v>47.348999999999897</v>
+        <v>854.654</v>
       </c>
       <c r="G33">
-        <v>49507</v>
+        <v>7426</v>
       </c>
       <c r="H33">
         <v>94</v>
       </c>
       <c r="I33">
-        <v>0.58648098372120105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
+        <v>0.62834080703015704</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="O33" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1">
-        <v>40649.876226851855</v>
+        <v>40646.875208333331</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34">
-        <v>3728.6239999999998</v>
+        <v>7247.02</v>
       </c>
       <c r="E34">
-        <v>24.244</v>
+        <v>50.405999999999999</v>
       </c>
       <c r="F34">
-        <v>1800.595</v>
+        <v>1747.3789999999999</v>
       </c>
       <c r="G34">
-        <v>11139</v>
+        <v>7426</v>
       </c>
       <c r="H34">
         <v>94</v>
       </c>
       <c r="I34">
-        <v>0.59294412064958801</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
+        <v>0.66299103374607504</v>
       </c>
       <c r="K34" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N34" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>40639.883819444447</v>
+        <v>40646.899583333332</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
       </c>
       <c r="D35">
-        <v>2581.277</v>
+        <v>7577.2110000000002</v>
       </c>
       <c r="E35">
-        <v>24.963999999999999</v>
+        <v>56.112000000000002</v>
       </c>
       <c r="F35">
-        <v>2633.8989999999999</v>
+        <v>1891.6949999999999</v>
       </c>
       <c r="G35">
-        <v>11139</v>
+        <v>14852</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I35">
-        <v>0.594930653159085</v>
+        <v>0.580472043054439</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O35" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2483,78 +2507,78 @@
         <v>55</v>
       </c>
       <c r="B36" s="1">
-        <v>40664.956990740742</v>
+        <v>40646.939062500001</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36">
-        <v>348.16199999999998</v>
+        <v>11871.248</v>
       </c>
       <c r="E36">
-        <v>4.077</v>
+        <v>92.94</v>
       </c>
       <c r="F36">
-        <v>86.427000000000007</v>
+        <v>2957.05</v>
       </c>
       <c r="G36">
-        <v>9905</v>
+        <v>22278</v>
       </c>
       <c r="H36">
         <v>94</v>
       </c>
       <c r="I36">
-        <v>0.61053397561577305</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
+        <v>0.54972385286005598</v>
       </c>
       <c r="K36" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N36" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>40641.868738425925</v>
+        <v>40648.013703703706</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>5823.5429999999997</v>
+        <v>925.125</v>
       </c>
       <c r="E37">
-        <v>50.137999999999998</v>
+        <v>11.952999999999999</v>
       </c>
       <c r="F37">
-        <v>1813.1010000000001</v>
+        <v>214.48399999999901</v>
       </c>
       <c r="G37">
-        <v>14852</v>
+        <v>1856</v>
       </c>
       <c r="H37">
         <v>93</v>
       </c>
       <c r="I37">
-        <v>0.621943789694692</v>
+        <v>0.87084435195355903</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="L37" t="s">
+        <v>48</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>62</v>
       </c>
       <c r="O37" t="s">
         <v>39</v>
@@ -2565,125 +2589,140 @@
         <v>55</v>
       </c>
       <c r="B38" s="1">
-        <v>40646.850069444445</v>
+        <v>40648.014513888891</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38">
-        <v>3531.2289999999998</v>
+        <v>925.125</v>
       </c>
       <c r="E38">
-        <v>26.353999999999999</v>
+        <v>11.952999999999999</v>
       </c>
       <c r="F38">
-        <v>854.654</v>
+        <v>214.48399999999901</v>
       </c>
       <c r="G38">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H38">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I38">
-        <v>0.62834080703015704</v>
+        <v>0.87084435195355903</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="L38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>62</v>
       </c>
       <c r="O38" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1">
-        <v>40654.866481481484</v>
+        <v>40651.539988425924</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>216.715</v>
+        <v>18571.221000000001</v>
       </c>
       <c r="E39">
-        <v>0.53600000000000003</v>
+        <v>159.828</v>
       </c>
       <c r="F39">
-        <v>217.19800000000001</v>
+        <v>4744.5739999999996</v>
       </c>
       <c r="G39">
-        <v>14852</v>
+        <v>37122</v>
       </c>
       <c r="H39">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I39">
-        <v>0.63291953497683395</v>
+        <v>0.52861996122346899</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="M39" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="O39" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>40656.869560185187</v>
+        <v>40652.868472222224</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>122.69799999999999</v>
+        <v>2713.4369999999999</v>
       </c>
       <c r="E40">
-        <v>2.86</v>
+        <v>19.478000000000002</v>
       </c>
       <c r="F40">
-        <v>31.661000000000101</v>
+        <v>857.63699999999994</v>
       </c>
       <c r="G40">
-        <v>49507</v>
+        <v>1861</v>
       </c>
       <c r="H40">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I40">
-        <v>0.634406625498386</v>
+        <v>0.83670746279494701</v>
       </c>
       <c r="J40" t="s">
         <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>119</v>
+        <v>43</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
       </c>
       <c r="N40" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="O40" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2691,34 +2730,34 @@
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>40654.319178240738</v>
+        <v>40652.928113425929</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
       </c>
       <c r="D41">
-        <v>5603.2820000000002</v>
+        <v>7987.3869999999997</v>
       </c>
       <c r="E41">
-        <v>37.712000000000003</v>
+        <v>50.436999999999998</v>
       </c>
       <c r="F41">
-        <v>1845.704</v>
+        <v>2553.5729999999999</v>
       </c>
       <c r="G41">
-        <v>7429</v>
+        <v>3718</v>
       </c>
       <c r="H41">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I41">
-        <v>0.645714281338444</v>
+        <v>0.72160003668857897</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L41" t="s">
         <v>67</v>
@@ -2727,86 +2766,104 @@
         <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O41" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>40662.303981481484</v>
+        <v>40652.988958333335</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>394.16899999999998</v>
+        <v>16123.888999999999</v>
       </c>
       <c r="E42">
-        <v>8.4640000000000004</v>
+        <v>99.897999999999996</v>
       </c>
       <c r="F42">
-        <v>1974.134</v>
+        <v>5089.6090000000004</v>
       </c>
       <c r="G42">
-        <v>7426</v>
+        <v>7429</v>
       </c>
       <c r="H42">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I42">
-        <v>0.64664136893869995</v>
+        <v>0.76422431884418296</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" t="s">
+        <v>67</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N42" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O42" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1">
-        <v>40639.932210648149</v>
+        <v>40654.282939814817</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
       </c>
       <c r="D43">
-        <v>20097.652999999998</v>
+        <v>6520.241</v>
       </c>
       <c r="E43">
-        <v>218.471</v>
+        <v>41.481999999999999</v>
       </c>
       <c r="F43">
-        <v>2926.3049999999998</v>
+        <v>2088.59</v>
       </c>
       <c r="G43">
-        <v>18565</v>
+        <v>1861</v>
       </c>
       <c r="H43">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="I43">
-        <v>0.65677416760662</v>
+        <v>0.84506210386796399</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+      <c r="L43" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>70</v>
       </c>
       <c r="O43" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2814,40 +2871,43 @@
         <v>55</v>
       </c>
       <c r="B44" s="1">
-        <v>40665.792708333334</v>
+        <v>40654.294745370367</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
       </c>
       <c r="D44">
-        <v>2695.944</v>
+        <v>1566.3030000000001</v>
       </c>
       <c r="E44">
-        <v>6.915</v>
+        <v>13.538</v>
       </c>
       <c r="F44">
-        <v>815.34100000000001</v>
+        <v>424.012</v>
       </c>
       <c r="G44">
-        <v>6192</v>
+        <v>1861</v>
       </c>
       <c r="H44">
         <v>94</v>
       </c>
       <c r="I44">
-        <v>0.65702783798812803</v>
+        <v>0.76369530069646097</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="L44" t="s">
+        <v>67</v>
       </c>
       <c r="M44" t="s">
         <v>40</v>
       </c>
       <c r="N44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O44" t="s">
         <v>20</v>
@@ -2858,230 +2918,263 @@
         <v>55</v>
       </c>
       <c r="B45" s="1">
-        <v>40646.875208333331</v>
+        <v>40654.319178240738</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45">
-        <v>7247.02</v>
+        <v>5603.2820000000002</v>
       </c>
       <c r="E45">
-        <v>50.405999999999999</v>
+        <v>37.712000000000003</v>
       </c>
       <c r="F45">
-        <v>1747.3789999999999</v>
+        <v>1845.704</v>
       </c>
       <c r="G45">
-        <v>7426</v>
+        <v>7429</v>
       </c>
       <c r="H45">
         <v>94</v>
       </c>
       <c r="I45">
-        <v>0.66299103374607504</v>
+        <v>0.645714281338444</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="L45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>73</v>
       </c>
       <c r="O45" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1">
-        <v>40641.314687500002</v>
+        <v>40664.956990740742</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>2135.902</v>
+        <v>348.16199999999998</v>
       </c>
       <c r="E46">
-        <v>22.029</v>
+        <v>4.077</v>
       </c>
       <c r="F46">
-        <v>607.20399999999995</v>
+        <v>86.427000000000007</v>
       </c>
       <c r="G46">
-        <v>7426</v>
+        <v>9905</v>
       </c>
       <c r="H46">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I46">
-        <v>0.67394619287523205</v>
+        <v>0.61053397561577305</v>
+      </c>
+      <c r="J46" t="s">
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M46" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>75</v>
       </c>
       <c r="O46" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>40641.619097222225</v>
+        <v>40664.964074074072</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D47">
-        <v>102.958</v>
+        <v>1450.83</v>
       </c>
       <c r="E47">
-        <v>1.593</v>
+        <v>15.536</v>
       </c>
       <c r="F47">
-        <v>31.786000000000001</v>
+        <v>444.11200000000002</v>
       </c>
       <c r="G47">
-        <v>1856</v>
+        <v>49498</v>
       </c>
       <c r="H47">
         <v>94</v>
       </c>
       <c r="I47">
-        <v>0.67394619287523205</v>
+        <v>0.52364286279315297</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="M47" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="N47" t="s">
+        <v>75</v>
       </c>
       <c r="O47" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>40652.848761574074</v>
+        <v>40664.973819444444</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
       </c>
       <c r="D48">
-        <v>1880.732</v>
+        <v>2160.5479999999998</v>
       </c>
       <c r="E48">
-        <v>13.096</v>
+        <v>22.983000000000001</v>
       </c>
       <c r="F48">
-        <v>464.53100000000001</v>
+        <v>565.12099999999998</v>
       </c>
       <c r="G48">
-        <v>3713</v>
+        <v>61869</v>
       </c>
       <c r="H48">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I48">
-        <v>0.67873746924929101</v>
+        <v>0.40864490982979601</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M48" t="s">
         <v>40</v>
       </c>
       <c r="N48" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="O48" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
-        <v>40639.762152777781</v>
+        <v>40665.273530092592</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
       </c>
       <c r="D49">
-        <v>1234.6579999999999</v>
+        <v>850.31100000000004</v>
       </c>
       <c r="E49">
-        <v>11.066000000000001</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="F49">
-        <v>289.71199999999999</v>
+        <v>227.876</v>
       </c>
       <c r="G49">
-        <v>3713</v>
+        <v>1861</v>
       </c>
       <c r="H49">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I49">
-        <v>0.68021707834110601</v>
+        <v>1.0780016954015099</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+      <c r="M49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" t="s">
+        <v>78</v>
       </c>
       <c r="O49" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
-        <v>40662.279085648152</v>
+        <v>40665.792708333334</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>165.71700000000001</v>
+        <v>2695.944</v>
       </c>
       <c r="E50">
-        <v>3.3540000000000001</v>
+        <v>6.915</v>
       </c>
       <c r="F50">
-        <v>755.58600000000001</v>
+        <v>815.34100000000001</v>
       </c>
       <c r="G50">
-        <v>3713</v>
+        <v>6192</v>
       </c>
       <c r="H50">
         <v>94</v>
       </c>
       <c r="I50">
-        <v>0.68533854222555901</v>
+        <v>0.65702783798812803</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="O50" t="s">
         <v>20</v>
@@ -3089,75 +3182,87 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
-        <v>40640.874699074076</v>
+        <v>40665.892245370371</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51">
-        <v>317.43799999999999</v>
+        <v>27044.260999999999</v>
       </c>
       <c r="E51">
-        <v>3.012</v>
+        <v>60.171999999999997</v>
       </c>
       <c r="F51">
-        <v>93.813999999999993</v>
+        <v>8265.8639999999996</v>
       </c>
       <c r="G51">
-        <v>3713</v>
+        <v>61869</v>
       </c>
       <c r="H51">
+        <v>94</v>
+      </c>
+      <c r="I51">
+        <v>0.35253276610751899</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
         <v>80</v>
       </c>
-      <c r="I51">
-        <v>0.687169450355818</v>
-      </c>
-      <c r="K51" t="s">
-        <v>36</v>
+      <c r="M51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N51" t="s">
+        <v>81</v>
       </c>
       <c r="O51" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>40662.928738425922</v>
+        <v>40667.467453703706</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>187.226</v>
+        <v>3133.5479999999998</v>
       </c>
       <c r="E52">
-        <v>3.79</v>
+        <v>5.1020000000000003</v>
       </c>
       <c r="F52">
-        <v>855.38300000000004</v>
+        <v>1022.575</v>
       </c>
       <c r="G52">
-        <v>3713</v>
+        <v>61869</v>
       </c>
       <c r="H52">
         <v>94</v>
       </c>
       <c r="I52">
-        <v>0.69186377795907195</v>
+        <v>0.30421375870439499</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>82</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N52" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="O52" t="s">
         <v>20</v>
@@ -3165,43 +3270,43 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>40658.947094907409</v>
+        <v>40668.054444444446</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D53">
-        <v>22890.037</v>
+        <v>4978.8639999999996</v>
       </c>
       <c r="E53">
-        <v>220.09399999999999</v>
+        <v>5.8289999999999997</v>
       </c>
       <c r="F53">
-        <v>5557.5360000000001</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="G53">
-        <v>11144</v>
+        <v>61869</v>
       </c>
       <c r="H53">
         <v>94</v>
       </c>
       <c r="I53">
-        <v>0.71440528118659097</v>
+        <v>0.26106690688928302</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="M53" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="N53" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="O53" t="s">
         <v>20</v>
@@ -3212,84 +3317,84 @@
         <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>40652.928113425929</v>
+        <v>40668.983032407406</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54">
-        <v>7987.3869999999997</v>
+        <v>6276.6229999999996</v>
       </c>
       <c r="E54">
-        <v>50.436999999999998</v>
+        <v>5.7279999999999998</v>
       </c>
       <c r="F54">
-        <v>2553.5729999999999</v>
+        <v>1191.751</v>
       </c>
       <c r="G54">
-        <v>3718</v>
+        <v>61869</v>
       </c>
       <c r="H54">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I54">
-        <v>0.72160003668857897</v>
+        <v>0.22248008077914799</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>66</v>
-      </c>
-      <c r="L54" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
       </c>
       <c r="N54" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="O54" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>40661.621365740742</v>
+        <v>40669.452013888891</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>3097.3</v>
+        <v>7700.0259999999998</v>
       </c>
       <c r="E55">
-        <v>23.74</v>
+        <v>5.835</v>
       </c>
       <c r="F55">
-        <v>3132.3</v>
+        <v>1460.5119999999999</v>
       </c>
       <c r="G55">
-        <v>11144</v>
+        <v>61869</v>
       </c>
       <c r="H55">
         <v>94</v>
       </c>
       <c r="I55">
-        <v>0.72482857368610298</v>
+        <v>0.190036682926529</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>86</v>
+      </c>
+      <c r="M55" t="s">
+        <v>40</v>
       </c>
       <c r="N55" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="O55" t="s">
         <v>20</v>
@@ -3297,987 +3402,999 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>40641.304837962962</v>
+        <v>40669.909004629626</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>863.20299999999997</v>
+        <v>9000.7900000000009</v>
       </c>
       <c r="E56">
-        <v>9.8740000000000006</v>
+        <v>5.7990000000000004</v>
       </c>
       <c r="F56">
-        <v>245.357</v>
+        <v>1385.913</v>
       </c>
       <c r="G56">
-        <v>3713</v>
+        <v>61869</v>
       </c>
       <c r="H56">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I56">
-        <v>0.731539626722439</v>
+        <v>0.16074066198103101</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M56" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="N56" t="s">
+        <v>84</v>
       </c>
       <c r="O56" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>40649.85328703704</v>
+        <v>40670.011689814812</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
       </c>
       <c r="D57">
-        <v>572.024</v>
+        <v>11391.511</v>
       </c>
       <c r="E57">
-        <v>4.694</v>
+        <v>5.6790000000000003</v>
       </c>
       <c r="F57">
-        <v>289.34099999999899</v>
+        <v>2110.8470000000002</v>
       </c>
       <c r="G57">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H57">
         <v>94</v>
       </c>
       <c r="I57">
-        <v>0.73635288429166001</v>
+        <v>0.137328521708139</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="M57" t="s">
         <v>40</v>
       </c>
       <c r="N57" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="O57" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
-        <v>40649.846215277779</v>
+        <v>40670.112511574072</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
       </c>
       <c r="D58">
-        <v>67.259</v>
+        <v>12248.19</v>
       </c>
       <c r="E58">
-        <v>1.32</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="F58">
-        <v>21.386000000000401</v>
+        <v>1764.3030000000001</v>
       </c>
       <c r="G58">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H58">
         <v>94</v>
       </c>
       <c r="I58">
-        <v>0.73980531857912701</v>
+        <v>0.118809720594672</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="M58" t="s">
         <v>40</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="O58" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>40652.759942129633</v>
+        <v>40670.958136574074</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59">
-        <v>2103.759</v>
+        <v>14988.549000000001</v>
       </c>
       <c r="E59">
-        <v>13.521000000000001</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="F59">
-        <v>532.35500000000002</v>
+        <v>2847.6109999999999</v>
       </c>
       <c r="G59">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H59">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I59">
-        <v>0.74000400932482002</v>
+        <v>0.10200689497646601</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M59" t="s">
         <v>40</v>
       </c>
       <c r="N59" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="O59" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
-        <v>40652.7653587963</v>
+        <v>40671.95034722222</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
       </c>
       <c r="D60">
-        <v>1007.5650000000001</v>
+        <v>181.51300000000001</v>
       </c>
       <c r="E60">
-        <v>6.9240000000000004</v>
+        <v>9.2840000000000007</v>
       </c>
       <c r="F60">
-        <v>135.203</v>
+        <v>54.887999999999899</v>
       </c>
       <c r="G60">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H60">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I60">
-        <v>0.74000400932482002</v>
+        <v>0.717016561012494</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>42</v>
-      </c>
-      <c r="L60" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="M60" t="s">
         <v>40</v>
       </c>
       <c r="N60" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="O60" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>40647.944432870368</v>
+        <v>40671.958773148152</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
       </c>
       <c r="D61">
-        <v>93.206999999999994</v>
+        <v>171.41399999999999</v>
       </c>
       <c r="E61">
-        <v>1.34</v>
+        <v>6.15</v>
       </c>
       <c r="F61">
-        <v>20.372000000000099</v>
+        <v>50.147000000000197</v>
       </c>
       <c r="G61">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H61">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I61">
-        <v>0.74121875335933596</v>
+        <v>0.72296370059508597</v>
       </c>
       <c r="J61" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>37</v>
+        <v>92</v>
+      </c>
+      <c r="M61" t="s">
+        <v>40</v>
       </c>
       <c r="N61" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="O61" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
-        <v>40647.945636574077</v>
+        <v>40671.960601851853</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
       </c>
       <c r="D62">
-        <v>62.183</v>
+        <v>178.815</v>
       </c>
       <c r="E62">
-        <v>0.86599999999999999</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="F62">
-        <v>20.033999999999999</v>
+        <v>50.5</v>
       </c>
       <c r="G62">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H62">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I62">
-        <v>0.74121875335933596</v>
+        <v>0.72296370059508597</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
       </c>
       <c r="K62" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="M62" t="s">
         <v>40</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="O62" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1">
-        <v>40652.750289351854</v>
+        <v>40650.427997685183</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
       </c>
       <c r="D63">
-        <v>177.60499999999999</v>
+        <v>124.29</v>
       </c>
       <c r="E63">
-        <v>1.6850000000000001</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="F63">
-        <v>55.293000000000099</v>
+        <v>41.579000000000001</v>
       </c>
       <c r="G63">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H63">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="I63">
-        <v>0.74283828905403004</v>
+        <v>0.89005779399033302</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>37</v>
-      </c>
-      <c r="M63" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="O63" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1">
-        <v>40639.758009259262</v>
+        <v>40673.853414351855</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
       </c>
       <c r="D64">
-        <v>552.36199999999997</v>
+        <v>2203.7179999999998</v>
       </c>
       <c r="E64">
-        <v>4.5880000000000001</v>
+        <v>16.748999999999999</v>
       </c>
       <c r="F64">
-        <v>145.19999999999999</v>
+        <v>644.93499999999995</v>
       </c>
       <c r="G64">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H64">
-        <v>80</v>
+        <v>4372</v>
       </c>
       <c r="I64">
-        <v>0.74287633479385795</v>
+        <v>0.73460568085136801</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>98</v>
+      </c>
+      <c r="M64" t="s">
+        <v>40</v>
+      </c>
+      <c r="N64" t="s">
+        <v>99</v>
       </c>
       <c r="O64" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1">
-        <v>40662.262199074074</v>
+        <v>40673.873495370368</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>80.350999999999999</v>
+        <v>5055.1620000000003</v>
       </c>
       <c r="E65">
-        <v>1.7669999999999999</v>
+        <v>38.564</v>
       </c>
       <c r="F65">
-        <v>312.32500000000101</v>
+        <v>1292.454</v>
       </c>
       <c r="G65">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H65">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I65">
-        <v>0.74622874070445699</v>
+        <v>0.67359911945930895</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
+      <c r="K65" t="s">
+        <v>101</v>
+      </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N65" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O65" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B66" s="1">
-        <v>40647.942337962966</v>
+        <v>40673.918078703704</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
       </c>
       <c r="D66">
-        <v>57.72</v>
+        <v>11226.716</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>88.703999999999994</v>
       </c>
       <c r="F66">
-        <v>18.855</v>
+        <v>3246.5360000000001</v>
       </c>
       <c r="G66">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H66">
-        <v>80</v>
+        <v>4372</v>
       </c>
       <c r="I66">
-        <v>0.751467165885644</v>
+        <v>0.73973184442162798</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>37</v>
+        <v>103</v>
+      </c>
+      <c r="M66" t="s">
+        <v>40</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O66" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1">
-        <v>40658.874039351853</v>
+        <v>40674.129525462966</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>11717.561</v>
+        <v>14320.385</v>
       </c>
       <c r="E67">
-        <v>122.316</v>
+        <v>12.337999999999999</v>
       </c>
       <c r="F67">
-        <v>2818.88</v>
+        <v>2653.03</v>
       </c>
       <c r="G67">
         <v>7429</v>
       </c>
       <c r="H67">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I67">
-        <v>0.75352613020479797</v>
+        <v>0.75503383488947895</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="N67" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="O67" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1">
-        <v>40652.835798611108</v>
+        <v>40674.248287037037</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
       </c>
       <c r="D68">
-        <v>789.48299999999995</v>
+        <v>51459.874000000003</v>
       </c>
       <c r="E68">
-        <v>5.4989999999999997</v>
+        <v>36.646000000000001</v>
       </c>
       <c r="F68">
-        <v>219.09200000000001</v>
+        <v>9913.4699999999993</v>
       </c>
       <c r="G68">
-        <v>1856</v>
+        <v>18568</v>
       </c>
       <c r="H68">
-        <v>436</v>
+        <v>4372</v>
       </c>
       <c r="I68">
-        <v>0.75355722064198705</v>
+        <v>0.62036733586481696</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>42</v>
-      </c>
-      <c r="L68" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="M68" t="s">
         <v>40</v>
       </c>
       <c r="N68" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="O68" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1">
-        <v>40652.839166666665</v>
+        <v>40674.686736111114</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
       </c>
       <c r="D69">
-        <v>984.07600000000002</v>
+        <v>122707.852</v>
       </c>
       <c r="E69">
-        <v>7.0469999999999997</v>
+        <v>64.948999999999998</v>
       </c>
       <c r="F69">
-        <v>218.297</v>
+        <v>22760.59</v>
       </c>
       <c r="G69">
-        <v>1856</v>
+        <v>37122</v>
       </c>
       <c r="H69">
-        <v>436</v>
+        <v>4372</v>
       </c>
       <c r="I69">
-        <v>0.75355722064198705</v>
+        <v>0.55930095133236102</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>42</v>
-      </c>
-      <c r="L69" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="M69" t="s">
         <v>40</v>
       </c>
       <c r="N69" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="O69" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="B70" s="1">
-        <v>40661.551562499997</v>
+        <v>40675.033009259256</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>1400.45</v>
+        <v>5855.9470000000001</v>
       </c>
       <c r="E70">
-        <v>11.27</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="F70">
-        <v>1413.65</v>
+        <v>1422.876</v>
       </c>
       <c r="G70">
-        <v>7429</v>
+        <v>49507</v>
       </c>
       <c r="H70">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I70">
-        <v>0.75435019649979396</v>
+        <v>0.54406592115498398</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="M70" t="s">
+        <v>40</v>
       </c>
       <c r="N70" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="O70" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1">
-        <v>40663.886111111111</v>
+        <v>40675.392337962963</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>72.468000000000004</v>
+        <v>134576.23499999999</v>
       </c>
       <c r="E71">
-        <v>1.62</v>
+        <v>40.36</v>
       </c>
       <c r="F71">
-        <v>303.40899999999999</v>
+        <v>28205.416000000001</v>
       </c>
       <c r="G71">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H71">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I71">
-        <v>0.75551332289408202</v>
+        <v>0.53791215306477902</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
+        <v>110</v>
       </c>
       <c r="M71" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N71" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="O71" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1">
-        <v>40663.894259259258</v>
+        <v>40675.952581018515</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>73.712000000000003</v>
+        <v>212013.87599999999</v>
       </c>
       <c r="E72">
-        <v>1.677</v>
+        <v>41.433999999999997</v>
       </c>
       <c r="F72">
-        <v>305.04400000000197</v>
+        <v>44907.714999999997</v>
       </c>
       <c r="G72">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H72">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I72">
-        <v>0.76165795442312301</v>
+        <v>0.19278843778028101</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
+        <v>111</v>
       </c>
       <c r="M72" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N72" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="O72" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1">
-        <v>40664.134918981479</v>
+        <v>40676.063067129631</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D73">
-        <v>91.316999999999993</v>
+        <v>15398.272999999999</v>
       </c>
       <c r="E73">
-        <v>102.008</v>
+        <v>6.5</v>
       </c>
       <c r="F73">
-        <v>307.92099999999999</v>
+        <v>3677.252</v>
       </c>
       <c r="G73">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H73">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I73">
-        <v>0.76214175152330399</v>
+        <v>0.175103089372804</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
+      <c r="K73" t="s">
+        <v>112</v>
+      </c>
       <c r="M73" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N73" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="O73" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>40654.294745370367</v>
+        <v>40676.500439814816</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
       </c>
       <c r="D74">
-        <v>1566.3030000000001</v>
+        <v>18669.684000000001</v>
       </c>
       <c r="E74">
-        <v>13.538</v>
+        <v>7.4980000000000002</v>
       </c>
       <c r="F74">
-        <v>424.012</v>
+        <v>4801.75</v>
       </c>
       <c r="G74">
-        <v>1861</v>
+        <v>61878</v>
       </c>
       <c r="H74">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I74">
-        <v>0.76369530069646097</v>
+        <v>0.15093796451962199</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>72</v>
-      </c>
-      <c r="L74" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="M74" t="s">
         <v>40</v>
       </c>
       <c r="N74" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="O74" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>40652.988958333335</v>
+        <v>40677.074340277781</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
       </c>
       <c r="D75">
-        <v>16123.888999999999</v>
+        <v>25829.321</v>
       </c>
       <c r="E75">
-        <v>99.897999999999996</v>
+        <v>7.6020000000000003</v>
       </c>
       <c r="F75">
-        <v>5089.6090000000004</v>
+        <v>4998.143</v>
       </c>
       <c r="G75">
-        <v>7429</v>
+        <v>61878</v>
       </c>
       <c r="H75">
-        <v>265</v>
+        <v>4372</v>
       </c>
       <c r="I75">
-        <v>0.76422431884418296</v>
+        <v>0.27497836840217299</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>68</v>
-      </c>
-      <c r="L75" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="M75" t="s">
         <v>40</v>
       </c>
       <c r="N75" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="O75" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1">
-        <v>40663.907569444447</v>
+        <v>40677.172337962962</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>71.305000000000007</v>
+        <v>23612.554</v>
       </c>
       <c r="E76">
-        <v>1.698</v>
+        <v>7.8650000000000002</v>
       </c>
       <c r="F76">
-        <v>300.63900000000098</v>
+        <v>5271.9639999999999</v>
       </c>
       <c r="G76">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H76">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I76">
-        <v>0.76500874540172104</v>
+        <v>0.25284299126217802</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
       </c>
+      <c r="K76" t="s">
+        <v>115</v>
+      </c>
       <c r="M76" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N76" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="O76" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1">
-        <v>40663.913171296299</v>
+        <v>40648.538935185185</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D77">
-        <v>69.188999999999993</v>
+        <v>27.919</v>
       </c>
       <c r="E77">
-        <v>1.7529999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="F77">
-        <v>298.46900000000102</v>
+        <v>9.2449999999999992</v>
       </c>
       <c r="G77">
         <v>1856</v>
       </c>
       <c r="H77">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I77">
-        <v>0.76638894196604401</v>
+        <v>1.0180336300557</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
+        <v>118</v>
       </c>
       <c r="N77" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O77" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1">
-        <v>40647.967615740738</v>
+        <v>40648.539930555555</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D78">
-        <v>605.94000000000005</v>
+        <v>59.051000000000002</v>
       </c>
       <c r="E78">
-        <v>6.4889999999999999</v>
+        <v>3.5779999999999998</v>
       </c>
       <c r="F78">
-        <v>184.56299999999999</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="G78">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H78">
         <v>93</v>
       </c>
       <c r="I78">
-        <v>0.77232612637303599</v>
+        <v>0.96561685628127103</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>104</v>
-      </c>
-      <c r="M78" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="N78" t="s">
         <v>38</v>
@@ -4288,37 +4405,40 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1">
-        <v>40641.62332175926</v>
+        <v>40648.54142361111</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D79">
-        <v>213.624</v>
+        <v>131.185</v>
       </c>
       <c r="E79">
-        <v>2.7330000000000001</v>
+        <v>6.5410000000000004</v>
       </c>
       <c r="F79">
-        <v>59.539000000000001</v>
+        <v>50.7349999999999</v>
       </c>
       <c r="G79">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H79">
         <v>93</v>
       </c>
       <c r="I79">
-        <v>0.77752664564118501</v>
+        <v>0.91570247278205597</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>104</v>
-      </c>
-      <c r="M79" t="s">
-        <v>101</v>
+        <v>120</v>
+      </c>
+      <c r="N79" t="s">
+        <v>38</v>
       </c>
       <c r="O79" t="s">
         <v>39</v>
@@ -4326,341 +4446,344 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1">
-        <v>40654.853946759256</v>
+        <v>40648.543449074074</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D80">
-        <v>206.608</v>
+        <v>43.402000000000001</v>
       </c>
       <c r="E80">
-        <v>2.7360000000000002</v>
+        <v>4.867</v>
       </c>
       <c r="F80">
-        <v>58.323999999999998</v>
+        <v>48.255000000000102</v>
       </c>
       <c r="G80">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H80">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I80">
-        <v>0.77767741827453896</v>
+        <v>0.90945648831618497</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>107</v>
-      </c>
-      <c r="M80" t="s">
-        <v>101</v>
+        <v>121</v>
+      </c>
+      <c r="L80" t="s">
+        <v>121</v>
       </c>
       <c r="N80" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="O80" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1">
-        <v>40654.860844907409</v>
+        <v>40648.54482638889</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D81">
-        <v>686.71699999999998</v>
+        <v>65.584999999999994</v>
       </c>
       <c r="E81">
-        <v>7.6820000000000004</v>
+        <v>7.569</v>
       </c>
       <c r="F81">
-        <v>175.87</v>
+        <v>73.141000000000105</v>
       </c>
       <c r="G81">
-        <v>1856</v>
+        <v>11139</v>
       </c>
       <c r="H81">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I81">
-        <v>0.77767741827453896</v>
+        <v>0.89073012573322896</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L81" t="s">
-        <v>109</v>
-      </c>
-      <c r="M81" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="N81" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="O81" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B82" s="1">
-        <v>40641.298993055556</v>
+        <v>40648.917881944442</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D82">
-        <v>400.36099999999999</v>
+        <v>309.97000000000003</v>
       </c>
       <c r="E82">
-        <v>5.1639999999999997</v>
+        <v>30.928000000000001</v>
       </c>
       <c r="F82">
-        <v>102.628</v>
+        <v>340.88400000000001</v>
       </c>
       <c r="G82">
-        <v>1856</v>
+        <v>11139</v>
       </c>
       <c r="H82">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I82">
-        <v>0.78245588356401696</v>
+        <v>0.89196904290199497</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>99</v>
-      </c>
-      <c r="M82" t="s">
-        <v>101</v>
+        <v>122</v>
+      </c>
+      <c r="L82" t="s">
+        <v>122</v>
+      </c>
+      <c r="N82" t="s">
+        <v>38</v>
       </c>
       <c r="O82" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B83" s="1">
-        <v>40641.301504629628</v>
+        <v>40648.927546296298</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D83">
-        <v>413.88099999999997</v>
+        <v>652.154</v>
       </c>
       <c r="E83">
-        <v>5.3579999999999997</v>
+        <v>119.706</v>
       </c>
       <c r="F83">
-        <v>102.158</v>
+        <v>771.95699999999999</v>
       </c>
       <c r="G83">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H83">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I83">
-        <v>0.78405152780559495</v>
+        <v>0.896307740021412</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>99</v>
-      </c>
-      <c r="M83" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="L83" t="s">
+        <v>122</v>
+      </c>
+      <c r="N83" t="s">
+        <v>38</v>
       </c>
       <c r="O83" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B84" s="1">
-        <v>40662.897407407407</v>
+        <v>40651.289155092592</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D84">
-        <v>73.715000000000003</v>
+        <v>22.766999999999999</v>
       </c>
       <c r="E84">
-        <v>1.429</v>
+        <v>0.996</v>
       </c>
       <c r="F84">
-        <v>305.83699999999999</v>
+        <v>5.8029999999999999</v>
       </c>
       <c r="G84">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H84">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I84">
-        <v>0.78549299436114095</v>
+        <v>1.0460162236147099</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
-      </c>
-      <c r="M84" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
+        <v>125</v>
       </c>
       <c r="O84" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B85" s="1">
-        <v>40641.297395833331</v>
+        <v>40651.291076388887</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D85">
-        <v>180.30699999999999</v>
+        <v>44.039000000000001</v>
       </c>
       <c r="E85">
-        <v>2.5920000000000001</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="F85">
-        <v>51.556999999999803</v>
+        <v>10.587999999999999</v>
       </c>
       <c r="G85">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H85">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I85">
-        <v>0.78688275766877602</v>
+        <v>1.02880482206316</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>99</v>
-      </c>
-      <c r="M85" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O85" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B86" s="1">
-        <v>40654.849768518521</v>
+        <v>40651.292847222219</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D86">
-        <v>93.305000000000007</v>
+        <v>208.83199999999999</v>
       </c>
       <c r="E86">
-        <v>1.4610000000000001</v>
+        <v>3.431</v>
       </c>
       <c r="F86">
-        <v>29.73</v>
+        <v>52.397999999999897</v>
       </c>
       <c r="G86">
-        <v>1856</v>
+        <v>37131</v>
       </c>
       <c r="H86">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I86">
-        <v>0.78982913098609597</v>
+        <v>1.0142987814422999</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>107</v>
-      </c>
-      <c r="N86" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O86" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="B87" s="1">
-        <v>40662.904675925929</v>
+        <v>40651.297395833331</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D87">
-        <v>90.022000000000006</v>
+        <v>353.75200000000001</v>
       </c>
       <c r="E87">
-        <v>2.069</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="F87">
-        <v>362.89400000000001</v>
+        <v>105.03700000000001</v>
       </c>
       <c r="G87">
-        <v>1856</v>
+        <v>37131</v>
       </c>
       <c r="H87">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I87">
-        <v>0.79944489497743798</v>
+        <v>1.0142987814422999</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
-      <c r="M87" t="s">
-        <v>23</v>
-      </c>
-      <c r="N87" t="s">
-        <v>19</v>
+      <c r="K87" t="s">
+        <v>125</v>
+      </c>
+      <c r="L87" t="s">
+        <v>126</v>
       </c>
       <c r="O87" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B88" s="1">
         <v>40641.286828703705</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D88">
         <v>95.216999999999999</v>
@@ -4681,10 +4804,10 @@
         <v>0.80368268355869699</v>
       </c>
       <c r="K88" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="M88" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="O88" t="s">
         <v>32</v>
@@ -4692,289 +4815,250 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B89" s="1">
-        <v>40661.526898148149</v>
+        <v>40641.297395833331</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D89">
-        <v>437.02</v>
+        <v>180.30699999999999</v>
       </c>
       <c r="E89">
-        <v>2.4500000000000002</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="F89">
-        <v>440.29</v>
+        <v>51.556999999999803</v>
       </c>
       <c r="G89">
-        <v>3718</v>
+        <v>1856</v>
       </c>
       <c r="H89">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I89">
-        <v>0.816933944528761</v>
-      </c>
-      <c r="J89" t="s">
-        <v>17</v>
+        <v>0.78688275766877602</v>
       </c>
       <c r="K89" t="s">
-        <v>172</v>
-      </c>
-      <c r="N89" t="s">
-        <v>171</v>
+        <v>129</v>
+      </c>
+      <c r="M89" t="s">
+        <v>131</v>
       </c>
       <c r="O89" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B90" s="1">
-        <v>40658.838333333333</v>
+        <v>40641.298993055556</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D90">
-        <v>4225.3010000000004</v>
+        <v>400.36099999999999</v>
       </c>
       <c r="E90">
-        <v>56.110999999999997</v>
+        <v>5.1639999999999997</v>
       </c>
       <c r="F90">
-        <v>1041.828</v>
+        <v>102.628</v>
       </c>
       <c r="G90">
-        <v>3718</v>
+        <v>1856</v>
       </c>
       <c r="H90">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I90">
-        <v>0.81984717792192097</v>
-      </c>
-      <c r="J90" t="s">
-        <v>17</v>
+        <v>0.78245588356401696</v>
       </c>
       <c r="K90" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M90" t="s">
-        <v>101</v>
-      </c>
-      <c r="N90" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O90" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B91" s="1">
-        <v>40661.148125</v>
+        <v>40641.301504629628</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D91">
-        <v>379.452</v>
+        <v>413.88099999999997</v>
       </c>
       <c r="E91">
-        <v>3.7090000000000001</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="F91">
-        <v>177.47</v>
+        <v>102.158</v>
       </c>
       <c r="G91">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H91">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I91">
-        <v>0.82402699162210502</v>
-      </c>
-      <c r="J91" t="s">
-        <v>21</v>
+        <v>0.78405152780559495</v>
       </c>
       <c r="K91" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="M91" t="s">
-        <v>40</v>
-      </c>
-      <c r="N91" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="O91" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B92" s="1">
-        <v>40652.868472222224</v>
+        <v>40641.304837962962</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D92">
-        <v>2713.4369999999999</v>
+        <v>863.20299999999997</v>
       </c>
       <c r="E92">
-        <v>19.478000000000002</v>
+        <v>9.8740000000000006</v>
       </c>
       <c r="F92">
-        <v>857.63699999999994</v>
+        <v>245.357</v>
       </c>
       <c r="G92">
-        <v>1861</v>
+        <v>3713</v>
       </c>
       <c r="H92">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="I92">
-        <v>0.83670746279494701</v>
-      </c>
-      <c r="J92" t="s">
-        <v>21</v>
+        <v>0.731539626722439</v>
       </c>
       <c r="K92" t="s">
-        <v>64</v>
-      </c>
-      <c r="L92" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="M92" t="s">
-        <v>40</v>
-      </c>
-      <c r="N92" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="O92" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B93" s="1">
-        <v>40654.282939814817</v>
+        <v>40641.314687500002</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D93">
-        <v>6520.241</v>
+        <v>2135.902</v>
       </c>
       <c r="E93">
-        <v>41.481999999999999</v>
+        <v>22.029</v>
       </c>
       <c r="F93">
-        <v>2088.59</v>
+        <v>607.20399999999995</v>
       </c>
       <c r="G93">
-        <v>1861</v>
+        <v>7426</v>
       </c>
       <c r="H93">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="I93">
-        <v>0.84506210386796399</v>
-      </c>
-      <c r="J93" t="s">
-        <v>21</v>
+        <v>0.67394619287523205</v>
       </c>
       <c r="K93" t="s">
-        <v>69</v>
-      </c>
-      <c r="L93" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="M93" t="s">
-        <v>40</v>
-      </c>
-      <c r="N93" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="O93" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B94" s="1">
-        <v>40648.013703703706</v>
+        <v>40641.619097222225</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D94">
-        <v>925.125</v>
+        <v>102.958</v>
       </c>
       <c r="E94">
-        <v>11.952999999999999</v>
+        <v>1.593</v>
       </c>
       <c r="F94">
-        <v>214.48399999999901</v>
+        <v>31.786000000000001</v>
       </c>
       <c r="G94">
         <v>1856</v>
       </c>
       <c r="H94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I94">
-        <v>0.87084435195355903</v>
-      </c>
-      <c r="J94" t="s">
-        <v>21</v>
+        <v>0.67394619287523205</v>
       </c>
       <c r="K94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L94" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="M94" t="s">
-        <v>40</v>
-      </c>
-      <c r="N94" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="O94" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B95" s="1">
-        <v>40648.014513888891</v>
+        <v>40641.62332175926</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D95">
-        <v>925.125</v>
+        <v>213.624</v>
       </c>
       <c r="E95">
-        <v>11.952999999999999</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="F95">
-        <v>214.48399999999901</v>
+        <v>59.539000000000001</v>
       </c>
       <c r="G95">
         <v>1856</v>
@@ -4983,22 +5067,13 @@
         <v>93</v>
       </c>
       <c r="I95">
-        <v>0.87084435195355903</v>
-      </c>
-      <c r="J95" t="s">
-        <v>21</v>
+        <v>0.77752664564118501</v>
       </c>
       <c r="K95" t="s">
-        <v>61</v>
-      </c>
-      <c r="L95" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="M95" t="s">
-        <v>40</v>
-      </c>
-      <c r="N95" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="O95" t="s">
         <v>39</v>
@@ -5006,81 +5081,75 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1">
-        <v>40661.520416666666</v>
+        <v>40641.868738425925</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D96">
-        <v>147.87</v>
+        <v>5823.5429999999997</v>
       </c>
       <c r="E96">
-        <v>0.47</v>
+        <v>50.137999999999998</v>
       </c>
       <c r="F96">
-        <v>149.09</v>
+        <v>1813.1010000000001</v>
       </c>
       <c r="G96">
-        <v>1861</v>
+        <v>14852</v>
       </c>
       <c r="H96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I96">
-        <v>0.879687868181247</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
+        <v>0.621943789694692</v>
       </c>
       <c r="K96" t="s">
-        <v>170</v>
-      </c>
-      <c r="N96" t="s">
-        <v>171</v>
+        <v>134</v>
+      </c>
+      <c r="M96" t="s">
+        <v>132</v>
       </c>
       <c r="O96" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B97" s="1">
-        <v>40650.427997685183</v>
+        <v>40641.892905092594</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D97">
-        <v>124.29</v>
+        <v>1187.6130000000001</v>
       </c>
       <c r="E97">
-        <v>1.5029999999999999</v>
+        <v>2.907</v>
       </c>
       <c r="F97">
-        <v>41.579000000000001</v>
+        <v>1190.5989999999999</v>
       </c>
       <c r="G97">
-        <v>3718</v>
+        <v>29704</v>
       </c>
       <c r="H97">
         <v>93</v>
       </c>
       <c r="I97">
-        <v>0.89005779399033302</v>
-      </c>
-      <c r="J97" t="s">
-        <v>17</v>
+        <v>0.581291879081961</v>
       </c>
       <c r="K97" t="s">
-        <v>84</v>
-      </c>
-      <c r="N97" t="s">
-        <v>85</v>
+        <v>134</v>
+      </c>
+      <c r="M97" t="s">
+        <v>132</v>
       </c>
       <c r="O97" t="s">
         <v>39</v>
@@ -5088,43 +5157,37 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B98" s="1">
-        <v>40648.54482638889</v>
+        <v>40641.962881944448</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D98">
-        <v>65.584999999999994</v>
+        <v>1647.414</v>
       </c>
       <c r="E98">
-        <v>7.569</v>
+        <v>5.6340000000000101</v>
       </c>
       <c r="F98">
-        <v>73.141000000000105</v>
+        <v>1654.211</v>
       </c>
       <c r="G98">
-        <v>11139</v>
+        <v>37131</v>
       </c>
       <c r="H98">
         <v>93</v>
       </c>
       <c r="I98">
-        <v>0.89073012573322896</v>
-      </c>
-      <c r="J98" t="s">
-        <v>17</v>
+        <v>0.57026004489291504</v>
       </c>
       <c r="K98" t="s">
-        <v>91</v>
-      </c>
-      <c r="L98" t="s">
-        <v>91</v>
-      </c>
-      <c r="N98" t="s">
-        <v>38</v>
+        <v>134</v>
+      </c>
+      <c r="M98" t="s">
+        <v>132</v>
       </c>
       <c r="O98" t="s">
         <v>39</v>
@@ -5132,43 +5195,37 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B99" s="1">
-        <v>40648.917881944442</v>
+        <v>40647.280289351853</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D99">
-        <v>309.97000000000003</v>
+        <v>2438.998</v>
       </c>
       <c r="E99">
-        <v>30.928000000000001</v>
+        <v>5.6509999999999998</v>
       </c>
       <c r="F99">
-        <v>340.88400000000001</v>
+        <v>2444.94</v>
       </c>
       <c r="G99">
-        <v>11139</v>
+        <v>37131</v>
       </c>
       <c r="H99">
         <v>93</v>
       </c>
       <c r="I99">
-        <v>0.89196904290199497</v>
-      </c>
-      <c r="J99" t="s">
-        <v>21</v>
+        <v>0.56536779724153197</v>
       </c>
       <c r="K99" t="s">
-        <v>92</v>
-      </c>
-      <c r="L99" t="s">
-        <v>92</v>
-      </c>
-      <c r="N99" t="s">
-        <v>38</v>
+        <v>134</v>
+      </c>
+      <c r="M99" t="s">
+        <v>135</v>
       </c>
       <c r="O99" t="s">
         <v>39</v>
@@ -5176,40 +5233,40 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B100" s="1">
-        <v>40648.927546296298</v>
+        <v>40647.967615740738</v>
       </c>
       <c r="C100" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D100">
-        <v>652.154</v>
+        <v>605.94000000000005</v>
       </c>
       <c r="E100">
-        <v>119.706</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="F100">
-        <v>771.95699999999999</v>
+        <v>184.56299999999999</v>
       </c>
       <c r="G100">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H100">
         <v>93</v>
       </c>
       <c r="I100">
-        <v>0.896307740021412</v>
+        <v>0.77232612637303599</v>
       </c>
       <c r="J100" t="s">
         <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>92</v>
-      </c>
-      <c r="L100" t="s">
-        <v>92</v>
+        <v>134</v>
+      </c>
+      <c r="M100" t="s">
+        <v>135</v>
       </c>
       <c r="N100" t="s">
         <v>38</v>
@@ -5220,40 +5277,37 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="1">
-        <v>40658.824513888889</v>
+        <v>40654.849768518521</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D101">
-        <v>1600.921</v>
+        <v>93.305000000000007</v>
       </c>
       <c r="E101">
-        <v>30.579000000000001</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="F101">
-        <v>397.85899999999998</v>
+        <v>29.73</v>
       </c>
       <c r="G101">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H101">
         <v>94</v>
       </c>
       <c r="I101">
-        <v>0.89818767208949901</v>
+        <v>0.78982913098609597</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>139</v>
-      </c>
-      <c r="M101" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="N101" t="s">
         <v>138</v>
@@ -5264,40 +5318,40 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="1">
-        <v>40658.815578703703</v>
+        <v>40654.853946759256</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D102">
-        <v>1494.671</v>
+        <v>206.608</v>
       </c>
       <c r="E102">
-        <v>19.298999999999999</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="F102">
-        <v>405.185</v>
+        <v>58.323999999999998</v>
       </c>
       <c r="G102">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H102">
         <v>94</v>
       </c>
       <c r="I102">
-        <v>0.90469192997762204</v>
+        <v>0.77767741827453896</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M102" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N102" t="s">
         <v>138</v>
@@ -5308,488 +5362,536 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B103" s="1">
-        <v>40648.543449074074</v>
+        <v>40654.860844907409</v>
       </c>
       <c r="C103" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D103">
-        <v>43.402000000000001</v>
+        <v>686.71699999999998</v>
       </c>
       <c r="E103">
-        <v>4.867</v>
+        <v>7.6820000000000004</v>
       </c>
       <c r="F103">
-        <v>48.255000000000102</v>
+        <v>175.87</v>
       </c>
       <c r="G103">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H103">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I103">
-        <v>0.90945648831618497</v>
+        <v>0.77767741827453896</v>
       </c>
       <c r="J103" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="L103" t="s">
-        <v>91</v>
+        <v>139</v>
+      </c>
+      <c r="M103" t="s">
+        <v>131</v>
       </c>
       <c r="N103" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="O103" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B104" s="1">
-        <v>40648.54142361111</v>
+        <v>40654.866481481484</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D104">
-        <v>131.185</v>
+        <v>216.715</v>
       </c>
       <c r="E104">
-        <v>6.5410000000000004</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F104">
-        <v>50.7349999999999</v>
+        <v>217.19800000000001</v>
       </c>
       <c r="G104">
-        <v>7426</v>
+        <v>14852</v>
       </c>
       <c r="H104">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I104">
-        <v>0.91570247278205597</v>
+        <v>0.63291953497683395</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="L104" t="s">
+        <v>137</v>
+      </c>
+      <c r="M104" t="s">
+        <v>131</v>
       </c>
       <c r="N104" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="O104" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B105" s="1">
-        <v>40639.763333333336</v>
+        <v>40654.897719907407</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D105">
-        <v>355.37</v>
+        <v>2490.451</v>
       </c>
       <c r="E105">
-        <v>3.3370000000000002</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="F105">
-        <v>28.632999999999999</v>
+        <v>2498.9189999999999</v>
       </c>
       <c r="G105">
-        <v>371</v>
+        <v>37131</v>
       </c>
       <c r="H105">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I105">
-        <v>0.93215718230883904</v>
+        <v>0.560539731881459</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>33</v>
+        <v>137</v>
+      </c>
+      <c r="L105" t="s">
+        <v>137</v>
+      </c>
+      <c r="M105" t="s">
+        <v>135</v>
+      </c>
+      <c r="N105" t="s">
+        <v>138</v>
       </c>
       <c r="O105" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B106" s="1">
-        <v>40648.539930555555</v>
+        <v>40655.898888888885</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D106">
-        <v>59.051000000000002</v>
+        <v>3589.3890000000001</v>
       </c>
       <c r="E106">
-        <v>3.5779999999999998</v>
+        <v>10.888999999999999</v>
       </c>
       <c r="F106">
-        <v>18.670999999999999</v>
+        <v>3603.6959999999999</v>
       </c>
       <c r="G106">
-        <v>3713</v>
+        <v>49507</v>
       </c>
       <c r="H106">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I106">
-        <v>0.96561685628127103</v>
+        <v>0.54215361254059102</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>89</v>
+        <v>137</v>
+      </c>
+      <c r="L106" t="s">
+        <v>137</v>
+      </c>
+      <c r="M106" t="s">
+        <v>135</v>
       </c>
       <c r="N106" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="O106" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B107" s="1">
-        <v>40647.911585648151</v>
+        <v>40656.284328703703</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D107">
-        <v>20.614000000000001</v>
+        <v>5978.5940000000001</v>
       </c>
       <c r="E107">
-        <v>1.004</v>
+        <v>81.465000000000003</v>
       </c>
       <c r="F107">
-        <v>21.542999999999701</v>
+        <v>1533.8150000000001</v>
       </c>
       <c r="G107">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H107">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I107">
-        <v>0.99</v>
+        <v>0.53932968453027097</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>152</v>
-      </c>
-      <c r="L107" t="s">
-        <v>153</v>
-      </c>
-      <c r="M107" t="s">
-        <v>151</v>
+        <v>141</v>
+      </c>
+      <c r="N107" t="s">
+        <v>142</v>
       </c>
       <c r="O107" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="1">
+        <v>40656.825995370367</v>
+      </c>
+      <c r="C108" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108">
+        <v>1197.2919999999999</v>
+      </c>
+      <c r="E108">
+        <v>60.024999999999999</v>
+      </c>
+      <c r="F108">
+        <v>338.46699999999998</v>
+      </c>
+      <c r="G108">
+        <v>49507</v>
+      </c>
+      <c r="H108">
+        <v>94</v>
+      </c>
+      <c r="I108">
+        <v>0.53936143445911</v>
+      </c>
+      <c r="J108" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="1">
-        <v>40647.910219907404</v>
-      </c>
-      <c r="C108" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108">
-        <v>20.748999999999999</v>
-      </c>
-      <c r="E108">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="F108">
-        <v>21.721999999999799</v>
-      </c>
-      <c r="G108">
-        <v>1856</v>
-      </c>
-      <c r="H108">
-        <v>80</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108" t="s">
-        <v>17</v>
-      </c>
-      <c r="K108" t="s">
-        <v>152</v>
-      </c>
       <c r="L108" t="s">
-        <v>153</v>
-      </c>
-      <c r="M108" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="N108" t="s">
+        <v>145</v>
       </c>
       <c r="O108" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B109" s="1">
-        <v>40651.292847222219</v>
+        <v>40656.831354166665</v>
       </c>
       <c r="C109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109">
+        <v>1206.809</v>
+      </c>
+      <c r="E109">
+        <v>70.075000000000003</v>
+      </c>
+      <c r="F109">
+        <v>345.29599999999999</v>
+      </c>
+      <c r="G109">
+        <v>49507</v>
+      </c>
+      <c r="H109">
         <v>94</v>
       </c>
-      <c r="D109">
-        <v>208.83199999999999</v>
-      </c>
-      <c r="E109">
-        <v>3.431</v>
-      </c>
-      <c r="F109">
-        <v>52.397999999999897</v>
-      </c>
-      <c r="G109">
-        <v>37131</v>
-      </c>
-      <c r="H109">
-        <v>93</v>
-      </c>
       <c r="I109">
-        <v>1.0142987814422999</v>
+        <v>0.53933957930639798</v>
       </c>
       <c r="J109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>95</v>
+        <v>143</v>
+      </c>
+      <c r="L109" t="s">
+        <v>146</v>
+      </c>
+      <c r="N109" t="s">
+        <v>145</v>
       </c>
       <c r="O109" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B110" s="1">
-        <v>40651.297395833331</v>
+        <v>40656.837557870371</v>
       </c>
       <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110">
+        <v>1216.6759999999999</v>
+      </c>
+      <c r="E110">
+        <v>78.204999999999998</v>
+      </c>
+      <c r="F110">
+        <v>351.79199999999997</v>
+      </c>
+      <c r="G110">
+        <v>49507</v>
+      </c>
+      <c r="H110">
         <v>94</v>
       </c>
-      <c r="D110">
-        <v>353.75200000000001</v>
-      </c>
-      <c r="E110">
-        <v>5.1859999999999999</v>
-      </c>
-      <c r="F110">
-        <v>105.03700000000001</v>
-      </c>
-      <c r="G110">
-        <v>37131</v>
-      </c>
-      <c r="H110">
-        <v>93</v>
-      </c>
       <c r="I110">
-        <v>1.0142987814422999</v>
+        <v>0.53930522813114501</v>
       </c>
       <c r="J110" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="L110" t="s">
-        <v>96</v>
+        <v>147</v>
+      </c>
+      <c r="N110" t="s">
+        <v>145</v>
       </c>
       <c r="O110" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B111" s="1">
-        <v>40648.538935185185</v>
+        <v>40656.869560185187</v>
       </c>
       <c r="C111" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D111">
-        <v>27.919</v>
+        <v>122.69799999999999</v>
       </c>
       <c r="E111">
-        <v>1.92</v>
+        <v>2.86</v>
       </c>
       <c r="F111">
-        <v>9.2449999999999992</v>
+        <v>31.661000000000101</v>
       </c>
       <c r="G111">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H111">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I111">
-        <v>1.0180336300557</v>
+        <v>0.634406625498386</v>
       </c>
       <c r="J111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K111" t="s">
-        <v>88</v>
+        <v>148</v>
+      </c>
+      <c r="L111" t="s">
+        <v>149</v>
       </c>
       <c r="N111" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="O111" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B112" s="1">
-        <v>40651.291076388887</v>
+        <v>40656.87060185185</v>
       </c>
       <c r="C112" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112">
+        <v>180.42699999999999</v>
+      </c>
+      <c r="E112">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="F112">
+        <v>47.348999999999897</v>
+      </c>
+      <c r="G112">
+        <v>49507</v>
+      </c>
+      <c r="H112">
         <v>94</v>
       </c>
-      <c r="D112">
-        <v>44.039000000000001</v>
-      </c>
-      <c r="E112">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="F112">
-        <v>10.587999999999999</v>
-      </c>
-      <c r="G112">
-        <v>7426</v>
-      </c>
-      <c r="H112">
-        <v>93</v>
-      </c>
       <c r="I112">
-        <v>1.02880482206316</v>
+        <v>0.58648098372120105</v>
       </c>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K112" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="L112" t="s">
+        <v>152</v>
+      </c>
+      <c r="N112" t="s">
+        <v>153</v>
       </c>
       <c r="O112" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B113" s="1">
-        <v>40651.289155092592</v>
+        <v>40656.872812499998</v>
       </c>
       <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113">
+        <v>590.16</v>
+      </c>
+      <c r="E113">
+        <v>7.1760000000000002</v>
+      </c>
+      <c r="F113">
+        <v>154.49600000000001</v>
+      </c>
+      <c r="G113">
+        <v>49507</v>
+      </c>
+      <c r="H113">
         <v>94</v>
       </c>
-      <c r="D113">
-        <v>22.766999999999999</v>
-      </c>
-      <c r="E113">
-        <v>0.996</v>
-      </c>
-      <c r="F113">
-        <v>5.8029999999999999</v>
-      </c>
-      <c r="G113">
-        <v>3713</v>
-      </c>
-      <c r="H113">
-        <v>93</v>
-      </c>
       <c r="I113">
-        <v>1.0460162236147099</v>
+        <v>0.56569986367404701</v>
       </c>
       <c r="J113" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>95</v>
+        <v>154</v>
+      </c>
+      <c r="L113" t="s">
+        <v>155</v>
+      </c>
+      <c r="N113" t="s">
+        <v>156</v>
       </c>
       <c r="O113" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B114" s="1">
-        <v>40665.273530092592</v>
+        <v>40656.878275462965</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D114">
-        <v>850.31100000000004</v>
+        <v>1158.596</v>
       </c>
       <c r="E114">
-        <v>9.0329999999999995</v>
+        <v>13.955</v>
       </c>
       <c r="F114">
-        <v>227.876</v>
+        <v>301.77999999999997</v>
       </c>
       <c r="G114">
-        <v>1861</v>
+        <v>49507</v>
       </c>
       <c r="H114">
         <v>94</v>
       </c>
       <c r="I114">
-        <v>1.0780016954015099</v>
+        <v>0.55623853372381105</v>
       </c>
       <c r="J114" t="s">
         <v>21</v>
       </c>
       <c r="K114" t="s">
-        <v>77</v>
-      </c>
-      <c r="M114" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="L114" t="s">
+        <v>158</v>
       </c>
       <c r="N114" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="O114" t="s">
         <v>20</v>
@@ -5797,653 +5899,770 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B115" s="1">
-        <v>40652.309560185182</v>
+        <v>40656.884027777778</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D115">
-        <v>7.5640000000000001</v>
+        <v>1151.5509999999999</v>
       </c>
       <c r="E115">
-        <v>0.217</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F115">
-        <v>21.059999999999899</v>
+        <v>306.65300000000002</v>
       </c>
       <c r="G115">
-        <v>3713</v>
+        <v>49507</v>
       </c>
       <c r="H115">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I115">
-        <v>1.47755844028469</v>
+        <v>0.55623853372381105</v>
       </c>
       <c r="J115" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
-        <v>177</v>
+        <v>143</v>
+      </c>
+      <c r="L115" t="s">
+        <v>160</v>
+      </c>
+      <c r="N115" t="s">
+        <v>145</v>
       </c>
       <c r="O115" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B116" s="1">
-        <v>40659.848344907405</v>
+        <v>40656.885810185187</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D116">
-        <v>2.48</v>
+        <v>1151.5509999999999</v>
       </c>
       <c r="E116">
-        <v>0.13899999999999901</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F116">
-        <v>9.2620000000006293</v>
+        <v>306.65300000000002</v>
       </c>
       <c r="G116">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H116">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I116">
-        <v>1.5317169256021399</v>
+        <v>0.54654888965735504</v>
       </c>
       <c r="J116" t="s">
         <v>21</v>
       </c>
       <c r="K116" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="L116" t="s">
+        <v>160</v>
       </c>
       <c r="N116" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O116" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B117" s="1">
-        <v>40659.85193287037</v>
+        <v>40656.890127314815</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D117">
-        <v>2.46599999999999</v>
+        <v>1160.682</v>
       </c>
       <c r="E117">
-        <v>0.154</v>
+        <v>17.484999999999999</v>
       </c>
       <c r="F117">
-        <v>20.613000000000302</v>
+        <v>309.87200000000001</v>
       </c>
       <c r="G117">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H117">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I117">
-        <v>1.5324814378691001</v>
+        <v>0.54424328908644304</v>
       </c>
       <c r="J117" t="s">
         <v>21</v>
       </c>
       <c r="K117" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N117" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="O117" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="1">
+        <v>40656.894976851851</v>
+      </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118">
+        <v>1201.796</v>
+      </c>
+      <c r="E118">
+        <v>19.233000000000001</v>
+      </c>
+      <c r="F118">
+        <v>324.05200000000002</v>
+      </c>
+      <c r="G118">
+        <v>49507</v>
+      </c>
+      <c r="H118">
+        <v>94</v>
+      </c>
+      <c r="I118">
+        <v>0.54207999278429297</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
         <v>143</v>
       </c>
-      <c r="B118" s="1">
-        <v>40644.84652777778</v>
-      </c>
-      <c r="C118" t="s">
-        <v>146</v>
-      </c>
-      <c r="D118">
-        <v>15.842000000000001</v>
-      </c>
-      <c r="E118">
-        <v>0.49100000000000099</v>
-      </c>
-      <c r="F118">
-        <v>36.243999999999701</v>
-      </c>
-      <c r="G118">
-        <v>7426</v>
-      </c>
-      <c r="H118">
-        <v>80</v>
-      </c>
-      <c r="I118">
-        <v>1.5374895271743101</v>
-      </c>
-      <c r="K118" t="s">
-        <v>147</v>
+      <c r="L118" t="s">
+        <v>162</v>
+      </c>
+      <c r="N118" t="s">
+        <v>145</v>
       </c>
       <c r="O118" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="1">
+        <v>40656.899618055555</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119">
+        <v>1222.123</v>
+      </c>
+      <c r="E119">
+        <v>23.850999999999999</v>
+      </c>
+      <c r="F119">
+        <v>330.56400000000002</v>
+      </c>
+      <c r="G119">
+        <v>49507</v>
+      </c>
+      <c r="H119">
+        <v>94</v>
+      </c>
+      <c r="I119">
+        <v>0.53986151453897102</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="1">
-        <v>40644.848807870374</v>
-      </c>
-      <c r="C119" t="s">
-        <v>146</v>
-      </c>
-      <c r="D119">
-        <v>15.901</v>
-      </c>
-      <c r="E119">
-        <v>0.44700000000000101</v>
-      </c>
-      <c r="F119">
-        <v>36.188000000000102</v>
-      </c>
-      <c r="G119">
-        <v>7426</v>
-      </c>
-      <c r="H119">
-        <v>80</v>
-      </c>
-      <c r="I119">
-        <v>1.5374895271743101</v>
-      </c>
-      <c r="K119" t="s">
-        <v>147</v>
+      <c r="L119" t="s">
+        <v>163</v>
+      </c>
+      <c r="N119" t="s">
+        <v>145</v>
       </c>
       <c r="O119" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="1">
+        <v>40656.904513888891</v>
+      </c>
+      <c r="C120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120">
+        <v>1212.9780000000001</v>
+      </c>
+      <c r="E120">
+        <v>28.611999999999998</v>
+      </c>
+      <c r="F120">
+        <v>333.71800000000002</v>
+      </c>
+      <c r="G120">
+        <v>49507</v>
+      </c>
+      <c r="H120">
+        <v>94</v>
+      </c>
+      <c r="I120">
+        <v>0.539700782307872</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
         <v>143</v>
       </c>
-      <c r="B120" s="1">
-        <v>40644.863437499997</v>
-      </c>
-      <c r="C120" t="s">
-        <v>146</v>
-      </c>
-      <c r="D120">
-        <v>15.666</v>
-      </c>
-      <c r="E120">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="F120">
-        <v>16.0569999999998</v>
-      </c>
-      <c r="G120">
-        <v>7426</v>
-      </c>
-      <c r="H120">
-        <v>80</v>
-      </c>
-      <c r="I120">
-        <v>1.54316586262694</v>
-      </c>
-      <c r="K120" t="s">
-        <v>147</v>
+      <c r="L120" t="s">
+        <v>164</v>
+      </c>
+      <c r="N120" t="s">
+        <v>145</v>
       </c>
       <c r="O120" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B121" s="1">
-        <v>40652.307604166665</v>
+        <v>40666.813668981478</v>
       </c>
       <c r="C121" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D121">
-        <v>4.0419999999999998</v>
+        <v>1218.4059999999999</v>
       </c>
       <c r="E121">
-        <v>0.107</v>
+        <v>13.275</v>
       </c>
       <c r="F121">
-        <v>12.631999999999801</v>
+        <v>421.81500000000102</v>
       </c>
       <c r="G121">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H121">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I121">
-        <v>1.5610810802361099</v>
+        <v>0.12536189610905801</v>
       </c>
       <c r="J121" t="s">
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>177</v>
+        <v>157</v>
+      </c>
+      <c r="L121" t="s">
+        <v>158</v>
+      </c>
+      <c r="N121" t="s">
+        <v>159</v>
       </c>
       <c r="O121" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1">
-        <v>40644.861122685186</v>
+        <v>40666.822210648148</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D122">
-        <v>16.733000000000001</v>
+        <v>1642.7940000000001</v>
       </c>
       <c r="E122">
-        <v>0.47099999999999997</v>
+        <v>19.914000000000001</v>
       </c>
       <c r="F122">
-        <v>17.1170000000002</v>
+        <v>433.00200000000001</v>
       </c>
       <c r="G122">
-        <v>7426</v>
+        <v>61878</v>
       </c>
       <c r="H122">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I122">
-        <v>1.56821048218277</v>
+        <v>0.12538954403165201</v>
+      </c>
+      <c r="J122" t="s">
+        <v>21</v>
       </c>
       <c r="K122" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="L122" t="s">
+        <v>160</v>
+      </c>
+      <c r="N122" t="s">
+        <v>145</v>
       </c>
       <c r="O122" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B123" s="1">
-        <v>40644.859270833331</v>
+        <v>40666.829050925924</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D123">
-        <v>14.928000000000001</v>
+        <v>823.846</v>
       </c>
       <c r="E123">
-        <v>0.40100000000000002</v>
+        <v>11.052</v>
       </c>
       <c r="F123">
-        <v>15.249000000000301</v>
+        <v>211.864</v>
       </c>
       <c r="G123">
-        <v>7426</v>
+        <v>61878</v>
       </c>
       <c r="H123">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I123">
-        <v>1.57773355605539</v>
+        <v>0.12544978906972201</v>
+      </c>
+      <c r="J123" t="s">
+        <v>21</v>
       </c>
       <c r="K123" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="L123" t="s">
+        <v>155</v>
+      </c>
+      <c r="N123" t="s">
+        <v>156</v>
       </c>
       <c r="O123" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B124" s="1">
-        <v>40644.830034722225</v>
+        <v>40666.858576388891</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D124">
-        <v>72.912000000000006</v>
+        <v>1729.7170000000001</v>
       </c>
       <c r="E124">
-        <v>2.387</v>
+        <v>23.690999999999999</v>
       </c>
       <c r="F124">
-        <v>74.873000000000005</v>
+        <v>439.70899999999898</v>
       </c>
       <c r="G124">
-        <v>7426</v>
+        <v>61878</v>
       </c>
       <c r="H124">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I124">
-        <v>1.58129073532396</v>
+        <v>0.12547118097591101</v>
+      </c>
+      <c r="J124" t="s">
+        <v>21</v>
       </c>
       <c r="K124" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+      <c r="L124" t="s">
+        <v>160</v>
+      </c>
+      <c r="N124" t="s">
+        <v>145</v>
       </c>
       <c r="O124" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B125" s="1">
-        <v>40659.863749999997</v>
+        <v>40666.864722222221</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D125">
-        <v>5.5699999999999896</v>
+        <v>1696.5940000000001</v>
       </c>
       <c r="E125">
-        <v>0.30600000000000099</v>
+        <v>25.24</v>
       </c>
       <c r="F125">
-        <v>60.558</v>
+        <v>452.84400000000102</v>
       </c>
       <c r="G125">
-        <v>3713</v>
+        <v>61878</v>
       </c>
       <c r="H125">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I125">
-        <v>1.5823919857797799</v>
+        <v>0.125500889889751</v>
       </c>
       <c r="J125" t="s">
         <v>21</v>
       </c>
       <c r="K125" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N125" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O125" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B126" s="1">
-        <v>40644.980844907404</v>
+        <v>40666.87090277778</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D126">
-        <v>95.006</v>
+        <v>1661.3409999999999</v>
       </c>
       <c r="E126">
-        <v>3.335</v>
+        <v>29.88</v>
       </c>
       <c r="F126">
-        <v>1510.02</v>
+        <v>450.28500000000003</v>
       </c>
       <c r="G126">
-        <v>22278</v>
+        <v>61878</v>
       </c>
       <c r="H126">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I126">
-        <v>1.5833199935014</v>
+        <v>0.12547938154128399</v>
+      </c>
+      <c r="J126" t="s">
+        <v>21</v>
       </c>
       <c r="K126" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="L126" t="s">
+        <v>162</v>
+      </c>
+      <c r="N126" t="s">
+        <v>145</v>
       </c>
       <c r="O126" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B127" s="1">
-        <v>40644.890833333331</v>
+        <v>40658.815578703703</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D127">
-        <v>94.869</v>
+        <v>1494.671</v>
       </c>
       <c r="E127">
-        <v>3.2869999999999999</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="F127">
-        <v>1216.4549999999999</v>
+        <v>405.185</v>
       </c>
       <c r="G127">
-        <v>22278</v>
+        <v>1861</v>
       </c>
       <c r="H127">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I127">
-        <v>1.58337486055827</v>
+        <v>0.90469192997762204</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="M127" t="s">
+        <v>167</v>
+      </c>
+      <c r="N127" t="s">
+        <v>168</v>
       </c>
       <c r="O127" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B128" s="1">
-        <v>40645.295682870368</v>
+        <v>40658.824513888889</v>
       </c>
       <c r="C128" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D128">
-        <v>91.376999999999995</v>
+        <v>1600.921</v>
       </c>
       <c r="E128">
-        <v>1.498</v>
+        <v>30.579000000000001</v>
       </c>
       <c r="F128">
-        <v>92.478999999999999</v>
+        <v>397.85899999999998</v>
       </c>
       <c r="G128">
-        <v>22278</v>
+        <v>1861</v>
       </c>
       <c r="H128">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I128">
-        <v>1.58384242553734</v>
+        <v>0.89818767208949901</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
       </c>
       <c r="K128" t="s">
-        <v>148</v>
+        <v>169</v>
+      </c>
+      <c r="M128" t="s">
+        <v>131</v>
+      </c>
+      <c r="N128" t="s">
+        <v>168</v>
       </c>
       <c r="O128" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B129" s="1">
-        <v>40659.847118055557</v>
+        <v>40658.838333333333</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="D129">
-        <v>2.976</v>
+        <v>4225.3010000000004</v>
       </c>
       <c r="E129">
-        <v>0.28299999999999997</v>
+        <v>56.110999999999997</v>
       </c>
       <c r="F129">
-        <v>100.997</v>
+        <v>1041.828</v>
       </c>
       <c r="G129">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H129">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I129">
-        <v>1.5866800350352499</v>
+        <v>0.81984717792192097</v>
       </c>
       <c r="J129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K129" t="s">
-        <v>157</v>
+        <v>170</v>
+      </c>
+      <c r="M129" t="s">
+        <v>131</v>
       </c>
       <c r="N129" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="O129" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B130" s="1">
-        <v>40642.007476851853</v>
+        <v>40658.874039351853</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D130">
-        <v>315.97500000000002</v>
+        <v>11717.561</v>
       </c>
       <c r="E130">
-        <v>29.097000000000001</v>
+        <v>122.316</v>
       </c>
       <c r="F130">
-        <v>323.35300000000001</v>
+        <v>2818.88</v>
       </c>
       <c r="G130">
-        <v>7426</v>
+        <v>7429</v>
       </c>
       <c r="H130">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I130">
-        <v>1.59003529389746</v>
+        <v>0.75352613020479797</v>
+      </c>
+      <c r="J130" t="s">
+        <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>145</v>
+        <v>171</v>
+      </c>
+      <c r="M130" t="s">
+        <v>131</v>
+      </c>
+      <c r="N130" t="s">
+        <v>168</v>
       </c>
       <c r="O130" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B131" s="1">
-        <v>40644.853368055556</v>
+        <v>40658.947094907409</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D131">
-        <v>15.009</v>
+        <v>22890.037</v>
       </c>
       <c r="E131">
-        <v>0.57799999999999896</v>
+        <v>220.09399999999999</v>
       </c>
       <c r="F131">
-        <v>114.17400000000001</v>
+        <v>5557.5360000000001</v>
       </c>
       <c r="G131">
-        <v>7426</v>
+        <v>11144</v>
       </c>
       <c r="H131">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I131">
-        <v>1.5939681680293001</v>
+        <v>0.71440528118659097</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="M131" t="s">
+        <v>131</v>
+      </c>
+      <c r="N131" t="s">
+        <v>168</v>
       </c>
       <c r="O131" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B132" s="1">
-        <v>40644.856076388889</v>
+        <v>40642.007476851853</v>
       </c>
       <c r="C132" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D132">
-        <v>15.125</v>
+        <v>315.97500000000002</v>
       </c>
       <c r="E132">
-        <v>0.54299999999999904</v>
+        <v>29.097000000000001</v>
       </c>
       <c r="F132">
-        <v>116.895</v>
+        <v>323.35300000000001</v>
       </c>
       <c r="G132">
         <v>7426</v>
@@ -6452,10 +6671,10 @@
         <v>80</v>
       </c>
       <c r="I132">
-        <v>1.5939681680293001</v>
+        <v>1.59003529389746</v>
       </c>
       <c r="K132" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="O132" t="s">
         <v>32</v>
@@ -6463,34 +6682,34 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B133" s="1">
-        <v>40645.301527777781</v>
+        <v>40644.830034722225</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D133">
-        <v>230.64400000000001</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="E133">
-        <v>3.0230000000000001</v>
+        <v>2.387</v>
       </c>
       <c r="F133">
-        <v>232.80799999999999</v>
+        <v>74.873000000000005</v>
       </c>
       <c r="G133">
-        <v>37131</v>
+        <v>7426</v>
       </c>
       <c r="H133">
         <v>80</v>
       </c>
       <c r="I133">
-        <v>1.60920568515367</v>
+        <v>1.58129073532396</v>
       </c>
       <c r="K133" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="O133" t="s">
         <v>32</v>
@@ -6498,34 +6717,34 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B134" s="1">
-        <v>40644.876087962963</v>
+        <v>40644.84652777778</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D134">
-        <v>46.767000000000102</v>
+        <v>15.842000000000001</v>
       </c>
       <c r="E134">
-        <v>1.6379999999999999</v>
+        <v>0.49100000000000099</v>
       </c>
       <c r="F134">
-        <v>553.19600000000003</v>
+        <v>36.243999999999701</v>
       </c>
       <c r="G134">
-        <v>14852</v>
+        <v>7426</v>
       </c>
       <c r="H134">
         <v>80</v>
       </c>
       <c r="I134">
-        <v>1.6284161515828499</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K134" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="O134" t="s">
         <v>32</v>
@@ -6533,40 +6752,34 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B135" s="1">
-        <v>40659.844583333332</v>
+        <v>40644.848807870374</v>
       </c>
       <c r="C135" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D135">
-        <v>3.0630000000000002</v>
+        <v>15.901</v>
       </c>
       <c r="E135">
-        <v>0.26600000000000001</v>
+        <v>0.44700000000000101</v>
       </c>
       <c r="F135">
-        <v>93.864000000000502</v>
+        <v>36.188000000000102</v>
       </c>
       <c r="G135">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H135">
         <v>80</v>
       </c>
       <c r="I135">
-        <v>1.6325571524315501</v>
-      </c>
-      <c r="J135" t="s">
-        <v>21</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K135" t="s">
-        <v>155</v>
-      </c>
-      <c r="N135" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="O135" t="s">
         <v>32</v>
@@ -6574,43 +6787,34 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B136" s="1">
-        <v>40647.90828703704</v>
+        <v>40644.853368055556</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D136">
-        <v>20.206</v>
+        <v>15.009</v>
       </c>
       <c r="E136">
-        <v>1.0740000000000001</v>
+        <v>0.57799999999999896</v>
       </c>
       <c r="F136">
-        <v>21.203000000000401</v>
+        <v>114.17400000000001</v>
       </c>
       <c r="G136">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H136">
         <v>80</v>
       </c>
       <c r="I136">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J136" t="s">
-        <v>21</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K136" t="s">
-        <v>152</v>
-      </c>
-      <c r="L136" t="s">
-        <v>153</v>
-      </c>
-      <c r="M136" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O136" t="s">
         <v>32</v>
@@ -6618,43 +6822,34 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B137" s="1">
-        <v>40647.918564814812</v>
+        <v>40644.856076388889</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D137">
-        <v>20.510999999999999</v>
+        <v>15.125</v>
       </c>
       <c r="E137">
-        <v>1.0049999999999999</v>
+        <v>0.54299999999999904</v>
       </c>
       <c r="F137">
-        <v>21.440000000000499</v>
+        <v>116.895</v>
       </c>
       <c r="G137">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H137">
         <v>80</v>
       </c>
       <c r="I137">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J137" t="s">
-        <v>21</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K137" t="s">
-        <v>152</v>
-      </c>
-      <c r="L137" t="s">
-        <v>153</v>
-      </c>
-      <c r="M137" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O137" t="s">
         <v>32</v>
@@ -6662,81 +6857,69 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B138" s="1">
-        <v>40659.856979166667</v>
+        <v>40644.859270833331</v>
       </c>
       <c r="C138" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D138">
-        <v>9.4990000000000094</v>
+        <v>14.928000000000001</v>
       </c>
       <c r="E138">
-        <v>0.66600000000000004</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F138">
-        <v>45.574000000000503</v>
+        <v>15.249000000000301</v>
       </c>
       <c r="G138">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H138">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I138">
-        <v>1.6391630597812601</v>
-      </c>
-      <c r="J138" t="s">
-        <v>21</v>
+        <v>1.57773355605539</v>
       </c>
       <c r="K138" t="s">
-        <v>163</v>
-      </c>
-      <c r="N138" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O138" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B139" s="1">
-        <v>40659.860312500001</v>
+        <v>40644.861122685186</v>
       </c>
       <c r="C139" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D139">
-        <v>9.7119999999999909</v>
+        <v>16.733000000000001</v>
       </c>
       <c r="E139">
-        <v>0.70799999999999996</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F139">
-        <v>46.558</v>
+        <v>17.1170000000002</v>
       </c>
       <c r="G139">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H139">
         <v>93</v>
       </c>
       <c r="I139">
-        <v>1.6391630597812601</v>
-      </c>
-      <c r="J139" t="s">
-        <v>21</v>
+        <v>1.56821048218277</v>
       </c>
       <c r="K139" t="s">
-        <v>163</v>
-      </c>
-      <c r="N139" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O139" t="s">
         <v>39</v>
@@ -6744,13 +6927,13 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B140" s="1">
         <v>40644.862372685187</v>
       </c>
       <c r="C140" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D140">
         <v>17.763000000000002</v>
@@ -6771,7 +6954,7 @@
         <v>1.6500830141598</v>
       </c>
       <c r="K140" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="O140" t="s">
         <v>39</v>
@@ -6779,43 +6962,34 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B141" s="1">
-        <v>40659.86519675926</v>
+        <v>40644.863437499997</v>
       </c>
       <c r="C141" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D141">
-        <v>4.8290000000000104</v>
+        <v>15.666</v>
       </c>
       <c r="E141">
-        <v>0.30399999999999799</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F141">
-        <v>55.797999999999803</v>
+        <v>16.0569999999998</v>
       </c>
       <c r="G141">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H141">
         <v>80</v>
       </c>
       <c r="I141">
-        <v>1.6568002530577599</v>
-      </c>
-      <c r="J141" t="s">
-        <v>21</v>
+        <v>1.54316586262694</v>
       </c>
       <c r="K141" t="s">
-        <v>166</v>
-      </c>
-      <c r="L141" t="s">
-        <v>162</v>
-      </c>
-      <c r="N141" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O141" t="s">
         <v>32</v>
@@ -6823,46 +6997,34 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B142" s="1">
-        <v>40659.867673611108</v>
+        <v>40644.868576388886</v>
       </c>
       <c r="C142" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D142">
-        <v>4.9149999999999903</v>
+        <v>54.494999999999997</v>
       </c>
       <c r="E142">
-        <v>0.315999999999999</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F142">
-        <v>62.327999999999498</v>
+        <v>55.336000000000197</v>
       </c>
       <c r="G142">
-        <v>3713</v>
+        <v>14852</v>
       </c>
       <c r="H142">
         <v>80</v>
       </c>
       <c r="I142">
-        <v>1.65692310884533</v>
-      </c>
-      <c r="J142" t="s">
-        <v>21</v>
+        <v>1.8013924389029601</v>
       </c>
       <c r="K142" t="s">
-        <v>166</v>
-      </c>
-      <c r="L142" t="s">
-        <v>162</v>
-      </c>
-      <c r="M142" t="s">
-        <v>167</v>
-      </c>
-      <c r="N142" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O142" t="s">
         <v>32</v>
@@ -6870,46 +7032,34 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B143" s="1">
-        <v>40659.869687500002</v>
+        <v>40644.876087962963</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D143">
-        <v>4.9019999999999904</v>
+        <v>46.767000000000102</v>
       </c>
       <c r="E143">
-        <v>0.30499999999999999</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F143">
-        <v>52.561000000000597</v>
+        <v>553.19600000000003</v>
       </c>
       <c r="G143">
-        <v>3713</v>
+        <v>14852</v>
       </c>
       <c r="H143">
         <v>80</v>
       </c>
       <c r="I143">
-        <v>1.65804340818409</v>
-      </c>
-      <c r="J143" t="s">
-        <v>21</v>
+        <v>1.6284161515828499</v>
       </c>
       <c r="K143" t="s">
-        <v>152</v>
-      </c>
-      <c r="L143" t="s">
-        <v>168</v>
-      </c>
-      <c r="M143" t="s">
-        <v>167</v>
-      </c>
-      <c r="N143" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O143" t="s">
         <v>32</v>
@@ -6917,43 +7067,34 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B144" s="1">
-        <v>40647.907395833332</v>
+        <v>40644.890833333331</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D144">
-        <v>12.09</v>
+        <v>94.869</v>
       </c>
       <c r="E144">
-        <v>0.53400000000000003</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F144">
-        <v>12.579999999999901</v>
+        <v>1216.4549999999999</v>
       </c>
       <c r="G144">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H144">
         <v>80</v>
       </c>
       <c r="I144">
-        <v>1.66250101299196</v>
-      </c>
-      <c r="J144" t="s">
-        <v>21</v>
+        <v>1.58337486055827</v>
       </c>
       <c r="K144" t="s">
-        <v>149</v>
-      </c>
-      <c r="L144" t="s">
-        <v>150</v>
-      </c>
-      <c r="M144" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O144" t="s">
         <v>32</v>
@@ -6961,122 +7102,104 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B145" s="1">
-        <v>40659.853425925925</v>
+        <v>40644.980844907404</v>
       </c>
       <c r="C145" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D145">
-        <v>5.2539999999999996</v>
+        <v>95.006</v>
       </c>
       <c r="E145">
-        <v>0.26300000000000001</v>
+        <v>3.335</v>
       </c>
       <c r="F145">
-        <v>43.096000000000501</v>
+        <v>1510.02</v>
       </c>
       <c r="G145">
-        <v>3713</v>
+        <v>22278</v>
       </c>
       <c r="H145">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I145">
-        <v>1.67947876411185</v>
-      </c>
-      <c r="J145" t="s">
-        <v>21</v>
+        <v>1.5833199935014</v>
       </c>
       <c r="K145" t="s">
-        <v>161</v>
-      </c>
-      <c r="L145" t="s">
-        <v>160</v>
-      </c>
-      <c r="N145" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O145" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B146" s="1">
-        <v>40659.854687500003</v>
+        <v>40645.289965277778</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D146">
-        <v>5.2880000000000003</v>
+        <v>126.211</v>
       </c>
       <c r="E146">
-        <v>0.29799999999999999</v>
+        <v>1.462</v>
       </c>
       <c r="F146">
-        <v>58.8149999999996</v>
+        <v>127.443</v>
       </c>
       <c r="G146">
-        <v>3713</v>
+        <v>22278</v>
       </c>
       <c r="H146">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I146">
-        <v>1.67947876411185</v>
-      </c>
-      <c r="J146" t="s">
-        <v>21</v>
+        <v>1.92982759815376</v>
       </c>
       <c r="K146" t="s">
-        <v>161</v>
-      </c>
-      <c r="L146" t="s">
-        <v>162</v>
-      </c>
-      <c r="N146" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="O146" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B147" s="1">
-        <v>40644.868576388886</v>
+        <v>40645.295682870368</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D147">
-        <v>54.494999999999997</v>
+        <v>91.376999999999995</v>
       </c>
       <c r="E147">
-        <v>1.0149999999999999</v>
+        <v>1.498</v>
       </c>
       <c r="F147">
-        <v>55.336000000000197</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="G147">
-        <v>14852</v>
+        <v>22278</v>
       </c>
       <c r="H147">
         <v>80</v>
       </c>
       <c r="I147">
-        <v>1.8013924389029601</v>
+        <v>1.58384242553734</v>
       </c>
       <c r="K147" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="O147" t="s">
         <v>32</v>
@@ -7084,37 +7207,1016 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B148" s="1">
-        <v>40645.289965277778</v>
+        <v>40645.301527777781</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D148">
-        <v>126.211</v>
+        <v>230.64400000000001</v>
       </c>
       <c r="E148">
-        <v>1.462</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="F148">
-        <v>127.443</v>
+        <v>232.80799999999999</v>
       </c>
       <c r="G148">
-        <v>22278</v>
+        <v>37131</v>
       </c>
       <c r="H148">
         <v>80</v>
       </c>
       <c r="I148">
-        <v>1.92982759815376</v>
+        <v>1.60920568515367</v>
       </c>
       <c r="K148" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="O148" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="1">
+        <v>40647.907395833332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149">
+        <v>12.09</v>
+      </c>
+      <c r="E149">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F149">
+        <v>12.579999999999901</v>
+      </c>
+      <c r="G149">
+        <v>1856</v>
+      </c>
+      <c r="H149">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>1.66250101299196</v>
+      </c>
+      <c r="J149" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" t="s">
+        <v>179</v>
+      </c>
+      <c r="L149" t="s">
+        <v>180</v>
+      </c>
+      <c r="M149" t="s">
+        <v>181</v>
+      </c>
+      <c r="O149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" s="1">
+        <v>40647.90828703704</v>
+      </c>
+      <c r="C150" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150">
+        <v>20.206</v>
+      </c>
+      <c r="E150">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="F150">
+        <v>21.203000000000401</v>
+      </c>
+      <c r="G150">
+        <v>1856</v>
+      </c>
+      <c r="H150">
+        <v>80</v>
+      </c>
+      <c r="I150">
+        <v>1.63488299912919</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" t="s">
+        <v>182</v>
+      </c>
+      <c r="L150" t="s">
+        <v>183</v>
+      </c>
+      <c r="M150" t="s">
+        <v>181</v>
+      </c>
+      <c r="O150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="1">
+        <v>40647.910219907404</v>
+      </c>
+      <c r="C151" t="s">
+        <v>176</v>
+      </c>
+      <c r="D151">
+        <v>20.748999999999999</v>
+      </c>
+      <c r="E151">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="F151">
+        <v>21.721999999999799</v>
+      </c>
+      <c r="G151">
+        <v>1856</v>
+      </c>
+      <c r="H151">
+        <v>80</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" t="s">
+        <v>182</v>
+      </c>
+      <c r="L151" t="s">
+        <v>183</v>
+      </c>
+      <c r="M151" t="s">
+        <v>181</v>
+      </c>
+      <c r="O151" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="1">
+        <v>40647.911585648151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>176</v>
+      </c>
+      <c r="D152">
+        <v>20.614000000000001</v>
+      </c>
+      <c r="E152">
+        <v>1.004</v>
+      </c>
+      <c r="F152">
+        <v>21.542999999999701</v>
+      </c>
+      <c r="G152">
+        <v>1856</v>
+      </c>
+      <c r="H152">
+        <v>80</v>
+      </c>
+      <c r="I152">
+        <v>0.99</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" t="s">
+        <v>182</v>
+      </c>
+      <c r="L152" t="s">
+        <v>183</v>
+      </c>
+      <c r="M152" t="s">
+        <v>181</v>
+      </c>
+      <c r="O152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="1">
+        <v>40647.918564814812</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153">
+        <v>20.510999999999999</v>
+      </c>
+      <c r="E153">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F153">
+        <v>21.440000000000499</v>
+      </c>
+      <c r="G153">
+        <v>1856</v>
+      </c>
+      <c r="H153">
+        <v>80</v>
+      </c>
+      <c r="I153">
+        <v>1.63488299912919</v>
+      </c>
+      <c r="J153" t="s">
+        <v>21</v>
+      </c>
+      <c r="K153" t="s">
+        <v>182</v>
+      </c>
+      <c r="L153" t="s">
+        <v>183</v>
+      </c>
+      <c r="M153" t="s">
+        <v>181</v>
+      </c>
+      <c r="O153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="1">
+        <v>40659.844583333332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>184</v>
+      </c>
+      <c r="D154">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="E154">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F154">
+        <v>93.864000000000502</v>
+      </c>
+      <c r="G154">
+        <v>1856</v>
+      </c>
+      <c r="H154">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>1.6325571524315501</v>
+      </c>
+      <c r="J154" t="s">
+        <v>21</v>
+      </c>
+      <c r="K154" t="s">
+        <v>185</v>
+      </c>
+      <c r="N154" t="s">
+        <v>186</v>
+      </c>
+      <c r="O154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" s="1">
+        <v>40659.847118055557</v>
+      </c>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155">
+        <v>2.976</v>
+      </c>
+      <c r="E155">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F155">
+        <v>100.997</v>
+      </c>
+      <c r="G155">
+        <v>1856</v>
+      </c>
+      <c r="H155">
+        <v>93</v>
+      </c>
+      <c r="I155">
+        <v>1.5866800350352499</v>
+      </c>
+      <c r="J155" t="s">
+        <v>21</v>
+      </c>
+      <c r="K155" t="s">
+        <v>187</v>
+      </c>
+      <c r="N155" t="s">
+        <v>186</v>
+      </c>
+      <c r="O155" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="1">
+        <v>40659.848344907405</v>
+      </c>
+      <c r="C156" t="s">
+        <v>176</v>
+      </c>
+      <c r="D156">
+        <v>2.48</v>
+      </c>
+      <c r="E156">
+        <v>0.13899999999999901</v>
+      </c>
+      <c r="F156">
+        <v>9.2620000000006293</v>
+      </c>
+      <c r="G156">
+        <v>1856</v>
+      </c>
+      <c r="H156">
+        <v>93</v>
+      </c>
+      <c r="I156">
+        <v>1.5317169256021399</v>
+      </c>
+      <c r="J156" t="s">
+        <v>21</v>
+      </c>
+      <c r="K156" t="s">
+        <v>188</v>
+      </c>
+      <c r="N156" t="s">
+        <v>186</v>
+      </c>
+      <c r="O156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="1">
+        <v>40659.85193287037</v>
+      </c>
+      <c r="C157" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157">
+        <v>2.46599999999999</v>
+      </c>
+      <c r="E157">
+        <v>0.154</v>
+      </c>
+      <c r="F157">
+        <v>20.613000000000302</v>
+      </c>
+      <c r="G157">
+        <v>1856</v>
+      </c>
+      <c r="H157">
+        <v>93</v>
+      </c>
+      <c r="I157">
+        <v>1.5324814378691001</v>
+      </c>
+      <c r="J157" t="s">
+        <v>21</v>
+      </c>
+      <c r="K157" t="s">
+        <v>189</v>
+      </c>
+      <c r="L157" t="s">
+        <v>190</v>
+      </c>
+      <c r="N157" t="s">
+        <v>186</v>
+      </c>
+      <c r="O157" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158" s="1">
+        <v>40659.853425925925</v>
+      </c>
+      <c r="C158" t="s">
+        <v>176</v>
+      </c>
+      <c r="D158">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="E158">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F158">
+        <v>43.096000000000501</v>
+      </c>
+      <c r="G158">
+        <v>3713</v>
+      </c>
+      <c r="H158">
+        <v>93</v>
+      </c>
+      <c r="I158">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J158" t="s">
+        <v>21</v>
+      </c>
+      <c r="K158" t="s">
+        <v>191</v>
+      </c>
+      <c r="L158" t="s">
+        <v>190</v>
+      </c>
+      <c r="N158" t="s">
+        <v>186</v>
+      </c>
+      <c r="O158" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" s="1">
+        <v>40659.854687500003</v>
+      </c>
+      <c r="C159" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="E159">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F159">
+        <v>58.8149999999996</v>
+      </c>
+      <c r="G159">
+        <v>3713</v>
+      </c>
+      <c r="H159">
+        <v>93</v>
+      </c>
+      <c r="I159">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" t="s">
+        <v>191</v>
+      </c>
+      <c r="L159" t="s">
+        <v>192</v>
+      </c>
+      <c r="N159" t="s">
+        <v>186</v>
+      </c>
+      <c r="O159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" t="s">
+        <v>173</v>
+      </c>
+      <c r="B160" s="1">
+        <v>40659.856979166667</v>
+      </c>
+      <c r="C160" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160">
+        <v>9.4990000000000094</v>
+      </c>
+      <c r="E160">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F160">
+        <v>45.574000000000503</v>
+      </c>
+      <c r="G160">
+        <v>3713</v>
+      </c>
+      <c r="H160">
+        <v>93</v>
+      </c>
+      <c r="I160">
+        <v>1.6391630597812601</v>
+      </c>
+      <c r="J160" t="s">
+        <v>21</v>
+      </c>
+      <c r="K160" t="s">
+        <v>193</v>
+      </c>
+      <c r="N160" t="s">
+        <v>186</v>
+      </c>
+      <c r="O160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="1">
+        <v>40659.860312500001</v>
+      </c>
+      <c r="C161" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161">
+        <v>9.7119999999999909</v>
+      </c>
+      <c r="E161">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F161">
+        <v>46.558</v>
+      </c>
+      <c r="G161">
+        <v>3713</v>
+      </c>
+      <c r="H161">
+        <v>93</v>
+      </c>
+      <c r="I161">
+        <v>1.6391630597812601</v>
+      </c>
+      <c r="J161" t="s">
+        <v>21</v>
+      </c>
+      <c r="K161" t="s">
+        <v>193</v>
+      </c>
+      <c r="N161" t="s">
+        <v>194</v>
+      </c>
+      <c r="O161" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="1">
+        <v>40659.863749999997</v>
+      </c>
+      <c r="C162" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162">
+        <v>5.5699999999999896</v>
+      </c>
+      <c r="E162">
+        <v>0.30600000000000099</v>
+      </c>
+      <c r="F162">
+        <v>60.558</v>
+      </c>
+      <c r="G162">
+        <v>3713</v>
+      </c>
+      <c r="H162">
+        <v>93</v>
+      </c>
+      <c r="I162">
+        <v>1.5823919857797799</v>
+      </c>
+      <c r="J162" t="s">
+        <v>21</v>
+      </c>
+      <c r="K162" t="s">
+        <v>195</v>
+      </c>
+      <c r="L162" t="s">
+        <v>192</v>
+      </c>
+      <c r="N162" t="s">
+        <v>194</v>
+      </c>
+      <c r="O162" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" s="1">
+        <v>40659.86519675926</v>
+      </c>
+      <c r="C163" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163">
+        <v>4.8290000000000104</v>
+      </c>
+      <c r="E163">
+        <v>0.30399999999999799</v>
+      </c>
+      <c r="F163">
+        <v>55.797999999999803</v>
+      </c>
+      <c r="G163">
+        <v>3713</v>
+      </c>
+      <c r="H163">
+        <v>80</v>
+      </c>
+      <c r="I163">
+        <v>1.6568002530577599</v>
+      </c>
+      <c r="J163" t="s">
+        <v>21</v>
+      </c>
+      <c r="K163" t="s">
+        <v>196</v>
+      </c>
+      <c r="L163" t="s">
+        <v>192</v>
+      </c>
+      <c r="N163" t="s">
+        <v>194</v>
+      </c>
+      <c r="O163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="1">
+        <v>40659.867673611108</v>
+      </c>
+      <c r="C164" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164">
+        <v>4.9149999999999903</v>
+      </c>
+      <c r="E164">
+        <v>0.315999999999999</v>
+      </c>
+      <c r="F164">
+        <v>62.327999999999498</v>
+      </c>
+      <c r="G164">
+        <v>3713</v>
+      </c>
+      <c r="H164">
+        <v>80</v>
+      </c>
+      <c r="I164">
+        <v>1.65692310884533</v>
+      </c>
+      <c r="J164" t="s">
+        <v>21</v>
+      </c>
+      <c r="K164" t="s">
+        <v>196</v>
+      </c>
+      <c r="L164" t="s">
+        <v>192</v>
+      </c>
+      <c r="M164" t="s">
+        <v>197</v>
+      </c>
+      <c r="N164" t="s">
+        <v>194</v>
+      </c>
+      <c r="O164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="1">
+        <v>40659.869687500002</v>
+      </c>
+      <c r="C165" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165">
+        <v>4.9019999999999904</v>
+      </c>
+      <c r="E165">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F165">
+        <v>52.561000000000597</v>
+      </c>
+      <c r="G165">
+        <v>3713</v>
+      </c>
+      <c r="H165">
+        <v>80</v>
+      </c>
+      <c r="I165">
+        <v>1.65804340818409</v>
+      </c>
+      <c r="J165" t="s">
+        <v>21</v>
+      </c>
+      <c r="K165" t="s">
+        <v>182</v>
+      </c>
+      <c r="L165" t="s">
+        <v>198</v>
+      </c>
+      <c r="M165" t="s">
+        <v>197</v>
+      </c>
+      <c r="N165" t="s">
+        <v>194</v>
+      </c>
+      <c r="O165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" t="s">
+        <v>199</v>
+      </c>
+      <c r="B166" s="1">
+        <v>40661.520416666666</v>
+      </c>
+      <c r="C166" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166">
+        <v>147.87</v>
+      </c>
+      <c r="E166">
+        <v>0.47</v>
+      </c>
+      <c r="F166">
+        <v>149.09</v>
+      </c>
+      <c r="G166">
+        <v>1861</v>
+      </c>
+      <c r="H166">
+        <v>94</v>
+      </c>
+      <c r="I166">
+        <v>0.879687868181247</v>
+      </c>
+      <c r="J166" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" t="s">
+        <v>200</v>
+      </c>
+      <c r="N166" t="s">
+        <v>201</v>
+      </c>
+      <c r="O166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167" s="1">
+        <v>40661.526898148149</v>
+      </c>
+      <c r="C167" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167">
+        <v>437.02</v>
+      </c>
+      <c r="E167">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F167">
+        <v>440.29</v>
+      </c>
+      <c r="G167">
+        <v>3718</v>
+      </c>
+      <c r="H167">
+        <v>94</v>
+      </c>
+      <c r="I167">
+        <v>0.816933944528761</v>
+      </c>
+      <c r="J167" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" t="s">
+        <v>202</v>
+      </c>
+      <c r="N167" t="s">
+        <v>201</v>
+      </c>
+      <c r="O167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="1">
+        <v>40661.551562499997</v>
+      </c>
+      <c r="C168" t="s">
+        <v>174</v>
+      </c>
+      <c r="D168">
+        <v>1400.45</v>
+      </c>
+      <c r="E168">
+        <v>11.27</v>
+      </c>
+      <c r="F168">
+        <v>1413.65</v>
+      </c>
+      <c r="G168">
+        <v>7429</v>
+      </c>
+      <c r="H168">
+        <v>94</v>
+      </c>
+      <c r="I168">
+        <v>0.75435019649979396</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>203</v>
+      </c>
+      <c r="N168" t="s">
+        <v>201</v>
+      </c>
+      <c r="O168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" s="1">
+        <v>40661.621365740742</v>
+      </c>
+      <c r="C169" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169">
+        <v>3097.3</v>
+      </c>
+      <c r="E169">
+        <v>23.74</v>
+      </c>
+      <c r="F169">
+        <v>3132.3</v>
+      </c>
+      <c r="G169">
+        <v>11144</v>
+      </c>
+      <c r="H169">
+        <v>94</v>
+      </c>
+      <c r="I169">
+        <v>0.72482857368610298</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
+        <v>204</v>
+      </c>
+      <c r="N169" t="s">
+        <v>201</v>
+      </c>
+      <c r="O169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" t="s">
+        <v>205</v>
+      </c>
+      <c r="B170" s="1">
+        <v>40652.307604166665</v>
+      </c>
+      <c r="C170" t="s">
+        <v>206</v>
+      </c>
+      <c r="D170">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="E170">
+        <v>0.107</v>
+      </c>
+      <c r="F170">
+        <v>12.631999999999801</v>
+      </c>
+      <c r="G170">
+        <v>1856</v>
+      </c>
+      <c r="H170">
+        <v>93</v>
+      </c>
+      <c r="I170">
+        <v>1.5610810802361099</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>207</v>
+      </c>
+      <c r="O170" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" t="s">
+        <v>205</v>
+      </c>
+      <c r="B171" s="1">
+        <v>40652.309560185182</v>
+      </c>
+      <c r="C171" t="s">
+        <v>206</v>
+      </c>
+      <c r="D171">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="E171">
+        <v>0.217</v>
+      </c>
+      <c r="F171">
+        <v>21.059999999999899</v>
+      </c>
+      <c r="G171">
+        <v>3713</v>
+      </c>
+      <c r="H171">
+        <v>93</v>
+      </c>
+      <c r="I171">
+        <v>1.47755844028469</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" t="s">
+        <v>207</v>
+      </c>
+      <c r="O171" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/model_results/ConsolidatedModelPerformance.xlsx
+++ b/model_results/ConsolidatedModelPerformance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ConsolidatedModelPerformance.ts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="223">
   <si>
     <t>dir</t>
   </si>
@@ -538,6 +538,51 @@
   </si>
   <si>
     <t>mtry=2,mtry=48,mtry=48,mtry=48,mtry=2,mtry=48,mtry=48,mtry=2,mtry=2</t>
+  </si>
+  <si>
+    <t>./src/stk_model/ensemble1_3</t>
+  </si>
+  <si>
+    <t>blending</t>
+  </si>
+  <si>
+    <t>rf1_2=0.576852190149443,gbm1_2=0.423147809852853</t>
+  </si>
+  <si>
+    <t>Level 3 Blending weight</t>
+  </si>
+  <si>
+    <t>./src/stk_model/gbm1_1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=2,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=200,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=100,Class_5.interaction.depth=5,Class_5.shrinkage=0.1,Class_6.n.trees=200,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=200,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=4,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>gbm one vs all</t>
+  </si>
+  <si>
+    <t>./src/stk_model/gbm1_2</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=2,Class_1.shrinkage=0.1,Class_2.n.trees=100,Class_2.interaction.depth=2,Class_2.shrinkage=0.1,Class_3.n.trees=50,Class_3.interaction.depth=3,Class_3.shrinkage=0.1,Class_4.n.trees=50,Class_4.interaction.depth=4,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=150,Class_6.interaction.depth=4,Class_6.shrinkage=0.1,Class_7.n.trees=200,Class_7.interaction.depth=3,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=3,Class_8.shrinkage=0.1,Class_9.n.trees=150,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>gbm one vs all Level 2 Model</t>
+  </si>
+  <si>
+    <t>rf1_1.Class_1,rf1_1.Class_2,rf1_1.Class_3,rf1_1.Class_4,rf1_1.Class_5,rf1_1.Class_6,rf1_1.Class_7,rf1_1.Class_8,rf1_1.Class_9,gbm1_1.Class_1,gbm1_1.Class_2,gbm1_1.Class_3,gbm1_1.Class_4,gbm1_1.Class_5,gbm1_1.Class_6,gbm1_1.Class_7,gbm1_1.Class_8,gbm1_1.Class_9,feat_1,feat_2,feat_3,feat_4,feat_5,feat_6,feat_7,feat_8,feat_9,feat_10,feat_11,feat_12,feat_13,feat_14,feat_15,feat_16,feat_17,feat_18,feat_19,feat_20,feat_21,feat_22,feat_23,feat_24,feat_25,feat_26,feat_27,feat_28,feat_29,feat_30,feat_31,feat_32,feat_33,feat_34,feat_35,feat_36,feat_37,feat_38,feat_39,feat_40,feat_41,feat_42,feat_43,feat_44,feat_45,feat_46,feat_47,feat_48,feat_49,feat_50,feat_51,feat_52,feat_53,feat_54,feat_55,feat_56,feat_57,feat_58,feat_59,feat_60,feat_61,feat_62,feat_63,feat_64,feat_65,feat_66,feat_67,feat_68,feat_69,feat_70,feat_71,feat_72,feat_73,feat_74,feat_75,feat_76,feat_77,feat_78,feat_79,feat_80,feat_81,feat_82,feat_83,feat_84,feat_85,feat_86,feat_87,feat_88,feat_89,feat_90,feat_91,feat_92,feat_93,non.zero.count</t>
+  </si>
+  <si>
+    <t>./src/stk_model/rf1_1</t>
+  </si>
+  <si>
+    <t>./src/stk_model/rf1_2</t>
+  </si>
+  <si>
+    <t>mtry=57</t>
+  </si>
+  <si>
+    <t>Level 2 rf model for model stacking</t>
   </si>
   <si>
     <t>./src/svm_model</t>
@@ -650,7 +695,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -683,14 +728,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy\ hh:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ hh:mm:ss"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -698,8 +743,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O171" totalsRowShown="0">
-  <autoFilter ref="A1:O171"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O176" totalsRowShown="0">
+  <autoFilter ref="A1:O176"/>
+  <sortState ref="A2:O176">
+    <sortCondition ref="I1:I176"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="dir"/>
     <tableColumn id="2" name="date.time" dataDxfId="0"/>
@@ -1043,15 +1091,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -1113,40 +1161,43 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
-        <v>40662.262199074074</v>
+        <v>40670.958136574074</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>80.350999999999999</v>
+        <v>14988.549000000001</v>
       </c>
       <c r="E2">
-        <v>1.7669999999999999</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="F2">
-        <v>312.32500000000101</v>
+        <v>2847.6109999999999</v>
       </c>
       <c r="G2">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H2">
         <v>94</v>
       </c>
       <c r="I2">
-        <v>0.74622874070445699</v>
+        <v>0.10200689497646601</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
@@ -1154,40 +1205,43 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
-        <v>40662.279085648152</v>
+        <v>40670.112511574072</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>165.71700000000001</v>
+        <v>12248.19</v>
       </c>
       <c r="E3">
-        <v>3.3540000000000001</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="F3">
-        <v>755.58600000000001</v>
+        <v>1764.3030000000001</v>
       </c>
       <c r="G3">
-        <v>3713</v>
+        <v>61869</v>
       </c>
       <c r="H3">
         <v>94</v>
       </c>
       <c r="I3">
-        <v>0.68533854222555901</v>
+        <v>0.118809720594672</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -1195,40 +1249,43 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1">
-        <v>40662.303981481484</v>
+        <v>40666.813668981478</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D4">
-        <v>394.16899999999998</v>
+        <v>1218.4059999999999</v>
       </c>
       <c r="E4">
-        <v>8.4640000000000004</v>
+        <v>13.275</v>
       </c>
       <c r="F4">
-        <v>1974.134</v>
+        <v>421.81500000000102</v>
       </c>
       <c r="G4">
-        <v>7426</v>
+        <v>61878</v>
       </c>
       <c r="H4">
         <v>94</v>
       </c>
       <c r="I4">
-        <v>0.64664136893869995</v>
+        <v>0.12536189610905801</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
-        <v>18</v>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -1236,40 +1293,43 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1">
-        <v>40662.897407407407</v>
+        <v>40666.822210648148</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>73.715000000000003</v>
+        <v>1642.7940000000001</v>
       </c>
       <c r="E5">
-        <v>1.429</v>
+        <v>19.914000000000001</v>
       </c>
       <c r="F5">
-        <v>305.83699999999999</v>
+        <v>433.00200000000001</v>
       </c>
       <c r="G5">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H5">
         <v>94</v>
       </c>
       <c r="I5">
-        <v>0.78549299436114095</v>
+        <v>0.12538954403165201</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
-        <v>22</v>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" t="s">
+        <v>160</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
@@ -1277,40 +1337,43 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1">
-        <v>40662.904675925929</v>
+        <v>40666.829050925924</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>90.022000000000006</v>
+        <v>823.846</v>
       </c>
       <c r="E6">
-        <v>2.069</v>
+        <v>11.052</v>
       </c>
       <c r="F6">
-        <v>362.89400000000001</v>
+        <v>211.864</v>
       </c>
       <c r="G6">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H6">
         <v>94</v>
       </c>
       <c r="I6">
-        <v>0.79944489497743798</v>
+        <v>0.12544978906972201</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
+      <c r="K6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" t="s">
+        <v>155</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -1318,40 +1381,43 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B7" s="1">
-        <v>40662.928738425922</v>
+        <v>40666.858576388891</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D7">
-        <v>187.226</v>
+        <v>1729.7170000000001</v>
       </c>
       <c r="E7">
-        <v>3.79</v>
+        <v>23.690999999999999</v>
       </c>
       <c r="F7">
-        <v>855.38300000000004</v>
+        <v>439.70899999999898</v>
       </c>
       <c r="G7">
-        <v>3713</v>
+        <v>61878</v>
       </c>
       <c r="H7">
         <v>94</v>
       </c>
       <c r="I7">
-        <v>0.69186377795907195</v>
+        <v>0.12547118097591101</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" t="s">
-        <v>23</v>
+      <c r="K7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" t="s">
+        <v>160</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1359,40 +1425,43 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1">
-        <v>40663.886111111111</v>
+        <v>40666.87090277778</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>72.468000000000004</v>
+        <v>1661.3409999999999</v>
       </c>
       <c r="E8">
-        <v>1.62</v>
+        <v>29.88</v>
       </c>
       <c r="F8">
-        <v>303.40899999999999</v>
+        <v>450.28500000000003</v>
       </c>
       <c r="G8">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H8">
         <v>94</v>
       </c>
       <c r="I8">
-        <v>0.75551332289408202</v>
+        <v>0.12547938154128399</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s">
-        <v>24</v>
+      <c r="K8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" t="s">
+        <v>162</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="O8" t="s">
         <v>20</v>
@@ -1400,40 +1469,43 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1">
-        <v>40663.894259259258</v>
+        <v>40666.864722222221</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D9">
-        <v>73.712000000000003</v>
+        <v>1696.5940000000001</v>
       </c>
       <c r="E9">
-        <v>1.677</v>
+        <v>25.24</v>
       </c>
       <c r="F9">
-        <v>305.04400000000197</v>
+        <v>452.84400000000102</v>
       </c>
       <c r="G9">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H9">
         <v>94</v>
       </c>
       <c r="I9">
-        <v>0.76165795442312301</v>
+        <v>0.125500889889751</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" t="s">
-        <v>26</v>
+      <c r="K9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
@@ -1441,40 +1513,43 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
-        <v>40663.907569444447</v>
+        <v>40670.011689814812</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>71.305000000000007</v>
+        <v>11391.511</v>
       </c>
       <c r="E10">
-        <v>1.698</v>
+        <v>5.6790000000000003</v>
       </c>
       <c r="F10">
-        <v>300.63900000000098</v>
+        <v>2110.8470000000002</v>
       </c>
       <c r="G10">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H10">
         <v>94</v>
       </c>
       <c r="I10">
-        <v>0.76500874540172104</v>
+        <v>0.137328521708139</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
@@ -1482,81 +1557,87 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1">
-        <v>40663.913171296299</v>
+        <v>40676.500439814816</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>69.188999999999993</v>
+        <v>18669.684000000001</v>
       </c>
       <c r="E11">
-        <v>1.7529999999999999</v>
+        <v>7.4980000000000002</v>
       </c>
       <c r="F11">
-        <v>298.46900000000102</v>
+        <v>4801.75</v>
       </c>
       <c r="G11">
-        <v>1856</v>
+        <v>61878</v>
       </c>
       <c r="H11">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I11">
-        <v>0.76638894196604401</v>
+        <v>0.15093796451962199</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>40664.134918981479</v>
+        <v>40669.909004629626</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>91.316999999999993</v>
+        <v>9000.7900000000009</v>
       </c>
       <c r="E12">
-        <v>102.008</v>
+        <v>5.7990000000000004</v>
       </c>
       <c r="F12">
-        <v>307.92099999999999</v>
+        <v>1385.913</v>
       </c>
       <c r="G12">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H12">
         <v>94</v>
       </c>
       <c r="I12">
-        <v>0.76214175152330399</v>
+        <v>0.16074066198103101</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
         <v>20</v>
@@ -1564,977 +1645,1061 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1">
-        <v>40664.531724537039</v>
+        <v>40676.063067129631</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>9410.4060000000009</v>
+        <v>15398.272999999999</v>
       </c>
       <c r="E13">
-        <v>4184.7539999999999</v>
+        <v>6.5</v>
       </c>
       <c r="F13">
-        <v>33430.610999999997</v>
+        <v>3677.252</v>
       </c>
       <c r="G13">
-        <v>49507</v>
+        <v>61878</v>
       </c>
       <c r="H13">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I13">
-        <v>0.55178634237603696</v>
+        <v>0.175103089372804</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
-        <v>40639.758009259262</v>
+        <v>40669.452013888891</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14">
-        <v>552.36199999999997</v>
+        <v>7700.0259999999998</v>
       </c>
       <c r="E14">
-        <v>4.5880000000000001</v>
+        <v>5.835</v>
       </c>
       <c r="F14">
-        <v>145.19999999999999</v>
+        <v>1460.5119999999999</v>
       </c>
       <c r="G14">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I14">
-        <v>0.74287633479385795</v>
+        <v>0.190036682926529</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1">
-        <v>40639.762152777781</v>
+        <v>40675.952581018515</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>1234.6579999999999</v>
+        <v>212013.87599999999</v>
       </c>
       <c r="E15">
-        <v>11.066000000000001</v>
+        <v>41.433999999999997</v>
       </c>
       <c r="F15">
-        <v>289.71199999999999</v>
+        <v>44907.714999999997</v>
       </c>
       <c r="G15">
-        <v>3713</v>
+        <v>61878</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>4372</v>
       </c>
       <c r="I15">
-        <v>0.68021707834110601</v>
+        <v>0.19278843778028101</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>111</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1">
-        <v>40639.763333333336</v>
+        <v>40668.983032407406</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16">
-        <v>355.37</v>
+        <v>6276.6229999999996</v>
       </c>
       <c r="E16">
-        <v>3.3370000000000002</v>
+        <v>5.7279999999999998</v>
       </c>
       <c r="F16">
-        <v>28.632999999999999</v>
+        <v>1191.751</v>
       </c>
       <c r="G16">
-        <v>371</v>
+        <v>61869</v>
       </c>
       <c r="H16">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I16">
-        <v>0.93215718230883904</v>
+        <v>0.22248008077914799</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>85</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>84</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1">
-        <v>40639.883819444447</v>
+        <v>40677.172337962962</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
-        <v>2581.277</v>
+        <v>23612.554</v>
       </c>
       <c r="E17">
-        <v>24.963999999999999</v>
+        <v>7.8650000000000002</v>
       </c>
       <c r="F17">
-        <v>2633.8989999999999</v>
+        <v>5271.9639999999999</v>
       </c>
       <c r="G17">
-        <v>11139</v>
+        <v>61878</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>4372</v>
       </c>
       <c r="I17">
-        <v>0.594930653159085</v>
+        <v>0.25284299126217802</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>115</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
-        <v>40639.932210648149</v>
+        <v>40668.054444444446</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>20097.652999999998</v>
+        <v>4978.8639999999996</v>
       </c>
       <c r="E18">
-        <v>218.471</v>
+        <v>5.8289999999999997</v>
       </c>
       <c r="F18">
-        <v>2926.3049999999998</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="G18">
-        <v>18565</v>
+        <v>61869</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I18">
-        <v>0.65677416760662</v>
+        <v>0.26106690688928302</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>84</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1">
-        <v>40640.874699074076</v>
+        <v>40677.074340277781</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>317.43799999999999</v>
+        <v>25829.321</v>
       </c>
       <c r="E19">
-        <v>3.012</v>
+        <v>7.6020000000000003</v>
       </c>
       <c r="F19">
-        <v>93.813999999999993</v>
+        <v>4998.143</v>
       </c>
       <c r="G19">
-        <v>3713</v>
+        <v>61878</v>
       </c>
       <c r="H19">
-        <v>80</v>
+        <v>4372</v>
       </c>
       <c r="I19">
-        <v>0.687169450355818</v>
+        <v>0.27497836840217299</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>114</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>109</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1">
-        <v>40647.942337962966</v>
+        <v>40667.467453703706</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>57.72</v>
+        <v>3133.5479999999998</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>5.1020000000000003</v>
       </c>
       <c r="F20">
-        <v>18.855</v>
+        <v>1022.575</v>
       </c>
       <c r="G20">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H20">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I20">
-        <v>0.751467165885644</v>
+        <v>0.30421375870439499</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
-        <v>40647.944432870368</v>
+        <v>40665.892245370371</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>93.206999999999994</v>
+        <v>27044.260999999999</v>
       </c>
       <c r="E21">
-        <v>1.34</v>
+        <v>60.171999999999997</v>
       </c>
       <c r="F21">
-        <v>20.372000000000099</v>
+        <v>8265.8639999999996</v>
       </c>
       <c r="G21">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H21">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21">
-        <v>0.74121875335933596</v>
+        <v>0.35253276610751899</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
-        <v>40647.945636574077</v>
+        <v>40664.973819444444</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>62.183</v>
+        <v>2160.5479999999998</v>
       </c>
       <c r="E22">
-        <v>0.86599999999999999</v>
+        <v>22.983000000000001</v>
       </c>
       <c r="F22">
-        <v>20.033999999999999</v>
+        <v>565.12099999999998</v>
       </c>
       <c r="G22">
-        <v>1856</v>
+        <v>61869</v>
       </c>
       <c r="H22">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22">
-        <v>0.74121875335933596</v>
+        <v>0.40864490982979601</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M22" t="s">
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
-        <v>40649.846215277779</v>
+        <v>40664.964074074072</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23">
-        <v>67.259</v>
+        <v>1450.83</v>
       </c>
       <c r="E23">
-        <v>1.32</v>
+        <v>15.536</v>
       </c>
       <c r="F23">
-        <v>21.386000000000401</v>
+        <v>444.11200000000002</v>
       </c>
       <c r="G23">
-        <v>1856</v>
+        <v>49498</v>
       </c>
       <c r="H23">
         <v>94</v>
       </c>
       <c r="I23">
-        <v>0.73980531857912701</v>
+        <v>0.52364286279315297</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
-        <v>40649.85328703704</v>
+        <v>40651.539988425924</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>572.024</v>
+        <v>18571.221000000001</v>
       </c>
       <c r="E24">
-        <v>4.694</v>
+        <v>159.828</v>
       </c>
       <c r="F24">
-        <v>289.34099999999899</v>
+        <v>4744.5739999999996</v>
       </c>
       <c r="G24">
-        <v>1856</v>
+        <v>37122</v>
       </c>
       <c r="H24">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I24">
-        <v>0.73635288429166001</v>
+        <v>0.52861996122346899</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M24" t="s">
         <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1">
-        <v>40649.876226851855</v>
+        <v>40675.392337962963</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>3728.6239999999998</v>
+        <v>134576.23499999999</v>
       </c>
       <c r="E25">
-        <v>24.244</v>
+        <v>40.36</v>
       </c>
       <c r="F25">
-        <v>1800.595</v>
+        <v>28205.416000000001</v>
       </c>
       <c r="G25">
-        <v>11139</v>
+        <v>49507</v>
       </c>
       <c r="H25">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I25">
-        <v>0.59294412064958801</v>
+        <v>0.53791215306477902</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s">
         <v>40</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B26" s="1">
-        <v>40652.750289351854</v>
+        <v>40656.837557870371</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D26">
-        <v>177.60499999999999</v>
+        <v>1216.6759999999999</v>
       </c>
       <c r="E26">
-        <v>1.6850000000000001</v>
+        <v>78.204999999999998</v>
       </c>
       <c r="F26">
-        <v>55.293000000000099</v>
+        <v>351.79199999999997</v>
       </c>
       <c r="G26">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H26">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I26">
-        <v>0.74283828905403004</v>
+        <v>0.53930522813114501</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" t="s">
-        <v>40</v>
+        <v>143</v>
+      </c>
+      <c r="L26" t="s">
+        <v>147</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1">
-        <v>40652.759942129633</v>
+        <v>40656.284328703703</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D27">
-        <v>2103.759</v>
+        <v>5978.5940000000001</v>
       </c>
       <c r="E27">
-        <v>13.521000000000001</v>
+        <v>81.465000000000003</v>
       </c>
       <c r="F27">
-        <v>532.35500000000002</v>
+        <v>1533.8150000000001</v>
       </c>
       <c r="G27">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H27">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I27">
-        <v>0.74000400932482002</v>
+        <v>0.53932968453027097</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
-      </c>
-      <c r="M27" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B28" s="1">
-        <v>40652.7653587963</v>
+        <v>40656.831354166665</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D28">
-        <v>1007.5650000000001</v>
+        <v>1206.809</v>
       </c>
       <c r="E28">
-        <v>6.9240000000000004</v>
+        <v>70.075000000000003</v>
       </c>
       <c r="F28">
-        <v>135.203</v>
+        <v>345.29599999999999</v>
       </c>
       <c r="G28">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H28">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I28">
-        <v>0.74000400932482002</v>
+        <v>0.53933957930639798</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="L28" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="O28" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1">
-        <v>40652.835798611108</v>
+        <v>40656.825995370367</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D29">
-        <v>789.48299999999995</v>
+        <v>1197.2919999999999</v>
       </c>
       <c r="E29">
-        <v>5.4989999999999997</v>
+        <v>60.024999999999999</v>
       </c>
       <c r="F29">
-        <v>219.09200000000001</v>
+        <v>338.46699999999998</v>
       </c>
       <c r="G29">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H29">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="I29">
-        <v>0.75355722064198705</v>
+        <v>0.53936143445911</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="O29" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B30" s="1">
-        <v>40652.839166666665</v>
+        <v>40656.904513888891</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D30">
-        <v>984.07600000000002</v>
+        <v>1212.9780000000001</v>
       </c>
       <c r="E30">
-        <v>7.0469999999999997</v>
+        <v>28.611999999999998</v>
       </c>
       <c r="F30">
-        <v>218.297</v>
+        <v>333.71800000000002</v>
       </c>
       <c r="G30">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H30">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="I30">
-        <v>0.75355722064198705</v>
+        <v>0.539700782307872</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="O30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1">
-        <v>40652.848761574074</v>
+        <v>40656.899618055555</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>1880.732</v>
+        <v>1222.123</v>
       </c>
       <c r="E31">
-        <v>13.096</v>
+        <v>23.850999999999999</v>
       </c>
       <c r="F31">
-        <v>464.53100000000001</v>
+        <v>330.56400000000002</v>
       </c>
       <c r="G31">
-        <v>3713</v>
+        <v>49507</v>
       </c>
       <c r="H31">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I31">
-        <v>0.67873746924929101</v>
+        <v>0.53986151453897102</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1">
-        <v>40661.148125</v>
+        <v>40656.894976851851</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D32">
-        <v>379.452</v>
+        <v>1201.796</v>
       </c>
       <c r="E32">
-        <v>3.7090000000000001</v>
+        <v>19.233000000000001</v>
       </c>
       <c r="F32">
-        <v>177.47</v>
+        <v>324.05200000000002</v>
       </c>
       <c r="G32">
-        <v>3713</v>
+        <v>49507</v>
       </c>
       <c r="H32">
         <v>94</v>
       </c>
       <c r="I32">
-        <v>0.82402699162210502</v>
+        <v>0.54207999278429297</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" t="s">
-        <v>40</v>
+        <v>143</v>
+      </c>
+      <c r="L32" t="s">
+        <v>162</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
+        <v>145</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B33" s="1">
-        <v>40646.850069444445</v>
+        <v>40655.898888888885</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D33">
-        <v>3531.2289999999998</v>
+        <v>3589.3890000000001</v>
       </c>
       <c r="E33">
-        <v>26.353999999999999</v>
+        <v>10.888999999999999</v>
       </c>
       <c r="F33">
-        <v>854.654</v>
+        <v>3603.6959999999999</v>
       </c>
       <c r="G33">
-        <v>7426</v>
+        <v>49507</v>
       </c>
       <c r="H33">
         <v>94</v>
       </c>
       <c r="I33">
-        <v>0.62834080703015704</v>
+        <v>0.54215361254059102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>137</v>
+      </c>
+      <c r="L33" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" t="s">
+        <v>135</v>
+      </c>
+      <c r="N33" t="s">
+        <v>138</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1">
-        <v>40646.875208333331</v>
+        <v>40675.033009259256</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34">
-        <v>7247.02</v>
+        <v>5855.9470000000001</v>
       </c>
       <c r="E34">
-        <v>50.405999999999999</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="F34">
-        <v>1747.3789999999999</v>
+        <v>1422.876</v>
       </c>
       <c r="G34">
-        <v>7426</v>
+        <v>49507</v>
       </c>
       <c r="H34">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I34">
-        <v>0.66299103374607504</v>
+        <v>0.54406592115498398</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>107</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>109</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1">
-        <v>40646.899583333332</v>
+        <v>40656.890127314815</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D35">
-        <v>7577.2110000000002</v>
+        <v>1160.682</v>
       </c>
       <c r="E35">
-        <v>56.112000000000002</v>
+        <v>17.484999999999999</v>
       </c>
       <c r="F35">
-        <v>1891.6949999999999</v>
+        <v>309.87200000000001</v>
       </c>
       <c r="G35">
-        <v>14852</v>
+        <v>49507</v>
       </c>
       <c r="H35">
         <v>94</v>
       </c>
       <c r="I35">
-        <v>0.580472043054439</v>
+        <v>0.54424328908644304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>143</v>
+      </c>
+      <c r="L35" t="s">
+        <v>161</v>
+      </c>
+      <c r="N35" t="s">
+        <v>145</v>
       </c>
       <c r="O35" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1">
-        <v>40646.939062500001</v>
+        <v>40656.885810185187</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D36">
-        <v>11871.248</v>
+        <v>1151.5509999999999</v>
       </c>
       <c r="E36">
-        <v>92.94</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F36">
-        <v>2957.05</v>
+        <v>306.65300000000002</v>
       </c>
       <c r="G36">
-        <v>22278</v>
+        <v>49507</v>
       </c>
       <c r="H36">
         <v>94</v>
       </c>
       <c r="I36">
-        <v>0.54972385286005598</v>
+        <v>0.54654888965735504</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
       </c>
       <c r="K36" t="s">
-        <v>60</v>
+        <v>143</v>
+      </c>
+      <c r="L36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" t="s">
+        <v>145</v>
       </c>
       <c r="O36" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2542,372 +2707,333 @@
         <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>40648.013703703706</v>
+        <v>40646.939062500001</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37">
-        <v>925.125</v>
+        <v>11871.248</v>
       </c>
       <c r="E37">
-        <v>11.952999999999999</v>
+        <v>92.94</v>
       </c>
       <c r="F37">
-        <v>214.48399999999901</v>
+        <v>2957.05</v>
       </c>
       <c r="G37">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H37">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I37">
-        <v>0.87084435195355903</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
+        <v>0.54972385286005598</v>
       </c>
       <c r="K37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1">
-        <v>40648.014513888891</v>
+        <v>40664.531724537039</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>925.125</v>
+        <v>9410.4060000000009</v>
       </c>
       <c r="E38">
-        <v>11.952999999999999</v>
+        <v>4184.7539999999999</v>
       </c>
       <c r="F38">
-        <v>214.48399999999901</v>
+        <v>33430.610999999997</v>
       </c>
       <c r="G38">
-        <v>1856</v>
+        <v>49507</v>
       </c>
       <c r="H38">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38">
-        <v>0.87084435195355903</v>
+        <v>0.55178634237603696</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N38" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O38" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1">
-        <v>40651.539988425924</v>
+        <v>40656.878275462965</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D39">
-        <v>18571.221000000001</v>
+        <v>1158.596</v>
       </c>
       <c r="E39">
-        <v>159.828</v>
+        <v>13.955</v>
       </c>
       <c r="F39">
-        <v>4744.5739999999996</v>
+        <v>301.77999999999997</v>
       </c>
       <c r="G39">
-        <v>37122</v>
+        <v>49507</v>
       </c>
       <c r="H39">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I39">
-        <v>0.52861996122346899</v>
+        <v>0.55623853372381105</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s">
-        <v>48</v>
-      </c>
-      <c r="M39" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="N39" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1">
-        <v>40652.868472222224</v>
+        <v>40656.884027777778</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D40">
-        <v>2713.4369999999999</v>
+        <v>1151.5509999999999</v>
       </c>
       <c r="E40">
-        <v>19.478000000000002</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F40">
-        <v>857.63699999999994</v>
+        <v>306.65300000000002</v>
       </c>
       <c r="G40">
-        <v>1861</v>
+        <v>49507</v>
       </c>
       <c r="H40">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I40">
-        <v>0.83670746279494701</v>
+        <v>0.55623853372381105</v>
       </c>
       <c r="J40" t="s">
         <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N40" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="O40" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1">
-        <v>40652.928113425929</v>
+        <v>40674.686736111114</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
       </c>
       <c r="D41">
-        <v>7987.3869999999997</v>
+        <v>122707.852</v>
       </c>
       <c r="E41">
-        <v>50.436999999999998</v>
+        <v>64.948999999999998</v>
       </c>
       <c r="F41">
-        <v>2553.5729999999999</v>
+        <v>22760.59</v>
       </c>
       <c r="G41">
-        <v>3718</v>
+        <v>37122</v>
       </c>
       <c r="H41">
-        <v>265</v>
+        <v>4372</v>
       </c>
       <c r="I41">
-        <v>0.72160003668857897</v>
+        <v>0.55930095133236102</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s">
         <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="O41" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1">
-        <v>40652.988958333335</v>
+        <v>40654.897719907407</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D42">
-        <v>16123.888999999999</v>
+        <v>2490.451</v>
       </c>
       <c r="E42">
-        <v>99.897999999999996</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="F42">
-        <v>5089.6090000000004</v>
+        <v>2498.9189999999999</v>
       </c>
       <c r="G42">
-        <v>7429</v>
+        <v>37131</v>
       </c>
       <c r="H42">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I42">
-        <v>0.76422431884418296</v>
+        <v>0.560539731881459</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="N42" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="O42" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1">
-        <v>40654.282939814817</v>
+        <v>40647.280289351853</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D43">
-        <v>6520.241</v>
+        <v>2438.998</v>
       </c>
       <c r="E43">
-        <v>41.481999999999999</v>
+        <v>5.6509999999999998</v>
       </c>
       <c r="F43">
-        <v>2088.59</v>
+        <v>2444.94</v>
       </c>
       <c r="G43">
-        <v>1861</v>
+        <v>37131</v>
       </c>
       <c r="H43">
-        <v>436</v>
+        <v>93</v>
       </c>
       <c r="I43">
-        <v>0.84506210386796399</v>
-      </c>
-      <c r="J43" t="s">
-        <v>21</v>
+        <v>0.56536779724153197</v>
       </c>
       <c r="K43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="M43" t="s">
-        <v>40</v>
-      </c>
-      <c r="N43" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1">
-        <v>40654.294745370367</v>
+        <v>40656.872812499998</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D44">
-        <v>1566.3030000000001</v>
+        <v>590.16</v>
       </c>
       <c r="E44">
-        <v>13.538</v>
+        <v>7.1760000000000002</v>
       </c>
       <c r="F44">
-        <v>424.012</v>
+        <v>154.49600000000001</v>
       </c>
       <c r="G44">
-        <v>1861</v>
+        <v>49507</v>
       </c>
       <c r="H44">
         <v>94</v>
       </c>
       <c r="I44">
-        <v>0.76369530069646097</v>
+        <v>0.56569986367404701</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s">
-        <v>67</v>
-      </c>
-      <c r="M44" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="N44" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="O44" t="s">
         <v>20</v>
@@ -2915,49 +3041,40 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1">
-        <v>40654.319178240738</v>
+        <v>40641.962881944448</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D45">
-        <v>5603.2820000000002</v>
+        <v>1647.414</v>
       </c>
       <c r="E45">
-        <v>37.712000000000003</v>
+        <v>5.6340000000000101</v>
       </c>
       <c r="F45">
-        <v>1845.704</v>
+        <v>1654.211</v>
       </c>
       <c r="G45">
-        <v>7429</v>
+        <v>37131</v>
       </c>
       <c r="H45">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I45">
-        <v>0.645714281338444</v>
-      </c>
-      <c r="J45" t="s">
-        <v>21</v>
+        <v>0.57026004489291504</v>
       </c>
       <c r="K45" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N45" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="O45" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2965,172 +3082,151 @@
         <v>55</v>
       </c>
       <c r="B46" s="1">
-        <v>40664.956990740742</v>
+        <v>40646.899583333332</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46">
-        <v>348.16199999999998</v>
+        <v>7577.2110000000002</v>
       </c>
       <c r="E46">
-        <v>4.077</v>
+        <v>56.112000000000002</v>
       </c>
       <c r="F46">
-        <v>86.427000000000007</v>
+        <v>1891.6949999999999</v>
       </c>
       <c r="G46">
-        <v>9905</v>
+        <v>14852</v>
       </c>
       <c r="H46">
         <v>94</v>
       </c>
       <c r="I46">
-        <v>0.61053397561577305</v>
-      </c>
-      <c r="J46" t="s">
-        <v>21</v>
+        <v>0.580472043054439</v>
       </c>
       <c r="K46" t="s">
-        <v>63</v>
-      </c>
-      <c r="M46" t="s">
-        <v>40</v>
-      </c>
-      <c r="N46" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="O46" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1">
-        <v>40664.964074074072</v>
+        <v>40641.892905092594</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D47">
-        <v>1450.83</v>
+        <v>1187.6130000000001</v>
       </c>
       <c r="E47">
-        <v>15.536</v>
+        <v>2.907</v>
       </c>
       <c r="F47">
-        <v>444.11200000000002</v>
+        <v>1190.5989999999999</v>
       </c>
       <c r="G47">
-        <v>49498</v>
+        <v>29704</v>
       </c>
       <c r="H47">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I47">
-        <v>0.52364286279315297</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
+        <v>0.581291879081961</v>
       </c>
       <c r="K47" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="M47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N47" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="O47" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1">
-        <v>40664.973819444444</v>
+        <v>40699.796435185184</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D48">
-        <v>2160.5479999999998</v>
+        <v>26.022000000000201</v>
       </c>
       <c r="E48">
-        <v>22.983000000000001</v>
+        <v>0.14399999999999799</v>
       </c>
       <c r="F48">
-        <v>565.12099999999998</v>
+        <v>26.157999999999401</v>
       </c>
       <c r="G48">
-        <v>61869</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.40864490982979601</v>
+        <v>0.58309696821273804</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
-      </c>
-      <c r="M48" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="N48" t="s">
-        <v>76</v>
-      </c>
-      <c r="O48" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1">
-        <v>40665.273530092592</v>
+        <v>40656.87060185185</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D49">
-        <v>850.31100000000004</v>
+        <v>180.42699999999999</v>
       </c>
       <c r="E49">
-        <v>9.0329999999999995</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="F49">
-        <v>227.876</v>
+        <v>47.348999999999897</v>
       </c>
       <c r="G49">
-        <v>1861</v>
+        <v>49507</v>
       </c>
       <c r="H49">
         <v>94</v>
       </c>
       <c r="I49">
-        <v>1.0780016954015099</v>
+        <v>0.58648098372120105</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" t="s">
-        <v>40</v>
+        <v>151</v>
+      </c>
+      <c r="L49" t="s">
+        <v>152</v>
       </c>
       <c r="N49" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="O49" t="s">
         <v>20</v>
@@ -3138,134 +3234,128 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1">
-        <v>40665.792708333334</v>
+        <v>40649.876226851855</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
       </c>
       <c r="D50">
-        <v>2695.944</v>
+        <v>3728.6239999999998</v>
       </c>
       <c r="E50">
-        <v>6.915</v>
+        <v>24.244</v>
       </c>
       <c r="F50">
-        <v>815.34100000000001</v>
+        <v>1800.595</v>
       </c>
       <c r="G50">
-        <v>6192</v>
+        <v>11139</v>
       </c>
       <c r="H50">
         <v>94</v>
       </c>
       <c r="I50">
-        <v>0.65702783798812803</v>
+        <v>0.59294412064958801</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="L50" t="s">
+        <v>43</v>
       </c>
       <c r="M50" t="s">
         <v>40</v>
       </c>
       <c r="N50" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O50" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1">
-        <v>40665.892245370371</v>
+        <v>40639.883819444447</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
       </c>
       <c r="D51">
-        <v>27044.260999999999</v>
+        <v>2581.277</v>
       </c>
       <c r="E51">
-        <v>60.171999999999997</v>
+        <v>24.963999999999999</v>
       </c>
       <c r="F51">
-        <v>8265.8639999999996</v>
+        <v>2633.8989999999999</v>
       </c>
       <c r="G51">
-        <v>61869</v>
+        <v>11139</v>
       </c>
       <c r="H51">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I51">
-        <v>0.35253276610751899</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
+        <v>0.594930653159085</v>
       </c>
       <c r="K51" t="s">
-        <v>80</v>
-      </c>
-      <c r="M51" t="s">
-        <v>40</v>
-      </c>
-      <c r="N51" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O51" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="B52" s="1">
-        <v>40667.467453703706</v>
+        <v>40699.707442129627</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
       <c r="D52">
-        <v>3133.5479999999998</v>
+        <v>1177.08</v>
       </c>
       <c r="E52">
-        <v>5.1020000000000003</v>
+        <v>17.669</v>
       </c>
       <c r="F52">
-        <v>1022.575</v>
+        <v>331.49</v>
       </c>
       <c r="G52">
-        <v>61869</v>
+        <v>5573</v>
       </c>
       <c r="H52">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I52">
-        <v>0.30421375870439499</v>
+        <v>0.60818851565530396</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="M52" t="s">
         <v>40</v>
       </c>
       <c r="N52" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="O52" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3273,40 +3363,40 @@
         <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>40668.054444444446</v>
+        <v>40664.956990740742</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
       </c>
       <c r="D53">
-        <v>4978.8639999999996</v>
+        <v>348.16199999999998</v>
       </c>
       <c r="E53">
-        <v>5.8289999999999997</v>
+        <v>4.077</v>
       </c>
       <c r="F53">
-        <v>941.40099999999995</v>
+        <v>86.427000000000007</v>
       </c>
       <c r="G53">
-        <v>61869</v>
+        <v>9905</v>
       </c>
       <c r="H53">
         <v>94</v>
       </c>
       <c r="I53">
-        <v>0.26106690688928302</v>
+        <v>0.61053397561577305</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="M53" t="s">
         <v>40</v>
       </c>
       <c r="N53" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O53" t="s">
         <v>20</v>
@@ -3314,90 +3404,84 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1">
-        <v>40668.983032407406</v>
+        <v>40674.248287037037</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54">
-        <v>6276.6229999999996</v>
+        <v>51459.874000000003</v>
       </c>
       <c r="E54">
-        <v>5.7279999999999998</v>
+        <v>36.646000000000001</v>
       </c>
       <c r="F54">
-        <v>1191.751</v>
+        <v>9913.4699999999993</v>
       </c>
       <c r="G54">
-        <v>61869</v>
+        <v>18568</v>
       </c>
       <c r="H54">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I54">
-        <v>0.22248008077914799</v>
+        <v>0.62036733586481696</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
       </c>
       <c r="N54" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="O54" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1">
-        <v>40669.452013888891</v>
+        <v>40641.868738425925</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D55">
-        <v>7700.0259999999998</v>
+        <v>5823.5429999999997</v>
       </c>
       <c r="E55">
-        <v>5.835</v>
+        <v>50.137999999999998</v>
       </c>
       <c r="F55">
-        <v>1460.5119999999999</v>
+        <v>1813.1010000000001</v>
       </c>
       <c r="G55">
-        <v>61869</v>
+        <v>14852</v>
       </c>
       <c r="H55">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I55">
-        <v>0.190036682926529</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
+        <v>0.621943789694692</v>
       </c>
       <c r="K55" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="M55" t="s">
-        <v>40</v>
-      </c>
-      <c r="N55" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="O55" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3405,84 +3489,78 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>40669.909004629626</v>
+        <v>40646.850069444445</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56">
-        <v>9000.7900000000009</v>
+        <v>3531.2289999999998</v>
       </c>
       <c r="E56">
-        <v>5.7990000000000004</v>
+        <v>26.353999999999999</v>
       </c>
       <c r="F56">
-        <v>1385.913</v>
+        <v>854.654</v>
       </c>
       <c r="G56">
-        <v>61869</v>
+        <v>7426</v>
       </c>
       <c r="H56">
         <v>94</v>
       </c>
       <c r="I56">
-        <v>0.16074066198103101</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
+        <v>0.62834080703015704</v>
       </c>
       <c r="K56" t="s">
-        <v>87</v>
-      </c>
-      <c r="M56" t="s">
-        <v>40</v>
-      </c>
-      <c r="N56" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O56" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1">
-        <v>40670.011689814812</v>
+        <v>40654.866481481484</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D57">
-        <v>11391.511</v>
+        <v>216.715</v>
       </c>
       <c r="E57">
-        <v>5.6790000000000003</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F57">
-        <v>2110.8470000000002</v>
+        <v>217.19800000000001</v>
       </c>
       <c r="G57">
-        <v>61869</v>
+        <v>14852</v>
       </c>
       <c r="H57">
         <v>94</v>
       </c>
       <c r="I57">
-        <v>0.137328521708139</v>
+        <v>0.63291953497683395</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>88</v>
+        <v>137</v>
+      </c>
+      <c r="L57" t="s">
+        <v>137</v>
       </c>
       <c r="M57" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N57" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="O57" t="s">
         <v>20</v>
@@ -3490,43 +3568,43 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B58" s="1">
-        <v>40670.112511574072</v>
+        <v>40656.869560185187</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D58">
-        <v>12248.19</v>
+        <v>122.69799999999999</v>
       </c>
       <c r="E58">
-        <v>6.3319999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="F58">
-        <v>1764.3030000000001</v>
+        <v>31.661000000000101</v>
       </c>
       <c r="G58">
-        <v>61869</v>
+        <v>49507</v>
       </c>
       <c r="H58">
         <v>94</v>
       </c>
       <c r="I58">
-        <v>0.118809720594672</v>
+        <v>0.634406625498386</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
-      </c>
-      <c r="M58" t="s">
-        <v>40</v>
+        <v>148</v>
+      </c>
+      <c r="L58" t="s">
+        <v>149</v>
       </c>
       <c r="N58" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="O58" t="s">
         <v>20</v>
@@ -3537,40 +3615,43 @@
         <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>40670.958136574074</v>
+        <v>40654.319178240738</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59">
-        <v>14988.549000000001</v>
+        <v>5603.2820000000002</v>
       </c>
       <c r="E59">
-        <v>6.1079999999999997</v>
+        <v>37.712000000000003</v>
       </c>
       <c r="F59">
-        <v>2847.6109999999999</v>
+        <v>1845.704</v>
       </c>
       <c r="G59">
-        <v>61869</v>
+        <v>7429</v>
       </c>
       <c r="H59">
         <v>94</v>
       </c>
       <c r="I59">
-        <v>0.10200689497646601</v>
+        <v>0.645714281338444</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="L59" t="s">
+        <v>67</v>
       </c>
       <c r="M59" t="s">
         <v>40</v>
       </c>
       <c r="N59" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O59" t="s">
         <v>20</v>
@@ -3578,43 +3659,40 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B60" s="1">
-        <v>40671.95034722222</v>
+        <v>40662.303981481484</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>181.51300000000001</v>
+        <v>394.16899999999998</v>
       </c>
       <c r="E60">
-        <v>9.2840000000000007</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="F60">
-        <v>54.887999999999899</v>
+        <v>1974.134</v>
       </c>
       <c r="G60">
-        <v>3718</v>
+        <v>7426</v>
       </c>
       <c r="H60">
         <v>94</v>
       </c>
       <c r="I60">
-        <v>0.717016561012494</v>
+        <v>0.64664136893869995</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N60" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O60" t="s">
         <v>20</v>
@@ -3622,46 +3700,37 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1">
-        <v>40671.958773148152</v>
+        <v>40639.932210648149</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
       </c>
       <c r="D61">
-        <v>171.41399999999999</v>
+        <v>20097.652999999998</v>
       </c>
       <c r="E61">
-        <v>6.15</v>
+        <v>218.471</v>
       </c>
       <c r="F61">
-        <v>50.147000000000197</v>
+        <v>2926.3049999999998</v>
       </c>
       <c r="G61">
-        <v>3718</v>
+        <v>18565</v>
       </c>
       <c r="H61">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I61">
-        <v>0.72296370059508597</v>
-      </c>
-      <c r="J61" t="s">
-        <v>21</v>
+        <v>0.65677416760662</v>
       </c>
       <c r="K61" t="s">
-        <v>92</v>
-      </c>
-      <c r="M61" t="s">
-        <v>40</v>
-      </c>
-      <c r="N61" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3669,40 +3738,40 @@
         <v>55</v>
       </c>
       <c r="B62" s="1">
-        <v>40671.960601851853</v>
+        <v>40665.792708333334</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
       </c>
       <c r="D62">
-        <v>178.815</v>
+        <v>2695.944</v>
       </c>
       <c r="E62">
-        <v>8.2040000000000006</v>
+        <v>6.915</v>
       </c>
       <c r="F62">
-        <v>50.5</v>
+        <v>815.34100000000001</v>
       </c>
       <c r="G62">
-        <v>3718</v>
+        <v>6192</v>
       </c>
       <c r="H62">
         <v>94</v>
       </c>
       <c r="I62">
-        <v>0.72296370059508597</v>
+        <v>0.65702783798812803</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="M62" t="s">
         <v>40</v>
       </c>
       <c r="N62" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O62" t="s">
         <v>20</v>
@@ -3710,131 +3779,125 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
-        <v>40650.427997685183</v>
+        <v>40646.875208333331</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
       </c>
       <c r="D63">
-        <v>124.29</v>
+        <v>7247.02</v>
       </c>
       <c r="E63">
-        <v>1.5029999999999999</v>
+        <v>50.405999999999999</v>
       </c>
       <c r="F63">
-        <v>41.579000000000001</v>
+        <v>1747.3789999999999</v>
       </c>
       <c r="G63">
-        <v>3718</v>
+        <v>7426</v>
       </c>
       <c r="H63">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I63">
-        <v>0.89005779399033302</v>
-      </c>
-      <c r="J63" t="s">
-        <v>17</v>
+        <v>0.66299103374607504</v>
       </c>
       <c r="K63" t="s">
-        <v>95</v>
-      </c>
-      <c r="N63" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="O63" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1">
-        <v>40673.853414351855</v>
+        <v>40699.695405092592</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D64">
-        <v>2203.7179999999998</v>
+        <v>972.75899999999899</v>
       </c>
       <c r="E64">
-        <v>16.748999999999999</v>
+        <v>9.8089999999999993</v>
       </c>
       <c r="F64">
-        <v>644.93499999999995</v>
+        <v>246.960000000001</v>
       </c>
       <c r="G64">
-        <v>3718</v>
+        <v>5573</v>
       </c>
       <c r="H64">
-        <v>4372</v>
+        <v>112</v>
       </c>
       <c r="I64">
-        <v>0.73460568085136801</v>
+        <v>0.66506875332002702</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="M64" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N64" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B65" s="1">
-        <v>40673.873495370368</v>
+        <v>40699.592685185184</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
       </c>
       <c r="D65">
-        <v>5055.1620000000003</v>
+        <v>853.95600000000002</v>
       </c>
       <c r="E65">
-        <v>38.564</v>
+        <v>11.973000000000001</v>
       </c>
       <c r="F65">
-        <v>1292.454</v>
+        <v>301.11500000000001</v>
       </c>
       <c r="G65">
-        <v>7429</v>
+        <v>5573</v>
       </c>
       <c r="H65">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I65">
-        <v>0.67359911945930895</v>
+        <v>0.66626236129503302</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s">
         <v>40</v>
       </c>
       <c r="N65" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="O65" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3842,19 +3905,19 @@
         <v>97</v>
       </c>
       <c r="B66" s="1">
-        <v>40673.918078703704</v>
+        <v>40673.873495370368</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
       </c>
       <c r="D66">
-        <v>11226.716</v>
+        <v>5055.1620000000003</v>
       </c>
       <c r="E66">
-        <v>88.703999999999994</v>
+        <v>38.564</v>
       </c>
       <c r="F66">
-        <v>3246.5360000000001</v>
+        <v>1292.454</v>
       </c>
       <c r="G66">
         <v>7429</v>
@@ -3863,13 +3926,13 @@
         <v>4372</v>
       </c>
       <c r="I66">
-        <v>0.73973184442162798</v>
+        <v>0.67359911945930895</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M66" t="s">
         <v>40</v>
@@ -3883,1030 +3946,1042 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1">
-        <v>40674.129525462966</v>
+        <v>40641.314687500002</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D67">
-        <v>14320.385</v>
+        <v>2135.902</v>
       </c>
       <c r="E67">
-        <v>12.337999999999999</v>
+        <v>22.029</v>
       </c>
       <c r="F67">
-        <v>2653.03</v>
+        <v>607.20399999999995</v>
       </c>
       <c r="G67">
-        <v>7429</v>
+        <v>7426</v>
       </c>
       <c r="H67">
-        <v>4372</v>
+        <v>80</v>
       </c>
       <c r="I67">
-        <v>0.75503383488947895</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
+        <v>0.67394619287523205</v>
       </c>
       <c r="K67" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="M67" t="s">
-        <v>40</v>
-      </c>
-      <c r="N67" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="O67" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B68" s="1">
-        <v>40674.248287037037</v>
+        <v>40641.619097222225</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D68">
-        <v>51459.874000000003</v>
+        <v>102.958</v>
       </c>
       <c r="E68">
-        <v>36.646000000000001</v>
+        <v>1.593</v>
       </c>
       <c r="F68">
-        <v>9913.4699999999993</v>
+        <v>31.786000000000001</v>
       </c>
       <c r="G68">
-        <v>18568</v>
+        <v>1856</v>
       </c>
       <c r="H68">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I68">
-        <v>0.62036733586481696</v>
-      </c>
-      <c r="J68" t="s">
-        <v>17</v>
+        <v>0.67394619287523205</v>
       </c>
       <c r="K68" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s">
-        <v>40</v>
-      </c>
-      <c r="N68" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="O68" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1">
-        <v>40674.686736111114</v>
+        <v>40652.848761574074</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
       </c>
       <c r="D69">
-        <v>122707.852</v>
+        <v>1880.732</v>
       </c>
       <c r="E69">
-        <v>64.948999999999998</v>
+        <v>13.096</v>
       </c>
       <c r="F69">
-        <v>22760.59</v>
+        <v>464.53100000000001</v>
       </c>
       <c r="G69">
-        <v>37122</v>
+        <v>3713</v>
       </c>
       <c r="H69">
-        <v>4372</v>
+        <v>265</v>
       </c>
       <c r="I69">
-        <v>0.55930095133236102</v>
+        <v>0.67873746924929101</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="L69" t="s">
+        <v>52</v>
       </c>
       <c r="M69" t="s">
         <v>40</v>
       </c>
       <c r="N69" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="O69" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1">
-        <v>40675.033009259256</v>
+        <v>40639.762152777781</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
       </c>
       <c r="D70">
-        <v>5855.9470000000001</v>
+        <v>1234.6579999999999</v>
       </c>
       <c r="E70">
-        <v>4.9370000000000003</v>
+        <v>11.066000000000001</v>
       </c>
       <c r="F70">
-        <v>1422.876</v>
+        <v>289.71199999999999</v>
       </c>
       <c r="G70">
-        <v>49507</v>
+        <v>3713</v>
       </c>
       <c r="H70">
-        <v>4372</v>
+        <v>80</v>
       </c>
       <c r="I70">
-        <v>0.54406592115498398</v>
-      </c>
-      <c r="J70" t="s">
-        <v>17</v>
+        <v>0.68021707834110601</v>
       </c>
       <c r="K70" t="s">
-        <v>107</v>
-      </c>
-      <c r="M70" t="s">
-        <v>40</v>
-      </c>
-      <c r="N70" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="O70" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B71" s="1">
-        <v>40675.392337962963</v>
+        <v>40662.279085648152</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>134576.23499999999</v>
+        <v>165.71700000000001</v>
       </c>
       <c r="E71">
-        <v>40.36</v>
+        <v>3.3540000000000001</v>
       </c>
       <c r="F71">
-        <v>28205.416000000001</v>
+        <v>755.58600000000001</v>
       </c>
       <c r="G71">
-        <v>49507</v>
+        <v>3713</v>
       </c>
       <c r="H71">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I71">
-        <v>0.53791215306477902</v>
+        <v>0.68533854222555901</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
-      <c r="K71" t="s">
-        <v>110</v>
-      </c>
       <c r="M71" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O71" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1">
-        <v>40675.952581018515</v>
+        <v>40640.874699074076</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="D72">
-        <v>212013.87599999999</v>
+        <v>317.43799999999999</v>
       </c>
       <c r="E72">
-        <v>41.433999999999997</v>
+        <v>3.012</v>
       </c>
       <c r="F72">
-        <v>44907.714999999997</v>
+        <v>93.813999999999993</v>
       </c>
       <c r="G72">
-        <v>61878</v>
+        <v>3713</v>
       </c>
       <c r="H72">
-        <v>4372</v>
+        <v>80</v>
       </c>
       <c r="I72">
-        <v>0.19278843778028101</v>
-      </c>
-      <c r="J72" t="s">
-        <v>17</v>
+        <v>0.687169450355818</v>
       </c>
       <c r="K72" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" t="s">
-        <v>40</v>
-      </c>
-      <c r="N72" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="O72" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="B73" s="1">
-        <v>40676.063067129631</v>
+        <v>40699.571192129632</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D73">
-        <v>15398.272999999999</v>
+        <v>871.49900000000002</v>
       </c>
       <c r="E73">
-        <v>6.5</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="F73">
-        <v>3677.252</v>
+        <v>241.07300000000001</v>
       </c>
       <c r="G73">
-        <v>61878</v>
+        <v>5573</v>
       </c>
       <c r="H73">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I73">
-        <v>0.175103089372804</v>
+        <v>0.68809918722022201</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="M73" t="s">
-        <v>40</v>
-      </c>
-      <c r="N73" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O73" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B74" s="1">
-        <v>40676.500439814816</v>
+        <v>40662.928738425922</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>18669.684000000001</v>
+        <v>187.226</v>
       </c>
       <c r="E74">
-        <v>7.4980000000000002</v>
+        <v>3.79</v>
       </c>
       <c r="F74">
-        <v>4801.75</v>
+        <v>855.38300000000004</v>
       </c>
       <c r="G74">
-        <v>61878</v>
+        <v>3713</v>
       </c>
       <c r="H74">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I74">
-        <v>0.15093796451962199</v>
+        <v>0.69186377795907195</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="M74" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N74" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O74" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1">
-        <v>40677.074340277781</v>
+        <v>40658.947094907409</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D75">
-        <v>25829.321</v>
+        <v>22890.037</v>
       </c>
       <c r="E75">
-        <v>7.6020000000000003</v>
+        <v>220.09399999999999</v>
       </c>
       <c r="F75">
-        <v>4998.143</v>
+        <v>5557.5360000000001</v>
       </c>
       <c r="G75">
-        <v>61878</v>
+        <v>11144</v>
       </c>
       <c r="H75">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I75">
-        <v>0.27497836840217299</v>
+        <v>0.71440528118659097</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="M75" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N75" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O75" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1">
-        <v>40677.172337962962</v>
+        <v>40671.95034722222</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
       </c>
       <c r="D76">
-        <v>23612.554</v>
+        <v>181.51300000000001</v>
       </c>
       <c r="E76">
-        <v>7.8650000000000002</v>
+        <v>9.2840000000000007</v>
       </c>
       <c r="F76">
-        <v>5271.9639999999999</v>
+        <v>54.887999999999899</v>
       </c>
       <c r="G76">
-        <v>61878</v>
+        <v>3718</v>
       </c>
       <c r="H76">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I76">
-        <v>0.25284299126217802</v>
+        <v>0.717016561012494</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="M76" t="s">
         <v>40</v>
       </c>
       <c r="N76" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="O76" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1">
-        <v>40648.538935185185</v>
+        <v>40652.928113425929</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D77">
-        <v>27.919</v>
+        <v>7987.3869999999997</v>
       </c>
       <c r="E77">
-        <v>1.92</v>
+        <v>50.436999999999998</v>
       </c>
       <c r="F77">
-        <v>9.2449999999999992</v>
+        <v>2553.5729999999999</v>
       </c>
       <c r="G77">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H77">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="I77">
-        <v>1.0180336300557</v>
+        <v>0.72160003668857897</v>
       </c>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>118</v>
+        <v>66</v>
+      </c>
+      <c r="L77" t="s">
+        <v>67</v>
+      </c>
+      <c r="M77" t="s">
+        <v>40</v>
       </c>
       <c r="N77" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="O77" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B78" s="1">
-        <v>40648.539930555555</v>
+        <v>40671.958773148152</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D78">
-        <v>59.051000000000002</v>
+        <v>171.41399999999999</v>
       </c>
       <c r="E78">
-        <v>3.5779999999999998</v>
+        <v>6.15</v>
       </c>
       <c r="F78">
-        <v>18.670999999999999</v>
+        <v>50.147000000000197</v>
       </c>
       <c r="G78">
-        <v>3713</v>
+        <v>3718</v>
       </c>
       <c r="H78">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I78">
-        <v>0.96561685628127103</v>
+        <v>0.72296370059508597</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
-        <v>119</v>
+        <v>92</v>
+      </c>
+      <c r="M78" t="s">
+        <v>40</v>
       </c>
       <c r="N78" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="O78" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1">
-        <v>40648.54142361111</v>
+        <v>40671.960601851853</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D79">
-        <v>131.185</v>
+        <v>178.815</v>
       </c>
       <c r="E79">
-        <v>6.5410000000000004</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="F79">
-        <v>50.7349999999999</v>
+        <v>50.5</v>
       </c>
       <c r="G79">
-        <v>7426</v>
+        <v>3718</v>
       </c>
       <c r="H79">
+        <v>94</v>
+      </c>
+      <c r="I79">
+        <v>0.72296370059508597</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" t="s">
+        <v>40</v>
+      </c>
+      <c r="N79" t="s">
         <v>93</v>
       </c>
-      <c r="I79">
-        <v>0.91570247278205597</v>
-      </c>
-      <c r="J79" t="s">
-        <v>17</v>
-      </c>
-      <c r="K79" t="s">
-        <v>120</v>
-      </c>
-      <c r="N79" t="s">
-        <v>38</v>
-      </c>
       <c r="O79" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="B80" s="1">
-        <v>40648.543449074074</v>
+        <v>40661.621365740742</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="D80">
-        <v>43.402000000000001</v>
+        <v>3097.3</v>
       </c>
       <c r="E80">
-        <v>4.867</v>
+        <v>23.74</v>
       </c>
       <c r="F80">
-        <v>48.255000000000102</v>
+        <v>3132.3</v>
       </c>
       <c r="G80">
-        <v>7426</v>
+        <v>11144</v>
       </c>
       <c r="H80">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I80">
-        <v>0.90945648831618497</v>
+        <v>0.72482857368610298</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>121</v>
-      </c>
-      <c r="L80" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="N80" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="O80" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1">
-        <v>40648.54482638889</v>
+        <v>40641.304837962962</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D81">
-        <v>65.584999999999994</v>
+        <v>863.20299999999997</v>
       </c>
       <c r="E81">
-        <v>7.569</v>
+        <v>9.8740000000000006</v>
       </c>
       <c r="F81">
-        <v>73.141000000000105</v>
+        <v>245.357</v>
       </c>
       <c r="G81">
-        <v>11139</v>
+        <v>3713</v>
       </c>
       <c r="H81">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I81">
-        <v>0.89073012573322896</v>
-      </c>
-      <c r="J81" t="s">
-        <v>17</v>
+        <v>0.731539626722439</v>
       </c>
       <c r="K81" t="s">
-        <v>121</v>
-      </c>
-      <c r="L81" t="s">
-        <v>121</v>
-      </c>
-      <c r="N81" t="s">
-        <v>38</v>
+        <v>129</v>
+      </c>
+      <c r="M81" t="s">
+        <v>132</v>
       </c>
       <c r="O81" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B82" s="1">
-        <v>40648.917881944442</v>
+        <v>40673.853414351855</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D82">
-        <v>309.97000000000003</v>
+        <v>2203.7179999999998</v>
       </c>
       <c r="E82">
-        <v>30.928000000000001</v>
+        <v>16.748999999999999</v>
       </c>
       <c r="F82">
-        <v>340.88400000000001</v>
+        <v>644.93499999999995</v>
       </c>
       <c r="G82">
-        <v>11139</v>
+        <v>3718</v>
       </c>
       <c r="H82">
-        <v>93</v>
+        <v>4372</v>
       </c>
       <c r="I82">
-        <v>0.89196904290199497</v>
+        <v>0.73460568085136801</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>122</v>
-      </c>
-      <c r="L82" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="M82" t="s">
+        <v>40</v>
       </c>
       <c r="N82" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="O82" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B83" s="1">
-        <v>40648.927546296298</v>
+        <v>40649.85328703704</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>652.154</v>
+        <v>572.024</v>
       </c>
       <c r="E83">
-        <v>119.706</v>
+        <v>4.694</v>
       </c>
       <c r="F83">
-        <v>771.95699999999999</v>
+        <v>289.34099999999899</v>
       </c>
       <c r="G83">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H83">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I83">
-        <v>0.896307740021412</v>
+        <v>0.73635288429166001</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="L83" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="M83" t="s">
+        <v>40</v>
       </c>
       <c r="N83" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1">
-        <v>40651.289155092592</v>
+        <v>40673.918078703704</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>22.766999999999999</v>
+        <v>11226.716</v>
       </c>
       <c r="E84">
-        <v>0.996</v>
+        <v>88.703999999999994</v>
       </c>
       <c r="F84">
-        <v>5.8029999999999999</v>
+        <v>3246.5360000000001</v>
       </c>
       <c r="G84">
-        <v>3713</v>
+        <v>7429</v>
       </c>
       <c r="H84">
-        <v>93</v>
+        <v>4372</v>
       </c>
       <c r="I84">
-        <v>1.0460162236147099</v>
+        <v>0.73973184442162798</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="M84" t="s">
+        <v>40</v>
+      </c>
+      <c r="N84" t="s">
+        <v>102</v>
       </c>
       <c r="O84" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1">
-        <v>40651.291076388887</v>
+        <v>40649.846215277779</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D85">
-        <v>44.039000000000001</v>
+        <v>67.259</v>
       </c>
       <c r="E85">
-        <v>1.3720000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="F85">
-        <v>10.587999999999999</v>
+        <v>21.386000000000401</v>
       </c>
       <c r="G85">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H85">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I85">
-        <v>1.02880482206316</v>
+        <v>0.73980531857912701</v>
       </c>
       <c r="J85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>125</v>
+        <v>37</v>
+      </c>
+      <c r="M85" t="s">
+        <v>40</v>
+      </c>
+      <c r="N85" t="s">
+        <v>38</v>
       </c>
       <c r="O85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="B86" s="1">
-        <v>40651.292847222219</v>
+        <v>40652.759942129633</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D86">
-        <v>208.83199999999999</v>
+        <v>2103.759</v>
       </c>
       <c r="E86">
-        <v>3.431</v>
+        <v>13.521000000000001</v>
       </c>
       <c r="F86">
-        <v>52.397999999999897</v>
+        <v>532.35500000000002</v>
       </c>
       <c r="G86">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H86">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="I86">
-        <v>1.0142987814422999</v>
+        <v>0.74000400932482002</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>125</v>
+        <v>42</v>
+      </c>
+      <c r="L86" t="s">
+        <v>48</v>
+      </c>
+      <c r="M86" t="s">
+        <v>40</v>
+      </c>
+      <c r="N86" t="s">
+        <v>46</v>
       </c>
       <c r="O86" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1">
-        <v>40651.297395833331</v>
+        <v>40652.7653587963</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D87">
-        <v>353.75200000000001</v>
+        <v>1007.5650000000001</v>
       </c>
       <c r="E87">
-        <v>5.1859999999999999</v>
+        <v>6.9240000000000004</v>
       </c>
       <c r="F87">
-        <v>105.03700000000001</v>
+        <v>135.203</v>
       </c>
       <c r="G87">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H87">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="I87">
-        <v>1.0142987814422999</v>
+        <v>0.74000400932482002</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="L87" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="M87" t="s">
+        <v>40</v>
+      </c>
+      <c r="N87" t="s">
+        <v>46</v>
       </c>
       <c r="O87" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1">
-        <v>40641.286828703705</v>
+        <v>40647.944432870368</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D88">
-        <v>95.216999999999999</v>
+        <v>93.206999999999994</v>
       </c>
       <c r="E88">
-        <v>1.331</v>
+        <v>1.34</v>
       </c>
       <c r="F88">
-        <v>24.663</v>
+        <v>20.372000000000099</v>
       </c>
       <c r="G88">
         <v>1856</v>
       </c>
       <c r="H88">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I88">
-        <v>0.80368268355869699</v>
+        <v>0.74121875335933596</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>129</v>
-      </c>
-      <c r="M88" t="s">
-        <v>130</v>
+        <v>37</v>
+      </c>
+      <c r="N88" t="s">
+        <v>38</v>
       </c>
       <c r="O88" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B89" s="1">
-        <v>40641.297395833331</v>
+        <v>40647.945636574077</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D89">
-        <v>180.30699999999999</v>
+        <v>62.183</v>
       </c>
       <c r="E89">
-        <v>2.5920000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F89">
-        <v>51.556999999999803</v>
+        <v>20.033999999999999</v>
       </c>
       <c r="G89">
         <v>1856</v>
       </c>
       <c r="H89">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I89">
-        <v>0.78688275766877602</v>
+        <v>0.74121875335933596</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="M89" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N89" t="s">
+        <v>38</v>
       </c>
       <c r="O89" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B90" s="1">
-        <v>40641.298993055556</v>
+        <v>40652.750289351854</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D90">
-        <v>400.36099999999999</v>
+        <v>177.60499999999999</v>
       </c>
       <c r="E90">
-        <v>5.1639999999999997</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="F90">
-        <v>102.628</v>
+        <v>55.293000000000099</v>
       </c>
       <c r="G90">
         <v>1856</v>
       </c>
       <c r="H90">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="I90">
-        <v>0.78245588356401696</v>
+        <v>0.74283828905403004</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="M90" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N90" t="s">
+        <v>46</v>
       </c>
       <c r="O90" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B91" s="1">
-        <v>40641.301504629628</v>
+        <v>40639.758009259262</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D91">
-        <v>413.88099999999997</v>
+        <v>552.36199999999997</v>
       </c>
       <c r="E91">
-        <v>5.3579999999999997</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="F91">
-        <v>102.158</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G91">
         <v>1856</v>
@@ -4915,13 +4990,10 @@
         <v>80</v>
       </c>
       <c r="I91">
-        <v>0.78405152780559495</v>
+        <v>0.74287633479385795</v>
       </c>
       <c r="K91" t="s">
-        <v>129</v>
-      </c>
-      <c r="M91" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="O91" t="s">
         <v>32</v>
@@ -4929,75 +5001,81 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1">
-        <v>40641.304837962962</v>
+        <v>40662.262199074074</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>863.20299999999997</v>
+        <v>80.350999999999999</v>
       </c>
       <c r="E92">
-        <v>9.8740000000000006</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F92">
-        <v>245.357</v>
+        <v>312.32500000000101</v>
       </c>
       <c r="G92">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H92">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I92">
-        <v>0.731539626722439</v>
-      </c>
-      <c r="K92" t="s">
-        <v>129</v>
+        <v>0.74622874070445699</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>132</v>
+        <v>18</v>
+      </c>
+      <c r="N92" t="s">
+        <v>19</v>
       </c>
       <c r="O92" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B93" s="1">
-        <v>40641.314687500002</v>
+        <v>40647.942337962966</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>2135.902</v>
+        <v>57.72</v>
       </c>
       <c r="E93">
-        <v>22.029</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>607.20399999999995</v>
+        <v>18.855</v>
       </c>
       <c r="G93">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H93">
         <v>80</v>
       </c>
       <c r="I93">
-        <v>0.67394619287523205</v>
+        <v>0.751467165885644</v>
+      </c>
+      <c r="J93" t="s">
+        <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>129</v>
-      </c>
-      <c r="M93" t="s">
-        <v>132</v>
+        <v>37</v>
+      </c>
+      <c r="N93" t="s">
+        <v>38</v>
       </c>
       <c r="O93" t="s">
         <v>32</v>
@@ -5005,294 +5083,327 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B94" s="1">
-        <v>40641.619097222225</v>
+        <v>40658.874039351853</v>
       </c>
       <c r="C94" t="s">
         <v>128</v>
       </c>
       <c r="D94">
-        <v>102.958</v>
+        <v>11717.561</v>
       </c>
       <c r="E94">
-        <v>1.593</v>
+        <v>122.316</v>
       </c>
       <c r="F94">
-        <v>31.786000000000001</v>
+        <v>2818.88</v>
       </c>
       <c r="G94">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H94">
         <v>94</v>
       </c>
       <c r="I94">
-        <v>0.67394619287523205</v>
+        <v>0.75352613020479797</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="M94" t="s">
         <v>131</v>
       </c>
+      <c r="N94" t="s">
+        <v>168</v>
+      </c>
       <c r="O94" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B95" s="1">
-        <v>40641.62332175926</v>
+        <v>40652.835798611108</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D95">
-        <v>213.624</v>
+        <v>789.48299999999995</v>
       </c>
       <c r="E95">
-        <v>2.7330000000000001</v>
+        <v>5.4989999999999997</v>
       </c>
       <c r="F95">
-        <v>59.539000000000001</v>
+        <v>219.09200000000001</v>
       </c>
       <c r="G95">
         <v>1856</v>
       </c>
       <c r="H95">
-        <v>93</v>
+        <v>436</v>
       </c>
       <c r="I95">
-        <v>0.77752664564118501</v>
+        <v>0.75355722064198705</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>134</v>
+        <v>42</v>
+      </c>
+      <c r="L95" t="s">
+        <v>49</v>
       </c>
       <c r="M95" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N95" t="s">
+        <v>46</v>
       </c>
       <c r="O95" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B96" s="1">
-        <v>40641.868738425925</v>
+        <v>40652.839166666665</v>
       </c>
       <c r="C96" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D96">
-        <v>5823.5429999999997</v>
+        <v>984.07600000000002</v>
       </c>
       <c r="E96">
-        <v>50.137999999999998</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="F96">
-        <v>1813.1010000000001</v>
+        <v>218.297</v>
       </c>
       <c r="G96">
-        <v>14852</v>
+        <v>1856</v>
       </c>
       <c r="H96">
-        <v>93</v>
+        <v>436</v>
       </c>
       <c r="I96">
-        <v>0.621943789694692</v>
+        <v>0.75355722064198705</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>134</v>
+        <v>42</v>
+      </c>
+      <c r="L96" t="s">
+        <v>49</v>
       </c>
       <c r="M96" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="N96" t="s">
+        <v>51</v>
       </c>
       <c r="O96" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1">
-        <v>40641.892905092594</v>
+        <v>40661.551562499997</v>
       </c>
       <c r="C97" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="D97">
-        <v>1187.6130000000001</v>
+        <v>1400.45</v>
       </c>
       <c r="E97">
-        <v>2.907</v>
+        <v>11.27</v>
       </c>
       <c r="F97">
-        <v>1190.5989999999999</v>
+        <v>1413.65</v>
       </c>
       <c r="G97">
-        <v>29704</v>
+        <v>7429</v>
       </c>
       <c r="H97">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I97">
-        <v>0.581291879081961</v>
+        <v>0.75435019649979396</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>134</v>
-      </c>
-      <c r="M97" t="s">
-        <v>132</v>
+        <v>218</v>
+      </c>
+      <c r="N97" t="s">
+        <v>216</v>
       </c>
       <c r="O97" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>40641.962881944448</v>
+        <v>40674.129525462966</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D98">
-        <v>1647.414</v>
+        <v>14320.385</v>
       </c>
       <c r="E98">
-        <v>5.6340000000000101</v>
+        <v>12.337999999999999</v>
       </c>
       <c r="F98">
-        <v>1654.211</v>
+        <v>2653.03</v>
       </c>
       <c r="G98">
-        <v>37131</v>
+        <v>7429</v>
       </c>
       <c r="H98">
-        <v>93</v>
+        <v>4372</v>
       </c>
       <c r="I98">
-        <v>0.57026004489291504</v>
+        <v>0.75503383488947895</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="M98" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="N98" t="s">
+        <v>105</v>
       </c>
       <c r="O98" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1">
-        <v>40647.280289351853</v>
+        <v>40663.886111111111</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>2438.998</v>
+        <v>72.468000000000004</v>
       </c>
       <c r="E99">
-        <v>5.6509999999999998</v>
+        <v>1.62</v>
       </c>
       <c r="F99">
-        <v>2444.94</v>
+        <v>303.40899999999999</v>
       </c>
       <c r="G99">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H99">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I99">
-        <v>0.56536779724153197</v>
-      </c>
-      <c r="K99" t="s">
-        <v>134</v>
+        <v>0.75551332289408202</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
       </c>
       <c r="M99" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="N99" t="s">
+        <v>25</v>
       </c>
       <c r="O99" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1">
-        <v>40647.967615740738</v>
+        <v>40663.894259259258</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D100">
-        <v>605.94000000000005</v>
+        <v>73.712000000000003</v>
       </c>
       <c r="E100">
-        <v>6.4889999999999999</v>
+        <v>1.677</v>
       </c>
       <c r="F100">
-        <v>184.56299999999999</v>
+        <v>305.04400000000197</v>
       </c>
       <c r="G100">
         <v>1856</v>
       </c>
       <c r="H100">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I100">
-        <v>0.77232612637303599</v>
+        <v>0.76165795442312301</v>
       </c>
       <c r="J100" t="s">
         <v>21</v>
       </c>
-      <c r="K100" t="s">
-        <v>134</v>
-      </c>
       <c r="M100" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="N100" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O100" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1">
-        <v>40654.849768518521</v>
+        <v>40664.134918981479</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>93.305000000000007</v>
+        <v>91.316999999999993</v>
       </c>
       <c r="E101">
-        <v>1.4610000000000001</v>
+        <v>102.008</v>
       </c>
       <c r="F101">
-        <v>29.73</v>
+        <v>307.92099999999999</v>
       </c>
       <c r="G101">
         <v>1856</v>
@@ -5301,16 +5412,16 @@
         <v>94</v>
       </c>
       <c r="I101">
-        <v>0.78982913098609597</v>
+        <v>0.76214175152330399</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
-      <c r="K101" t="s">
-        <v>137</v>
+      <c r="M101" t="s">
+        <v>27</v>
       </c>
       <c r="N101" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="O101" t="s">
         <v>20</v>
@@ -5318,43 +5429,46 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B102" s="1">
-        <v>40654.853946759256</v>
+        <v>40654.294745370367</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D102">
-        <v>206.608</v>
+        <v>1566.3030000000001</v>
       </c>
       <c r="E102">
-        <v>2.7360000000000002</v>
+        <v>13.538</v>
       </c>
       <c r="F102">
-        <v>58.323999999999998</v>
+        <v>424.012</v>
       </c>
       <c r="G102">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="H102">
         <v>94</v>
       </c>
       <c r="I102">
-        <v>0.77767741827453896</v>
+        <v>0.76369530069646097</v>
       </c>
       <c r="J102" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>137</v>
+        <v>72</v>
+      </c>
+      <c r="L102" t="s">
+        <v>67</v>
       </c>
       <c r="M102" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N102" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="O102" t="s">
         <v>20</v>
@@ -5362,93 +5476,87 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1">
-        <v>40654.860844907409</v>
+        <v>40652.988958333335</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D103">
-        <v>686.71699999999998</v>
+        <v>16123.888999999999</v>
       </c>
       <c r="E103">
-        <v>7.6820000000000004</v>
+        <v>99.897999999999996</v>
       </c>
       <c r="F103">
-        <v>175.87</v>
+        <v>5089.6090000000004</v>
       </c>
       <c r="G103">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H103">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I103">
-        <v>0.77767741827453896</v>
+        <v>0.76422431884418296</v>
       </c>
       <c r="J103" t="s">
         <v>21</v>
       </c>
       <c r="K103" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="L103" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M103" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N103" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="O103" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B104" s="1">
-        <v>40654.866481481484</v>
+        <v>40663.907569444447</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D104">
-        <v>216.715</v>
+        <v>71.305000000000007</v>
       </c>
       <c r="E104">
-        <v>0.53600000000000003</v>
+        <v>1.698</v>
       </c>
       <c r="F104">
-        <v>217.19800000000001</v>
+        <v>300.63900000000098</v>
       </c>
       <c r="G104">
-        <v>14852</v>
+        <v>1856</v>
       </c>
       <c r="H104">
         <v>94</v>
       </c>
       <c r="I104">
-        <v>0.63291953497683395</v>
+        <v>0.76500874540172104</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" t="s">
-        <v>137</v>
-      </c>
-      <c r="L104" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M104" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="N104" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="O104" t="s">
         <v>20</v>
@@ -5456,46 +5564,40 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B105" s="1">
-        <v>40654.897719907407</v>
+        <v>40663.913171296299</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>2490.451</v>
+        <v>69.188999999999993</v>
       </c>
       <c r="E105">
-        <v>7.4210000000000003</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="F105">
-        <v>2498.9189999999999</v>
+        <v>298.46900000000102</v>
       </c>
       <c r="G105">
-        <v>37131</v>
+        <v>1856</v>
       </c>
       <c r="H105">
         <v>94</v>
       </c>
       <c r="I105">
-        <v>0.560539731881459</v>
+        <v>0.76638894196604401</v>
       </c>
       <c r="J105" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" t="s">
-        <v>137</v>
-      </c>
-      <c r="L105" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M105" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="N105" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="O105" t="s">
         <v>20</v>
@@ -5503,90 +5605,84 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B106" s="1">
-        <v>40655.898888888885</v>
+        <v>40647.967615740738</v>
       </c>
       <c r="C106" t="s">
         <v>128</v>
       </c>
       <c r="D106">
-        <v>3589.3890000000001</v>
+        <v>605.94000000000005</v>
       </c>
       <c r="E106">
-        <v>10.888999999999999</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="F106">
-        <v>3603.6959999999999</v>
+        <v>184.56299999999999</v>
       </c>
       <c r="G106">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H106">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I106">
-        <v>0.54215361254059102</v>
+        <v>0.77232612637303599</v>
       </c>
       <c r="J106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K106" t="s">
-        <v>137</v>
-      </c>
-      <c r="L106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M106" t="s">
         <v>135</v>
       </c>
       <c r="N106" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="O106" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1">
-        <v>40656.284328703703</v>
+        <v>40641.62332175926</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D107">
-        <v>5978.5940000000001</v>
+        <v>213.624</v>
       </c>
       <c r="E107">
-        <v>81.465000000000003</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="F107">
-        <v>1533.8150000000001</v>
+        <v>59.539000000000001</v>
       </c>
       <c r="G107">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H107">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I107">
-        <v>0.53932968453027097</v>
-      </c>
-      <c r="J107" t="s">
-        <v>17</v>
+        <v>0.77752664564118501</v>
       </c>
       <c r="K107" t="s">
-        <v>141</v>
-      </c>
-      <c r="N107" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="M107" t="s">
+        <v>131</v>
       </c>
       <c r="O107" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5594,40 +5690,40 @@
         <v>136</v>
       </c>
       <c r="B108" s="1">
-        <v>40656.825995370367</v>
+        <v>40654.853946759256</v>
       </c>
       <c r="C108" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>1197.2919999999999</v>
+        <v>206.608</v>
       </c>
       <c r="E108">
-        <v>60.024999999999999</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="F108">
-        <v>338.46699999999998</v>
+        <v>58.323999999999998</v>
       </c>
       <c r="G108">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H108">
         <v>94</v>
       </c>
       <c r="I108">
-        <v>0.53936143445911</v>
+        <v>0.77767741827453896</v>
       </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>143</v>
-      </c>
-      <c r="L108" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="M108" t="s">
+        <v>131</v>
       </c>
       <c r="N108" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="O108" t="s">
         <v>20</v>
@@ -5638,40 +5734,43 @@
         <v>136</v>
       </c>
       <c r="B109" s="1">
-        <v>40656.831354166665</v>
+        <v>40654.860844907409</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D109">
-        <v>1206.809</v>
+        <v>686.71699999999998</v>
       </c>
       <c r="E109">
-        <v>70.075000000000003</v>
+        <v>7.6820000000000004</v>
       </c>
       <c r="F109">
-        <v>345.29599999999999</v>
+        <v>175.87</v>
       </c>
       <c r="G109">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H109">
         <v>94</v>
       </c>
       <c r="I109">
-        <v>0.53933957930639798</v>
+        <v>0.77767741827453896</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L109" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="M109" t="s">
+        <v>131</v>
       </c>
       <c r="N109" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="O109" t="s">
         <v>20</v>
@@ -5679,131 +5778,116 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B110" s="1">
-        <v>40656.837557870371</v>
+        <v>40641.298993055556</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D110">
-        <v>1216.6759999999999</v>
+        <v>400.36099999999999</v>
       </c>
       <c r="E110">
-        <v>78.204999999999998</v>
+        <v>5.1639999999999997</v>
       </c>
       <c r="F110">
-        <v>351.79199999999997</v>
+        <v>102.628</v>
       </c>
       <c r="G110">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H110">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I110">
-        <v>0.53930522813114501</v>
-      </c>
-      <c r="J110" t="s">
-        <v>17</v>
+        <v>0.78245588356401696</v>
       </c>
       <c r="K110" t="s">
-        <v>143</v>
-      </c>
-      <c r="L110" t="s">
-        <v>147</v>
-      </c>
-      <c r="N110" t="s">
-        <v>145</v>
+        <v>129</v>
+      </c>
+      <c r="M110" t="s">
+        <v>131</v>
       </c>
       <c r="O110" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B111" s="1">
-        <v>40656.869560185187</v>
+        <v>40641.301504629628</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D111">
-        <v>122.69799999999999</v>
+        <v>413.88099999999997</v>
       </c>
       <c r="E111">
-        <v>2.86</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="F111">
-        <v>31.661000000000101</v>
+        <v>102.158</v>
       </c>
       <c r="G111">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H111">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I111">
-        <v>0.634406625498386</v>
-      </c>
-      <c r="J111" t="s">
-        <v>21</v>
+        <v>0.78405152780559495</v>
       </c>
       <c r="K111" t="s">
-        <v>148</v>
-      </c>
-      <c r="L111" t="s">
-        <v>149</v>
-      </c>
-      <c r="N111" t="s">
-        <v>150</v>
+        <v>129</v>
+      </c>
+      <c r="M111" t="s">
+        <v>132</v>
       </c>
       <c r="O111" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B112" s="1">
-        <v>40656.87060185185</v>
+        <v>40662.897407407407</v>
       </c>
       <c r="C112" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>180.42699999999999</v>
+        <v>73.715000000000003</v>
       </c>
       <c r="E112">
-        <v>2.6480000000000001</v>
+        <v>1.429</v>
       </c>
       <c r="F112">
-        <v>47.348999999999897</v>
+        <v>305.83699999999999</v>
       </c>
       <c r="G112">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H112">
         <v>94</v>
       </c>
       <c r="I112">
-        <v>0.58648098372120105</v>
+        <v>0.78549299436114095</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
       </c>
-      <c r="K112" t="s">
-        <v>151</v>
-      </c>
-      <c r="L112" t="s">
-        <v>152</v>
+      <c r="M112" t="s">
+        <v>22</v>
       </c>
       <c r="N112" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="O112" t="s">
         <v>20</v>
@@ -5811,46 +5895,40 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B113" s="1">
-        <v>40656.872812499998</v>
+        <v>40641.297395833331</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D113">
-        <v>590.16</v>
+        <v>180.30699999999999</v>
       </c>
       <c r="E113">
-        <v>7.1760000000000002</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="F113">
-        <v>154.49600000000001</v>
+        <v>51.556999999999803</v>
       </c>
       <c r="G113">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H113">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I113">
-        <v>0.56569986367404701</v>
-      </c>
-      <c r="J113" t="s">
-        <v>21</v>
+        <v>0.78688275766877602</v>
       </c>
       <c r="K113" t="s">
-        <v>154</v>
-      </c>
-      <c r="L113" t="s">
-        <v>155</v>
-      </c>
-      <c r="N113" t="s">
-        <v>156</v>
+        <v>129</v>
+      </c>
+      <c r="M113" t="s">
+        <v>131</v>
       </c>
       <c r="O113" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -5858,40 +5936,37 @@
         <v>136</v>
       </c>
       <c r="B114" s="1">
-        <v>40656.878275462965</v>
+        <v>40654.849768518521</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D114">
-        <v>1158.596</v>
+        <v>93.305000000000007</v>
       </c>
       <c r="E114">
-        <v>13.955</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="F114">
-        <v>301.77999999999997</v>
+        <v>29.73</v>
       </c>
       <c r="G114">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H114">
         <v>94</v>
       </c>
       <c r="I114">
-        <v>0.55623853372381105</v>
+        <v>0.78982913098609597</v>
       </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>157</v>
-      </c>
-      <c r="L114" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="N114" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="O114" t="s">
         <v>20</v>
@@ -5899,43 +5974,40 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B115" s="1">
-        <v>40656.884027777778</v>
+        <v>40662.904675925929</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D115">
-        <v>1151.5509999999999</v>
+        <v>90.022000000000006</v>
       </c>
       <c r="E115">
-        <v>15.643000000000001</v>
+        <v>2.069</v>
       </c>
       <c r="F115">
-        <v>306.65300000000002</v>
+        <v>362.89400000000001</v>
       </c>
       <c r="G115">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H115">
         <v>94</v>
       </c>
       <c r="I115">
-        <v>0.55623853372381105</v>
+        <v>0.79944489497743798</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
       </c>
-      <c r="K115" t="s">
-        <v>143</v>
-      </c>
-      <c r="L115" t="s">
-        <v>160</v>
+      <c r="M115" t="s">
+        <v>23</v>
       </c>
       <c r="N115" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O115" t="s">
         <v>20</v>
@@ -5943,87 +6015,78 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B116" s="1">
-        <v>40656.885810185187</v>
+        <v>40641.286828703705</v>
       </c>
       <c r="C116" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D116">
-        <v>1151.5509999999999</v>
+        <v>95.216999999999999</v>
       </c>
       <c r="E116">
-        <v>15.643000000000001</v>
+        <v>1.331</v>
       </c>
       <c r="F116">
-        <v>306.65300000000002</v>
+        <v>24.663</v>
       </c>
       <c r="G116">
-        <v>49507</v>
+        <v>1856</v>
       </c>
       <c r="H116">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I116">
-        <v>0.54654888965735504</v>
-      </c>
-      <c r="J116" t="s">
-        <v>21</v>
+        <v>0.80368268355869699</v>
       </c>
       <c r="K116" t="s">
-        <v>143</v>
-      </c>
-      <c r="L116" t="s">
-        <v>160</v>
-      </c>
-      <c r="N116" t="s">
-        <v>145</v>
+        <v>129</v>
+      </c>
+      <c r="M116" t="s">
+        <v>130</v>
       </c>
       <c r="O116" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B117" s="1">
-        <v>40656.890127314815</v>
+        <v>40661.526898148149</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="D117">
-        <v>1160.682</v>
+        <v>437.02</v>
       </c>
       <c r="E117">
-        <v>17.484999999999999</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F117">
-        <v>309.87200000000001</v>
+        <v>440.29</v>
       </c>
       <c r="G117">
-        <v>49507</v>
+        <v>3718</v>
       </c>
       <c r="H117">
         <v>94</v>
       </c>
       <c r="I117">
-        <v>0.54424328908644304</v>
+        <v>0.816933944528761</v>
       </c>
       <c r="J117" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>143</v>
-      </c>
-      <c r="L117" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="N117" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="O117" t="s">
         <v>20</v>
@@ -6031,43 +6094,43 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B118" s="1">
-        <v>40656.894976851851</v>
+        <v>40658.838333333333</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D118">
-        <v>1201.796</v>
+        <v>4225.3010000000004</v>
       </c>
       <c r="E118">
-        <v>19.233000000000001</v>
+        <v>56.110999999999997</v>
       </c>
       <c r="F118">
-        <v>324.05200000000002</v>
+        <v>1041.828</v>
       </c>
       <c r="G118">
-        <v>49507</v>
+        <v>3718</v>
       </c>
       <c r="H118">
         <v>94</v>
       </c>
       <c r="I118">
-        <v>0.54207999278429297</v>
+        <v>0.81984717792192097</v>
       </c>
       <c r="J118" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>143</v>
-      </c>
-      <c r="L118" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="M118" t="s">
+        <v>131</v>
       </c>
       <c r="N118" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="O118" t="s">
         <v>20</v>
@@ -6075,263 +6138,269 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="B119" s="1">
-        <v>40656.899618055555</v>
+        <v>40661.148125</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D119">
-        <v>1222.123</v>
+        <v>379.452</v>
       </c>
       <c r="E119">
-        <v>23.850999999999999</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="F119">
-        <v>330.56400000000002</v>
+        <v>177.47</v>
       </c>
       <c r="G119">
-        <v>49507</v>
+        <v>3713</v>
       </c>
       <c r="H119">
         <v>94</v>
       </c>
       <c r="I119">
-        <v>0.53986151453897102</v>
+        <v>0.82402699162210502</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
       </c>
       <c r="K119" t="s">
-        <v>143</v>
-      </c>
-      <c r="L119" t="s">
-        <v>163</v>
+        <v>53</v>
+      </c>
+      <c r="M119" t="s">
+        <v>40</v>
       </c>
       <c r="N119" t="s">
-        <v>145</v>
-      </c>
-      <c r="O119" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B120" s="1">
-        <v>40656.904513888891</v>
+        <v>40652.868472222224</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D120">
-        <v>1212.9780000000001</v>
+        <v>2713.4369999999999</v>
       </c>
       <c r="E120">
-        <v>28.611999999999998</v>
+        <v>19.478000000000002</v>
       </c>
       <c r="F120">
-        <v>333.71800000000002</v>
+        <v>857.63699999999994</v>
       </c>
       <c r="G120">
-        <v>49507</v>
+        <v>1861</v>
       </c>
       <c r="H120">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I120">
-        <v>0.539700782307872</v>
+        <v>0.83670746279494701</v>
       </c>
       <c r="J120" t="s">
         <v>21</v>
       </c>
       <c r="K120" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="L120" t="s">
-        <v>164</v>
+        <v>43</v>
+      </c>
+      <c r="M120" t="s">
+        <v>40</v>
       </c>
       <c r="N120" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="O120" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1">
-        <v>40666.813668981478</v>
+        <v>40654.282939814817</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D121">
-        <v>1218.4059999999999</v>
+        <v>6520.241</v>
       </c>
       <c r="E121">
-        <v>13.275</v>
+        <v>41.481999999999999</v>
       </c>
       <c r="F121">
-        <v>421.81500000000102</v>
+        <v>2088.59</v>
       </c>
       <c r="G121">
-        <v>61878</v>
+        <v>1861</v>
       </c>
       <c r="H121">
-        <v>94</v>
+        <v>436</v>
       </c>
       <c r="I121">
-        <v>0.12536189610905801</v>
+        <v>0.84506210386796399</v>
       </c>
       <c r="J121" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K121" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="L121" t="s">
-        <v>158</v>
+        <v>67</v>
+      </c>
+      <c r="M121" t="s">
+        <v>40</v>
       </c>
       <c r="N121" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="O121" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B122" s="1">
-        <v>40666.822210648148</v>
+        <v>40648.013703703706</v>
       </c>
       <c r="C122" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D122">
-        <v>1642.7940000000001</v>
+        <v>925.125</v>
       </c>
       <c r="E122">
-        <v>19.914000000000001</v>
+        <v>11.952999999999999</v>
       </c>
       <c r="F122">
-        <v>433.00200000000001</v>
+        <v>214.48399999999901</v>
       </c>
       <c r="G122">
-        <v>61878</v>
+        <v>1856</v>
       </c>
       <c r="H122">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I122">
-        <v>0.12538954403165201</v>
+        <v>0.87084435195355903</v>
       </c>
       <c r="J122" t="s">
         <v>21</v>
       </c>
       <c r="K122" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="L122" t="s">
-        <v>160</v>
+        <v>48</v>
+      </c>
+      <c r="M122" t="s">
+        <v>40</v>
       </c>
       <c r="N122" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="O122" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B123" s="1">
-        <v>40666.829050925924</v>
+        <v>40648.014513888891</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D123">
-        <v>823.846</v>
+        <v>925.125</v>
       </c>
       <c r="E123">
-        <v>11.052</v>
+        <v>11.952999999999999</v>
       </c>
       <c r="F123">
-        <v>211.864</v>
+        <v>214.48399999999901</v>
       </c>
       <c r="G123">
-        <v>61878</v>
+        <v>1856</v>
       </c>
       <c r="H123">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I123">
-        <v>0.12544978906972201</v>
+        <v>0.87084435195355903</v>
       </c>
       <c r="J123" t="s">
         <v>21</v>
       </c>
       <c r="K123" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="L123" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="M123" t="s">
+        <v>40</v>
       </c>
       <c r="N123" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="O123" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B124" s="1">
-        <v>40666.858576388891</v>
+        <v>40661.520416666666</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="D124">
-        <v>1729.7170000000001</v>
+        <v>147.87</v>
       </c>
       <c r="E124">
-        <v>23.690999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="F124">
-        <v>439.70899999999898</v>
+        <v>149.09</v>
       </c>
       <c r="G124">
-        <v>61878</v>
+        <v>1861</v>
       </c>
       <c r="H124">
         <v>94</v>
       </c>
       <c r="I124">
-        <v>0.12547118097591101</v>
+        <v>0.879687868181247</v>
       </c>
       <c r="J124" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>157</v>
-      </c>
-      <c r="L124" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="N124" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="O124" t="s">
         <v>20</v>
@@ -6339,178 +6408,175 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B125" s="1">
-        <v>40666.864722222221</v>
+        <v>40650.427997685183</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D125">
-        <v>1696.5940000000001</v>
+        <v>124.29</v>
       </c>
       <c r="E125">
-        <v>25.24</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="F125">
-        <v>452.84400000000102</v>
+        <v>41.579000000000001</v>
       </c>
       <c r="G125">
-        <v>61878</v>
+        <v>3718</v>
       </c>
       <c r="H125">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I125">
-        <v>0.125500889889751</v>
+        <v>0.89005779399033302</v>
       </c>
       <c r="J125" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>157</v>
-      </c>
-      <c r="L125" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="N125" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="O125" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B126" s="1">
-        <v>40666.87090277778</v>
+        <v>40648.54482638889</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D126">
-        <v>1661.3409999999999</v>
+        <v>65.584999999999994</v>
       </c>
       <c r="E126">
-        <v>29.88</v>
+        <v>7.569</v>
       </c>
       <c r="F126">
-        <v>450.28500000000003</v>
+        <v>73.141000000000105</v>
       </c>
       <c r="G126">
-        <v>61878</v>
+        <v>11139</v>
       </c>
       <c r="H126">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I126">
-        <v>0.12547938154128399</v>
+        <v>0.89073012573322896</v>
       </c>
       <c r="J126" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="L126" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="N126" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="O126" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B127" s="1">
-        <v>40658.815578703703</v>
+        <v>40648.917881944442</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D127">
-        <v>1494.671</v>
+        <v>309.97000000000003</v>
       </c>
       <c r="E127">
-        <v>19.298999999999999</v>
+        <v>30.928000000000001</v>
       </c>
       <c r="F127">
-        <v>405.185</v>
+        <v>340.88400000000001</v>
       </c>
       <c r="G127">
-        <v>1861</v>
+        <v>11139</v>
       </c>
       <c r="H127">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I127">
-        <v>0.90469192997762204</v>
+        <v>0.89196904290199497</v>
       </c>
       <c r="J127" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K127" t="s">
-        <v>166</v>
-      </c>
-      <c r="M127" t="s">
-        <v>167</v>
+        <v>122</v>
+      </c>
+      <c r="L127" t="s">
+        <v>122</v>
       </c>
       <c r="N127" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="O127" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B128" s="1">
-        <v>40658.824513888889</v>
+        <v>40648.927546296298</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D128">
-        <v>1600.921</v>
+        <v>652.154</v>
       </c>
       <c r="E128">
-        <v>30.579000000000001</v>
+        <v>119.706</v>
       </c>
       <c r="F128">
-        <v>397.85899999999998</v>
+        <v>771.95699999999999</v>
       </c>
       <c r="G128">
-        <v>1861</v>
+        <v>22278</v>
       </c>
       <c r="H128">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I128">
-        <v>0.89818767208949901</v>
+        <v>0.896307740021412</v>
       </c>
       <c r="J128" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K128" t="s">
-        <v>169</v>
-      </c>
-      <c r="M128" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="L128" t="s">
+        <v>122</v>
       </c>
       <c r="N128" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="O128" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6518,34 +6584,34 @@
         <v>165</v>
       </c>
       <c r="B129" s="1">
-        <v>40658.838333333333</v>
+        <v>40658.824513888889</v>
       </c>
       <c r="C129" t="s">
         <v>128</v>
       </c>
       <c r="D129">
-        <v>4225.3010000000004</v>
+        <v>1600.921</v>
       </c>
       <c r="E129">
-        <v>56.110999999999997</v>
+        <v>30.579000000000001</v>
       </c>
       <c r="F129">
-        <v>1041.828</v>
+        <v>397.85899999999998</v>
       </c>
       <c r="G129">
-        <v>3718</v>
+        <v>1861</v>
       </c>
       <c r="H129">
         <v>94</v>
       </c>
       <c r="I129">
-        <v>0.81984717792192097</v>
+        <v>0.89818767208949901</v>
       </c>
       <c r="J129" t="s">
         <v>17</v>
       </c>
       <c r="K129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M129" t="s">
         <v>131</v>
@@ -6562,37 +6628,37 @@
         <v>165</v>
       </c>
       <c r="B130" s="1">
-        <v>40658.874039351853</v>
+        <v>40658.815578703703</v>
       </c>
       <c r="C130" t="s">
         <v>128</v>
       </c>
       <c r="D130">
-        <v>11717.561</v>
+        <v>1494.671</v>
       </c>
       <c r="E130">
-        <v>122.316</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="F130">
-        <v>2818.88</v>
+        <v>405.185</v>
       </c>
       <c r="G130">
-        <v>7429</v>
+        <v>1861</v>
       </c>
       <c r="H130">
         <v>94</v>
       </c>
       <c r="I130">
-        <v>0.75352613020479797</v>
+        <v>0.90469192997762204</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M130" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="N130" t="s">
         <v>168</v>
@@ -6603,113 +6669,119 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B131" s="1">
-        <v>40658.947094907409</v>
+        <v>40648.543449074074</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D131">
-        <v>22890.037</v>
+        <v>43.402000000000001</v>
       </c>
       <c r="E131">
-        <v>220.09399999999999</v>
+        <v>4.867</v>
       </c>
       <c r="F131">
-        <v>5557.5360000000001</v>
+        <v>48.255000000000102</v>
       </c>
       <c r="G131">
-        <v>11144</v>
+        <v>7426</v>
       </c>
       <c r="H131">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I131">
-        <v>0.71440528118659097</v>
+        <v>0.90945648831618497</v>
       </c>
       <c r="J131" t="s">
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>172</v>
-      </c>
-      <c r="M131" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="L131" t="s">
+        <v>121</v>
       </c>
       <c r="N131" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="O131" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B132" s="1">
-        <v>40642.007476851853</v>
+        <v>40648.54142361111</v>
       </c>
       <c r="C132" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D132">
-        <v>315.97500000000002</v>
+        <v>131.185</v>
       </c>
       <c r="E132">
-        <v>29.097000000000001</v>
+        <v>6.5410000000000004</v>
       </c>
       <c r="F132">
-        <v>323.35300000000001</v>
+        <v>50.7349999999999</v>
       </c>
       <c r="G132">
         <v>7426</v>
       </c>
       <c r="H132">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I132">
-        <v>1.59003529389746</v>
+        <v>0.91570247278205597</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>175</v>
+        <v>120</v>
+      </c>
+      <c r="N132" t="s">
+        <v>38</v>
       </c>
       <c r="O132" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="B133" s="1">
-        <v>40644.830034722225</v>
+        <v>40639.763333333336</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D133">
-        <v>72.912000000000006</v>
+        <v>355.37</v>
       </c>
       <c r="E133">
-        <v>2.387</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="F133">
-        <v>74.873000000000005</v>
+        <v>28.632999999999999</v>
       </c>
       <c r="G133">
-        <v>7426</v>
+        <v>371</v>
       </c>
       <c r="H133">
         <v>80</v>
       </c>
       <c r="I133">
-        <v>1.58129073532396</v>
+        <v>0.93215718230883904</v>
       </c>
       <c r="K133" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="O133" t="s">
         <v>32</v>
@@ -6717,69 +6789,84 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B134" s="1">
-        <v>40644.84652777778</v>
+        <v>40648.539930555555</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D134">
-        <v>15.842000000000001</v>
+        <v>59.051000000000002</v>
       </c>
       <c r="E134">
-        <v>0.49100000000000099</v>
+        <v>3.5779999999999998</v>
       </c>
       <c r="F134">
-        <v>36.243999999999701</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="G134">
-        <v>7426</v>
+        <v>3713</v>
       </c>
       <c r="H134">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I134">
-        <v>1.5374895271743101</v>
+        <v>0.96561685628127103</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>177</v>
+        <v>119</v>
+      </c>
+      <c r="N134" t="s">
+        <v>38</v>
       </c>
       <c r="O134" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B135" s="1">
-        <v>40644.848807870374</v>
+        <v>40647.911585648151</v>
       </c>
       <c r="C135" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D135">
-        <v>15.901</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="E135">
-        <v>0.44700000000000101</v>
+        <v>1.004</v>
       </c>
       <c r="F135">
-        <v>36.188000000000102</v>
+        <v>21.542999999999701</v>
       </c>
       <c r="G135">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H135">
         <v>80</v>
       </c>
       <c r="I135">
-        <v>1.5374895271743101</v>
+        <v>0.99</v>
+      </c>
+      <c r="J135" t="s">
+        <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>177</v>
+        <v>197</v>
+      </c>
+      <c r="L135" t="s">
+        <v>198</v>
+      </c>
+      <c r="M135" t="s">
+        <v>196</v>
       </c>
       <c r="O135" t="s">
         <v>32</v>
@@ -6787,34 +6874,43 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B136" s="1">
-        <v>40644.853368055556</v>
+        <v>40647.910219907404</v>
       </c>
       <c r="C136" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D136">
-        <v>15.009</v>
+        <v>20.748999999999999</v>
       </c>
       <c r="E136">
-        <v>0.57799999999999896</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="F136">
-        <v>114.17400000000001</v>
+        <v>21.721999999999799</v>
       </c>
       <c r="G136">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H136">
         <v>80</v>
       </c>
       <c r="I136">
-        <v>1.5939681680293001</v>
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>178</v>
+        <v>197</v>
+      </c>
+      <c r="L136" t="s">
+        <v>198</v>
+      </c>
+      <c r="M136" t="s">
+        <v>196</v>
       </c>
       <c r="O136" t="s">
         <v>32</v>
@@ -6822,104 +6918,119 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B137" s="1">
-        <v>40644.856076388889</v>
+        <v>40651.292847222219</v>
       </c>
       <c r="C137" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D137">
-        <v>15.125</v>
+        <v>208.83199999999999</v>
       </c>
       <c r="E137">
-        <v>0.54299999999999904</v>
+        <v>3.431</v>
       </c>
       <c r="F137">
-        <v>116.895</v>
+        <v>52.397999999999897</v>
       </c>
       <c r="G137">
-        <v>7426</v>
+        <v>37131</v>
       </c>
       <c r="H137">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I137">
-        <v>1.5939681680293001</v>
+        <v>1.0142987814422999</v>
+      </c>
+      <c r="J137" t="s">
+        <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="O137" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B138" s="1">
-        <v>40644.859270833331</v>
+        <v>40651.297395833331</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D138">
-        <v>14.928000000000001</v>
+        <v>353.75200000000001</v>
       </c>
       <c r="E138">
-        <v>0.40100000000000002</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="F138">
-        <v>15.249000000000301</v>
+        <v>105.03700000000001</v>
       </c>
       <c r="G138">
-        <v>7426</v>
+        <v>37131</v>
       </c>
       <c r="H138">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I138">
-        <v>1.57773355605539</v>
+        <v>1.0142987814422999</v>
+      </c>
+      <c r="J138" t="s">
+        <v>21</v>
       </c>
       <c r="K138" t="s">
-        <v>178</v>
+        <v>125</v>
+      </c>
+      <c r="L138" t="s">
+        <v>126</v>
       </c>
       <c r="O138" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B139" s="1">
-        <v>40644.861122685186</v>
+        <v>40648.538935185185</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D139">
-        <v>16.733000000000001</v>
+        <v>27.919</v>
       </c>
       <c r="E139">
-        <v>0.47099999999999997</v>
+        <v>1.92</v>
       </c>
       <c r="F139">
-        <v>17.1170000000002</v>
+        <v>9.2449999999999992</v>
       </c>
       <c r="G139">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H139">
         <v>93</v>
       </c>
       <c r="I139">
-        <v>1.56821048218277</v>
+        <v>1.0180336300557</v>
+      </c>
+      <c r="J139" t="s">
+        <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>178</v>
+        <v>118</v>
+      </c>
+      <c r="N139" t="s">
+        <v>38</v>
       </c>
       <c r="O139" t="s">
         <v>39</v>
@@ -6927,22 +7038,22 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B140" s="1">
-        <v>40644.862372685187</v>
+        <v>40651.291076388887</v>
       </c>
       <c r="C140" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D140">
-        <v>17.763000000000002</v>
+        <v>44.039000000000001</v>
       </c>
       <c r="E140">
-        <v>0.49</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="F140">
-        <v>18.158000000000399</v>
+        <v>10.587999999999999</v>
       </c>
       <c r="G140">
         <v>7426</v>
@@ -6951,10 +7062,13 @@
         <v>93</v>
       </c>
       <c r="I140">
-        <v>1.6500830141598</v>
+        <v>1.02880482206316</v>
+      </c>
+      <c r="J140" t="s">
+        <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O140" t="s">
         <v>39</v>
@@ -6962,209 +7076,239 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B141" s="1">
-        <v>40644.863437499997</v>
+        <v>40651.289155092592</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D141">
-        <v>15.666</v>
+        <v>22.766999999999999</v>
       </c>
       <c r="E141">
-        <v>0.47699999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="F141">
-        <v>16.0569999999998</v>
+        <v>5.8029999999999999</v>
       </c>
       <c r="G141">
-        <v>7426</v>
+        <v>3713</v>
       </c>
       <c r="H141">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I141">
-        <v>1.54316586262694</v>
+        <v>1.0460162236147099</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B142" s="1">
-        <v>40644.868576388886</v>
+        <v>40665.273530092592</v>
       </c>
       <c r="C142" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D142">
-        <v>54.494999999999997</v>
+        <v>850.31100000000004</v>
       </c>
       <c r="E142">
-        <v>1.0149999999999999</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="F142">
-        <v>55.336000000000197</v>
+        <v>227.876</v>
       </c>
       <c r="G142">
-        <v>14852</v>
+        <v>1861</v>
       </c>
       <c r="H142">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I142">
-        <v>1.8013924389029601</v>
+        <v>1.0780016954015099</v>
+      </c>
+      <c r="J142" t="s">
+        <v>21</v>
       </c>
       <c r="K142" t="s">
-        <v>177</v>
+        <v>77</v>
+      </c>
+      <c r="M142" t="s">
+        <v>40</v>
+      </c>
+      <c r="N142" t="s">
+        <v>78</v>
       </c>
       <c r="O142" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B143" s="1">
-        <v>40644.876087962963</v>
+        <v>40652.309560185182</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D143">
-        <v>46.767000000000102</v>
+        <v>7.5640000000000001</v>
       </c>
       <c r="E143">
-        <v>1.6379999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="F143">
-        <v>553.19600000000003</v>
+        <v>21.059999999999899</v>
       </c>
       <c r="G143">
-        <v>14852</v>
+        <v>3713</v>
       </c>
       <c r="H143">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I143">
-        <v>1.6284161515828499</v>
+        <v>1.47755844028469</v>
+      </c>
+      <c r="J143" t="s">
+        <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="O143" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B144" s="1">
-        <v>40644.890833333331</v>
+        <v>40659.848344907405</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D144">
-        <v>94.869</v>
+        <v>2.48</v>
       </c>
       <c r="E144">
-        <v>3.2869999999999999</v>
+        <v>0.13899999999999901</v>
       </c>
       <c r="F144">
-        <v>1216.4549999999999</v>
+        <v>9.2620000000006293</v>
       </c>
       <c r="G144">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H144">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I144">
-        <v>1.58337486055827</v>
+        <v>1.5317169256021399</v>
+      </c>
+      <c r="J144" t="s">
+        <v>21</v>
       </c>
       <c r="K144" t="s">
-        <v>178</v>
+        <v>203</v>
+      </c>
+      <c r="N144" t="s">
+        <v>201</v>
       </c>
       <c r="O144" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B145" s="1">
-        <v>40644.980844907404</v>
+        <v>40659.85193287037</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D145">
-        <v>95.006</v>
+        <v>2.46599999999999</v>
       </c>
       <c r="E145">
-        <v>3.335</v>
+        <v>0.154</v>
       </c>
       <c r="F145">
-        <v>1510.02</v>
+        <v>20.613000000000302</v>
       </c>
       <c r="G145">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H145">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I145">
-        <v>1.5833199935014</v>
+        <v>1.5324814378691001</v>
+      </c>
+      <c r="J145" t="s">
+        <v>21</v>
       </c>
       <c r="K145" t="s">
-        <v>178</v>
+        <v>204</v>
+      </c>
+      <c r="L145" t="s">
+        <v>205</v>
+      </c>
+      <c r="N145" t="s">
+        <v>201</v>
       </c>
       <c r="O145" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B146" s="1">
-        <v>40645.289965277778</v>
+        <v>40644.84652777778</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D146">
-        <v>126.211</v>
+        <v>15.842000000000001</v>
       </c>
       <c r="E146">
-        <v>1.462</v>
+        <v>0.49100000000000099</v>
       </c>
       <c r="F146">
-        <v>127.443</v>
+        <v>36.243999999999701</v>
       </c>
       <c r="G146">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H146">
         <v>80</v>
       </c>
       <c r="I146">
-        <v>1.92982759815376</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K146" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="O146" t="s">
         <v>32</v>
@@ -7172,34 +7316,34 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B147" s="1">
-        <v>40645.295682870368</v>
+        <v>40644.848807870374</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D147">
-        <v>91.376999999999995</v>
+        <v>15.901</v>
       </c>
       <c r="E147">
-        <v>1.498</v>
+        <v>0.44700000000000101</v>
       </c>
       <c r="F147">
-        <v>92.478999999999999</v>
+        <v>36.188000000000102</v>
       </c>
       <c r="G147">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H147">
         <v>80</v>
       </c>
       <c r="I147">
-        <v>1.58384242553734</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K147" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O147" t="s">
         <v>32</v>
@@ -7207,34 +7351,34 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B148" s="1">
-        <v>40645.301527777781</v>
+        <v>40644.863437499997</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D148">
-        <v>230.64400000000001</v>
+        <v>15.666</v>
       </c>
       <c r="E148">
-        <v>3.0230000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F148">
-        <v>232.80799999999999</v>
+        <v>16.0569999999998</v>
       </c>
       <c r="G148">
-        <v>37131</v>
+        <v>7426</v>
       </c>
       <c r="H148">
         <v>80</v>
       </c>
       <c r="I148">
-        <v>1.60920568515367</v>
+        <v>1.54316586262694</v>
       </c>
       <c r="K148" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O148" t="s">
         <v>32</v>
@@ -7242,131 +7386,107 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B149" s="1">
-        <v>40647.907395833332</v>
+        <v>40652.307604166665</v>
       </c>
       <c r="C149" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D149">
-        <v>12.09</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="E149">
-        <v>0.53400000000000003</v>
+        <v>0.107</v>
       </c>
       <c r="F149">
-        <v>12.579999999999901</v>
+        <v>12.631999999999801</v>
       </c>
       <c r="G149">
         <v>1856</v>
       </c>
       <c r="H149">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I149">
-        <v>1.66250101299196</v>
+        <v>1.5610810802361099</v>
       </c>
       <c r="J149" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>179</v>
-      </c>
-      <c r="L149" t="s">
-        <v>180</v>
-      </c>
-      <c r="M149" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="O149" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B150" s="1">
-        <v>40647.90828703704</v>
+        <v>40644.861122685186</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D150">
-        <v>20.206</v>
+        <v>16.733000000000001</v>
       </c>
       <c r="E150">
-        <v>1.0740000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F150">
-        <v>21.203000000000401</v>
+        <v>17.1170000000002</v>
       </c>
       <c r="G150">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H150">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I150">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J150" t="s">
-        <v>21</v>
+        <v>1.56821048218277</v>
       </c>
       <c r="K150" t="s">
-        <v>182</v>
-      </c>
-      <c r="L150" t="s">
-        <v>183</v>
-      </c>
-      <c r="M150" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="O150" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B151" s="1">
-        <v>40647.910219907404</v>
+        <v>40644.859270833331</v>
       </c>
       <c r="C151" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D151">
-        <v>20.748999999999999</v>
+        <v>14.928000000000001</v>
       </c>
       <c r="E151">
-        <v>1.0349999999999999</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F151">
-        <v>21.721999999999799</v>
+        <v>15.249000000000301</v>
       </c>
       <c r="G151">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H151">
         <v>80</v>
       </c>
       <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151" t="s">
-        <v>17</v>
+        <v>1.57773355605539</v>
       </c>
       <c r="K151" t="s">
-        <v>182</v>
-      </c>
-      <c r="L151" t="s">
-        <v>183</v>
-      </c>
-      <c r="M151" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="O151" t="s">
         <v>32</v>
@@ -7374,43 +7494,34 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B152" s="1">
-        <v>40647.911585648151</v>
+        <v>40644.830034722225</v>
       </c>
       <c r="C152" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D152">
-        <v>20.614000000000001</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="E152">
-        <v>1.004</v>
+        <v>2.387</v>
       </c>
       <c r="F152">
-        <v>21.542999999999701</v>
+        <v>74.873000000000005</v>
       </c>
       <c r="G152">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H152">
         <v>80</v>
       </c>
       <c r="I152">
-        <v>0.99</v>
-      </c>
-      <c r="J152" t="s">
-        <v>17</v>
+        <v>1.58129073532396</v>
       </c>
       <c r="K152" t="s">
-        <v>182</v>
-      </c>
-      <c r="L152" t="s">
-        <v>183</v>
-      </c>
-      <c r="M152" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="O152" t="s">
         <v>32</v>
@@ -7418,84 +7529,78 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B153" s="1">
-        <v>40647.918564814812</v>
+        <v>40659.863749999997</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D153">
-        <v>20.510999999999999</v>
+        <v>5.5699999999999896</v>
       </c>
       <c r="E153">
-        <v>1.0049999999999999</v>
+        <v>0.30600000000000099</v>
       </c>
       <c r="F153">
-        <v>21.440000000000499</v>
+        <v>60.558</v>
       </c>
       <c r="G153">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H153">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I153">
-        <v>1.63488299912919</v>
+        <v>1.5823919857797799</v>
       </c>
       <c r="J153" t="s">
         <v>21</v>
       </c>
       <c r="K153" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L153" t="s">
-        <v>183</v>
-      </c>
-      <c r="M153" t="s">
-        <v>181</v>
+        <v>207</v>
+      </c>
+      <c r="N153" t="s">
+        <v>209</v>
       </c>
       <c r="O153" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B154" s="1">
-        <v>40659.844583333332</v>
+        <v>40644.980844907404</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D154">
-        <v>3.0630000000000002</v>
+        <v>95.006</v>
       </c>
       <c r="E154">
-        <v>0.26600000000000001</v>
+        <v>3.335</v>
       </c>
       <c r="F154">
-        <v>93.864000000000502</v>
+        <v>1510.02</v>
       </c>
       <c r="G154">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H154">
         <v>80</v>
       </c>
       <c r="I154">
-        <v>1.6325571524315501</v>
-      </c>
-      <c r="J154" t="s">
-        <v>21</v>
+        <v>1.5833199935014</v>
       </c>
       <c r="K154" t="s">
-        <v>185</v>
-      </c>
-      <c r="N154" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O154" t="s">
         <v>32</v>
@@ -7503,104 +7608,92 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B155" s="1">
-        <v>40659.847118055557</v>
+        <v>40644.890833333331</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D155">
-        <v>2.976</v>
+        <v>94.869</v>
       </c>
       <c r="E155">
-        <v>0.28299999999999997</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F155">
-        <v>100.997</v>
+        <v>1216.4549999999999</v>
       </c>
       <c r="G155">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H155">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I155">
-        <v>1.5866800350352499</v>
-      </c>
-      <c r="J155" t="s">
-        <v>21</v>
+        <v>1.58337486055827</v>
       </c>
       <c r="K155" t="s">
-        <v>187</v>
-      </c>
-      <c r="N155" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O155" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B156" s="1">
-        <v>40659.848344907405</v>
+        <v>40645.295682870368</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D156">
-        <v>2.48</v>
+        <v>91.376999999999995</v>
       </c>
       <c r="E156">
-        <v>0.13899999999999901</v>
+        <v>1.498</v>
       </c>
       <c r="F156">
-        <v>9.2620000000006293</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="G156">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H156">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I156">
-        <v>1.5317169256021399</v>
-      </c>
-      <c r="J156" t="s">
-        <v>21</v>
+        <v>1.58384242553734</v>
       </c>
       <c r="K156" t="s">
-        <v>188</v>
-      </c>
-      <c r="N156" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O156" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B157" s="1">
-        <v>40659.85193287037</v>
+        <v>40659.847118055557</v>
       </c>
       <c r="C157" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D157">
-        <v>2.46599999999999</v>
+        <v>2.976</v>
       </c>
       <c r="E157">
-        <v>0.154</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F157">
-        <v>20.613000000000302</v>
+        <v>100.997</v>
       </c>
       <c r="G157">
         <v>1856</v>
@@ -7609,19 +7702,16 @@
         <v>93</v>
       </c>
       <c r="I157">
-        <v>1.5324814378691001</v>
+        <v>1.5866800350352499</v>
       </c>
       <c r="J157" t="s">
         <v>21</v>
       </c>
       <c r="K157" t="s">
-        <v>189</v>
-      </c>
-      <c r="L157" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N157" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="O157" t="s">
         <v>39</v>
@@ -7629,257 +7719,215 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B158" s="1">
-        <v>40659.853425925925</v>
+        <v>40642.007476851853</v>
       </c>
       <c r="C158" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D158">
-        <v>5.2539999999999996</v>
+        <v>315.97500000000002</v>
       </c>
       <c r="E158">
-        <v>0.26300000000000001</v>
+        <v>29.097000000000001</v>
       </c>
       <c r="F158">
-        <v>43.096000000000501</v>
+        <v>323.35300000000001</v>
       </c>
       <c r="G158">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H158">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I158">
-        <v>1.67947876411185</v>
-      </c>
-      <c r="J158" t="s">
-        <v>21</v>
+        <v>1.59003529389746</v>
       </c>
       <c r="K158" t="s">
-        <v>191</v>
-      </c>
-      <c r="L158" t="s">
         <v>190</v>
       </c>
-      <c r="N158" t="s">
-        <v>186</v>
-      </c>
       <c r="O158" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B159" s="1">
-        <v>40659.854687500003</v>
+        <v>40644.853368055556</v>
       </c>
       <c r="C159" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D159">
-        <v>5.2880000000000003</v>
+        <v>15.009</v>
       </c>
       <c r="E159">
-        <v>0.29799999999999999</v>
+        <v>0.57799999999999896</v>
       </c>
       <c r="F159">
-        <v>58.8149999999996</v>
+        <v>114.17400000000001</v>
       </c>
       <c r="G159">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H159">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I159">
-        <v>1.67947876411185</v>
-      </c>
-      <c r="J159" t="s">
-        <v>21</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K159" t="s">
-        <v>191</v>
-      </c>
-      <c r="L159" t="s">
-        <v>192</v>
-      </c>
-      <c r="N159" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O159" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B160" s="1">
-        <v>40659.856979166667</v>
+        <v>40644.856076388889</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D160">
-        <v>9.4990000000000094</v>
+        <v>15.125</v>
       </c>
       <c r="E160">
-        <v>0.66600000000000004</v>
+        <v>0.54299999999999904</v>
       </c>
       <c r="F160">
-        <v>45.574000000000503</v>
+        <v>116.895</v>
       </c>
       <c r="G160">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H160">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I160">
-        <v>1.6391630597812601</v>
-      </c>
-      <c r="J160" t="s">
-        <v>21</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K160" t="s">
         <v>193</v>
       </c>
-      <c r="N160" t="s">
-        <v>186</v>
-      </c>
       <c r="O160" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B161" s="1">
-        <v>40659.860312500001</v>
+        <v>40645.301527777781</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D161">
-        <v>9.7119999999999909</v>
+        <v>230.64400000000001</v>
       </c>
       <c r="E161">
-        <v>0.70799999999999996</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="F161">
-        <v>46.558</v>
+        <v>232.80799999999999</v>
       </c>
       <c r="G161">
-        <v>3713</v>
+        <v>37131</v>
       </c>
       <c r="H161">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I161">
-        <v>1.6391630597812601</v>
-      </c>
-      <c r="J161" t="s">
-        <v>21</v>
+        <v>1.60920568515367</v>
       </c>
       <c r="K161" t="s">
         <v>193</v>
       </c>
-      <c r="N161" t="s">
-        <v>194</v>
-      </c>
       <c r="O161" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B162" s="1">
-        <v>40659.863749999997</v>
+        <v>40644.876087962963</v>
       </c>
       <c r="C162" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D162">
-        <v>5.5699999999999896</v>
+        <v>46.767000000000102</v>
       </c>
       <c r="E162">
-        <v>0.30600000000000099</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F162">
-        <v>60.558</v>
+        <v>553.19600000000003</v>
       </c>
       <c r="G162">
-        <v>3713</v>
+        <v>14852</v>
       </c>
       <c r="H162">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I162">
-        <v>1.5823919857797799</v>
-      </c>
-      <c r="J162" t="s">
-        <v>21</v>
+        <v>1.6284161515828499</v>
       </c>
       <c r="K162" t="s">
-        <v>195</v>
-      </c>
-      <c r="L162" t="s">
-        <v>192</v>
-      </c>
-      <c r="N162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O162" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B163" s="1">
-        <v>40659.86519675926</v>
+        <v>40659.844583333332</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D163">
-        <v>4.8290000000000104</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="E163">
-        <v>0.30399999999999799</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F163">
-        <v>55.797999999999803</v>
+        <v>93.864000000000502</v>
       </c>
       <c r="G163">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H163">
         <v>80</v>
       </c>
       <c r="I163">
-        <v>1.6568002530577599</v>
+        <v>1.6325571524315501</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>196</v>
-      </c>
-      <c r="L163" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N163" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O163" t="s">
         <v>32</v>
@@ -7887,46 +7935,43 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B164" s="1">
-        <v>40659.867673611108</v>
+        <v>40647.90828703704</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D164">
-        <v>4.9149999999999903</v>
+        <v>20.206</v>
       </c>
       <c r="E164">
-        <v>0.315999999999999</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="F164">
-        <v>62.327999999999498</v>
+        <v>21.203000000000401</v>
       </c>
       <c r="G164">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H164">
         <v>80</v>
       </c>
       <c r="I164">
-        <v>1.65692310884533</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J164" t="s">
         <v>21</v>
       </c>
       <c r="K164" t="s">
+        <v>197</v>
+      </c>
+      <c r="L164" t="s">
+        <v>198</v>
+      </c>
+      <c r="M164" t="s">
         <v>196</v>
-      </c>
-      <c r="L164" t="s">
-        <v>192</v>
-      </c>
-      <c r="M164" t="s">
-        <v>197</v>
-      </c>
-      <c r="N164" t="s">
-        <v>194</v>
       </c>
       <c r="O164" t="s">
         <v>32</v>
@@ -7934,46 +7979,43 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B165" s="1">
-        <v>40659.869687500002</v>
+        <v>40647.918564814812</v>
       </c>
       <c r="C165" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D165">
-        <v>4.9019999999999904</v>
+        <v>20.510999999999999</v>
       </c>
       <c r="E165">
-        <v>0.30499999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F165">
-        <v>52.561000000000597</v>
+        <v>21.440000000000499</v>
       </c>
       <c r="G165">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H165">
         <v>80</v>
       </c>
       <c r="I165">
-        <v>1.65804340818409</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J165" t="s">
         <v>21</v>
       </c>
       <c r="K165" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L165" t="s">
         <v>198</v>
       </c>
       <c r="M165" t="s">
-        <v>197</v>
-      </c>
-      <c r="N165" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O165" t="s">
         <v>32</v>
@@ -7981,242 +8023,459 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B166" s="1">
-        <v>40661.520416666666</v>
+        <v>40659.856979166667</v>
       </c>
       <c r="C166" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D166">
-        <v>147.87</v>
+        <v>9.4990000000000094</v>
       </c>
       <c r="E166">
-        <v>0.47</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F166">
-        <v>149.09</v>
+        <v>45.574000000000503</v>
       </c>
       <c r="G166">
-        <v>1861</v>
+        <v>3713</v>
       </c>
       <c r="H166">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I166">
-        <v>0.879687868181247</v>
+        <v>1.6391630597812601</v>
       </c>
       <c r="J166" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K166" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N166" t="s">
         <v>201</v>
       </c>
       <c r="O166" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B167" s="1">
-        <v>40661.526898148149</v>
+        <v>40659.860312500001</v>
       </c>
       <c r="C167" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D167">
-        <v>437.02</v>
+        <v>9.7119999999999909</v>
       </c>
       <c r="E167">
-        <v>2.4500000000000002</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="F167">
-        <v>440.29</v>
+        <v>46.558</v>
       </c>
       <c r="G167">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="H167">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I167">
-        <v>0.816933944528761</v>
+        <v>1.6391630597812601</v>
       </c>
       <c r="J167" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K167" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N167" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O167" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B168" s="1">
-        <v>40661.551562499997</v>
+        <v>40644.862372685187</v>
       </c>
       <c r="C168" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D168">
-        <v>1400.45</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="E168">
-        <v>11.27</v>
+        <v>0.49</v>
       </c>
       <c r="F168">
-        <v>1413.65</v>
+        <v>18.158000000000399</v>
       </c>
       <c r="G168">
-        <v>7429</v>
+        <v>7426</v>
       </c>
       <c r="H168">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I168">
-        <v>0.75435019649979396</v>
-      </c>
-      <c r="J168" t="s">
-        <v>17</v>
+        <v>1.6500830141598</v>
       </c>
       <c r="K168" t="s">
-        <v>203</v>
-      </c>
-      <c r="N168" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O168" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B169" s="1">
-        <v>40661.621365740742</v>
+        <v>40659.86519675926</v>
       </c>
       <c r="C169" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D169">
-        <v>3097.3</v>
+        <v>4.8290000000000104</v>
       </c>
       <c r="E169">
-        <v>23.74</v>
+        <v>0.30399999999999799</v>
       </c>
       <c r="F169">
-        <v>3132.3</v>
+        <v>55.797999999999803</v>
       </c>
       <c r="G169">
-        <v>11144</v>
+        <v>3713</v>
       </c>
       <c r="H169">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I169">
-        <v>0.72482857368610298</v>
+        <v>1.6568002530577599</v>
       </c>
       <c r="J169" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K169" t="s">
-        <v>204</v>
+        <v>211</v>
+      </c>
+      <c r="L169" t="s">
+        <v>207</v>
       </c>
       <c r="N169" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="O169" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B170" s="1">
-        <v>40652.307604166665</v>
+        <v>40659.867673611108</v>
       </c>
       <c r="C170" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D170">
-        <v>4.0419999999999998</v>
+        <v>4.9149999999999903</v>
       </c>
       <c r="E170">
-        <v>0.107</v>
+        <v>0.315999999999999</v>
       </c>
       <c r="F170">
-        <v>12.631999999999801</v>
+        <v>62.327999999999498</v>
       </c>
       <c r="G170">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H170">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I170">
-        <v>1.5610810802361099</v>
+        <v>1.65692310884533</v>
       </c>
       <c r="J170" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K170" t="s">
+        <v>211</v>
+      </c>
+      <c r="L170" t="s">
         <v>207</v>
       </c>
+      <c r="M170" t="s">
+        <v>212</v>
+      </c>
+      <c r="N170" t="s">
+        <v>209</v>
+      </c>
       <c r="O170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B171" s="1">
-        <v>40652.309560185182</v>
+        <v>40659.869687500002</v>
       </c>
       <c r="C171" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D171">
-        <v>7.5640000000000001</v>
+        <v>4.9019999999999904</v>
       </c>
       <c r="E171">
-        <v>0.217</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F171">
-        <v>21.059999999999899</v>
+        <v>52.561000000000597</v>
       </c>
       <c r="G171">
         <v>3713</v>
       </c>
       <c r="H171">
+        <v>80</v>
+      </c>
+      <c r="I171">
+        <v>1.65804340818409</v>
+      </c>
+      <c r="J171" t="s">
+        <v>21</v>
+      </c>
+      <c r="K171" t="s">
+        <v>197</v>
+      </c>
+      <c r="L171" t="s">
+        <v>213</v>
+      </c>
+      <c r="M171" t="s">
+        <v>212</v>
+      </c>
+      <c r="N171" t="s">
+        <v>209</v>
+      </c>
+      <c r="O171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" s="1">
+        <v>40647.907395833332</v>
+      </c>
+      <c r="C172" t="s">
+        <v>191</v>
+      </c>
+      <c r="D172">
+        <v>12.09</v>
+      </c>
+      <c r="E172">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F172">
+        <v>12.579999999999901</v>
+      </c>
+      <c r="G172">
+        <v>1856</v>
+      </c>
+      <c r="H172">
+        <v>80</v>
+      </c>
+      <c r="I172">
+        <v>1.66250101299196</v>
+      </c>
+      <c r="J172" t="s">
+        <v>21</v>
+      </c>
+      <c r="K172" t="s">
+        <v>194</v>
+      </c>
+      <c r="L172" t="s">
+        <v>195</v>
+      </c>
+      <c r="M172" t="s">
+        <v>196</v>
+      </c>
+      <c r="O172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" s="1">
+        <v>40659.853425925925</v>
+      </c>
+      <c r="C173" t="s">
+        <v>191</v>
+      </c>
+      <c r="D173">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="E173">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F173">
+        <v>43.096000000000501</v>
+      </c>
+      <c r="G173">
+        <v>3713</v>
+      </c>
+      <c r="H173">
         <v>93</v>
       </c>
-      <c r="I171">
-        <v>1.47755844028469</v>
-      </c>
-      <c r="J171" t="s">
-        <v>17</v>
-      </c>
-      <c r="K171" t="s">
+      <c r="I173">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J173" t="s">
+        <v>21</v>
+      </c>
+      <c r="K173" t="s">
+        <v>206</v>
+      </c>
+      <c r="L173" t="s">
+        <v>205</v>
+      </c>
+      <c r="N173" t="s">
+        <v>201</v>
+      </c>
+      <c r="O173" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174" s="1">
+        <v>40659.854687500003</v>
+      </c>
+      <c r="C174" t="s">
+        <v>191</v>
+      </c>
+      <c r="D174">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="E174">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F174">
+        <v>58.8149999999996</v>
+      </c>
+      <c r="G174">
+        <v>3713</v>
+      </c>
+      <c r="H174">
+        <v>93</v>
+      </c>
+      <c r="I174">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J174" t="s">
+        <v>21</v>
+      </c>
+      <c r="K174" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" t="s">
         <v>207</v>
       </c>
-      <c r="O171" t="s">
+      <c r="N174" t="s">
+        <v>201</v>
+      </c>
+      <c r="O174" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" t="s">
+        <v>188</v>
+      </c>
+      <c r="B175" s="1">
+        <v>40644.868576388886</v>
+      </c>
+      <c r="C175" t="s">
+        <v>191</v>
+      </c>
+      <c r="D175">
+        <v>54.494999999999997</v>
+      </c>
+      <c r="E175">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F175">
+        <v>55.336000000000197</v>
+      </c>
+      <c r="G175">
+        <v>14852</v>
+      </c>
+      <c r="H175">
+        <v>80</v>
+      </c>
+      <c r="I175">
+        <v>1.8013924389029601</v>
+      </c>
+      <c r="K175" t="s">
+        <v>192</v>
+      </c>
+      <c r="O175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="1">
+        <v>40645.289965277778</v>
+      </c>
+      <c r="C176" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176">
+        <v>126.211</v>
+      </c>
+      <c r="E176">
+        <v>1.462</v>
+      </c>
+      <c r="F176">
+        <v>127.443</v>
+      </c>
+      <c r="G176">
+        <v>22278</v>
+      </c>
+      <c r="H176">
+        <v>80</v>
+      </c>
+      <c r="I176">
+        <v>1.92982759815376</v>
+      </c>
+      <c r="K176" t="s">
+        <v>192</v>
+      </c>
+      <c r="O176" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/model_results/ConsolidatedModelPerformance.xlsx
+++ b/model_results/ConsolidatedModelPerformance.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ConsolidatedModelPerformance.ts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="226">
   <si>
     <t>dir</t>
   </si>
@@ -552,6 +552,9 @@
     <t>Level 3 Blending weight</t>
   </si>
   <si>
+    <t>rf1_2=0.545054065567648,gbm1_2=0.454945936458381</t>
+  </si>
+  <si>
     <t>./src/stk_model/gbm1_1</t>
   </si>
   <si>
@@ -561,6 +564,9 @@
     <t>gbm one vs all</t>
   </si>
   <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=5,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=4,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=5,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
     <t>./src/stk_model/gbm1_2</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
   </si>
   <si>
     <t>rf1_1.Class_1,rf1_1.Class_2,rf1_1.Class_3,rf1_1.Class_4,rf1_1.Class_5,rf1_1.Class_6,rf1_1.Class_7,rf1_1.Class_8,rf1_1.Class_9,gbm1_1.Class_1,gbm1_1.Class_2,gbm1_1.Class_3,gbm1_1.Class_4,gbm1_1.Class_5,gbm1_1.Class_6,gbm1_1.Class_7,gbm1_1.Class_8,gbm1_1.Class_9,feat_1,feat_2,feat_3,feat_4,feat_5,feat_6,feat_7,feat_8,feat_9,feat_10,feat_11,feat_12,feat_13,feat_14,feat_15,feat_16,feat_17,feat_18,feat_19,feat_20,feat_21,feat_22,feat_23,feat_24,feat_25,feat_26,feat_27,feat_28,feat_29,feat_30,feat_31,feat_32,feat_33,feat_34,feat_35,feat_36,feat_37,feat_38,feat_39,feat_40,feat_41,feat_42,feat_43,feat_44,feat_45,feat_46,feat_47,feat_48,feat_49,feat_50,feat_51,feat_52,feat_53,feat_54,feat_55,feat_56,feat_57,feat_58,feat_59,feat_60,feat_61,feat_62,feat_63,feat_64,feat_65,feat_66,feat_67,feat_68,feat_69,feat_70,feat_71,feat_72,feat_73,feat_74,feat_75,feat_76,feat_77,feat_78,feat_79,feat_80,feat_81,feat_82,feat_83,feat_84,feat_85,feat_86,feat_87,feat_88,feat_89,feat_90,feat_91,feat_92,feat_93,non.zero.count</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=50,Class_1.interaction.depth=6,Class_1.shrinkage=0.1,Class_2.n.trees=50,Class_2.interaction.depth=10,Class_2.shrinkage=0.1,Class_3.n.trees=50,Class_3.interaction.depth=9,Class_3.shrinkage=0.1,Class_4.n.trees=150,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=450,Class_5.interaction.depth=8,Class_5.shrinkage=0.1,Class_6.n.trees=100,Class_6.interaction.depth=3,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=400,Class_8.interaction.depth=8,Class_8.shrinkage=0.1,Class_9.n.trees=450,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
   </si>
   <si>
     <t>./src/stk_model/rf1_1</t>
@@ -743,10 +752,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O176" totalsRowShown="0">
-  <autoFilter ref="A1:O176"/>
-  <sortState ref="A2:O176">
-    <sortCondition ref="I1:I176"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O182" totalsRowShown="0">
+  <autoFilter ref="A1:O182"/>
+  <sortState ref="A2:O182">
+    <sortCondition ref="I1:I182"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="dir"/>
@@ -1091,15 +1100,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -1164,7 +1174,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="1">
-        <v>40670.958136574074</v>
+        <v>42132.958136574074</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -1208,7 +1218,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="1">
-        <v>40670.112511574072</v>
+        <v>42132.112511574072</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -1252,7 +1262,7 @@
         <v>136</v>
       </c>
       <c r="B4" s="1">
-        <v>40666.813668981478</v>
+        <v>42128.813668981478</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
@@ -1296,7 +1306,7 @@
         <v>136</v>
       </c>
       <c r="B5" s="1">
-        <v>40666.822210648148</v>
+        <v>42128.822210648148</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -1340,7 +1350,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="1">
-        <v>40666.829050925924</v>
+        <v>42128.829050925924</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
@@ -1384,7 +1394,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="1">
-        <v>40666.858576388891</v>
+        <v>42128.858576388891</v>
       </c>
       <c r="C7" t="s">
         <v>140</v>
@@ -1428,7 +1438,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="1">
-        <v>40666.87090277778</v>
+        <v>42128.87090277778</v>
       </c>
       <c r="C8" t="s">
         <v>140</v>
@@ -1472,7 +1482,7 @@
         <v>136</v>
       </c>
       <c r="B9" s="1">
-        <v>40666.864722222221</v>
+        <v>42128.864722222221</v>
       </c>
       <c r="C9" t="s">
         <v>140</v>
@@ -1516,7 +1526,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="1">
-        <v>40670.011689814812</v>
+        <v>42132.011689814812</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1560,7 +1570,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="1">
-        <v>40676.500439814816</v>
+        <v>42138.500439814816</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1604,7 +1614,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>40669.909004629626</v>
+        <v>42131.909004629626</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1648,7 +1658,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="1">
-        <v>40676.063067129631</v>
+        <v>42138.063067129631</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1692,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="1">
-        <v>40669.452013888891</v>
+        <v>42131.452013888891</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1736,7 +1746,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="1">
-        <v>40675.952581018515</v>
+        <v>42137.952581018515</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1780,7 +1790,7 @@
         <v>55</v>
       </c>
       <c r="B16" s="1">
-        <v>40668.983032407406</v>
+        <v>42130.983032407406</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1824,7 +1834,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="1">
-        <v>40677.172337962962</v>
+        <v>42139.172337962962</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1868,7 +1878,7 @@
         <v>55</v>
       </c>
       <c r="B18" s="1">
-        <v>40668.054444444446</v>
+        <v>42130.054444444446</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1912,7 +1922,7 @@
         <v>97</v>
       </c>
       <c r="B19" s="1">
-        <v>40677.074340277781</v>
+        <v>42139.074340277781</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1956,7 +1966,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="1">
-        <v>40667.467453703706</v>
+        <v>42129.467453703706</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -2000,7 +2010,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="1">
-        <v>40665.892245370371</v>
+        <v>42127.892245370371</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2044,7 +2054,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="1">
-        <v>40664.973819444444</v>
+        <v>42126.973819444444</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -2088,7 +2098,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="1">
-        <v>40664.964074074072</v>
+        <v>42126.964074074072</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -2132,7 +2142,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="1">
-        <v>40651.539988425924</v>
+        <v>42113.539988425924</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -2179,7 +2189,7 @@
         <v>97</v>
       </c>
       <c r="B25" s="1">
-        <v>40675.392337962963</v>
+        <v>42137.392337962963</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -2223,7 +2233,7 @@
         <v>136</v>
       </c>
       <c r="B26" s="1">
-        <v>40656.837557870371</v>
+        <v>42118.837557870371</v>
       </c>
       <c r="C26" t="s">
         <v>140</v>
@@ -2267,7 +2277,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="1">
-        <v>40656.284328703703</v>
+        <v>42118.284328703703</v>
       </c>
       <c r="C27" t="s">
         <v>140</v>
@@ -2308,7 +2318,7 @@
         <v>136</v>
       </c>
       <c r="B28" s="1">
-        <v>40656.831354166665</v>
+        <v>42118.831354166665</v>
       </c>
       <c r="C28" t="s">
         <v>140</v>
@@ -2352,7 +2362,7 @@
         <v>136</v>
       </c>
       <c r="B29" s="1">
-        <v>40656.825995370367</v>
+        <v>42118.825995370367</v>
       </c>
       <c r="C29" t="s">
         <v>140</v>
@@ -2396,7 +2406,7 @@
         <v>136</v>
       </c>
       <c r="B30" s="1">
-        <v>40656.904513888891</v>
+        <v>42118.904513888891</v>
       </c>
       <c r="C30" t="s">
         <v>140</v>
@@ -2440,7 +2450,7 @@
         <v>136</v>
       </c>
       <c r="B31" s="1">
-        <v>40656.899618055555</v>
+        <v>42118.899618055555</v>
       </c>
       <c r="C31" t="s">
         <v>140</v>
@@ -2484,7 +2494,7 @@
         <v>136</v>
       </c>
       <c r="B32" s="1">
-        <v>40656.894976851851</v>
+        <v>42118.894976851851</v>
       </c>
       <c r="C32" t="s">
         <v>140</v>
@@ -2528,7 +2538,7 @@
         <v>136</v>
       </c>
       <c r="B33" s="1">
-        <v>40655.898888888885</v>
+        <v>42117.898888888885</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
@@ -2572,189 +2582,186 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1">
-        <v>40675.033009259256</v>
+        <v>42161.934270833335</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D34">
-        <v>5855.9470000000001</v>
+        <v>18.367000000000001</v>
       </c>
       <c r="E34">
-        <v>4.9370000000000003</v>
+        <v>9.6000000000000099E-2</v>
       </c>
       <c r="F34">
-        <v>1422.876</v>
+        <v>18.503999999999898</v>
       </c>
       <c r="G34">
-        <v>49507</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4372</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.54406592115498398</v>
+        <v>0.54292769081275805</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B35" s="1">
-        <v>40656.890127314815</v>
+        <v>42161.951678240737</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D35">
-        <v>1160.682</v>
+        <v>17.998000000000001</v>
       </c>
       <c r="E35">
-        <v>17.484999999999999</v>
+        <v>0.126000000000001</v>
       </c>
       <c r="F35">
-        <v>309.87200000000001</v>
+        <v>18.116</v>
       </c>
       <c r="G35">
-        <v>49507</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0.54424328908644304</v>
+        <v>0.54292769081275805</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="N35" t="s">
-        <v>145</v>
-      </c>
-      <c r="O35" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1">
-        <v>40656.885810185187</v>
+        <v>42137.033009259256</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>1151.5509999999999</v>
+        <v>5855.9470000000001</v>
       </c>
       <c r="E36">
-        <v>15.643000000000001</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="F36">
-        <v>306.65300000000002</v>
+        <v>1422.876</v>
       </c>
       <c r="G36">
         <v>49507</v>
       </c>
       <c r="H36">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I36">
-        <v>0.54654888965735504</v>
+        <v>0.54406592115498398</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" t="s">
-        <v>160</v>
+        <v>107</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
       </c>
       <c r="N36" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="O36" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1">
-        <v>40646.939062500001</v>
+        <v>42118.890127314815</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D37">
-        <v>11871.248</v>
+        <v>1160.682</v>
       </c>
       <c r="E37">
-        <v>92.94</v>
+        <v>17.484999999999999</v>
       </c>
       <c r="F37">
-        <v>2957.05</v>
+        <v>309.87200000000001</v>
       </c>
       <c r="G37">
-        <v>22278</v>
+        <v>49507</v>
       </c>
       <c r="H37">
         <v>94</v>
       </c>
       <c r="I37">
-        <v>0.54972385286005598</v>
+        <v>0.54424328908644304</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>143</v>
+      </c>
+      <c r="L37" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" t="s">
+        <v>145</v>
       </c>
       <c r="O37" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B38" s="1">
-        <v>40664.531724537039</v>
+        <v>42118.885810185187</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D38">
-        <v>9410.4060000000009</v>
+        <v>1151.5509999999999</v>
       </c>
       <c r="E38">
-        <v>4184.7539999999999</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F38">
-        <v>33430.610999999997</v>
+        <v>306.65300000000002</v>
       </c>
       <c r="G38">
         <v>49507</v>
@@ -2763,16 +2770,19 @@
         <v>94</v>
       </c>
       <c r="I38">
-        <v>0.55178634237603696</v>
+        <v>0.54654888965735504</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" t="s">
+        <v>160</v>
       </c>
       <c r="N38" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="O38" t="s">
         <v>20</v>
@@ -2780,66 +2790,57 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1">
-        <v>40656.878275462965</v>
+        <v>42108.939062500001</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>1158.596</v>
+        <v>11871.248</v>
       </c>
       <c r="E39">
-        <v>13.955</v>
+        <v>92.94</v>
       </c>
       <c r="F39">
-        <v>301.77999999999997</v>
+        <v>2957.05</v>
       </c>
       <c r="G39">
-        <v>49507</v>
+        <v>22278</v>
       </c>
       <c r="H39">
         <v>94</v>
       </c>
       <c r="I39">
-        <v>0.55623853372381105</v>
-      </c>
-      <c r="J39" t="s">
-        <v>21</v>
+        <v>0.54972385286005598</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
-      </c>
-      <c r="L39" t="s">
-        <v>158</v>
-      </c>
-      <c r="N39" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="O39" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
-        <v>40656.884027777778</v>
+        <v>42126.531724537039</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>1151.5509999999999</v>
+        <v>9410.4060000000009</v>
       </c>
       <c r="E40">
-        <v>15.643000000000001</v>
+        <v>4184.7539999999999</v>
       </c>
       <c r="F40">
-        <v>306.65300000000002</v>
+        <v>33430.610999999997</v>
       </c>
       <c r="G40">
         <v>49507</v>
@@ -2848,19 +2849,16 @@
         <v>94</v>
       </c>
       <c r="I40">
-        <v>0.55623853372381105</v>
+        <v>0.55178634237603696</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" t="s">
-        <v>160</v>
+        <v>17</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="O40" t="s">
         <v>20</v>
@@ -2868,46 +2866,46 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1">
-        <v>40674.686736111114</v>
+        <v>42118.878275462965</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D41">
-        <v>122707.852</v>
+        <v>1158.596</v>
       </c>
       <c r="E41">
-        <v>64.948999999999998</v>
+        <v>13.955</v>
       </c>
       <c r="F41">
-        <v>22760.59</v>
+        <v>301.77999999999997</v>
       </c>
       <c r="G41">
-        <v>37122</v>
+        <v>49507</v>
       </c>
       <c r="H41">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I41">
-        <v>0.55930095133236102</v>
+        <v>0.55623853372381105</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>107</v>
-      </c>
-      <c r="M41" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="L41" t="s">
+        <v>158</v>
       </c>
       <c r="N41" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2915,43 +2913,40 @@
         <v>136</v>
       </c>
       <c r="B42" s="1">
-        <v>40654.897719907407</v>
+        <v>42118.884027777778</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D42">
-        <v>2490.451</v>
+        <v>1151.5509999999999</v>
       </c>
       <c r="E42">
-        <v>7.4210000000000003</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F42">
-        <v>2498.9189999999999</v>
+        <v>306.65300000000002</v>
       </c>
       <c r="G42">
-        <v>37131</v>
+        <v>49507</v>
       </c>
       <c r="H42">
         <v>94</v>
       </c>
       <c r="I42">
-        <v>0.560539731881459</v>
+        <v>0.55623853372381105</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="N42" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O42" t="s">
         <v>20</v>
@@ -2959,40 +2954,46 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1">
-        <v>40647.280289351853</v>
+        <v>42136.686736111114</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>2438.998</v>
+        <v>122707.852</v>
       </c>
       <c r="E43">
-        <v>5.6509999999999998</v>
+        <v>64.948999999999998</v>
       </c>
       <c r="F43">
-        <v>2444.94</v>
+        <v>22760.59</v>
       </c>
       <c r="G43">
-        <v>37131</v>
+        <v>37122</v>
       </c>
       <c r="H43">
-        <v>93</v>
+        <v>4372</v>
       </c>
       <c r="I43">
-        <v>0.56536779724153197</v>
+        <v>0.55930095133236102</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>108</v>
       </c>
       <c r="O43" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3000,40 +3001,43 @@
         <v>136</v>
       </c>
       <c r="B44" s="1">
-        <v>40656.872812499998</v>
+        <v>42116.897719907407</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D44">
-        <v>590.16</v>
+        <v>2490.451</v>
       </c>
       <c r="E44">
-        <v>7.1760000000000002</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="F44">
-        <v>154.49600000000001</v>
+        <v>2498.9189999999999</v>
       </c>
       <c r="G44">
-        <v>49507</v>
+        <v>37131</v>
       </c>
       <c r="H44">
         <v>94</v>
       </c>
       <c r="I44">
-        <v>0.56569986367404701</v>
+        <v>0.560539731881459</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s">
-        <v>155</v>
+        <v>137</v>
+      </c>
+      <c r="M44" t="s">
+        <v>135</v>
       </c>
       <c r="N44" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="O44" t="s">
         <v>20</v>
@@ -3044,19 +3048,19 @@
         <v>127</v>
       </c>
       <c r="B45" s="1">
-        <v>40641.962881944448</v>
+        <v>42109.280289351853</v>
       </c>
       <c r="C45" t="s">
         <v>128</v>
       </c>
       <c r="D45">
-        <v>1647.414</v>
+        <v>2438.998</v>
       </c>
       <c r="E45">
-        <v>5.6340000000000101</v>
+        <v>5.6509999999999998</v>
       </c>
       <c r="F45">
-        <v>1654.211</v>
+        <v>2444.94</v>
       </c>
       <c r="G45">
         <v>37131</v>
@@ -3065,13 +3069,13 @@
         <v>93</v>
       </c>
       <c r="I45">
-        <v>0.57026004489291504</v>
+        <v>0.56536779724153197</v>
       </c>
       <c r="K45" t="s">
         <v>134</v>
       </c>
       <c r="M45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O45" t="s">
         <v>39</v>
@@ -3079,409 +3083,409 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1">
-        <v>40646.899583333332</v>
+        <v>42161.930277777778</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46">
-        <v>7577.2110000000002</v>
+        <v>17341.705000000002</v>
       </c>
       <c r="E46">
-        <v>56.112000000000002</v>
+        <v>124.589</v>
       </c>
       <c r="F46">
-        <v>1891.6949999999999</v>
+        <v>4701.299</v>
       </c>
       <c r="G46">
-        <v>14852</v>
+        <v>13926</v>
       </c>
       <c r="H46">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I46">
-        <v>0.580472043054439</v>
+        <v>0.56554001799711895</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>186</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>184</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1">
-        <v>40641.892905092594</v>
+        <v>42118.872812499998</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D47">
-        <v>1187.6130000000001</v>
+        <v>590.16</v>
       </c>
       <c r="E47">
-        <v>2.907</v>
+        <v>7.1760000000000002</v>
       </c>
       <c r="F47">
-        <v>1190.5989999999999</v>
+        <v>154.49600000000001</v>
       </c>
       <c r="G47">
-        <v>29704</v>
+        <v>49507</v>
       </c>
       <c r="H47">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I47">
-        <v>0.581291879081961</v>
+        <v>0.56569986367404701</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>134</v>
-      </c>
-      <c r="M47" t="s">
-        <v>132</v>
+        <v>154</v>
+      </c>
+      <c r="L47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N47" t="s">
+        <v>156</v>
       </c>
       <c r="O47" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1">
-        <v>40699.796435185184</v>
+        <v>42103.962881944448</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D48">
-        <v>26.022000000000201</v>
+        <v>1647.414</v>
       </c>
       <c r="E48">
-        <v>0.14399999999999799</v>
+        <v>5.6340000000000101</v>
       </c>
       <c r="F48">
-        <v>26.157999999999401</v>
+        <v>1654.211</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>37131</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I48">
-        <v>0.58309696821273804</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
+        <v>0.57026004489291504</v>
       </c>
       <c r="K48" t="s">
-        <v>175</v>
-      </c>
-      <c r="N48" t="s">
-        <v>176</v>
+        <v>134</v>
+      </c>
+      <c r="M48" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
-        <v>40656.87060185185</v>
+        <v>42108.899583333332</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>180.42699999999999</v>
+        <v>7577.2110000000002</v>
       </c>
       <c r="E49">
-        <v>2.6480000000000001</v>
+        <v>56.112000000000002</v>
       </c>
       <c r="F49">
-        <v>47.348999999999897</v>
+        <v>1891.6949999999999</v>
       </c>
       <c r="G49">
-        <v>49507</v>
+        <v>14852</v>
       </c>
       <c r="H49">
         <v>94</v>
       </c>
       <c r="I49">
-        <v>0.58648098372120105</v>
-      </c>
-      <c r="J49" t="s">
-        <v>21</v>
+        <v>0.580472043054439</v>
       </c>
       <c r="K49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L49" t="s">
-        <v>152</v>
-      </c>
-      <c r="N49" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="O49" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1">
-        <v>40649.876226851855</v>
+        <v>42103.892905092594</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D50">
-        <v>3728.6239999999998</v>
+        <v>1187.6130000000001</v>
       </c>
       <c r="E50">
-        <v>24.244</v>
+        <v>2.907</v>
       </c>
       <c r="F50">
-        <v>1800.595</v>
+        <v>1190.5989999999999</v>
       </c>
       <c r="G50">
-        <v>11139</v>
+        <v>29704</v>
       </c>
       <c r="H50">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I50">
-        <v>0.59294412064958801</v>
-      </c>
-      <c r="J50" t="s">
-        <v>17</v>
+        <v>0.581291879081961</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
-      </c>
-      <c r="L50" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s">
-        <v>40</v>
-      </c>
-      <c r="N50" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="B51" s="1">
-        <v>40639.883819444447</v>
+        <v>42161.796435185184</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D51">
-        <v>2581.277</v>
+        <v>26.022000000000201</v>
       </c>
       <c r="E51">
-        <v>24.963999999999999</v>
+        <v>0.14399999999999799</v>
       </c>
       <c r="F51">
-        <v>2633.8989999999999</v>
+        <v>26.157999999999401</v>
       </c>
       <c r="G51">
-        <v>11139</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0.594930653159085</v>
+        <v>0.58309696821273804</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" t="s">
-        <v>32</v>
+        <v>175</v>
+      </c>
+      <c r="N51" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B52" s="1">
-        <v>40699.707442129627</v>
+        <v>42118.87060185185</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D52">
-        <v>1177.08</v>
+        <v>180.42699999999999</v>
       </c>
       <c r="E52">
-        <v>17.669</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="F52">
-        <v>331.49</v>
+        <v>47.348999999999897</v>
       </c>
       <c r="G52">
-        <v>5573</v>
+        <v>49507</v>
       </c>
       <c r="H52">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I52">
-        <v>0.60818851565530396</v>
+        <v>0.58648098372120105</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
-      </c>
-      <c r="M52" t="s">
-        <v>40</v>
+        <v>151</v>
+      </c>
+      <c r="L52" t="s">
+        <v>152</v>
       </c>
       <c r="N52" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="O52" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1">
-        <v>40664.956990740742</v>
+        <v>42111.876226851855</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
       </c>
       <c r="D53">
-        <v>348.16199999999998</v>
+        <v>3728.6239999999998</v>
       </c>
       <c r="E53">
-        <v>4.077</v>
+        <v>24.244</v>
       </c>
       <c r="F53">
-        <v>86.427000000000007</v>
+        <v>1800.595</v>
       </c>
       <c r="G53">
-        <v>9905</v>
+        <v>11139</v>
       </c>
       <c r="H53">
         <v>94</v>
       </c>
       <c r="I53">
-        <v>0.61053397561577305</v>
+        <v>0.59294412064958801</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="L53" t="s">
+        <v>43</v>
       </c>
       <c r="M53" t="s">
         <v>40</v>
       </c>
       <c r="N53" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="O53" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1">
-        <v>40674.248287037037</v>
+        <v>42101.883819444447</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54">
-        <v>51459.874000000003</v>
+        <v>2581.277</v>
       </c>
       <c r="E54">
-        <v>36.646000000000001</v>
+        <v>24.963999999999999</v>
       </c>
       <c r="F54">
-        <v>9913.4699999999993</v>
+        <v>2633.8989999999999</v>
       </c>
       <c r="G54">
-        <v>18568</v>
+        <v>11139</v>
       </c>
       <c r="H54">
-        <v>4372</v>
+        <v>80</v>
       </c>
       <c r="I54">
-        <v>0.62036733586481696</v>
-      </c>
-      <c r="J54" t="s">
-        <v>17</v>
+        <v>0.594930653159085</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
-      </c>
-      <c r="M54" t="s">
-        <v>40</v>
-      </c>
-      <c r="N54" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="O54" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B55" s="1">
-        <v>40641.868738425925</v>
+        <v>42161.707442129627</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>5823.5429999999997</v>
+        <v>1177.08</v>
       </c>
       <c r="E55">
-        <v>50.137999999999998</v>
+        <v>17.669</v>
       </c>
       <c r="F55">
-        <v>1813.1010000000001</v>
+        <v>331.49</v>
       </c>
       <c r="G55">
-        <v>14852</v>
+        <v>5573</v>
       </c>
       <c r="H55">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I55">
-        <v>0.621943789694692</v>
+        <v>0.60818851565530396</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="M55" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="N55" t="s">
+        <v>184</v>
       </c>
       <c r="O55" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3489,169 +3493,166 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>40646.850069444445</v>
+        <v>42126.956990740742</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56">
-        <v>3531.2289999999998</v>
+        <v>348.16199999999998</v>
       </c>
       <c r="E56">
-        <v>26.353999999999999</v>
+        <v>4.077</v>
       </c>
       <c r="F56">
-        <v>854.654</v>
+        <v>86.427000000000007</v>
       </c>
       <c r="G56">
-        <v>7426</v>
+        <v>9905</v>
       </c>
       <c r="H56">
         <v>94</v>
       </c>
       <c r="I56">
-        <v>0.62834080703015704</v>
+        <v>0.61053397561577305</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="M56" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" t="s">
+        <v>75</v>
       </c>
       <c r="O56" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1">
-        <v>40654.866481481484</v>
+        <v>42136.248287037037</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>216.715</v>
+        <v>51459.874000000003</v>
       </c>
       <c r="E57">
-        <v>0.53600000000000003</v>
+        <v>36.646000000000001</v>
       </c>
       <c r="F57">
-        <v>217.19800000000001</v>
+        <v>9913.4699999999993</v>
       </c>
       <c r="G57">
-        <v>14852</v>
+        <v>18568</v>
       </c>
       <c r="H57">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I57">
-        <v>0.63291953497683395</v>
+        <v>0.62036733586481696</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>137</v>
-      </c>
-      <c r="L57" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="M57" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N57" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="O57" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1">
-        <v>40656.869560185187</v>
+        <v>42103.868738425925</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D58">
-        <v>122.69799999999999</v>
+        <v>5823.5429999999997</v>
       </c>
       <c r="E58">
-        <v>2.86</v>
+        <v>50.137999999999998</v>
       </c>
       <c r="F58">
-        <v>31.661000000000101</v>
+        <v>1813.1010000000001</v>
       </c>
       <c r="G58">
-        <v>49507</v>
+        <v>14852</v>
       </c>
       <c r="H58">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I58">
-        <v>0.634406625498386</v>
-      </c>
-      <c r="J58" t="s">
-        <v>21</v>
+        <v>0.621943789694692</v>
       </c>
       <c r="K58" t="s">
-        <v>148</v>
-      </c>
-      <c r="L58" t="s">
-        <v>149</v>
-      </c>
-      <c r="N58" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="M58" t="s">
+        <v>132</v>
       </c>
       <c r="O58" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="B59" s="1">
-        <v>40654.319178240738</v>
+        <v>42161.861921296295</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59">
-        <v>5603.2820000000002</v>
+        <v>2765.0250000000001</v>
       </c>
       <c r="E59">
-        <v>37.712000000000003</v>
+        <v>29.762</v>
       </c>
       <c r="F59">
-        <v>1845.704</v>
+        <v>776.72</v>
       </c>
       <c r="G59">
-        <v>7429</v>
+        <v>13927</v>
       </c>
       <c r="H59">
         <v>94</v>
       </c>
       <c r="I59">
-        <v>0.645714281338444</v>
+        <v>0.623107636466533</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
-      </c>
-      <c r="L59" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s">
         <v>40</v>
       </c>
       <c r="N59" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="O59" t="s">
         <v>20</v>
@@ -3659,119 +3660,122 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1">
-        <v>40662.303981481484</v>
+        <v>42161.868159722224</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D60">
-        <v>394.16899999999998</v>
+        <v>206.69200000000001</v>
       </c>
       <c r="E60">
-        <v>8.4640000000000004</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="F60">
-        <v>1974.134</v>
+        <v>207.304</v>
       </c>
       <c r="G60">
-        <v>7426</v>
+        <v>13926</v>
       </c>
       <c r="H60">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I60">
-        <v>0.64664136893869995</v>
+        <v>0.62311786296301297</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
       </c>
+      <c r="K60" t="s">
+        <v>189</v>
+      </c>
+      <c r="L60" t="s">
+        <v>189</v>
+      </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="N60" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="O60" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>40639.932210648149</v>
+        <v>42108.850069444445</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
       </c>
       <c r="D61">
-        <v>20097.652999999998</v>
+        <v>3531.2289999999998</v>
       </c>
       <c r="E61">
-        <v>218.471</v>
+        <v>26.353999999999999</v>
       </c>
       <c r="F61">
-        <v>2926.3049999999998</v>
+        <v>854.654</v>
       </c>
       <c r="G61">
-        <v>18565</v>
+        <v>7426</v>
       </c>
       <c r="H61">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I61">
-        <v>0.65677416760662</v>
+        <v>0.62834080703015704</v>
       </c>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="O61" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1">
-        <v>40665.792708333334</v>
+        <v>42161.850671296299</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D62">
-        <v>2695.944</v>
+        <v>2617.5419999999999</v>
       </c>
       <c r="E62">
-        <v>6.915</v>
+        <v>22.308</v>
       </c>
       <c r="F62">
-        <v>815.34100000000001</v>
+        <v>818.97400000000005</v>
       </c>
       <c r="G62">
-        <v>6192</v>
+        <v>13927</v>
       </c>
       <c r="H62">
         <v>94</v>
       </c>
       <c r="I62">
-        <v>0.65702783798812803</v>
+        <v>0.62943452506077502</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="M62" t="s">
-        <v>40</v>
-      </c>
-      <c r="N62" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="O62" t="s">
         <v>20</v>
@@ -3779,122 +3783,137 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B63" s="1">
-        <v>40646.875208333331</v>
+        <v>42116.866481481484</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D63">
-        <v>7247.02</v>
+        <v>216.715</v>
       </c>
       <c r="E63">
-        <v>50.405999999999999</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F63">
-        <v>1747.3789999999999</v>
+        <v>217.19800000000001</v>
       </c>
       <c r="G63">
-        <v>7426</v>
+        <v>14852</v>
       </c>
       <c r="H63">
         <v>94</v>
       </c>
       <c r="I63">
-        <v>0.66299103374607504</v>
+        <v>0.63291953497683395</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>58</v>
+        <v>137</v>
+      </c>
+      <c r="L63" t="s">
+        <v>137</v>
+      </c>
+      <c r="M63" t="s">
+        <v>131</v>
+      </c>
+      <c r="N63" t="s">
+        <v>138</v>
       </c>
       <c r="O63" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="B64" s="1">
-        <v>40699.695405092592</v>
+        <v>42118.869560185187</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D64">
-        <v>972.75899999999899</v>
+        <v>122.69799999999999</v>
       </c>
       <c r="E64">
-        <v>9.8089999999999993</v>
+        <v>2.86</v>
       </c>
       <c r="F64">
-        <v>246.960000000001</v>
+        <v>31.661000000000101</v>
       </c>
       <c r="G64">
-        <v>5573</v>
+        <v>49507</v>
       </c>
       <c r="H64">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I64">
-        <v>0.66506875332002702</v>
+        <v>0.634406625498386</v>
       </c>
       <c r="J64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>186</v>
-      </c>
-      <c r="M64" t="s">
-        <v>131</v>
+        <v>148</v>
+      </c>
+      <c r="L64" t="s">
+        <v>149</v>
       </c>
       <c r="N64" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="O64" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1">
-        <v>40699.592685185184</v>
+        <v>42116.319178240738</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
       </c>
       <c r="D65">
-        <v>853.95600000000002</v>
+        <v>5603.2820000000002</v>
       </c>
       <c r="E65">
-        <v>11.973000000000001</v>
+        <v>37.712000000000003</v>
       </c>
       <c r="F65">
-        <v>301.11500000000001</v>
+        <v>1845.704</v>
       </c>
       <c r="G65">
-        <v>5573</v>
+        <v>7429</v>
       </c>
       <c r="H65">
         <v>94</v>
       </c>
       <c r="I65">
-        <v>0.66626236129503302</v>
+        <v>0.645714281338444</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>67</v>
       </c>
       <c r="M65" t="s">
         <v>40</v>
       </c>
       <c r="N65" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="O65" t="s">
         <v>20</v>
@@ -3902,81 +3921,75 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B66" s="1">
-        <v>40673.873495370368</v>
+        <v>42124.303981481484</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>5055.1620000000003</v>
+        <v>394.16899999999998</v>
       </c>
       <c r="E66">
-        <v>38.564</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="F66">
-        <v>1292.454</v>
+        <v>1974.134</v>
       </c>
       <c r="G66">
-        <v>7429</v>
+        <v>7426</v>
       </c>
       <c r="H66">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I66">
-        <v>0.67359911945930895</v>
+        <v>0.64664136893869995</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
-      <c r="K66" t="s">
-        <v>101</v>
-      </c>
       <c r="M66" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N66" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="O66" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1">
-        <v>40641.314687500002</v>
+        <v>42101.932210648149</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>2135.902</v>
+        <v>20097.652999999998</v>
       </c>
       <c r="E67">
-        <v>22.029</v>
+        <v>218.471</v>
       </c>
       <c r="F67">
-        <v>607.20399999999995</v>
+        <v>2926.3049999999998</v>
       </c>
       <c r="G67">
-        <v>7426</v>
+        <v>18565</v>
       </c>
       <c r="H67">
         <v>80</v>
       </c>
       <c r="I67">
-        <v>0.67394619287523205</v>
+        <v>0.65677416760662</v>
       </c>
       <c r="K67" t="s">
-        <v>129</v>
-      </c>
-      <c r="M67" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="O67" t="s">
         <v>32</v>
@@ -3984,160 +3997,166 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1">
-        <v>40641.619097222225</v>
+        <v>42127.792708333334</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>102.958</v>
+        <v>2695.944</v>
       </c>
       <c r="E68">
-        <v>1.593</v>
+        <v>6.915</v>
       </c>
       <c r="F68">
-        <v>31.786000000000001</v>
+        <v>815.34100000000001</v>
       </c>
       <c r="G68">
-        <v>1856</v>
+        <v>6192</v>
       </c>
       <c r="H68">
         <v>94</v>
       </c>
       <c r="I68">
-        <v>0.67394619287523205</v>
+        <v>0.65702783798812803</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="M68" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N68" t="s">
+        <v>78</v>
       </c>
       <c r="O68" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B69" s="1">
-        <v>40652.848761574074</v>
+        <v>42108.875208333331</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
       </c>
       <c r="D69">
-        <v>1880.732</v>
+        <v>7247.02</v>
       </c>
       <c r="E69">
-        <v>13.096</v>
+        <v>50.405999999999999</v>
       </c>
       <c r="F69">
-        <v>464.53100000000001</v>
+        <v>1747.3789999999999</v>
       </c>
       <c r="G69">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H69">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I69">
-        <v>0.67873746924929101</v>
-      </c>
-      <c r="J69" t="s">
-        <v>21</v>
+        <v>0.66299103374607504</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" t="s">
-        <v>40</v>
-      </c>
-      <c r="N69" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O69" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="B70" s="1">
-        <v>40639.762152777781</v>
+        <v>42161.695405092592</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D70">
-        <v>1234.6579999999999</v>
+        <v>972.75899999999899</v>
       </c>
       <c r="E70">
-        <v>11.066000000000001</v>
+        <v>9.8089999999999993</v>
       </c>
       <c r="F70">
-        <v>289.71199999999999</v>
+        <v>246.960000000001</v>
       </c>
       <c r="G70">
-        <v>3713</v>
+        <v>5573</v>
       </c>
       <c r="H70">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I70">
-        <v>0.68021707834110601</v>
+        <v>0.66506875332002702</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>31</v>
+        <v>189</v>
+      </c>
+      <c r="M70" t="s">
+        <v>131</v>
+      </c>
+      <c r="N70" t="s">
+        <v>190</v>
       </c>
       <c r="O70" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="B71" s="1">
-        <v>40662.279085648152</v>
+        <v>42161.592685185184</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>165.71700000000001</v>
+        <v>853.95600000000002</v>
       </c>
       <c r="E71">
-        <v>3.3540000000000001</v>
+        <v>11.973000000000001</v>
       </c>
       <c r="F71">
-        <v>755.58600000000001</v>
+        <v>301.11500000000001</v>
       </c>
       <c r="G71">
-        <v>3713</v>
+        <v>5573</v>
       </c>
       <c r="H71">
         <v>94</v>
       </c>
       <c r="I71">
-        <v>0.68533854222555901</v>
+        <v>0.66626236129503302</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
+      <c r="K71" t="s">
+        <v>179</v>
+      </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N71" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="O71" t="s">
         <v>20</v>
@@ -4145,339 +4164,318 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1">
-        <v>40640.874699074076</v>
+        <v>42135.873495370368</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="D72">
-        <v>317.43799999999999</v>
+        <v>5055.1620000000003</v>
       </c>
       <c r="E72">
-        <v>3.012</v>
+        <v>38.564</v>
       </c>
       <c r="F72">
-        <v>93.813999999999993</v>
+        <v>1292.454</v>
       </c>
       <c r="G72">
-        <v>3713</v>
+        <v>7429</v>
       </c>
       <c r="H72">
-        <v>80</v>
+        <v>4372</v>
       </c>
       <c r="I72">
-        <v>0.687169450355818</v>
+        <v>0.67359911945930895</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>36</v>
+        <v>101</v>
+      </c>
+      <c r="M72" t="s">
+        <v>40</v>
+      </c>
+      <c r="N72" t="s">
+        <v>102</v>
       </c>
       <c r="O72" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1">
-        <v>40699.571192129632</v>
+        <v>42103.314687500002</v>
       </c>
       <c r="C73" t="s">
         <v>128</v>
       </c>
       <c r="D73">
-        <v>871.49900000000002</v>
+        <v>2135.902</v>
       </c>
       <c r="E73">
-        <v>8.6029999999999998</v>
+        <v>22.029</v>
       </c>
       <c r="F73">
-        <v>241.07300000000001</v>
+        <v>607.20399999999995</v>
       </c>
       <c r="G73">
-        <v>5573</v>
+        <v>7426</v>
       </c>
       <c r="H73">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I73">
-        <v>0.68809918722022201</v>
-      </c>
-      <c r="J73" t="s">
-        <v>17</v>
+        <v>0.67394619287523205</v>
       </c>
       <c r="K73" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O73" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B74" s="1">
-        <v>40662.928738425922</v>
+        <v>42103.619097222225</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D74">
-        <v>187.226</v>
+        <v>102.958</v>
       </c>
       <c r="E74">
-        <v>3.79</v>
+        <v>1.593</v>
       </c>
       <c r="F74">
-        <v>855.38300000000004</v>
+        <v>31.786000000000001</v>
       </c>
       <c r="G74">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H74">
         <v>94</v>
       </c>
       <c r="I74">
-        <v>0.69186377795907195</v>
-      </c>
-      <c r="J74" t="s">
-        <v>21</v>
+        <v>0.67394619287523205</v>
+      </c>
+      <c r="K74" t="s">
+        <v>133</v>
       </c>
       <c r="M74" t="s">
-        <v>23</v>
-      </c>
-      <c r="N74" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="O74" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1">
-        <v>40658.947094907409</v>
+        <v>42114.848761574074</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>22890.037</v>
+        <v>1880.732</v>
       </c>
       <c r="E75">
-        <v>220.09399999999999</v>
+        <v>13.096</v>
       </c>
       <c r="F75">
-        <v>5557.5360000000001</v>
+        <v>464.53100000000001</v>
       </c>
       <c r="G75">
-        <v>11144</v>
+        <v>3713</v>
       </c>
       <c r="H75">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I75">
-        <v>0.71440528118659097</v>
+        <v>0.67873746924929101</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>172</v>
+        <v>31</v>
+      </c>
+      <c r="L75" t="s">
+        <v>52</v>
       </c>
       <c r="M75" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N75" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="O75" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1">
-        <v>40671.95034722222</v>
+        <v>42101.762152777781</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
       </c>
       <c r="D76">
-        <v>181.51300000000001</v>
+        <v>1234.6579999999999</v>
       </c>
       <c r="E76">
-        <v>9.2840000000000007</v>
+        <v>11.066000000000001</v>
       </c>
       <c r="F76">
-        <v>54.887999999999899</v>
+        <v>289.71199999999999</v>
       </c>
       <c r="G76">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="H76">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I76">
-        <v>0.717016561012494</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
+        <v>0.68021707834110601</v>
       </c>
       <c r="K76" t="s">
-        <v>91</v>
-      </c>
-      <c r="M76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N76" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O76" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1">
-        <v>40652.928113425929</v>
+        <v>42124.279085648152</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>7987.3869999999997</v>
+        <v>165.71700000000001</v>
       </c>
       <c r="E77">
-        <v>50.436999999999998</v>
+        <v>3.3540000000000001</v>
       </c>
       <c r="F77">
-        <v>2553.5729999999999</v>
+        <v>755.58600000000001</v>
       </c>
       <c r="G77">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="H77">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I77">
-        <v>0.72160003668857897</v>
+        <v>0.68533854222555901</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" t="s">
-        <v>66</v>
-      </c>
-      <c r="L77" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N77" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O77" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1">
-        <v>40671.958773148152</v>
+        <v>42102.874699074076</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
       </c>
       <c r="D78">
-        <v>171.41399999999999</v>
+        <v>317.43799999999999</v>
       </c>
       <c r="E78">
-        <v>6.15</v>
+        <v>3.012</v>
       </c>
       <c r="F78">
-        <v>50.147000000000197</v>
+        <v>93.813999999999993</v>
       </c>
       <c r="G78">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="H78">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I78">
-        <v>0.72296370059508597</v>
-      </c>
-      <c r="J78" t="s">
-        <v>21</v>
+        <v>0.687169450355818</v>
       </c>
       <c r="K78" t="s">
-        <v>92</v>
-      </c>
-      <c r="M78" t="s">
-        <v>40</v>
-      </c>
-      <c r="N78" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="O78" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B79" s="1">
-        <v>40671.960601851853</v>
+        <v>42161.571192129632</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D79">
-        <v>178.815</v>
+        <v>871.49900000000002</v>
       </c>
       <c r="E79">
-        <v>8.2040000000000006</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="F79">
-        <v>50.5</v>
+        <v>241.07300000000001</v>
       </c>
       <c r="G79">
-        <v>3718</v>
+        <v>5573</v>
       </c>
       <c r="H79">
         <v>94</v>
       </c>
       <c r="I79">
-        <v>0.72296370059508597</v>
+        <v>0.68809918722022201</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="M79" t="s">
-        <v>40</v>
-      </c>
-      <c r="N79" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="O79" t="s">
         <v>20</v>
@@ -4485,40 +4483,40 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1">
-        <v>40661.621365740742</v>
+        <v>42124.928738425922</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="D80">
-        <v>3097.3</v>
+        <v>187.226</v>
       </c>
       <c r="E80">
-        <v>23.74</v>
+        <v>3.79</v>
       </c>
       <c r="F80">
-        <v>3132.3</v>
+        <v>855.38300000000004</v>
       </c>
       <c r="G80">
-        <v>11144</v>
+        <v>3713</v>
       </c>
       <c r="H80">
         <v>94</v>
       </c>
       <c r="I80">
-        <v>0.72482857368610298</v>
+        <v>0.69186377795907195</v>
       </c>
       <c r="J80" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" t="s">
-        <v>219</v>
+        <v>21</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
       </c>
       <c r="N80" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="O80" t="s">
         <v>20</v>
@@ -4526,354 +4524,348 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B81" s="1">
-        <v>40641.304837962962</v>
+        <v>42120.947094907409</v>
       </c>
       <c r="C81" t="s">
         <v>128</v>
       </c>
       <c r="D81">
-        <v>863.20299999999997</v>
+        <v>22890.037</v>
       </c>
       <c r="E81">
-        <v>9.8740000000000006</v>
+        <v>220.09399999999999</v>
       </c>
       <c r="F81">
-        <v>245.357</v>
+        <v>5557.5360000000001</v>
       </c>
       <c r="G81">
-        <v>3713</v>
+        <v>11144</v>
       </c>
       <c r="H81">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I81">
-        <v>0.731539626722439</v>
+        <v>0.71440528118659097</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="M81" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="N81" t="s">
+        <v>168</v>
       </c>
       <c r="O81" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B82" s="1">
-        <v>40673.853414351855</v>
+        <v>42133.95034722222</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
       </c>
       <c r="D82">
-        <v>2203.7179999999998</v>
+        <v>181.51300000000001</v>
       </c>
       <c r="E82">
-        <v>16.748999999999999</v>
+        <v>9.2840000000000007</v>
       </c>
       <c r="F82">
-        <v>644.93499999999995</v>
+        <v>54.887999999999899</v>
       </c>
       <c r="G82">
         <v>3718</v>
       </c>
       <c r="H82">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I82">
-        <v>0.73460568085136801</v>
+        <v>0.717016561012494</v>
       </c>
       <c r="J82" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M82" t="s">
         <v>40</v>
       </c>
       <c r="N82" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="O82" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1">
-        <v>40649.85328703704</v>
+        <v>42114.928113425929</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
       </c>
       <c r="D83">
-        <v>572.024</v>
+        <v>7987.3869999999997</v>
       </c>
       <c r="E83">
-        <v>4.694</v>
+        <v>50.436999999999998</v>
       </c>
       <c r="F83">
-        <v>289.34099999999899</v>
+        <v>2553.5729999999999</v>
       </c>
       <c r="G83">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H83">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I83">
-        <v>0.73635288429166001</v>
+        <v>0.72160003668857897</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="L83" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M83" t="s">
         <v>40</v>
       </c>
       <c r="N83" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="O83" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B84" s="1">
-        <v>40673.918078703704</v>
+        <v>42133.958773148152</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
       </c>
       <c r="D84">
-        <v>11226.716</v>
+        <v>171.41399999999999</v>
       </c>
       <c r="E84">
-        <v>88.703999999999994</v>
+        <v>6.15</v>
       </c>
       <c r="F84">
-        <v>3246.5360000000001</v>
+        <v>50.147000000000197</v>
       </c>
       <c r="G84">
-        <v>7429</v>
+        <v>3718</v>
       </c>
       <c r="H84">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I84">
-        <v>0.73973184442162798</v>
+        <v>0.72296370059508597</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M84" t="s">
         <v>40</v>
       </c>
       <c r="N84" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="O84" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B85" s="1">
-        <v>40649.846215277779</v>
+        <v>42133.960601851853</v>
       </c>
       <c r="C85" t="s">
         <v>30</v>
       </c>
       <c r="D85">
-        <v>67.259</v>
+        <v>178.815</v>
       </c>
       <c r="E85">
-        <v>1.32</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="F85">
-        <v>21.386000000000401</v>
+        <v>50.5</v>
       </c>
       <c r="G85">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H85">
         <v>94</v>
       </c>
       <c r="I85">
-        <v>0.73980531857912701</v>
+        <v>0.72296370059508597</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="M85" t="s">
         <v>40</v>
       </c>
       <c r="N85" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="O85" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="B86" s="1">
-        <v>40652.759942129633</v>
+        <v>42123.621365740742</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D86">
-        <v>2103.759</v>
+        <v>3097.3</v>
       </c>
       <c r="E86">
-        <v>13.521000000000001</v>
+        <v>23.74</v>
       </c>
       <c r="F86">
-        <v>532.35500000000002</v>
+        <v>3132.3</v>
       </c>
       <c r="G86">
-        <v>1856</v>
+        <v>11144</v>
       </c>
       <c r="H86">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I86">
-        <v>0.74000400932482002</v>
+        <v>0.72482857368610298</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>42</v>
-      </c>
-      <c r="L86" t="s">
-        <v>48</v>
-      </c>
-      <c r="M86" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="N86" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="O86" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1">
-        <v>40652.7653587963</v>
+        <v>42103.304837962962</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D87">
-        <v>1007.5650000000001</v>
+        <v>863.20299999999997</v>
       </c>
       <c r="E87">
-        <v>6.9240000000000004</v>
+        <v>9.8740000000000006</v>
       </c>
       <c r="F87">
-        <v>135.203</v>
+        <v>245.357</v>
       </c>
       <c r="G87">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H87">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="I87">
-        <v>0.74000400932482002</v>
-      </c>
-      <c r="J87" t="s">
-        <v>21</v>
+        <v>0.731539626722439</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
-      </c>
-      <c r="L87" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="M87" t="s">
-        <v>40</v>
-      </c>
-      <c r="N87" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="O87" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1">
-        <v>40647.944432870368</v>
+        <v>42135.853414351855</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
       </c>
       <c r="D88">
-        <v>93.206999999999994</v>
+        <v>2203.7179999999998</v>
       </c>
       <c r="E88">
-        <v>1.34</v>
+        <v>16.748999999999999</v>
       </c>
       <c r="F88">
-        <v>20.372000000000099</v>
+        <v>644.93499999999995</v>
       </c>
       <c r="G88">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H88">
-        <v>93</v>
+        <v>4372</v>
       </c>
       <c r="I88">
-        <v>0.74121875335933596</v>
+        <v>0.73460568085136801</v>
       </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="M88" t="s">
+        <v>40</v>
       </c>
       <c r="N88" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="O88" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4881,87 +4873,90 @@
         <v>29</v>
       </c>
       <c r="B89" s="1">
-        <v>40647.945636574077</v>
+        <v>42111.85328703704</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
       </c>
       <c r="D89">
-        <v>62.183</v>
+        <v>572.024</v>
       </c>
       <c r="E89">
-        <v>0.86599999999999999</v>
+        <v>4.694</v>
       </c>
       <c r="F89">
-        <v>20.033999999999999</v>
+        <v>289.34099999999899</v>
       </c>
       <c r="G89">
         <v>1856</v>
       </c>
       <c r="H89">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I89">
-        <v>0.74121875335933596</v>
+        <v>0.73635288429166001</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L89" t="s">
+        <v>43</v>
       </c>
       <c r="M89" t="s">
         <v>40</v>
       </c>
       <c r="N89" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1">
-        <v>40652.750289351854</v>
+        <v>42135.918078703704</v>
       </c>
       <c r="C90" t="s">
         <v>30</v>
       </c>
       <c r="D90">
-        <v>177.60499999999999</v>
+        <v>11226.716</v>
       </c>
       <c r="E90">
-        <v>1.6850000000000001</v>
+        <v>88.703999999999994</v>
       </c>
       <c r="F90">
-        <v>55.293000000000099</v>
+        <v>3246.5360000000001</v>
       </c>
       <c r="G90">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H90">
-        <v>265</v>
+        <v>4372</v>
       </c>
       <c r="I90">
-        <v>0.74283828905403004</v>
+        <v>0.73973184442162798</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M90" t="s">
         <v>40</v>
       </c>
       <c r="N90" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="O90" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4969,75 +4964,90 @@
         <v>29</v>
       </c>
       <c r="B91" s="1">
-        <v>40639.758009259262</v>
+        <v>42111.846215277779</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
       </c>
       <c r="D91">
-        <v>552.36199999999997</v>
+        <v>67.259</v>
       </c>
       <c r="E91">
-        <v>4.5880000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="F91">
-        <v>145.19999999999999</v>
+        <v>21.386000000000401</v>
       </c>
       <c r="G91">
         <v>1856</v>
       </c>
       <c r="H91">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I91">
-        <v>0.74287633479385795</v>
+        <v>0.73980531857912701</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M91" t="s">
+        <v>40</v>
+      </c>
+      <c r="N91" t="s">
+        <v>38</v>
       </c>
       <c r="O91" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B92" s="1">
-        <v>40662.262199074074</v>
+        <v>42114.759942129633</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D92">
-        <v>80.350999999999999</v>
+        <v>2103.759</v>
       </c>
       <c r="E92">
-        <v>1.7669999999999999</v>
+        <v>13.521000000000001</v>
       </c>
       <c r="F92">
-        <v>312.32500000000101</v>
+        <v>532.35500000000002</v>
       </c>
       <c r="G92">
         <v>1856</v>
       </c>
       <c r="H92">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I92">
-        <v>0.74622874070445699</v>
+        <v>0.74000400932482002</v>
       </c>
       <c r="J92" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>42</v>
+      </c>
+      <c r="L92" t="s">
+        <v>48</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N92" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O92" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5045,84 +5055,87 @@
         <v>29</v>
       </c>
       <c r="B93" s="1">
-        <v>40647.942337962966</v>
+        <v>42114.7653587963</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
       </c>
       <c r="D93">
-        <v>57.72</v>
+        <v>1007.5650000000001</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>6.9240000000000004</v>
       </c>
       <c r="F93">
-        <v>18.855</v>
+        <v>135.203</v>
       </c>
       <c r="G93">
         <v>1856</v>
       </c>
       <c r="H93">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="I93">
-        <v>0.751467165885644</v>
+        <v>0.74000400932482002</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L93" t="s">
+        <v>49</v>
+      </c>
+      <c r="M93" t="s">
+        <v>40</v>
       </c>
       <c r="N93" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O93" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B94" s="1">
-        <v>40658.874039351853</v>
+        <v>42109.944432870368</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D94">
-        <v>11717.561</v>
+        <v>93.206999999999994</v>
       </c>
       <c r="E94">
-        <v>122.316</v>
+        <v>1.34</v>
       </c>
       <c r="F94">
-        <v>2818.88</v>
+        <v>20.372000000000099</v>
       </c>
       <c r="G94">
-        <v>7429</v>
+        <v>1856</v>
       </c>
       <c r="H94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I94">
-        <v>0.75352613020479797</v>
+        <v>0.74121875335933596</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>171</v>
-      </c>
-      <c r="M94" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="N94" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="O94" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5130,46 +5143,43 @@
         <v>29</v>
       </c>
       <c r="B95" s="1">
-        <v>40652.835798611108</v>
+        <v>42109.945636574077</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
       </c>
       <c r="D95">
-        <v>789.48299999999995</v>
+        <v>62.183</v>
       </c>
       <c r="E95">
-        <v>5.4989999999999997</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F95">
-        <v>219.09200000000001</v>
+        <v>20.033999999999999</v>
       </c>
       <c r="G95">
         <v>1856</v>
       </c>
       <c r="H95">
-        <v>436</v>
+        <v>93</v>
       </c>
       <c r="I95">
-        <v>0.75355722064198705</v>
+        <v>0.74121875335933596</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
-      </c>
-      <c r="L95" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M95" t="s">
         <v>40</v>
       </c>
       <c r="N95" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O95" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5177,210 +5187,201 @@
         <v>29</v>
       </c>
       <c r="B96" s="1">
-        <v>40652.839166666665</v>
+        <v>42114.750289351854</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
       </c>
       <c r="D96">
-        <v>984.07600000000002</v>
+        <v>177.60499999999999</v>
       </c>
       <c r="E96">
-        <v>7.0469999999999997</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="F96">
-        <v>218.297</v>
+        <v>55.293000000000099</v>
       </c>
       <c r="G96">
         <v>1856</v>
       </c>
       <c r="H96">
-        <v>436</v>
+        <v>265</v>
       </c>
       <c r="I96">
-        <v>0.75355722064198705</v>
+        <v>0.74283828905403004</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
-      </c>
-      <c r="L96" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M96" t="s">
         <v>40</v>
       </c>
       <c r="N96" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O96" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="B97" s="1">
-        <v>40661.551562499997</v>
+        <v>42101.758009259262</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="D97">
-        <v>1400.45</v>
+        <v>552.36199999999997</v>
       </c>
       <c r="E97">
-        <v>11.27</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="F97">
-        <v>1413.65</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G97">
-        <v>7429</v>
+        <v>1856</v>
       </c>
       <c r="H97">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I97">
-        <v>0.75435019649979396</v>
-      </c>
-      <c r="J97" t="s">
-        <v>17</v>
+        <v>0.74287633479385795</v>
       </c>
       <c r="K97" t="s">
-        <v>218</v>
-      </c>
-      <c r="N97" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="O97" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B98" s="1">
-        <v>40674.129525462966</v>
+        <v>42124.262199074074</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D98">
-        <v>14320.385</v>
+        <v>80.350999999999999</v>
       </c>
       <c r="E98">
-        <v>12.337999999999999</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F98">
-        <v>2653.03</v>
+        <v>312.32500000000101</v>
       </c>
       <c r="G98">
-        <v>7429</v>
+        <v>1856</v>
       </c>
       <c r="H98">
-        <v>4372</v>
+        <v>94</v>
       </c>
       <c r="I98">
-        <v>0.75503383488947895</v>
+        <v>0.74622874070445699</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N98" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O98" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B99" s="1">
-        <v>40663.886111111111</v>
+        <v>42109.942337962966</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D99">
-        <v>72.468000000000004</v>
+        <v>57.72</v>
       </c>
       <c r="E99">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>303.40899999999999</v>
+        <v>18.855</v>
       </c>
       <c r="G99">
         <v>1856</v>
       </c>
       <c r="H99">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I99">
-        <v>0.75551332289408202</v>
+        <v>0.751467165885644</v>
       </c>
       <c r="J99" t="s">
         <v>21</v>
       </c>
-      <c r="M99" t="s">
-        <v>24</v>
+      <c r="K99" t="s">
+        <v>37</v>
       </c>
       <c r="N99" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="O99" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="B100" s="1">
-        <v>40663.894259259258</v>
+        <v>42120.874039351853</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D100">
-        <v>73.712000000000003</v>
+        <v>11717.561</v>
       </c>
       <c r="E100">
-        <v>1.677</v>
+        <v>122.316</v>
       </c>
       <c r="F100">
-        <v>305.04400000000197</v>
+        <v>2818.88</v>
       </c>
       <c r="G100">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H100">
         <v>94</v>
       </c>
       <c r="I100">
-        <v>0.76165795442312301</v>
+        <v>0.75352613020479797</v>
       </c>
       <c r="J100" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K100" t="s">
+        <v>171</v>
       </c>
       <c r="M100" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="N100" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="O100" t="s">
         <v>20</v>
@@ -5388,178 +5389,181 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B101" s="1">
-        <v>40664.134918981479</v>
+        <v>42114.835798611108</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D101">
-        <v>91.316999999999993</v>
+        <v>789.48299999999995</v>
       </c>
       <c r="E101">
-        <v>102.008</v>
+        <v>5.4989999999999997</v>
       </c>
       <c r="F101">
-        <v>307.92099999999999</v>
+        <v>219.09200000000001</v>
       </c>
       <c r="G101">
         <v>1856</v>
       </c>
       <c r="H101">
-        <v>94</v>
+        <v>436</v>
       </c>
       <c r="I101">
-        <v>0.76214175152330399</v>
+        <v>0.75355722064198705</v>
       </c>
       <c r="J101" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>42</v>
+      </c>
+      <c r="L101" t="s">
+        <v>49</v>
       </c>
       <c r="M101" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N101" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O101" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B102" s="1">
-        <v>40654.294745370367</v>
+        <v>42114.839166666665</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
       </c>
       <c r="D102">
-        <v>1566.3030000000001</v>
+        <v>984.07600000000002</v>
       </c>
       <c r="E102">
-        <v>13.538</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="F102">
-        <v>424.012</v>
+        <v>218.297</v>
       </c>
       <c r="G102">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H102">
-        <v>94</v>
+        <v>436</v>
       </c>
       <c r="I102">
-        <v>0.76369530069646097</v>
+        <v>0.75355722064198705</v>
       </c>
       <c r="J102" t="s">
         <v>21</v>
       </c>
       <c r="K102" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L102" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M102" t="s">
         <v>40</v>
       </c>
       <c r="N102" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="O102" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="B103" s="1">
-        <v>40652.988958333335</v>
+        <v>42123.551562499997</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D103">
-        <v>16123.888999999999</v>
+        <v>1400.45</v>
       </c>
       <c r="E103">
-        <v>99.897999999999996</v>
+        <v>11.27</v>
       </c>
       <c r="F103">
-        <v>5089.6090000000004</v>
+        <v>1413.65</v>
       </c>
       <c r="G103">
         <v>7429</v>
       </c>
       <c r="H103">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I103">
-        <v>0.76422431884418296</v>
+        <v>0.75435019649979396</v>
       </c>
       <c r="J103" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
-      </c>
-      <c r="L103" t="s">
-        <v>67</v>
-      </c>
-      <c r="M103" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="N103" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="O103" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B104" s="1">
-        <v>40663.907569444447</v>
+        <v>42136.129525462966</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D104">
-        <v>71.305000000000007</v>
+        <v>14320.385</v>
       </c>
       <c r="E104">
-        <v>1.698</v>
+        <v>12.337999999999999</v>
       </c>
       <c r="F104">
-        <v>300.63900000000098</v>
+        <v>2653.03</v>
       </c>
       <c r="G104">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H104">
-        <v>94</v>
+        <v>4372</v>
       </c>
       <c r="I104">
-        <v>0.76500874540172104</v>
+        <v>0.75503383488947895</v>
       </c>
       <c r="J104" t="s">
         <v>21</v>
       </c>
+      <c r="K104" t="s">
+        <v>104</v>
+      </c>
       <c r="M104" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N104" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="O104" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5567,19 +5571,19 @@
         <v>15</v>
       </c>
       <c r="B105" s="1">
-        <v>40663.913171296299</v>
+        <v>42125.886111111111</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
       </c>
       <c r="D105">
-        <v>69.188999999999993</v>
+        <v>72.468000000000004</v>
       </c>
       <c r="E105">
-        <v>1.7529999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="F105">
-        <v>298.46900000000102</v>
+        <v>303.40899999999999</v>
       </c>
       <c r="G105">
         <v>1856</v>
@@ -5588,13 +5592,13 @@
         <v>94</v>
       </c>
       <c r="I105">
-        <v>0.76638894196604401</v>
+        <v>0.75551332289408202</v>
       </c>
       <c r="J105" t="s">
         <v>21</v>
       </c>
       <c r="M105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N105" t="s">
         <v>25</v>
@@ -5605,125 +5609,128 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B106" s="1">
-        <v>40647.967615740738</v>
+        <v>42125.894259259258</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D106">
-        <v>605.94000000000005</v>
+        <v>73.712000000000003</v>
       </c>
       <c r="E106">
-        <v>6.4889999999999999</v>
+        <v>1.677</v>
       </c>
       <c r="F106">
-        <v>184.56299999999999</v>
+        <v>305.04400000000197</v>
       </c>
       <c r="G106">
         <v>1856</v>
       </c>
       <c r="H106">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I106">
-        <v>0.77232612637303599</v>
+        <v>0.76165795442312301</v>
       </c>
       <c r="J106" t="s">
         <v>21</v>
       </c>
-      <c r="K106" t="s">
-        <v>134</v>
-      </c>
       <c r="M106" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="N106" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O106" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B107" s="1">
-        <v>40641.62332175926</v>
+        <v>42126.134918981479</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D107">
-        <v>213.624</v>
+        <v>91.316999999999993</v>
       </c>
       <c r="E107">
-        <v>2.7330000000000001</v>
+        <v>102.008</v>
       </c>
       <c r="F107">
-        <v>59.539000000000001</v>
+        <v>307.92099999999999</v>
       </c>
       <c r="G107">
         <v>1856</v>
       </c>
       <c r="H107">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I107">
-        <v>0.77752664564118501</v>
-      </c>
-      <c r="K107" t="s">
-        <v>134</v>
+        <v>0.76214175152330399</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="N107" t="s">
+        <v>28</v>
       </c>
       <c r="O107" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B108" s="1">
-        <v>40654.853946759256</v>
+        <v>42116.294745370367</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D108">
-        <v>206.608</v>
+        <v>1566.3030000000001</v>
       </c>
       <c r="E108">
-        <v>2.7360000000000002</v>
+        <v>13.538</v>
       </c>
       <c r="F108">
-        <v>58.323999999999998</v>
+        <v>424.012</v>
       </c>
       <c r="G108">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="H108">
         <v>94</v>
       </c>
       <c r="I108">
-        <v>0.77767741827453896</v>
+        <v>0.76369530069646097</v>
       </c>
       <c r="J108" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K108" t="s">
-        <v>137</v>
+        <v>72</v>
+      </c>
+      <c r="L108" t="s">
+        <v>67</v>
       </c>
       <c r="M108" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N108" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="O108" t="s">
         <v>20</v>
@@ -5731,166 +5738,175 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B109" s="1">
-        <v>40654.860844907409</v>
+        <v>42114.988958333335</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D109">
-        <v>686.71699999999998</v>
+        <v>16123.888999999999</v>
       </c>
       <c r="E109">
-        <v>7.6820000000000004</v>
+        <v>99.897999999999996</v>
       </c>
       <c r="F109">
-        <v>175.87</v>
+        <v>5089.6090000000004</v>
       </c>
       <c r="G109">
-        <v>1856</v>
+        <v>7429</v>
       </c>
       <c r="H109">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="I109">
-        <v>0.77767741827453896</v>
+        <v>0.76422431884418296</v>
       </c>
       <c r="J109" t="s">
         <v>21</v>
       </c>
       <c r="K109" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="L109" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M109" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N109" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="O109" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B110" s="1">
-        <v>40641.298993055556</v>
+        <v>42125.907569444447</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D110">
-        <v>400.36099999999999</v>
+        <v>71.305000000000007</v>
       </c>
       <c r="E110">
-        <v>5.1639999999999997</v>
+        <v>1.698</v>
       </c>
       <c r="F110">
-        <v>102.628</v>
+        <v>300.63900000000098</v>
       </c>
       <c r="G110">
         <v>1856</v>
       </c>
       <c r="H110">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I110">
-        <v>0.78245588356401696</v>
-      </c>
-      <c r="K110" t="s">
-        <v>129</v>
+        <v>0.76500874540172104</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
       </c>
       <c r="M110" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="N110" t="s">
+        <v>25</v>
       </c>
       <c r="O110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B111" s="1">
-        <v>40641.301504629628</v>
+        <v>42125.913171296299</v>
       </c>
       <c r="C111" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D111">
-        <v>413.88099999999997</v>
+        <v>69.188999999999993</v>
       </c>
       <c r="E111">
-        <v>5.3579999999999997</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="F111">
-        <v>102.158</v>
+        <v>298.46900000000102</v>
       </c>
       <c r="G111">
         <v>1856</v>
       </c>
       <c r="H111">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I111">
-        <v>0.78405152780559495</v>
-      </c>
-      <c r="K111" t="s">
-        <v>129</v>
+        <v>0.76638894196604401</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
       </c>
       <c r="M111" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="N111" t="s">
+        <v>25</v>
       </c>
       <c r="O111" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B112" s="1">
-        <v>40662.897407407407</v>
+        <v>42109.967615740738</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D112">
-        <v>73.715000000000003</v>
+        <v>605.94000000000005</v>
       </c>
       <c r="E112">
-        <v>1.429</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="F112">
-        <v>305.83699999999999</v>
+        <v>184.56299999999999</v>
       </c>
       <c r="G112">
         <v>1856</v>
       </c>
       <c r="H112">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I112">
-        <v>0.78549299436114095</v>
+        <v>0.77232612637303599</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
       </c>
+      <c r="K112" t="s">
+        <v>134</v>
+      </c>
       <c r="M112" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="N112" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O112" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5898,37 +5914,37 @@
         <v>127</v>
       </c>
       <c r="B113" s="1">
-        <v>40641.297395833331</v>
+        <v>42103.62332175926</v>
       </c>
       <c r="C113" t="s">
         <v>128</v>
       </c>
       <c r="D113">
-        <v>180.30699999999999</v>
+        <v>213.624</v>
       </c>
       <c r="E113">
-        <v>2.5920000000000001</v>
+        <v>2.7330000000000001</v>
       </c>
       <c r="F113">
-        <v>51.556999999999803</v>
+        <v>59.539000000000001</v>
       </c>
       <c r="G113">
         <v>1856</v>
       </c>
       <c r="H113">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I113">
-        <v>0.78688275766877602</v>
+        <v>0.77752664564118501</v>
       </c>
       <c r="K113" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M113" t="s">
         <v>131</v>
       </c>
       <c r="O113" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -5936,19 +5952,19 @@
         <v>136</v>
       </c>
       <c r="B114" s="1">
-        <v>40654.849768518521</v>
+        <v>42116.853946759256</v>
       </c>
       <c r="C114" t="s">
         <v>128</v>
       </c>
       <c r="D114">
-        <v>93.305000000000007</v>
+        <v>206.608</v>
       </c>
       <c r="E114">
-        <v>1.4610000000000001</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="F114">
-        <v>29.73</v>
+        <v>58.323999999999998</v>
       </c>
       <c r="G114">
         <v>1856</v>
@@ -5957,7 +5973,7 @@
         <v>94</v>
       </c>
       <c r="I114">
-        <v>0.78982913098609597</v>
+        <v>0.77767741827453896</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
@@ -5965,6 +5981,9 @@
       <c r="K114" t="s">
         <v>137</v>
       </c>
+      <c r="M114" t="s">
+        <v>131</v>
+      </c>
       <c r="N114" t="s">
         <v>138</v>
       </c>
@@ -5974,22 +5993,22 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B115" s="1">
-        <v>40662.904675925929</v>
+        <v>42116.860844907409</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D115">
-        <v>90.022000000000006</v>
+        <v>686.71699999999998</v>
       </c>
       <c r="E115">
-        <v>2.069</v>
+        <v>7.6820000000000004</v>
       </c>
       <c r="F115">
-        <v>362.89400000000001</v>
+        <v>175.87</v>
       </c>
       <c r="G115">
         <v>1856</v>
@@ -5998,16 +6017,22 @@
         <v>94</v>
       </c>
       <c r="I115">
-        <v>0.79944489497743798</v>
+        <v>0.77767741827453896</v>
       </c>
       <c r="J115" t="s">
         <v>21</v>
       </c>
+      <c r="K115" t="s">
+        <v>137</v>
+      </c>
+      <c r="L115" t="s">
+        <v>139</v>
+      </c>
       <c r="M115" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="N115" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O115" t="s">
         <v>20</v>
@@ -6018,19 +6043,19 @@
         <v>127</v>
       </c>
       <c r="B116" s="1">
-        <v>40641.286828703705</v>
+        <v>42103.298993055556</v>
       </c>
       <c r="C116" t="s">
         <v>128</v>
       </c>
       <c r="D116">
-        <v>95.216999999999999</v>
+        <v>400.36099999999999</v>
       </c>
       <c r="E116">
-        <v>1.331</v>
+        <v>5.1639999999999997</v>
       </c>
       <c r="F116">
-        <v>24.663</v>
+        <v>102.628</v>
       </c>
       <c r="G116">
         <v>1856</v>
@@ -6039,13 +6064,13 @@
         <v>80</v>
       </c>
       <c r="I116">
-        <v>0.80368268355869699</v>
+        <v>0.78245588356401696</v>
       </c>
       <c r="K116" t="s">
         <v>129</v>
       </c>
       <c r="M116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O116" t="s">
         <v>32</v>
@@ -6053,84 +6078,78 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="B117" s="1">
-        <v>40661.526898148149</v>
+        <v>42103.301504629628</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D117">
-        <v>437.02</v>
+        <v>413.88099999999997</v>
       </c>
       <c r="E117">
-        <v>2.4500000000000002</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="F117">
-        <v>440.29</v>
+        <v>102.158</v>
       </c>
       <c r="G117">
-        <v>3718</v>
+        <v>1856</v>
       </c>
       <c r="H117">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I117">
-        <v>0.816933944528761</v>
-      </c>
-      <c r="J117" t="s">
-        <v>17</v>
+        <v>0.78405152780559495</v>
       </c>
       <c r="K117" t="s">
-        <v>217</v>
-      </c>
-      <c r="N117" t="s">
-        <v>216</v>
+        <v>129</v>
+      </c>
+      <c r="M117" t="s">
+        <v>132</v>
       </c>
       <c r="O117" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B118" s="1">
-        <v>40658.838333333333</v>
+        <v>42124.897407407407</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D118">
-        <v>4225.3010000000004</v>
+        <v>73.715000000000003</v>
       </c>
       <c r="E118">
-        <v>56.110999999999997</v>
+        <v>1.429</v>
       </c>
       <c r="F118">
-        <v>1041.828</v>
+        <v>305.83699999999999</v>
       </c>
       <c r="G118">
-        <v>3718</v>
+        <v>1856</v>
       </c>
       <c r="H118">
         <v>94</v>
       </c>
       <c r="I118">
-        <v>0.81984717792192097</v>
+        <v>0.78549299436114095</v>
       </c>
       <c r="J118" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="M118" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="N118" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="O118" t="s">
         <v>20</v>
@@ -6138,269 +6157,242 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1">
-        <v>40661.148125</v>
+        <v>42103.297395833331</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D119">
-        <v>379.452</v>
+        <v>180.30699999999999</v>
       </c>
       <c r="E119">
-        <v>3.7090000000000001</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="F119">
-        <v>177.47</v>
+        <v>51.556999999999803</v>
       </c>
       <c r="G119">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H119">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I119">
-        <v>0.82402699162210502</v>
-      </c>
-      <c r="J119" t="s">
-        <v>21</v>
+        <v>0.78688275766877602</v>
       </c>
       <c r="K119" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="M119" t="s">
-        <v>40</v>
-      </c>
-      <c r="N119" t="s">
-        <v>54</v>
+        <v>131</v>
+      </c>
+      <c r="O119" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B120" s="1">
-        <v>40652.868472222224</v>
+        <v>42116.849768518521</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D120">
-        <v>2713.4369999999999</v>
+        <v>93.305000000000007</v>
       </c>
       <c r="E120">
-        <v>19.478000000000002</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="F120">
-        <v>857.63699999999994</v>
+        <v>29.73</v>
       </c>
       <c r="G120">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H120">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I120">
-        <v>0.83670746279494701</v>
+        <v>0.78982913098609597</v>
       </c>
       <c r="J120" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>64</v>
-      </c>
-      <c r="L120" t="s">
-        <v>43</v>
-      </c>
-      <c r="M120" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="N120" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="O120" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B121" s="1">
-        <v>40654.282939814817</v>
+        <v>42124.904675925929</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D121">
-        <v>6520.241</v>
+        <v>90.022000000000006</v>
       </c>
       <c r="E121">
-        <v>41.481999999999999</v>
+        <v>2.069</v>
       </c>
       <c r="F121">
-        <v>2088.59</v>
+        <v>362.89400000000001</v>
       </c>
       <c r="G121">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H121">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="I121">
-        <v>0.84506210386796399</v>
+        <v>0.79944489497743798</v>
       </c>
       <c r="J121" t="s">
         <v>21</v>
       </c>
-      <c r="K121" t="s">
-        <v>69</v>
-      </c>
-      <c r="L121" t="s">
-        <v>67</v>
-      </c>
       <c r="M121" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N121" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O121" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B122" s="1">
-        <v>40648.013703703706</v>
+        <v>42103.286828703705</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D122">
-        <v>925.125</v>
+        <v>95.216999999999999</v>
       </c>
       <c r="E122">
-        <v>11.952999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="F122">
-        <v>214.48399999999901</v>
+        <v>24.663</v>
       </c>
       <c r="G122">
         <v>1856</v>
       </c>
       <c r="H122">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I122">
-        <v>0.87084435195355903</v>
-      </c>
-      <c r="J122" t="s">
-        <v>21</v>
+        <v>0.80368268355869699</v>
       </c>
       <c r="K122" t="s">
-        <v>61</v>
-      </c>
-      <c r="L122" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="M122" t="s">
-        <v>40</v>
-      </c>
-      <c r="N122" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="B123" s="1">
-        <v>40648.014513888891</v>
+        <v>42123.526898148149</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D123">
-        <v>925.125</v>
+        <v>437.02</v>
       </c>
       <c r="E123">
-        <v>11.952999999999999</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F123">
-        <v>214.48399999999901</v>
+        <v>440.29</v>
       </c>
       <c r="G123">
-        <v>1856</v>
+        <v>3718</v>
       </c>
       <c r="H123">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I123">
-        <v>0.87084435195355903</v>
+        <v>0.816933944528761</v>
       </c>
       <c r="J123" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>61</v>
-      </c>
-      <c r="L123" t="s">
-        <v>48</v>
-      </c>
-      <c r="M123" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N123" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="O123" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="B124" s="1">
-        <v>40661.520416666666</v>
+        <v>42120.838333333333</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D124">
-        <v>147.87</v>
+        <v>4225.3010000000004</v>
       </c>
       <c r="E124">
-        <v>0.47</v>
+        <v>56.110999999999997</v>
       </c>
       <c r="F124">
-        <v>149.09</v>
+        <v>1041.828</v>
       </c>
       <c r="G124">
-        <v>1861</v>
+        <v>3718</v>
       </c>
       <c r="H124">
         <v>94</v>
       </c>
       <c r="I124">
-        <v>0.879687868181247</v>
+        <v>0.81984717792192097</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>215</v>
+        <v>170</v>
+      </c>
+      <c r="M124" t="s">
+        <v>131</v>
       </c>
       <c r="N124" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="O124" t="s">
         <v>20</v>
@@ -6408,172 +6400,181 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B125" s="1">
-        <v>40650.427997685183</v>
+        <v>42123.148125</v>
       </c>
       <c r="C125" t="s">
         <v>30</v>
       </c>
       <c r="D125">
-        <v>124.29</v>
+        <v>379.452</v>
       </c>
       <c r="E125">
-        <v>1.5029999999999999</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="F125">
-        <v>41.579000000000001</v>
+        <v>177.47</v>
       </c>
       <c r="G125">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="H125">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I125">
-        <v>0.89005779399033302</v>
+        <v>0.82402699162210502</v>
       </c>
       <c r="J125" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K125" t="s">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="M125" t="s">
+        <v>40</v>
       </c>
       <c r="N125" t="s">
-        <v>96</v>
-      </c>
-      <c r="O125" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B126" s="1">
-        <v>40648.54482638889</v>
+        <v>42114.868472222224</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D126">
-        <v>65.584999999999994</v>
+        <v>2713.4369999999999</v>
       </c>
       <c r="E126">
-        <v>7.569</v>
+        <v>19.478000000000002</v>
       </c>
       <c r="F126">
-        <v>73.141000000000105</v>
+        <v>857.63699999999994</v>
       </c>
       <c r="G126">
-        <v>11139</v>
+        <v>1861</v>
       </c>
       <c r="H126">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="I126">
-        <v>0.89073012573322896</v>
+        <v>0.83670746279494701</v>
       </c>
       <c r="J126" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K126" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="L126" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="M126" t="s">
+        <v>40</v>
       </c>
       <c r="N126" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="O126" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B127" s="1">
-        <v>40648.917881944442</v>
+        <v>42116.282939814817</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D127">
-        <v>309.97000000000003</v>
+        <v>6520.241</v>
       </c>
       <c r="E127">
-        <v>30.928000000000001</v>
+        <v>41.481999999999999</v>
       </c>
       <c r="F127">
-        <v>340.88400000000001</v>
+        <v>2088.59</v>
       </c>
       <c r="G127">
-        <v>11139</v>
+        <v>1861</v>
       </c>
       <c r="H127">
-        <v>93</v>
+        <v>436</v>
       </c>
       <c r="I127">
-        <v>0.89196904290199497</v>
+        <v>0.84506210386796399</v>
       </c>
       <c r="J127" t="s">
         <v>21</v>
       </c>
       <c r="K127" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="L127" t="s">
-        <v>122</v>
+        <v>67</v>
+      </c>
+      <c r="M127" t="s">
+        <v>40</v>
       </c>
       <c r="N127" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="O127" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B128" s="1">
-        <v>40648.927546296298</v>
+        <v>42110.013703703706</v>
       </c>
       <c r="C128" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D128">
-        <v>652.154</v>
+        <v>925.125</v>
       </c>
       <c r="E128">
-        <v>119.706</v>
+        <v>11.952999999999999</v>
       </c>
       <c r="F128">
-        <v>771.95699999999999</v>
+        <v>214.48399999999901</v>
       </c>
       <c r="G128">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H128">
         <v>93</v>
       </c>
       <c r="I128">
-        <v>0.896307740021412</v>
+        <v>0.87084435195355903</v>
       </c>
       <c r="J128" t="s">
         <v>21</v>
       </c>
       <c r="K128" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="L128" t="s">
-        <v>122</v>
+        <v>48</v>
+      </c>
+      <c r="M128" t="s">
+        <v>40</v>
       </c>
       <c r="N128" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O128" t="s">
         <v>39</v>
@@ -6581,66 +6582,69 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="B129" s="1">
-        <v>40658.824513888889</v>
+        <v>42110.014513888891</v>
       </c>
       <c r="C129" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D129">
-        <v>1600.921</v>
+        <v>925.125</v>
       </c>
       <c r="E129">
-        <v>30.579000000000001</v>
+        <v>11.952999999999999</v>
       </c>
       <c r="F129">
-        <v>397.85899999999998</v>
+        <v>214.48399999999901</v>
       </c>
       <c r="G129">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H129">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I129">
-        <v>0.89818767208949901</v>
+        <v>0.87084435195355903</v>
       </c>
       <c r="J129" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K129" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="L129" t="s">
+        <v>48</v>
       </c>
       <c r="M129" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N129" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="O129" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B130" s="1">
-        <v>40658.815578703703</v>
+        <v>42123.520416666666</v>
       </c>
       <c r="C130" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="D130">
-        <v>1494.671</v>
+        <v>147.87</v>
       </c>
       <c r="E130">
-        <v>19.298999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="F130">
-        <v>405.185</v>
+        <v>149.09</v>
       </c>
       <c r="G130">
         <v>1861</v>
@@ -6649,19 +6653,16 @@
         <v>94</v>
       </c>
       <c r="I130">
-        <v>0.90469192997762204</v>
+        <v>0.879687868181247</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>166</v>
-      </c>
-      <c r="M130" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="N130" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="O130" t="s">
         <v>20</v>
@@ -6669,43 +6670,40 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B131" s="1">
-        <v>40648.543449074074</v>
+        <v>42112.427997685183</v>
       </c>
       <c r="C131" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D131">
-        <v>43.402000000000001</v>
+        <v>124.29</v>
       </c>
       <c r="E131">
-        <v>4.867</v>
+        <v>1.5029999999999999</v>
       </c>
       <c r="F131">
-        <v>48.255000000000102</v>
+        <v>41.579000000000001</v>
       </c>
       <c r="G131">
-        <v>7426</v>
+        <v>3718</v>
       </c>
       <c r="H131">
         <v>93</v>
       </c>
       <c r="I131">
-        <v>0.90945648831618497</v>
+        <v>0.89005779399033302</v>
       </c>
       <c r="J131" t="s">
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>121</v>
-      </c>
-      <c r="L131" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="N131" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="O131" t="s">
         <v>39</v>
@@ -6716,34 +6714,37 @@
         <v>116</v>
       </c>
       <c r="B132" s="1">
-        <v>40648.54142361111</v>
+        <v>42110.54482638889</v>
       </c>
       <c r="C132" t="s">
         <v>117</v>
       </c>
       <c r="D132">
-        <v>131.185</v>
+        <v>65.584999999999994</v>
       </c>
       <c r="E132">
-        <v>6.5410000000000004</v>
+        <v>7.569</v>
       </c>
       <c r="F132">
-        <v>50.7349999999999</v>
+        <v>73.141000000000105</v>
       </c>
       <c r="G132">
-        <v>7426</v>
+        <v>11139</v>
       </c>
       <c r="H132">
         <v>93</v>
       </c>
       <c r="I132">
-        <v>0.91570247278205597</v>
+        <v>0.89073012573322896</v>
       </c>
       <c r="J132" t="s">
         <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="L132" t="s">
+        <v>121</v>
       </c>
       <c r="N132" t="s">
         <v>38</v>
@@ -6754,37 +6755,46 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="B133" s="1">
-        <v>40639.763333333336</v>
+        <v>42110.917881944442</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D133">
-        <v>355.37</v>
+        <v>309.97000000000003</v>
       </c>
       <c r="E133">
-        <v>3.3370000000000002</v>
+        <v>30.928000000000001</v>
       </c>
       <c r="F133">
-        <v>28.632999999999999</v>
+        <v>340.88400000000001</v>
       </c>
       <c r="G133">
-        <v>371</v>
+        <v>11139</v>
       </c>
       <c r="H133">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I133">
-        <v>0.93215718230883904</v>
+        <v>0.89196904290199497</v>
+      </c>
+      <c r="J133" t="s">
+        <v>21</v>
       </c>
       <c r="K133" t="s">
-        <v>33</v>
+        <v>122</v>
+      </c>
+      <c r="L133" t="s">
+        <v>122</v>
+      </c>
+      <c r="N133" t="s">
+        <v>38</v>
       </c>
       <c r="O133" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -6792,34 +6802,37 @@
         <v>116</v>
       </c>
       <c r="B134" s="1">
-        <v>40648.539930555555</v>
+        <v>42110.927546296298</v>
       </c>
       <c r="C134" t="s">
         <v>117</v>
       </c>
       <c r="D134">
-        <v>59.051000000000002</v>
+        <v>652.154</v>
       </c>
       <c r="E134">
-        <v>3.5779999999999998</v>
+        <v>119.706</v>
       </c>
       <c r="F134">
-        <v>18.670999999999999</v>
+        <v>771.95699999999999</v>
       </c>
       <c r="G134">
-        <v>3713</v>
+        <v>22278</v>
       </c>
       <c r="H134">
         <v>93</v>
       </c>
       <c r="I134">
-        <v>0.96561685628127103</v>
+        <v>0.896307740021412</v>
       </c>
       <c r="J134" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K134" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="L134" t="s">
+        <v>122</v>
       </c>
       <c r="N134" t="s">
         <v>38</v>
@@ -6830,125 +6843,131 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B135" s="1">
-        <v>40647.911585648151</v>
+        <v>42120.824513888889</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D135">
-        <v>20.614000000000001</v>
+        <v>1600.921</v>
       </c>
       <c r="E135">
-        <v>1.004</v>
+        <v>30.579000000000001</v>
       </c>
       <c r="F135">
-        <v>21.542999999999701</v>
+        <v>397.85899999999998</v>
       </c>
       <c r="G135">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="H135">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I135">
-        <v>0.99</v>
+        <v>0.89818767208949901</v>
       </c>
       <c r="J135" t="s">
         <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>197</v>
-      </c>
-      <c r="L135" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="M135" t="s">
-        <v>196</v>
+        <v>131</v>
+      </c>
+      <c r="N135" t="s">
+        <v>168</v>
       </c>
       <c r="O135" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B136" s="1">
-        <v>40647.910219907404</v>
+        <v>42120.815578703703</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D136">
-        <v>20.748999999999999</v>
+        <v>1494.671</v>
       </c>
       <c r="E136">
-        <v>1.0349999999999999</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="F136">
-        <v>21.721999999999799</v>
+        <v>405.185</v>
       </c>
       <c r="G136">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="H136">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0.90469192997762204</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>197</v>
-      </c>
-      <c r="L136" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="M136" t="s">
-        <v>196</v>
+        <v>167</v>
+      </c>
+      <c r="N136" t="s">
+        <v>168</v>
       </c>
       <c r="O136" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B137" s="1">
-        <v>40651.292847222219</v>
+        <v>42110.543449074074</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D137">
-        <v>208.83199999999999</v>
+        <v>43.402000000000001</v>
       </c>
       <c r="E137">
-        <v>3.431</v>
+        <v>4.867</v>
       </c>
       <c r="F137">
-        <v>52.397999999999897</v>
+        <v>48.255000000000102</v>
       </c>
       <c r="G137">
-        <v>37131</v>
+        <v>7426</v>
       </c>
       <c r="H137">
         <v>93</v>
       </c>
       <c r="I137">
-        <v>1.0142987814422999</v>
+        <v>0.90945648831618497</v>
       </c>
       <c r="J137" t="s">
         <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="L137" t="s">
+        <v>121</v>
+      </c>
+      <c r="N137" t="s">
+        <v>38</v>
       </c>
       <c r="O137" t="s">
         <v>39</v>
@@ -6956,40 +6975,40 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B138" s="1">
-        <v>40651.297395833331</v>
+        <v>42110.54142361111</v>
       </c>
       <c r="C138" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D138">
-        <v>353.75200000000001</v>
+        <v>131.185</v>
       </c>
       <c r="E138">
-        <v>5.1859999999999999</v>
+        <v>6.5410000000000004</v>
       </c>
       <c r="F138">
-        <v>105.03700000000001</v>
+        <v>50.7349999999999</v>
       </c>
       <c r="G138">
-        <v>37131</v>
+        <v>7426</v>
       </c>
       <c r="H138">
         <v>93</v>
       </c>
       <c r="I138">
-        <v>1.0142987814422999</v>
+        <v>0.91570247278205597</v>
       </c>
       <c r="J138" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>125</v>
-      </c>
-      <c r="L138" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="N138" t="s">
+        <v>38</v>
       </c>
       <c r="O138" t="s">
         <v>39</v>
@@ -6997,78 +7016,75 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B139" s="1">
-        <v>40648.538935185185</v>
+        <v>42101.763333333336</v>
       </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="D139">
-        <v>27.919</v>
+        <v>355.37</v>
       </c>
       <c r="E139">
-        <v>1.92</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="F139">
-        <v>9.2449999999999992</v>
+        <v>28.632999999999999</v>
       </c>
       <c r="G139">
-        <v>1856</v>
+        <v>371</v>
       </c>
       <c r="H139">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I139">
-        <v>1.0180336300557</v>
-      </c>
-      <c r="J139" t="s">
-        <v>17</v>
+        <v>0.93215718230883904</v>
       </c>
       <c r="K139" t="s">
-        <v>118</v>
-      </c>
-      <c r="N139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O139" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B140" s="1">
-        <v>40651.291076388887</v>
+        <v>42110.539930555555</v>
       </c>
       <c r="C140" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D140">
-        <v>44.039000000000001</v>
+        <v>59.051000000000002</v>
       </c>
       <c r="E140">
-        <v>1.3720000000000001</v>
+        <v>3.5779999999999998</v>
       </c>
       <c r="F140">
-        <v>10.587999999999999</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="G140">
-        <v>7426</v>
+        <v>3713</v>
       </c>
       <c r="H140">
         <v>93</v>
       </c>
       <c r="I140">
-        <v>1.02880482206316</v>
+        <v>0.96561685628127103</v>
       </c>
       <c r="J140" t="s">
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="N140" t="s">
+        <v>38</v>
       </c>
       <c r="O140" t="s">
         <v>39</v>
@@ -7076,119 +7092,125 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="B141" s="1">
-        <v>40651.289155092592</v>
+        <v>42109.911585648151</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="D141">
-        <v>22.766999999999999</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="E141">
-        <v>0.996</v>
+        <v>1.004</v>
       </c>
       <c r="F141">
-        <v>5.8029999999999999</v>
+        <v>21.542999999999701</v>
       </c>
       <c r="G141">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H141">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I141">
-        <v>1.0460162236147099</v>
+        <v>0.99</v>
       </c>
       <c r="J141" t="s">
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>125</v>
+        <v>200</v>
+      </c>
+      <c r="L141" t="s">
+        <v>201</v>
+      </c>
+      <c r="M141" t="s">
+        <v>199</v>
       </c>
       <c r="O141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="B142" s="1">
-        <v>40665.273530092592</v>
+        <v>42109.910219907404</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D142">
-        <v>850.31100000000004</v>
+        <v>20.748999999999999</v>
       </c>
       <c r="E142">
-        <v>9.0329999999999995</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="F142">
-        <v>227.876</v>
+        <v>21.721999999999799</v>
       </c>
       <c r="G142">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="H142">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I142">
-        <v>1.0780016954015099</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>77</v>
+        <v>200</v>
+      </c>
+      <c r="L142" t="s">
+        <v>201</v>
       </c>
       <c r="M142" t="s">
-        <v>40</v>
-      </c>
-      <c r="N142" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="O142" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="B143" s="1">
-        <v>40652.309560185182</v>
+        <v>42113.292847222219</v>
       </c>
       <c r="C143" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="D143">
-        <v>7.5640000000000001</v>
+        <v>208.83199999999999</v>
       </c>
       <c r="E143">
-        <v>0.217</v>
+        <v>3.431</v>
       </c>
       <c r="F143">
-        <v>21.059999999999899</v>
+        <v>52.397999999999897</v>
       </c>
       <c r="G143">
-        <v>3713</v>
+        <v>37131</v>
       </c>
       <c r="H143">
         <v>93</v>
       </c>
       <c r="I143">
-        <v>1.47755844028469</v>
+        <v>1.0142987814422999</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="O143" t="s">
         <v>39</v>
@@ -7196,40 +7218,40 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="B144" s="1">
-        <v>40659.848344907405</v>
+        <v>42113.297395833331</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="D144">
-        <v>2.48</v>
+        <v>353.75200000000001</v>
       </c>
       <c r="E144">
-        <v>0.13899999999999901</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="F144">
-        <v>9.2620000000006293</v>
+        <v>105.03700000000001</v>
       </c>
       <c r="G144">
-        <v>1856</v>
+        <v>37131</v>
       </c>
       <c r="H144">
         <v>93</v>
       </c>
       <c r="I144">
-        <v>1.5317169256021399</v>
+        <v>1.0142987814422999</v>
       </c>
       <c r="J144" t="s">
         <v>21</v>
       </c>
       <c r="K144" t="s">
-        <v>203</v>
-      </c>
-      <c r="N144" t="s">
-        <v>201</v>
+        <v>125</v>
+      </c>
+      <c r="L144" t="s">
+        <v>126</v>
       </c>
       <c r="O144" t="s">
         <v>39</v>
@@ -7237,22 +7259,22 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="B145" s="1">
-        <v>40659.85193287037</v>
+        <v>42110.538935185185</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D145">
-        <v>2.46599999999999</v>
+        <v>27.919</v>
       </c>
       <c r="E145">
-        <v>0.154</v>
+        <v>1.92</v>
       </c>
       <c r="F145">
-        <v>20.613000000000302</v>
+        <v>9.2449999999999992</v>
       </c>
       <c r="G145">
         <v>1856</v>
@@ -7261,19 +7283,16 @@
         <v>93</v>
       </c>
       <c r="I145">
-        <v>1.5324814378691001</v>
+        <v>1.0180336300557</v>
       </c>
       <c r="J145" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>204</v>
-      </c>
-      <c r="L145" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="N145" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="O145" t="s">
         <v>39</v>
@@ -7281,142 +7300,157 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="B146" s="1">
-        <v>40644.84652777778</v>
+        <v>42113.291076388887</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="D146">
-        <v>15.842000000000001</v>
+        <v>44.039000000000001</v>
       </c>
       <c r="E146">
-        <v>0.49100000000000099</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="F146">
-        <v>36.243999999999701</v>
+        <v>10.587999999999999</v>
       </c>
       <c r="G146">
         <v>7426</v>
       </c>
       <c r="H146">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I146">
-        <v>1.5374895271743101</v>
+        <v>1.02880482206316</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="O146" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="B147" s="1">
-        <v>40644.848807870374</v>
+        <v>42113.289155092592</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="D147">
-        <v>15.901</v>
+        <v>22.766999999999999</v>
       </c>
       <c r="E147">
-        <v>0.44700000000000101</v>
+        <v>0.996</v>
       </c>
       <c r="F147">
-        <v>36.188000000000102</v>
+        <v>5.8029999999999999</v>
       </c>
       <c r="G147">
-        <v>7426</v>
+        <v>3713</v>
       </c>
       <c r="H147">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I147">
-        <v>1.5374895271743101</v>
+        <v>1.0460162236147099</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="O147" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="B148" s="1">
-        <v>40644.863437499997</v>
+        <v>42127.273530092592</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="D148">
-        <v>15.666</v>
+        <v>850.31100000000004</v>
       </c>
       <c r="E148">
-        <v>0.47699999999999998</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="F148">
-        <v>16.0569999999998</v>
+        <v>227.876</v>
       </c>
       <c r="G148">
-        <v>7426</v>
+        <v>1861</v>
       </c>
       <c r="H148">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I148">
-        <v>1.54316586262694</v>
+        <v>1.0780016954015099</v>
+      </c>
+      <c r="J148" t="s">
+        <v>21</v>
       </c>
       <c r="K148" t="s">
-        <v>192</v>
+        <v>77</v>
+      </c>
+      <c r="M148" t="s">
+        <v>40</v>
+      </c>
+      <c r="N148" t="s">
+        <v>78</v>
       </c>
       <c r="O148" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B149" s="1">
-        <v>40652.307604166665</v>
+        <v>42114.309560185182</v>
       </c>
       <c r="C149" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D149">
-        <v>4.0419999999999998</v>
+        <v>7.5640000000000001</v>
       </c>
       <c r="E149">
-        <v>0.107</v>
+        <v>0.217</v>
       </c>
       <c r="F149">
-        <v>12.631999999999801</v>
+        <v>21.059999999999899</v>
       </c>
       <c r="G149">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H149">
         <v>93</v>
       </c>
       <c r="I149">
-        <v>1.5610810802361099</v>
+        <v>1.47755844028469</v>
       </c>
       <c r="J149" t="s">
         <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O149" t="s">
         <v>39</v>
@@ -7424,34 +7458,40 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B150" s="1">
-        <v>40644.861122685186</v>
+        <v>42121.848344907405</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D150">
-        <v>16.733000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="E150">
-        <v>0.47099999999999997</v>
+        <v>0.13899999999999901</v>
       </c>
       <c r="F150">
-        <v>17.1170000000002</v>
+        <v>9.2620000000006293</v>
       </c>
       <c r="G150">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H150">
         <v>93</v>
       </c>
       <c r="I150">
-        <v>1.56821048218277</v>
+        <v>1.5317169256021399</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
       </c>
       <c r="K150" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="N150" t="s">
+        <v>204</v>
       </c>
       <c r="O150" t="s">
         <v>39</v>
@@ -7459,57 +7499,66 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B151" s="1">
-        <v>40644.859270833331</v>
+        <v>42121.85193287037</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D151">
-        <v>14.928000000000001</v>
+        <v>2.46599999999999</v>
       </c>
       <c r="E151">
-        <v>0.40100000000000002</v>
+        <v>0.154</v>
       </c>
       <c r="F151">
-        <v>15.249000000000301</v>
+        <v>20.613000000000302</v>
       </c>
       <c r="G151">
-        <v>7426</v>
+        <v>1856</v>
       </c>
       <c r="H151">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I151">
-        <v>1.57773355605539</v>
+        <v>1.5324814378691001</v>
+      </c>
+      <c r="J151" t="s">
+        <v>21</v>
       </c>
       <c r="K151" t="s">
-        <v>193</v>
+        <v>207</v>
+      </c>
+      <c r="L151" t="s">
+        <v>208</v>
+      </c>
+      <c r="N151" t="s">
+        <v>204</v>
       </c>
       <c r="O151" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B152" s="1">
-        <v>40644.830034722225</v>
+        <v>42106.84652777778</v>
       </c>
       <c r="C152" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D152">
-        <v>72.912000000000006</v>
+        <v>15.842000000000001</v>
       </c>
       <c r="E152">
-        <v>2.387</v>
+        <v>0.49100000000000099</v>
       </c>
       <c r="F152">
-        <v>74.873000000000005</v>
+        <v>36.243999999999701</v>
       </c>
       <c r="G152">
         <v>7426</v>
@@ -7518,10 +7567,10 @@
         <v>80</v>
       </c>
       <c r="I152">
-        <v>1.58129073532396</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K152" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O152" t="s">
         <v>32</v>
@@ -7529,78 +7578,69 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153" s="1">
-        <v>40659.863749999997</v>
+        <v>42106.848807870374</v>
       </c>
       <c r="C153" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D153">
-        <v>5.5699999999999896</v>
+        <v>15.901</v>
       </c>
       <c r="E153">
-        <v>0.30600000000000099</v>
+        <v>0.44700000000000101</v>
       </c>
       <c r="F153">
-        <v>60.558</v>
+        <v>36.188000000000102</v>
       </c>
       <c r="G153">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H153">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I153">
-        <v>1.5823919857797799</v>
-      </c>
-      <c r="J153" t="s">
-        <v>21</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K153" t="s">
-        <v>210</v>
-      </c>
-      <c r="L153" t="s">
-        <v>207</v>
-      </c>
-      <c r="N153" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="O153" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B154" s="1">
-        <v>40644.980844907404</v>
+        <v>42106.863437499997</v>
       </c>
       <c r="C154" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D154">
-        <v>95.006</v>
+        <v>15.666</v>
       </c>
       <c r="E154">
-        <v>3.335</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F154">
-        <v>1510.02</v>
+        <v>16.0569999999998</v>
       </c>
       <c r="G154">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H154">
         <v>80</v>
       </c>
       <c r="I154">
-        <v>1.5833199935014</v>
+        <v>1.54316586262694</v>
       </c>
       <c r="K154" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O154" t="s">
         <v>32</v>
@@ -7608,133 +7648,130 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="B155" s="1">
-        <v>40644.890833333331</v>
+        <v>42114.307604166665</v>
       </c>
       <c r="C155" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="D155">
-        <v>94.869</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="E155">
-        <v>3.2869999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="F155">
-        <v>1216.4549999999999</v>
+        <v>12.631999999999801</v>
       </c>
       <c r="G155">
-        <v>22278</v>
+        <v>1856</v>
       </c>
       <c r="H155">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I155">
-        <v>1.58337486055827</v>
+        <v>1.5610810802361099</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="O155" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B156" s="1">
-        <v>40645.295682870368</v>
+        <v>42106.861122685186</v>
       </c>
       <c r="C156" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D156">
-        <v>91.376999999999995</v>
+        <v>16.733000000000001</v>
       </c>
       <c r="E156">
-        <v>1.498</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F156">
-        <v>92.478999999999999</v>
+        <v>17.1170000000002</v>
       </c>
       <c r="G156">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H156">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I156">
-        <v>1.58384242553734</v>
+        <v>1.56821048218277</v>
       </c>
       <c r="K156" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O156" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B157" s="1">
-        <v>40659.847118055557</v>
+        <v>42106.859270833331</v>
       </c>
       <c r="C157" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D157">
-        <v>2.976</v>
+        <v>14.928000000000001</v>
       </c>
       <c r="E157">
-        <v>0.28299999999999997</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F157">
-        <v>100.997</v>
+        <v>15.249000000000301</v>
       </c>
       <c r="G157">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H157">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I157">
-        <v>1.5866800350352499</v>
-      </c>
-      <c r="J157" t="s">
-        <v>21</v>
+        <v>1.57773355605539</v>
       </c>
       <c r="K157" t="s">
-        <v>202</v>
-      </c>
-      <c r="N157" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O157" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B158" s="1">
-        <v>40642.007476851853</v>
+        <v>42106.830034722225</v>
       </c>
       <c r="C158" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D158">
-        <v>315.97500000000002</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="E158">
-        <v>29.097000000000001</v>
+        <v>2.387</v>
       </c>
       <c r="F158">
-        <v>323.35300000000001</v>
+        <v>74.873000000000005</v>
       </c>
       <c r="G158">
         <v>7426</v>
@@ -7743,10 +7780,10 @@
         <v>80</v>
       </c>
       <c r="I158">
-        <v>1.59003529389746</v>
+        <v>1.58129073532396</v>
       </c>
       <c r="K158" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O158" t="s">
         <v>32</v>
@@ -7754,69 +7791,78 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B159" s="1">
-        <v>40644.853368055556</v>
+        <v>42121.863749999997</v>
       </c>
       <c r="C159" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D159">
-        <v>15.009</v>
+        <v>5.5699999999999896</v>
       </c>
       <c r="E159">
-        <v>0.57799999999999896</v>
+        <v>0.30600000000000099</v>
       </c>
       <c r="F159">
-        <v>114.17400000000001</v>
+        <v>60.558</v>
       </c>
       <c r="G159">
-        <v>7426</v>
+        <v>3713</v>
       </c>
       <c r="H159">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I159">
-        <v>1.5939681680293001</v>
+        <v>1.5823919857797799</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>193</v>
+        <v>213</v>
+      </c>
+      <c r="L159" t="s">
+        <v>210</v>
+      </c>
+      <c r="N159" t="s">
+        <v>212</v>
       </c>
       <c r="O159" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B160" s="1">
-        <v>40644.856076388889</v>
+        <v>42106.980844907404</v>
       </c>
       <c r="C160" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D160">
-        <v>15.125</v>
+        <v>95.006</v>
       </c>
       <c r="E160">
-        <v>0.54299999999999904</v>
+        <v>3.335</v>
       </c>
       <c r="F160">
-        <v>116.895</v>
+        <v>1510.02</v>
       </c>
       <c r="G160">
-        <v>7426</v>
+        <v>22278</v>
       </c>
       <c r="H160">
         <v>80</v>
       </c>
       <c r="I160">
-        <v>1.5939681680293001</v>
+        <v>1.5833199935014</v>
       </c>
       <c r="K160" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O160" t="s">
         <v>32</v>
@@ -7824,34 +7870,34 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B161" s="1">
-        <v>40645.301527777781</v>
+        <v>42106.890833333331</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D161">
-        <v>230.64400000000001</v>
+        <v>94.869</v>
       </c>
       <c r="E161">
-        <v>3.0230000000000001</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F161">
-        <v>232.80799999999999</v>
+        <v>1216.4549999999999</v>
       </c>
       <c r="G161">
-        <v>37131</v>
+        <v>22278</v>
       </c>
       <c r="H161">
         <v>80</v>
       </c>
       <c r="I161">
-        <v>1.60920568515367</v>
+        <v>1.58337486055827</v>
       </c>
       <c r="K161" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O161" t="s">
         <v>32</v>
@@ -7859,34 +7905,34 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B162" s="1">
-        <v>40644.876087962963</v>
+        <v>42107.295682870368</v>
       </c>
       <c r="C162" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D162">
-        <v>46.767000000000102</v>
+        <v>91.376999999999995</v>
       </c>
       <c r="E162">
-        <v>1.6379999999999999</v>
+        <v>1.498</v>
       </c>
       <c r="F162">
-        <v>553.19600000000003</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="G162">
-        <v>14852</v>
+        <v>22278</v>
       </c>
       <c r="H162">
         <v>80</v>
       </c>
       <c r="I162">
-        <v>1.6284161515828499</v>
+        <v>1.58384242553734</v>
       </c>
       <c r="K162" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O162" t="s">
         <v>32</v>
@@ -7894,84 +7940,75 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B163" s="1">
-        <v>40659.844583333332</v>
+        <v>42121.847118055557</v>
       </c>
       <c r="C163" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D163">
-        <v>3.0630000000000002</v>
+        <v>2.976</v>
       </c>
       <c r="E163">
-        <v>0.26600000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F163">
-        <v>93.864000000000502</v>
+        <v>100.997</v>
       </c>
       <c r="G163">
         <v>1856</v>
       </c>
       <c r="H163">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I163">
-        <v>1.6325571524315501</v>
+        <v>1.5866800350352499</v>
       </c>
       <c r="J163" t="s">
         <v>21</v>
       </c>
       <c r="K163" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N163" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O163" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B164" s="1">
-        <v>40647.90828703704</v>
+        <v>42104.007476851853</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D164">
-        <v>20.206</v>
+        <v>315.97500000000002</v>
       </c>
       <c r="E164">
-        <v>1.0740000000000001</v>
+        <v>29.097000000000001</v>
       </c>
       <c r="F164">
-        <v>21.203000000000401</v>
+        <v>323.35300000000001</v>
       </c>
       <c r="G164">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H164">
         <v>80</v>
       </c>
       <c r="I164">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J164" t="s">
-        <v>21</v>
+        <v>1.59003529389746</v>
       </c>
       <c r="K164" t="s">
-        <v>197</v>
-      </c>
-      <c r="L164" t="s">
-        <v>198</v>
-      </c>
-      <c r="M164" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O164" t="s">
         <v>32</v>
@@ -7979,42 +8016,33 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B165" s="1">
-        <v>40647.918564814812</v>
+        <v>42106.853368055556</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D165">
-        <v>20.510999999999999</v>
+        <v>15.009</v>
       </c>
       <c r="E165">
-        <v>1.0049999999999999</v>
+        <v>0.57799999999999896</v>
       </c>
       <c r="F165">
-        <v>21.440000000000499</v>
+        <v>114.17400000000001</v>
       </c>
       <c r="G165">
-        <v>1856</v>
+        <v>7426</v>
       </c>
       <c r="H165">
         <v>80</v>
       </c>
       <c r="I165">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J165" t="s">
-        <v>21</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K165" t="s">
-        <v>197</v>
-      </c>
-      <c r="L165" t="s">
-        <v>198</v>
-      </c>
-      <c r="M165" t="s">
         <v>196</v>
       </c>
       <c r="O165" t="s">
@@ -8023,160 +8051,145 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B166" s="1">
-        <v>40659.856979166667</v>
+        <v>42106.856076388889</v>
       </c>
       <c r="C166" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D166">
-        <v>9.4990000000000094</v>
+        <v>15.125</v>
       </c>
       <c r="E166">
-        <v>0.66600000000000004</v>
+        <v>0.54299999999999904</v>
       </c>
       <c r="F166">
-        <v>45.574000000000503</v>
+        <v>116.895</v>
       </c>
       <c r="G166">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H166">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I166">
-        <v>1.6391630597812601</v>
-      </c>
-      <c r="J166" t="s">
-        <v>21</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K166" t="s">
-        <v>208</v>
-      </c>
-      <c r="N166" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O166" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B167" s="1">
-        <v>40659.860312500001</v>
+        <v>42107.301527777781</v>
       </c>
       <c r="C167" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D167">
-        <v>9.7119999999999909</v>
+        <v>230.64400000000001</v>
       </c>
       <c r="E167">
-        <v>0.70799999999999996</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="F167">
-        <v>46.558</v>
+        <v>232.80799999999999</v>
       </c>
       <c r="G167">
-        <v>3713</v>
+        <v>37131</v>
       </c>
       <c r="H167">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I167">
-        <v>1.6391630597812601</v>
-      </c>
-      <c r="J167" t="s">
-        <v>21</v>
+        <v>1.60920568515367</v>
       </c>
       <c r="K167" t="s">
-        <v>208</v>
-      </c>
-      <c r="N167" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="O167" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B168" s="1">
-        <v>40644.862372685187</v>
+        <v>42106.876087962963</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D168">
-        <v>17.763000000000002</v>
+        <v>46.767000000000102</v>
       </c>
       <c r="E168">
-        <v>0.49</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F168">
-        <v>18.158000000000399</v>
+        <v>553.19600000000003</v>
       </c>
       <c r="G168">
-        <v>7426</v>
+        <v>14852</v>
       </c>
       <c r="H168">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I168">
-        <v>1.6500830141598</v>
+        <v>1.6284161515828499</v>
       </c>
       <c r="K168" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O168" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B169" s="1">
-        <v>40659.86519675926</v>
+        <v>42121.844583333332</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D169">
-        <v>4.8290000000000104</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="E169">
-        <v>0.30399999999999799</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F169">
-        <v>55.797999999999803</v>
+        <v>93.864000000000502</v>
       </c>
       <c r="G169">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H169">
         <v>80</v>
       </c>
       <c r="I169">
-        <v>1.6568002530577599</v>
+        <v>1.6325571524315501</v>
       </c>
       <c r="J169" t="s">
         <v>21</v>
       </c>
       <c r="K169" t="s">
-        <v>211</v>
-      </c>
-      <c r="L169" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N169" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O169" t="s">
         <v>32</v>
@@ -8184,46 +8197,43 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B170" s="1">
-        <v>40659.867673611108</v>
+        <v>42109.90828703704</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D170">
-        <v>4.9149999999999903</v>
+        <v>20.206</v>
       </c>
       <c r="E170">
-        <v>0.315999999999999</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="F170">
-        <v>62.327999999999498</v>
+        <v>21.203000000000401</v>
       </c>
       <c r="G170">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H170">
         <v>80</v>
       </c>
       <c r="I170">
-        <v>1.65692310884533</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J170" t="s">
         <v>21</v>
       </c>
       <c r="K170" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L170" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M170" t="s">
-        <v>212</v>
-      </c>
-      <c r="N170" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O170" t="s">
         <v>32</v>
@@ -8231,46 +8241,43 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B171" s="1">
-        <v>40659.869687500002</v>
+        <v>42109.918564814812</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D171">
-        <v>4.9019999999999904</v>
+        <v>20.510999999999999</v>
       </c>
       <c r="E171">
-        <v>0.30499999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F171">
-        <v>52.561000000000597</v>
+        <v>21.440000000000499</v>
       </c>
       <c r="G171">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H171">
         <v>80</v>
       </c>
       <c r="I171">
-        <v>1.65804340818409</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J171" t="s">
         <v>21</v>
       </c>
       <c r="K171" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L171" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M171" t="s">
-        <v>212</v>
-      </c>
-      <c r="N171" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O171" t="s">
         <v>32</v>
@@ -8278,66 +8285,63 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B172" s="1">
-        <v>40647.907395833332</v>
+        <v>42121.856979166667</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D172">
-        <v>12.09</v>
+        <v>9.4990000000000094</v>
       </c>
       <c r="E172">
-        <v>0.53400000000000003</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F172">
-        <v>12.579999999999901</v>
+        <v>45.574000000000503</v>
       </c>
       <c r="G172">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H172">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I172">
-        <v>1.66250101299196</v>
+        <v>1.6391630597812601</v>
       </c>
       <c r="J172" t="s">
         <v>21</v>
       </c>
       <c r="K172" t="s">
-        <v>194</v>
-      </c>
-      <c r="L172" t="s">
-        <v>195</v>
-      </c>
-      <c r="M172" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="N172" t="s">
+        <v>204</v>
       </c>
       <c r="O172" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B173" s="1">
-        <v>40659.853425925925</v>
+        <v>42121.860312500001</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D173">
-        <v>5.2539999999999996</v>
+        <v>9.7119999999999909</v>
       </c>
       <c r="E173">
-        <v>0.26300000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="F173">
-        <v>43.096000000000501</v>
+        <v>46.558</v>
       </c>
       <c r="G173">
         <v>3713</v>
@@ -8346,19 +8350,16 @@
         <v>93</v>
       </c>
       <c r="I173">
-        <v>1.67947876411185</v>
+        <v>1.6391630597812601</v>
       </c>
       <c r="J173" t="s">
         <v>21</v>
       </c>
       <c r="K173" t="s">
-        <v>206</v>
-      </c>
-      <c r="L173" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N173" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="O173" t="s">
         <v>39</v>
@@ -8366,43 +8367,34 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B174" s="1">
-        <v>40659.854687500003</v>
+        <v>42106.862372685187</v>
       </c>
       <c r="C174" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D174">
-        <v>5.2880000000000003</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="E174">
-        <v>0.29799999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="F174">
-        <v>58.8149999999996</v>
+        <v>18.158000000000399</v>
       </c>
       <c r="G174">
-        <v>3713</v>
+        <v>7426</v>
       </c>
       <c r="H174">
         <v>93</v>
       </c>
       <c r="I174">
-        <v>1.67947876411185</v>
-      </c>
-      <c r="J174" t="s">
-        <v>21</v>
+        <v>1.6500830141598</v>
       </c>
       <c r="K174" t="s">
-        <v>206</v>
-      </c>
-      <c r="L174" t="s">
-        <v>207</v>
-      </c>
-      <c r="N174" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O174" t="s">
         <v>39</v>
@@ -8410,34 +8402,43 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B175" s="1">
-        <v>40644.868576388886</v>
+        <v>42121.86519675926</v>
       </c>
       <c r="C175" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D175">
-        <v>54.494999999999997</v>
+        <v>4.8290000000000104</v>
       </c>
       <c r="E175">
-        <v>1.0149999999999999</v>
+        <v>0.30399999999999799</v>
       </c>
       <c r="F175">
-        <v>55.336000000000197</v>
+        <v>55.797999999999803</v>
       </c>
       <c r="G175">
-        <v>14852</v>
+        <v>3713</v>
       </c>
       <c r="H175">
         <v>80</v>
       </c>
       <c r="I175">
-        <v>1.8013924389029601</v>
+        <v>1.6568002530577599</v>
+      </c>
+      <c r="J175" t="s">
+        <v>21</v>
       </c>
       <c r="K175" t="s">
-        <v>192</v>
+        <v>214</v>
+      </c>
+      <c r="L175" t="s">
+        <v>210</v>
+      </c>
+      <c r="N175" t="s">
+        <v>212</v>
       </c>
       <c r="O175" t="s">
         <v>32</v>
@@ -8445,36 +8446,297 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B176" s="1">
-        <v>40645.289965277778</v>
+        <v>42121.867673611108</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D176">
-        <v>126.211</v>
+        <v>4.9149999999999903</v>
       </c>
       <c r="E176">
-        <v>1.462</v>
+        <v>0.315999999999999</v>
       </c>
       <c r="F176">
-        <v>127.443</v>
+        <v>62.327999999999498</v>
       </c>
       <c r="G176">
-        <v>22278</v>
+        <v>3713</v>
       </c>
       <c r="H176">
         <v>80</v>
       </c>
       <c r="I176">
+        <v>1.65692310884533</v>
+      </c>
+      <c r="J176" t="s">
+        <v>21</v>
+      </c>
+      <c r="K176" t="s">
+        <v>214</v>
+      </c>
+      <c r="L176" t="s">
+        <v>210</v>
+      </c>
+      <c r="M176" t="s">
+        <v>215</v>
+      </c>
+      <c r="N176" t="s">
+        <v>212</v>
+      </c>
+      <c r="O176" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177" s="1">
+        <v>42121.869687500002</v>
+      </c>
+      <c r="C177" t="s">
+        <v>194</v>
+      </c>
+      <c r="D177">
+        <v>4.9019999999999904</v>
+      </c>
+      <c r="E177">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F177">
+        <v>52.561000000000597</v>
+      </c>
+      <c r="G177">
+        <v>3713</v>
+      </c>
+      <c r="H177">
+        <v>80</v>
+      </c>
+      <c r="I177">
+        <v>1.65804340818409</v>
+      </c>
+      <c r="J177" t="s">
+        <v>21</v>
+      </c>
+      <c r="K177" t="s">
+        <v>200</v>
+      </c>
+      <c r="L177" t="s">
+        <v>216</v>
+      </c>
+      <c r="M177" t="s">
+        <v>215</v>
+      </c>
+      <c r="N177" t="s">
+        <v>212</v>
+      </c>
+      <c r="O177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" t="s">
+        <v>191</v>
+      </c>
+      <c r="B178" s="1">
+        <v>42109.907395833332</v>
+      </c>
+      <c r="C178" t="s">
+        <v>194</v>
+      </c>
+      <c r="D178">
+        <v>12.09</v>
+      </c>
+      <c r="E178">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F178">
+        <v>12.579999999999901</v>
+      </c>
+      <c r="G178">
+        <v>1856</v>
+      </c>
+      <c r="H178">
+        <v>80</v>
+      </c>
+      <c r="I178">
+        <v>1.66250101299196</v>
+      </c>
+      <c r="J178" t="s">
+        <v>21</v>
+      </c>
+      <c r="K178" t="s">
+        <v>197</v>
+      </c>
+      <c r="L178" t="s">
+        <v>198</v>
+      </c>
+      <c r="M178" t="s">
+        <v>199</v>
+      </c>
+      <c r="O178" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="1">
+        <v>42121.853425925925</v>
+      </c>
+      <c r="C179" t="s">
+        <v>194</v>
+      </c>
+      <c r="D179">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="E179">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F179">
+        <v>43.096000000000501</v>
+      </c>
+      <c r="G179">
+        <v>3713</v>
+      </c>
+      <c r="H179">
+        <v>93</v>
+      </c>
+      <c r="I179">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J179" t="s">
+        <v>21</v>
+      </c>
+      <c r="K179" t="s">
+        <v>209</v>
+      </c>
+      <c r="L179" t="s">
+        <v>208</v>
+      </c>
+      <c r="N179" t="s">
+        <v>204</v>
+      </c>
+      <c r="O179" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42121.854687500003</v>
+      </c>
+      <c r="C180" t="s">
+        <v>194</v>
+      </c>
+      <c r="D180">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="E180">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F180">
+        <v>58.8149999999996</v>
+      </c>
+      <c r="G180">
+        <v>3713</v>
+      </c>
+      <c r="H180">
+        <v>93</v>
+      </c>
+      <c r="I180">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J180" t="s">
+        <v>21</v>
+      </c>
+      <c r="K180" t="s">
+        <v>209</v>
+      </c>
+      <c r="L180" t="s">
+        <v>210</v>
+      </c>
+      <c r="N180" t="s">
+        <v>204</v>
+      </c>
+      <c r="O180" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" s="1">
+        <v>42106.868576388886</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181">
+        <v>54.494999999999997</v>
+      </c>
+      <c r="E181">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F181">
+        <v>55.336000000000197</v>
+      </c>
+      <c r="G181">
+        <v>14852</v>
+      </c>
+      <c r="H181">
+        <v>80</v>
+      </c>
+      <c r="I181">
+        <v>1.8013924389029601</v>
+      </c>
+      <c r="K181" t="s">
+        <v>195</v>
+      </c>
+      <c r="O181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42107.289965277778</v>
+      </c>
+      <c r="C182" t="s">
+        <v>194</v>
+      </c>
+      <c r="D182">
+        <v>126.211</v>
+      </c>
+      <c r="E182">
+        <v>1.462</v>
+      </c>
+      <c r="F182">
+        <v>127.443</v>
+      </c>
+      <c r="G182">
+        <v>22278</v>
+      </c>
+      <c r="H182">
+        <v>80</v>
+      </c>
+      <c r="I182">
         <v>1.92982759815376</v>
       </c>
-      <c r="K176" t="s">
-        <v>192</v>
-      </c>
-      <c r="O176" t="s">
+      <c r="K182" t="s">
+        <v>195</v>
+      </c>
+      <c r="O182" t="s">
         <v>32</v>
       </c>
     </row>

--- a/model_results/ConsolidatedModelPerformance.xlsx
+++ b/model_results/ConsolidatedModelPerformance.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="520" windowWidth="25040" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ConsolidatedModelPerformance.ts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="243">
   <si>
     <t>dir</t>
   </si>
@@ -588,6 +588,48 @@
     <t>Class_1.n.trees=150,Class_1.interaction.depth=4,Class_1.shrinkage=0.1,Class_2.n.trees=150,Class_2.interaction.depth=4,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=3,Class_3.shrinkage=0.1,Class_4.n.trees=200,Class_4.interaction.depth=2,Class_4.shrinkage=0.1,Class_5.n.trees=100,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=3,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=200,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
   </si>
   <si>
+    <t>Class_1.n.trees=100,Class_1.interaction.depth=4,Class_1.shrinkage=0.1,Class_2.n.trees=100,Class_2.interaction.depth=4,Class_2.shrinkage=0.1,Class_3.n.trees=100,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=50,Class_4.interaction.depth=4,Class_4.shrinkage=0.1,Class_5.n.trees=250,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=50,Class_6.interaction.depth=4,Class_6.shrinkage=0.1,Class_7.n.trees=150,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=3,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=4,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>rf1_1.Class_1,rf1_1.Class_2,rf1_1.Class_3,rf1_1.Class_4,rf1_1.Class_5,rf1_1.Class_6,rf1_1.Class_7,rf1_1.Class_8,rf1_1.Class_9,gbm1_1.Class_1,gbm1_1.Class_2,gbm1_1.Class_3,gbm1_1.Class_4,gbm1_1.Class_5,gbm1_1.Class_6,gbm1_1.Class_7,gbm1_1.Class_8,gbm1_1.Class_9,gbm2_1.gbm1_1.Class_1,gbm2_1.gbm1_1.Class_2,gbm2_1.gbm1_1.Class_3,gbm2_1.gbm1_1.Class_4,gbm2_1.gbm1_1.Class_5,gbm2_1.gbm1_1.Class_6,gbm2_1.gbm1_1.Class_7,gbm2_1.gbm1_1.Class_8,gbm2_1.gbm1_1.Class_9,feat_1,feat_2,feat_3,feat_4,feat_5,feat_6,feat_7,feat_8,feat_9,feat_10,feat_11,feat_12,feat_13,feat_14,feat_15,feat_16,feat_17,feat_18,feat_19,feat_20,feat_21,feat_22,feat_23,feat_24,feat_25,feat_26,feat_27,feat_28,feat_29,feat_30,feat_31,feat_32,feat_33,feat_34,feat_35,feat_36,feat_37,feat_38,feat_39,feat_40,feat_41,feat_42,feat_43,feat_44,feat_45,feat_46,feat_47,feat_48,feat_49,feat_50,feat_51,feat_52,feat_53,feat_54,feat_55,feat_56,feat_57,feat_58,feat_59,feat_60,feat_61,feat_62,feat_63,feat_64,feat_65,feat_66,feat_67,feat_68,feat_69,feat_70,feat_71,feat_72,feat_73,feat_74,feat_75,feat_76,feat_77,feat_78,feat_79,feat_80,feat_81,feat_82,feat_83,feat_84,feat_85,feat_86,feat_87,feat_88,feat_89,feat_90,feat_91,feat_92,feat_93,non.zero.count</t>
+  </si>
+  <si>
+    <t>./src/stk_model/gbm2_1</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=5,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=250,Class_5.interaction.depth=2,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=4,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>gbm one vs all default n.minobsinode=10</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=4,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=250,Class_5.interaction.depth=1,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=4,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>verbose=FALSE,n.minobsinnode=5</t>
+  </si>
+  <si>
+    <t>gbm one vs all default n.minobsinnode=5</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=4,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=5,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>verbose=FALSE,n.minobsinnode=15</t>
+  </si>
+  <si>
+    <t>gbm one vs all default n.minobsinnode=15</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=4,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=250,Class_5.interaction.depth=4,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=4,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
+    <t>verbose=FALSE,n.minobsinnode=20</t>
+  </si>
+  <si>
+    <t>gbm one vs all default n.minobsinnode=20</t>
+  </si>
+  <si>
     <t>./src/stk_model/rf1_1</t>
   </si>
   <si>
@@ -598,6 +640,9 @@
   </si>
   <si>
     <t>Level 2 rf model for model stacking</t>
+  </si>
+  <si>
+    <t>mtry=61</t>
   </si>
   <si>
     <t>./src/svm_model</t>
@@ -758,8 +803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O184" totalsRowShown="0">
-  <autoFilter ref="A1:O184"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O191" totalsRowShown="0">
+  <autoFilter ref="A1:O191"/>
   <tableColumns count="15">
     <tableColumn id="1" name="dir"/>
     <tableColumn id="2" name="date.time" dataDxfId="0"/>
@@ -1103,15 +1148,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O184"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -1176,7 +1221,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>40662.262199074074</v>
+        <v>42124.262199074074</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1217,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>40662.279085648152</v>
+        <v>42124.279085648152</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1258,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>40662.303981481484</v>
+        <v>42124.303981481484</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1299,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>40662.897407407407</v>
+        <v>42124.897407407407</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1340,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>40662.904675925929</v>
+        <v>42124.904675925929</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1381,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>40662.928738425922</v>
+        <v>42124.928738425922</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1422,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>40663.886111111111</v>
+        <v>42125.886111111111</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1463,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>40663.894259259258</v>
+        <v>42125.894259259258</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1504,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>40663.907569444447</v>
+        <v>42125.907569444447</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1545,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>40663.913171296299</v>
+        <v>42125.913171296299</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1586,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>40664.134918981479</v>
+        <v>42126.134918981479</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1627,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>40664.531724537039</v>
+        <v>42126.531724537039</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1668,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>40639.758009259262</v>
+        <v>42101.758009259262</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1703,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>40639.762152777781</v>
+        <v>42101.762152777781</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1738,7 +1783,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>40639.763333333336</v>
+        <v>42101.763333333336</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1773,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>40639.883819444447</v>
+        <v>42101.883819444447</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1808,7 +1853,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>40639.932210648149</v>
+        <v>42101.932210648149</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1843,7 +1888,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>40640.874699074076</v>
+        <v>42102.874699074076</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1878,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>40647.942337962966</v>
+        <v>42109.942337962966</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1919,7 +1964,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>40647.944432870368</v>
+        <v>42109.944432870368</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1960,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>40647.945636574077</v>
+        <v>42109.945636574077</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -2004,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>40649.846215277779</v>
+        <v>42111.846215277779</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -2048,7 +2093,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>40649.85328703704</v>
+        <v>42111.85328703704</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -2095,7 +2140,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>40649.876226851855</v>
+        <v>42111.876226851855</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -2142,7 +2187,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>40652.750289351854</v>
+        <v>42114.750289351854</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -2186,7 +2231,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>40652.759942129633</v>
+        <v>42114.759942129633</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -2233,7 +2278,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>40652.7653587963</v>
+        <v>42114.7653587963</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -2280,7 +2325,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>40652.835798611108</v>
+        <v>42114.835798611108</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -2327,7 +2372,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>40652.839166666665</v>
+        <v>42114.839166666665</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -2374,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>40652.848761574074</v>
+        <v>42114.848761574074</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -2421,7 +2466,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>40661.148125</v>
+        <v>42123.148125</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -2462,7 +2507,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="1">
-        <v>40646.850069444445</v>
+        <v>42108.850069444445</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -2497,7 +2542,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="1">
-        <v>40646.875208333331</v>
+        <v>42108.875208333331</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
@@ -2532,7 +2577,7 @@
         <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>40646.899583333332</v>
+        <v>42108.899583333332</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
@@ -2567,7 +2612,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="1">
-        <v>40646.939062500001</v>
+        <v>42108.939062500001</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -2602,7 +2647,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>40648.013703703706</v>
+        <v>42110.013703703706</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
@@ -2649,7 +2694,7 @@
         <v>55</v>
       </c>
       <c r="B38" s="1">
-        <v>40648.014513888891</v>
+        <v>42110.014513888891</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -2696,7 +2741,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="1">
-        <v>40651.539988425924</v>
+        <v>42113.539988425924</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -2743,7 +2788,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>40652.868472222224</v>
+        <v>42114.868472222224</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -2790,7 +2835,7 @@
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>40652.928113425929</v>
+        <v>42114.928113425929</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -2837,7 +2882,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>40652.988958333335</v>
+        <v>42114.988958333335</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
@@ -2884,7 +2929,7 @@
         <v>55</v>
       </c>
       <c r="B43" s="1">
-        <v>40654.282939814817</v>
+        <v>42116.282939814817</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -2931,7 +2976,7 @@
         <v>55</v>
       </c>
       <c r="B44" s="1">
-        <v>40654.294745370367</v>
+        <v>42116.294745370367</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -2978,7 +3023,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="1">
-        <v>40654.319178240738</v>
+        <v>42116.319178240738</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
@@ -3025,7 +3070,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="1">
-        <v>40664.956990740742</v>
+        <v>42126.956990740742</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
@@ -3069,7 +3114,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>40664.964074074072</v>
+        <v>42126.964074074072</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
@@ -3113,7 +3158,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>40664.973819444444</v>
+        <v>42126.973819444444</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -3157,7 +3202,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="1">
-        <v>40665.273530092592</v>
+        <v>42127.273530092592</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
@@ -3201,7 +3246,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="1">
-        <v>40665.792708333334</v>
+        <v>42127.792708333334</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -3245,7 +3290,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="1">
-        <v>40665.892245370371</v>
+        <v>42127.892245370371</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -3289,7 +3334,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>40667.467453703706</v>
+        <v>42129.467453703706</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -3333,7 +3378,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>40668.054444444446</v>
+        <v>42130.054444444446</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -3377,7 +3422,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>40668.983032407406</v>
+        <v>42130.983032407406</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -3421,7 +3466,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>40669.452013888891</v>
+        <v>42131.452013888891</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
@@ -3465,7 +3510,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>40669.909004629626</v>
+        <v>42131.909004629626</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -3509,7 +3554,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>40670.011689814812</v>
+        <v>42132.011689814812</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -3553,7 +3598,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="1">
-        <v>40670.112511574072</v>
+        <v>42132.112511574072</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -3597,7 +3642,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>40670.958136574074</v>
+        <v>42132.958136574074</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -3641,7 +3686,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1">
-        <v>40671.95034722222</v>
+        <v>42133.95034722222</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -3685,7 +3730,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>40671.958773148152</v>
+        <v>42133.958773148152</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -3729,7 +3774,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="1">
-        <v>40671.960601851853</v>
+        <v>42133.960601851853</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -3773,7 +3818,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="1">
-        <v>40650.427997685183</v>
+        <v>42112.427997685183</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -3814,7 +3859,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="1">
-        <v>40673.853414351855</v>
+        <v>42135.853414351855</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -3858,7 +3903,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="1">
-        <v>40673.873495370368</v>
+        <v>42135.873495370368</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -3902,7 +3947,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="1">
-        <v>40673.918078703704</v>
+        <v>42135.918078703704</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -3946,7 +3991,7 @@
         <v>97</v>
       </c>
       <c r="B67" s="1">
-        <v>40674.129525462966</v>
+        <v>42136.129525462966</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -3990,7 +4035,7 @@
         <v>97</v>
       </c>
       <c r="B68" s="1">
-        <v>40674.248287037037</v>
+        <v>42136.248287037037</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
@@ -4034,7 +4079,7 @@
         <v>97</v>
       </c>
       <c r="B69" s="1">
-        <v>40674.686736111114</v>
+        <v>42136.686736111114</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -4078,7 +4123,7 @@
         <v>97</v>
       </c>
       <c r="B70" s="1">
-        <v>40675.033009259256</v>
+        <v>42137.033009259256</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -4122,7 +4167,7 @@
         <v>97</v>
       </c>
       <c r="B71" s="1">
-        <v>40675.392337962963</v>
+        <v>42137.392337962963</v>
       </c>
       <c r="C71" t="s">
         <v>30</v>
@@ -4166,7 +4211,7 @@
         <v>97</v>
       </c>
       <c r="B72" s="1">
-        <v>40675.952581018515</v>
+        <v>42137.952581018515</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -4210,7 +4255,7 @@
         <v>97</v>
       </c>
       <c r="B73" s="1">
-        <v>40676.063067129631</v>
+        <v>42138.063067129631</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -4254,7 +4299,7 @@
         <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>40676.500439814816</v>
+        <v>42138.500439814816</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -4298,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>40677.074340277781</v>
+        <v>42139.074340277781</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -4342,7 +4387,7 @@
         <v>97</v>
       </c>
       <c r="B76" s="1">
-        <v>40677.172337962962</v>
+        <v>42139.172337962962</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -4386,7 +4431,7 @@
         <v>116</v>
       </c>
       <c r="B77" s="1">
-        <v>40648.538935185185</v>
+        <v>42110.538935185185</v>
       </c>
       <c r="C77" t="s">
         <v>117</v>
@@ -4427,7 +4472,7 @@
         <v>116</v>
       </c>
       <c r="B78" s="1">
-        <v>40648.539930555555</v>
+        <v>42110.539930555555</v>
       </c>
       <c r="C78" t="s">
         <v>117</v>
@@ -4468,7 +4513,7 @@
         <v>116</v>
       </c>
       <c r="B79" s="1">
-        <v>40648.54142361111</v>
+        <v>42110.54142361111</v>
       </c>
       <c r="C79" t="s">
         <v>117</v>
@@ -4509,7 +4554,7 @@
         <v>116</v>
       </c>
       <c r="B80" s="1">
-        <v>40648.543449074074</v>
+        <v>42110.543449074074</v>
       </c>
       <c r="C80" t="s">
         <v>117</v>
@@ -4553,7 +4598,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="1">
-        <v>40648.54482638889</v>
+        <v>42110.54482638889</v>
       </c>
       <c r="C81" t="s">
         <v>117</v>
@@ -4597,7 +4642,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="1">
-        <v>40648.917881944442</v>
+        <v>42110.917881944442</v>
       </c>
       <c r="C82" t="s">
         <v>117</v>
@@ -4641,7 +4686,7 @@
         <v>116</v>
       </c>
       <c r="B83" s="1">
-        <v>40648.927546296298</v>
+        <v>42110.927546296298</v>
       </c>
       <c r="C83" t="s">
         <v>117</v>
@@ -4685,7 +4730,7 @@
         <v>123</v>
       </c>
       <c r="B84" s="1">
-        <v>40651.289155092592</v>
+        <v>42113.289155092592</v>
       </c>
       <c r="C84" t="s">
         <v>124</v>
@@ -4723,7 +4768,7 @@
         <v>123</v>
       </c>
       <c r="B85" s="1">
-        <v>40651.291076388887</v>
+        <v>42113.291076388887</v>
       </c>
       <c r="C85" t="s">
         <v>124</v>
@@ -4761,7 +4806,7 @@
         <v>123</v>
       </c>
       <c r="B86" s="1">
-        <v>40651.292847222219</v>
+        <v>42113.292847222219</v>
       </c>
       <c r="C86" t="s">
         <v>124</v>
@@ -4799,7 +4844,7 @@
         <v>123</v>
       </c>
       <c r="B87" s="1">
-        <v>40651.297395833331</v>
+        <v>42113.297395833331</v>
       </c>
       <c r="C87" t="s">
         <v>124</v>
@@ -4840,7 +4885,7 @@
         <v>127</v>
       </c>
       <c r="B88" s="1">
-        <v>40641.286828703705</v>
+        <v>42103.286828703705</v>
       </c>
       <c r="C88" t="s">
         <v>128</v>
@@ -4878,7 +4923,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="1">
-        <v>40641.297395833331</v>
+        <v>42103.297395833331</v>
       </c>
       <c r="C89" t="s">
         <v>128</v>
@@ -4916,7 +4961,7 @@
         <v>127</v>
       </c>
       <c r="B90" s="1">
-        <v>40641.298993055556</v>
+        <v>42103.298993055556</v>
       </c>
       <c r="C90" t="s">
         <v>128</v>
@@ -4954,7 +4999,7 @@
         <v>127</v>
       </c>
       <c r="B91" s="1">
-        <v>40641.301504629628</v>
+        <v>42103.301504629628</v>
       </c>
       <c r="C91" t="s">
         <v>128</v>
@@ -4992,7 +5037,7 @@
         <v>127</v>
       </c>
       <c r="B92" s="1">
-        <v>40641.304837962962</v>
+        <v>42103.304837962962</v>
       </c>
       <c r="C92" t="s">
         <v>128</v>
@@ -5030,7 +5075,7 @@
         <v>127</v>
       </c>
       <c r="B93" s="1">
-        <v>40641.314687500002</v>
+        <v>42103.314687500002</v>
       </c>
       <c r="C93" t="s">
         <v>128</v>
@@ -5068,7 +5113,7 @@
         <v>127</v>
       </c>
       <c r="B94" s="1">
-        <v>40641.619097222225</v>
+        <v>42103.619097222225</v>
       </c>
       <c r="C94" t="s">
         <v>128</v>
@@ -5106,7 +5151,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="1">
-        <v>40641.62332175926</v>
+        <v>42103.62332175926</v>
       </c>
       <c r="C95" t="s">
         <v>128</v>
@@ -5144,7 +5189,7 @@
         <v>127</v>
       </c>
       <c r="B96" s="1">
-        <v>40641.868738425925</v>
+        <v>42103.868738425925</v>
       </c>
       <c r="C96" t="s">
         <v>128</v>
@@ -5182,7 +5227,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="1">
-        <v>40641.892905092594</v>
+        <v>42103.892905092594</v>
       </c>
       <c r="C97" t="s">
         <v>128</v>
@@ -5220,7 +5265,7 @@
         <v>127</v>
       </c>
       <c r="B98" s="1">
-        <v>40641.962881944448</v>
+        <v>42103.962881944448</v>
       </c>
       <c r="C98" t="s">
         <v>128</v>
@@ -5258,7 +5303,7 @@
         <v>127</v>
       </c>
       <c r="B99" s="1">
-        <v>40647.280289351853</v>
+        <v>42109.280289351853</v>
       </c>
       <c r="C99" t="s">
         <v>128</v>
@@ -5296,7 +5341,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="1">
-        <v>40647.967615740738</v>
+        <v>42109.967615740738</v>
       </c>
       <c r="C100" t="s">
         <v>128</v>
@@ -5340,7 +5385,7 @@
         <v>136</v>
       </c>
       <c r="B101" s="1">
-        <v>40654.849768518521</v>
+        <v>42116.849768518521</v>
       </c>
       <c r="C101" t="s">
         <v>128</v>
@@ -5381,7 +5426,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="1">
-        <v>40654.853946759256</v>
+        <v>42116.853946759256</v>
       </c>
       <c r="C102" t="s">
         <v>128</v>
@@ -5425,7 +5470,7 @@
         <v>136</v>
       </c>
       <c r="B103" s="1">
-        <v>40654.860844907409</v>
+        <v>42116.860844907409</v>
       </c>
       <c r="C103" t="s">
         <v>128</v>
@@ -5472,7 +5517,7 @@
         <v>136</v>
       </c>
       <c r="B104" s="1">
-        <v>40654.866481481484</v>
+        <v>42116.866481481484</v>
       </c>
       <c r="C104" t="s">
         <v>128</v>
@@ -5519,7 +5564,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="1">
-        <v>40654.897719907407</v>
+        <v>42116.897719907407</v>
       </c>
       <c r="C105" t="s">
         <v>128</v>
@@ -5566,7 +5611,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="1">
-        <v>40655.898888888885</v>
+        <v>42117.898888888885</v>
       </c>
       <c r="C106" t="s">
         <v>128</v>
@@ -5613,7 +5658,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="1">
-        <v>40656.284328703703</v>
+        <v>42118.284328703703</v>
       </c>
       <c r="C107" t="s">
         <v>140</v>
@@ -5654,7 +5699,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="1">
-        <v>40656.825995370367</v>
+        <v>42118.825995370367</v>
       </c>
       <c r="C108" t="s">
         <v>140</v>
@@ -5698,7 +5743,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="1">
-        <v>40656.831354166665</v>
+        <v>42118.831354166665</v>
       </c>
       <c r="C109" t="s">
         <v>140</v>
@@ -5742,7 +5787,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="1">
-        <v>40656.837557870371</v>
+        <v>42118.837557870371</v>
       </c>
       <c r="C110" t="s">
         <v>140</v>
@@ -5786,7 +5831,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="1">
-        <v>40656.869560185187</v>
+        <v>42118.869560185187</v>
       </c>
       <c r="C111" t="s">
         <v>140</v>
@@ -5830,7 +5875,7 @@
         <v>136</v>
       </c>
       <c r="B112" s="1">
-        <v>40656.87060185185</v>
+        <v>42118.87060185185</v>
       </c>
       <c r="C112" t="s">
         <v>140</v>
@@ -5874,7 +5919,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="1">
-        <v>40656.872812499998</v>
+        <v>42118.872812499998</v>
       </c>
       <c r="C113" t="s">
         <v>140</v>
@@ -5918,7 +5963,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="1">
-        <v>40656.878275462965</v>
+        <v>42118.878275462965</v>
       </c>
       <c r="C114" t="s">
         <v>140</v>
@@ -5962,7 +6007,7 @@
         <v>136</v>
       </c>
       <c r="B115" s="1">
-        <v>40656.884027777778</v>
+        <v>42118.884027777778</v>
       </c>
       <c r="C115" t="s">
         <v>140</v>
@@ -6006,7 +6051,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="1">
-        <v>40656.885810185187</v>
+        <v>42118.885810185187</v>
       </c>
       <c r="C116" t="s">
         <v>140</v>
@@ -6050,7 +6095,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="1">
-        <v>40656.890127314815</v>
+        <v>42118.890127314815</v>
       </c>
       <c r="C117" t="s">
         <v>140</v>
@@ -6094,7 +6139,7 @@
         <v>136</v>
       </c>
       <c r="B118" s="1">
-        <v>40656.894976851851</v>
+        <v>42118.894976851851</v>
       </c>
       <c r="C118" t="s">
         <v>140</v>
@@ -6138,7 +6183,7 @@
         <v>136</v>
       </c>
       <c r="B119" s="1">
-        <v>40656.899618055555</v>
+        <v>42118.899618055555</v>
       </c>
       <c r="C119" t="s">
         <v>140</v>
@@ -6182,7 +6227,7 @@
         <v>136</v>
       </c>
       <c r="B120" s="1">
-        <v>40656.904513888891</v>
+        <v>42118.904513888891</v>
       </c>
       <c r="C120" t="s">
         <v>140</v>
@@ -6226,7 +6271,7 @@
         <v>136</v>
       </c>
       <c r="B121" s="1">
-        <v>40666.813668981478</v>
+        <v>42128.813668981478</v>
       </c>
       <c r="C121" t="s">
         <v>140</v>
@@ -6270,7 +6315,7 @@
         <v>136</v>
       </c>
       <c r="B122" s="1">
-        <v>40666.822210648148</v>
+        <v>42128.822210648148</v>
       </c>
       <c r="C122" t="s">
         <v>140</v>
@@ -6314,7 +6359,7 @@
         <v>136</v>
       </c>
       <c r="B123" s="1">
-        <v>40666.829050925924</v>
+        <v>42128.829050925924</v>
       </c>
       <c r="C123" t="s">
         <v>140</v>
@@ -6358,7 +6403,7 @@
         <v>136</v>
       </c>
       <c r="B124" s="1">
-        <v>40666.858576388891</v>
+        <v>42128.858576388891</v>
       </c>
       <c r="C124" t="s">
         <v>140</v>
@@ -6402,7 +6447,7 @@
         <v>136</v>
       </c>
       <c r="B125" s="1">
-        <v>40666.864722222221</v>
+        <v>42128.864722222221</v>
       </c>
       <c r="C125" t="s">
         <v>140</v>
@@ -6446,7 +6491,7 @@
         <v>136</v>
       </c>
       <c r="B126" s="1">
-        <v>40666.87090277778</v>
+        <v>42128.87090277778</v>
       </c>
       <c r="C126" t="s">
         <v>140</v>
@@ -6490,7 +6535,7 @@
         <v>165</v>
       </c>
       <c r="B127" s="1">
-        <v>40658.815578703703</v>
+        <v>42120.815578703703</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
@@ -6534,7 +6579,7 @@
         <v>165</v>
       </c>
       <c r="B128" s="1">
-        <v>40658.824513888889</v>
+        <v>42120.824513888889</v>
       </c>
       <c r="C128" t="s">
         <v>128</v>
@@ -6578,7 +6623,7 @@
         <v>165</v>
       </c>
       <c r="B129" s="1">
-        <v>40658.838333333333</v>
+        <v>42120.838333333333</v>
       </c>
       <c r="C129" t="s">
         <v>128</v>
@@ -6622,7 +6667,7 @@
         <v>165</v>
       </c>
       <c r="B130" s="1">
-        <v>40658.874039351853</v>
+        <v>42120.874039351853</v>
       </c>
       <c r="C130" t="s">
         <v>128</v>
@@ -6666,7 +6711,7 @@
         <v>165</v>
       </c>
       <c r="B131" s="1">
-        <v>40658.947094907409</v>
+        <v>42120.947094907409</v>
       </c>
       <c r="C131" t="s">
         <v>128</v>
@@ -6710,7 +6755,7 @@
         <v>173</v>
       </c>
       <c r="B132" s="1">
-        <v>40699.796435185184</v>
+        <v>42161.796435185184</v>
       </c>
       <c r="C132" t="s">
         <v>174</v>
@@ -6748,7 +6793,7 @@
         <v>173</v>
       </c>
       <c r="B133" s="1">
-        <v>40699.934270833335</v>
+        <v>42161.934270833335</v>
       </c>
       <c r="C133" t="s">
         <v>174</v>
@@ -6786,7 +6831,7 @@
         <v>173</v>
       </c>
       <c r="B134" s="1">
-        <v>40699.951678240737</v>
+        <v>42161.951678240737</v>
       </c>
       <c r="C134" t="s">
         <v>174</v>
@@ -6824,7 +6869,7 @@
         <v>173</v>
       </c>
       <c r="B135" s="1">
-        <v>40700.261076388888</v>
+        <v>42162.261076388888</v>
       </c>
       <c r="C135" t="s">
         <v>174</v>
@@ -6859,46 +6904,40 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B136" s="1">
-        <v>40699.592685185184</v>
+        <v>42162.667824074073</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D136">
-        <v>853.95600000000002</v>
+        <v>11.6619999999999</v>
       </c>
       <c r="E136">
-        <v>11.973000000000001</v>
+        <v>5.7999999999999802E-2</v>
       </c>
       <c r="F136">
-        <v>301.11500000000001</v>
+        <v>11.712999999999701</v>
       </c>
       <c r="G136">
-        <v>5573</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0.66626236129503302</v>
+        <v>0.54210109176232901</v>
       </c>
       <c r="J136" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K136" t="s">
-        <v>180</v>
-      </c>
-      <c r="M136" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="N136" t="s">
-        <v>181</v>
-      </c>
-      <c r="O136" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -6906,34 +6945,34 @@
         <v>179</v>
       </c>
       <c r="B137" s="1">
-        <v>40699.861921296295</v>
+        <v>42161.592685185184</v>
       </c>
       <c r="C137" t="s">
         <v>30</v>
       </c>
       <c r="D137">
-        <v>2765.0250000000001</v>
+        <v>853.95600000000002</v>
       </c>
       <c r="E137">
-        <v>29.762</v>
+        <v>11.973000000000001</v>
       </c>
       <c r="F137">
-        <v>776.72</v>
+        <v>301.11500000000001</v>
       </c>
       <c r="G137">
-        <v>13927</v>
+        <v>5573</v>
       </c>
       <c r="H137">
         <v>94</v>
       </c>
       <c r="I137">
-        <v>0.623107636466533</v>
+        <v>0.66626236129503302</v>
       </c>
       <c r="J137" t="s">
         <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M137" t="s">
         <v>40</v>
@@ -6947,46 +6986,46 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B138" s="1">
-        <v>40699.707442129627</v>
+        <v>42161.861921296295</v>
       </c>
       <c r="C138" t="s">
         <v>30</v>
       </c>
       <c r="D138">
-        <v>1177.08</v>
+        <v>2765.0250000000001</v>
       </c>
       <c r="E138">
-        <v>17.669</v>
+        <v>29.762</v>
       </c>
       <c r="F138">
-        <v>331.49</v>
+        <v>776.72</v>
       </c>
       <c r="G138">
-        <v>5573</v>
+        <v>13927</v>
       </c>
       <c r="H138">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I138">
-        <v>0.60818851565530396</v>
+        <v>0.623107636466533</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M138" t="s">
         <v>40</v>
       </c>
       <c r="N138" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O138" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -6994,34 +7033,34 @@
         <v>183</v>
       </c>
       <c r="B139" s="1">
-        <v>40699.930277777778</v>
+        <v>42161.707442129627</v>
       </c>
       <c r="C139" t="s">
         <v>30</v>
       </c>
       <c r="D139">
-        <v>17341.705000000002</v>
+        <v>1177.08</v>
       </c>
       <c r="E139">
-        <v>124.589</v>
+        <v>17.669</v>
       </c>
       <c r="F139">
-        <v>4701.299</v>
+        <v>331.49</v>
       </c>
       <c r="G139">
-        <v>13926</v>
+        <v>5573</v>
       </c>
       <c r="H139">
         <v>112</v>
       </c>
       <c r="I139">
-        <v>0.56554001799711895</v>
+        <v>0.60818851565530396</v>
       </c>
       <c r="J139" t="s">
         <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M139" t="s">
         <v>40</v>
@@ -7038,19 +7077,19 @@
         <v>183</v>
       </c>
       <c r="B140" s="1">
-        <v>40700.244930555556</v>
+        <v>42161.930277777778</v>
       </c>
       <c r="C140" t="s">
         <v>30</v>
       </c>
       <c r="D140">
-        <v>2509.1959999999999</v>
+        <v>17341.705000000002</v>
       </c>
       <c r="E140">
-        <v>27.016999999999999</v>
+        <v>124.589</v>
       </c>
       <c r="F140">
-        <v>865.4</v>
+        <v>4701.299</v>
       </c>
       <c r="G140">
         <v>13926</v>
@@ -7059,13 +7098,13 @@
         <v>112</v>
       </c>
       <c r="I140">
-        <v>0.55931398293880896</v>
+        <v>0.56554001799711895</v>
       </c>
       <c r="J140" t="s">
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M140" t="s">
         <v>40</v>
@@ -7079,510 +7118,576 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B141" s="1">
-        <v>40699.571192129632</v>
+        <v>42162.244930555556</v>
       </c>
       <c r="C141" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D141">
-        <v>871.49900000000002</v>
+        <v>2509.1959999999999</v>
       </c>
       <c r="E141">
-        <v>8.6029999999999998</v>
+        <v>27.016999999999999</v>
       </c>
       <c r="F141">
-        <v>241.07300000000001</v>
+        <v>865.4</v>
       </c>
       <c r="G141">
-        <v>5573</v>
+        <v>13926</v>
       </c>
       <c r="H141">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I141">
-        <v>0.68809918722022201</v>
+        <v>0.55931398293880896</v>
       </c>
       <c r="J141" t="s">
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="M141" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N141" t="s">
+        <v>185</v>
       </c>
       <c r="O141" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B142" s="1">
-        <v>40699.850671296299</v>
+        <v>42162.626851851855</v>
       </c>
       <c r="C142" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D142">
-        <v>2617.5419999999999</v>
+        <v>2790.47</v>
       </c>
       <c r="E142">
-        <v>22.308</v>
+        <v>29.757000000000001</v>
       </c>
       <c r="F142">
-        <v>818.97400000000005</v>
+        <v>911.73700000000099</v>
       </c>
       <c r="G142">
-        <v>13927</v>
+        <v>13926</v>
       </c>
       <c r="H142">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="I142">
-        <v>0.62943452506077502</v>
+        <v>0.55557532293027601</v>
       </c>
       <c r="J142" t="s">
         <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="M142" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N142" t="s">
+        <v>185</v>
       </c>
       <c r="O142" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B143" s="1">
-        <v>40699.695405092592</v>
+        <v>42162.543749999997</v>
       </c>
       <c r="C143" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D143">
-        <v>972.75899999999899</v>
+        <v>2132.36</v>
       </c>
       <c r="E143">
-        <v>9.8089999999999993</v>
+        <v>22.695</v>
       </c>
       <c r="F143">
-        <v>246.960000000001</v>
+        <v>761.02200000000005</v>
       </c>
       <c r="G143">
-        <v>5573</v>
+        <v>13927</v>
       </c>
       <c r="H143">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I143">
-        <v>0.66506875332002702</v>
+        <v>0.62151911209008603</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M143" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N143" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O143" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B144" s="1">
-        <v>40699.868159722224</v>
+        <v>42162.553344907406</v>
       </c>
       <c r="C144" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D144">
-        <v>206.69200000000001</v>
+        <v>2150.2109999999998</v>
       </c>
       <c r="E144">
-        <v>0.64200000000000002</v>
+        <v>25.023</v>
       </c>
       <c r="F144">
-        <v>207.304</v>
+        <v>740.88699999999994</v>
       </c>
       <c r="G144">
-        <v>13926</v>
+        <v>13927</v>
       </c>
       <c r="H144">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I144">
-        <v>0.62311786296301297</v>
+        <v>0.62559520441015104</v>
       </c>
       <c r="J144" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K144" t="s">
-        <v>191</v>
-      </c>
-      <c r="L144" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M144" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="N144" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O144" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B145" s="1">
-        <v>40642.007476851853</v>
+        <v>42162.563090277778</v>
       </c>
       <c r="C145" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="D145">
-        <v>315.97500000000002</v>
+        <v>2164.366</v>
       </c>
       <c r="E145">
-        <v>29.097000000000001</v>
+        <v>23.768999999999998</v>
       </c>
       <c r="F145">
-        <v>323.35300000000001</v>
+        <v>756.34500000000003</v>
       </c>
       <c r="G145">
-        <v>7426</v>
+        <v>13927</v>
       </c>
       <c r="H145">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I145">
-        <v>1.59003529389746</v>
+        <v>0.61301514600863105</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="M145" t="s">
+        <v>198</v>
+      </c>
+      <c r="N145" t="s">
+        <v>199</v>
       </c>
       <c r="O145" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B146" s="1">
-        <v>40644.830034722225</v>
+        <v>42162.574155092596</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="D146">
-        <v>72.912000000000006</v>
+        <v>2176.8040000000001</v>
       </c>
       <c r="E146">
-        <v>2.387</v>
+        <v>24.056999999999999</v>
       </c>
       <c r="F146">
-        <v>74.873000000000005</v>
+        <v>759.88499999999999</v>
       </c>
       <c r="G146">
-        <v>7426</v>
+        <v>13927</v>
       </c>
       <c r="H146">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I146">
-        <v>1.58129073532396</v>
+        <v>0.61792130927522304</v>
+      </c>
+      <c r="J146" t="s">
+        <v>21</v>
       </c>
       <c r="K146" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="M146" t="s">
+        <v>201</v>
+      </c>
+      <c r="N146" t="s">
+        <v>202</v>
       </c>
       <c r="O146" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B147" s="1">
-        <v>40644.84652777778</v>
+        <v>42161.571192129632</v>
       </c>
       <c r="C147" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="D147">
-        <v>15.842000000000001</v>
+        <v>871.49900000000002</v>
       </c>
       <c r="E147">
-        <v>0.49100000000000099</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="F147">
-        <v>36.243999999999701</v>
+        <v>241.07300000000001</v>
       </c>
       <c r="G147">
-        <v>7426</v>
+        <v>5573</v>
       </c>
       <c r="H147">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I147">
-        <v>1.5374895271743101</v>
+        <v>0.68809918722022201</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>197</v>
+        <v>137</v>
+      </c>
+      <c r="M147" t="s">
+        <v>131</v>
       </c>
       <c r="O147" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B148" s="1">
-        <v>40644.848807870374</v>
+        <v>42161.850671296299</v>
       </c>
       <c r="C148" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="D148">
-        <v>15.901</v>
+        <v>2617.5419999999999</v>
       </c>
       <c r="E148">
-        <v>0.44700000000000101</v>
+        <v>22.308</v>
       </c>
       <c r="F148">
-        <v>36.188000000000102</v>
+        <v>818.97400000000005</v>
       </c>
       <c r="G148">
-        <v>7426</v>
+        <v>13927</v>
       </c>
       <c r="H148">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I148">
-        <v>1.5374895271743101</v>
+        <v>0.62943452506077502</v>
+      </c>
+      <c r="J148" t="s">
+        <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>197</v>
+        <v>137</v>
+      </c>
+      <c r="M148" t="s">
+        <v>131</v>
       </c>
       <c r="O148" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B149" s="1">
-        <v>40644.853368055556</v>
+        <v>42161.695405092592</v>
       </c>
       <c r="C149" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="D149">
-        <v>15.009</v>
+        <v>972.75899999999899</v>
       </c>
       <c r="E149">
-        <v>0.57799999999999896</v>
+        <v>9.8089999999999993</v>
       </c>
       <c r="F149">
-        <v>114.17400000000001</v>
+        <v>246.960000000001</v>
       </c>
       <c r="G149">
-        <v>7426</v>
+        <v>5573</v>
       </c>
       <c r="H149">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I149">
-        <v>1.5939681680293001</v>
+        <v>0.66506875332002702</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+      <c r="M149" t="s">
+        <v>131</v>
+      </c>
+      <c r="N149" t="s">
+        <v>206</v>
       </c>
       <c r="O149" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B150" s="1">
-        <v>40644.856076388889</v>
+        <v>42161.868159722224</v>
       </c>
       <c r="C150" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="D150">
-        <v>15.125</v>
+        <v>206.69200000000001</v>
       </c>
       <c r="E150">
-        <v>0.54299999999999904</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="F150">
-        <v>116.895</v>
+        <v>207.304</v>
       </c>
       <c r="G150">
-        <v>7426</v>
+        <v>13926</v>
       </c>
       <c r="H150">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I150">
-        <v>1.5939681680293001</v>
+        <v>0.62311786296301297</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
       </c>
       <c r="K150" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+      <c r="L150" t="s">
+        <v>205</v>
+      </c>
+      <c r="M150" t="s">
+        <v>131</v>
+      </c>
+      <c r="N150" t="s">
+        <v>206</v>
       </c>
       <c r="O150" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B151" s="1">
-        <v>40644.859270833331</v>
+        <v>42162.614976851852</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="D151">
-        <v>14.928000000000001</v>
+        <v>238.864</v>
       </c>
       <c r="E151">
-        <v>0.40100000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F151">
-        <v>15.249000000000301</v>
+        <v>239.37900000000101</v>
       </c>
       <c r="G151">
-        <v>7426</v>
+        <v>13926</v>
       </c>
       <c r="H151">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="I151">
-        <v>1.57773355605539</v>
+        <v>0.56686356751435596</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
       </c>
       <c r="K151" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+      <c r="L151" t="s">
+        <v>207</v>
+      </c>
+      <c r="M151" t="s">
+        <v>131</v>
+      </c>
+      <c r="N151" t="s">
+        <v>206</v>
       </c>
       <c r="O151" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B152" s="1">
-        <v>40644.861122685186</v>
+        <v>42104.007476851853</v>
       </c>
       <c r="C152" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D152">
-        <v>16.733000000000001</v>
+        <v>315.97500000000002</v>
       </c>
       <c r="E152">
-        <v>0.47099999999999997</v>
+        <v>29.097000000000001</v>
       </c>
       <c r="F152">
-        <v>17.1170000000002</v>
+        <v>323.35300000000001</v>
       </c>
       <c r="G152">
         <v>7426</v>
       </c>
       <c r="H152">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I152">
-        <v>1.56821048218277</v>
+        <v>1.59003529389746</v>
       </c>
       <c r="K152" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O152" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B153" s="1">
-        <v>40644.862372685187</v>
+        <v>42106.830034722225</v>
       </c>
       <c r="C153" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D153">
-        <v>17.763000000000002</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="E153">
-        <v>0.49</v>
+        <v>2.387</v>
       </c>
       <c r="F153">
-        <v>18.158000000000399</v>
+        <v>74.873000000000005</v>
       </c>
       <c r="G153">
         <v>7426</v>
       </c>
       <c r="H153">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I153">
-        <v>1.6500830141598</v>
+        <v>1.58129073532396</v>
       </c>
       <c r="K153" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O153" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B154" s="1">
-        <v>40644.863437499997</v>
+        <v>42106.84652777778</v>
       </c>
       <c r="C154" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D154">
-        <v>15.666</v>
+        <v>15.842000000000001</v>
       </c>
       <c r="E154">
-        <v>0.47699999999999998</v>
+        <v>0.49100000000000099</v>
       </c>
       <c r="F154">
-        <v>16.0569999999998</v>
+        <v>36.243999999999701</v>
       </c>
       <c r="G154">
         <v>7426</v>
@@ -7591,10 +7696,10 @@
         <v>80</v>
       </c>
       <c r="I154">
-        <v>1.54316586262694</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K154" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O154" t="s">
         <v>32</v>
@@ -7602,34 +7707,34 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B155" s="1">
-        <v>40644.868576388886</v>
+        <v>42106.848807870374</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D155">
-        <v>54.494999999999997</v>
+        <v>15.901</v>
       </c>
       <c r="E155">
-        <v>1.0149999999999999</v>
+        <v>0.44700000000000101</v>
       </c>
       <c r="F155">
-        <v>55.336000000000197</v>
+        <v>36.188000000000102</v>
       </c>
       <c r="G155">
-        <v>14852</v>
+        <v>7426</v>
       </c>
       <c r="H155">
         <v>80</v>
       </c>
       <c r="I155">
-        <v>1.8013924389029601</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K155" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O155" t="s">
         <v>32</v>
@@ -7637,34 +7742,34 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B156" s="1">
-        <v>40644.876087962963</v>
+        <v>42106.853368055556</v>
       </c>
       <c r="C156" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D156">
-        <v>46.767000000000102</v>
+        <v>15.009</v>
       </c>
       <c r="E156">
-        <v>1.6379999999999999</v>
+        <v>0.57799999999999896</v>
       </c>
       <c r="F156">
-        <v>553.19600000000003</v>
+        <v>114.17400000000001</v>
       </c>
       <c r="G156">
-        <v>14852</v>
+        <v>7426</v>
       </c>
       <c r="H156">
         <v>80</v>
       </c>
       <c r="I156">
-        <v>1.6284161515828499</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K156" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="O156" t="s">
         <v>32</v>
@@ -7672,34 +7777,34 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B157" s="1">
-        <v>40644.890833333331</v>
+        <v>42106.856076388889</v>
       </c>
       <c r="C157" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D157">
-        <v>94.869</v>
+        <v>15.125</v>
       </c>
       <c r="E157">
-        <v>3.2869999999999999</v>
+        <v>0.54299999999999904</v>
       </c>
       <c r="F157">
-        <v>1216.4549999999999</v>
+        <v>116.895</v>
       </c>
       <c r="G157">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H157">
         <v>80</v>
       </c>
       <c r="I157">
-        <v>1.58337486055827</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K157" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="O157" t="s">
         <v>32</v>
@@ -7707,34 +7812,34 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B158" s="1">
-        <v>40644.980844907404</v>
+        <v>42106.859270833331</v>
       </c>
       <c r="C158" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D158">
-        <v>95.006</v>
+        <v>14.928000000000001</v>
       </c>
       <c r="E158">
-        <v>3.335</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F158">
-        <v>1510.02</v>
+        <v>15.249000000000301</v>
       </c>
       <c r="G158">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H158">
         <v>80</v>
       </c>
       <c r="I158">
-        <v>1.5833199935014</v>
+        <v>1.57773355605539</v>
       </c>
       <c r="K158" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="O158" t="s">
         <v>32</v>
@@ -7742,104 +7847,104 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B159" s="1">
-        <v>40645.289965277778</v>
+        <v>42106.861122685186</v>
       </c>
       <c r="C159" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D159">
-        <v>126.211</v>
+        <v>16.733000000000001</v>
       </c>
       <c r="E159">
-        <v>1.462</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F159">
-        <v>127.443</v>
+        <v>17.1170000000002</v>
       </c>
       <c r="G159">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H159">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I159">
-        <v>1.92982759815376</v>
+        <v>1.56821048218277</v>
       </c>
       <c r="K159" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="O159" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B160" s="1">
-        <v>40645.295682870368</v>
+        <v>42106.862372685187</v>
       </c>
       <c r="C160" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D160">
-        <v>91.376999999999995</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="E160">
-        <v>1.498</v>
+        <v>0.49</v>
       </c>
       <c r="F160">
-        <v>92.478999999999999</v>
+        <v>18.158000000000399</v>
       </c>
       <c r="G160">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H160">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I160">
-        <v>1.58384242553734</v>
+        <v>1.6500830141598</v>
       </c>
       <c r="K160" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="O160" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B161" s="1">
-        <v>40645.301527777781</v>
+        <v>42106.863437499997</v>
       </c>
       <c r="C161" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D161">
-        <v>230.64400000000001</v>
+        <v>15.666</v>
       </c>
       <c r="E161">
-        <v>3.0230000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F161">
-        <v>232.80799999999999</v>
+        <v>16.0569999999998</v>
       </c>
       <c r="G161">
-        <v>37131</v>
+        <v>7426</v>
       </c>
       <c r="H161">
         <v>80</v>
       </c>
       <c r="I161">
-        <v>1.60920568515367</v>
+        <v>1.54316586262694</v>
       </c>
       <c r="K161" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="O161" t="s">
         <v>32</v>
@@ -7847,43 +7952,34 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B162" s="1">
-        <v>40647.907395833332</v>
+        <v>42106.868576388886</v>
       </c>
       <c r="C162" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D162">
-        <v>12.09</v>
+        <v>54.494999999999997</v>
       </c>
       <c r="E162">
-        <v>0.53400000000000003</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F162">
-        <v>12.579999999999901</v>
+        <v>55.336000000000197</v>
       </c>
       <c r="G162">
-        <v>1856</v>
+        <v>14852</v>
       </c>
       <c r="H162">
         <v>80</v>
       </c>
       <c r="I162">
-        <v>1.66250101299196</v>
-      </c>
-      <c r="J162" t="s">
-        <v>21</v>
+        <v>1.8013924389029601</v>
       </c>
       <c r="K162" t="s">
-        <v>199</v>
-      </c>
-      <c r="L162" t="s">
-        <v>200</v>
-      </c>
-      <c r="M162" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="O162" t="s">
         <v>32</v>
@@ -7891,43 +7987,34 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B163" s="1">
-        <v>40647.90828703704</v>
+        <v>42106.876087962963</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D163">
-        <v>20.206</v>
+        <v>46.767000000000102</v>
       </c>
       <c r="E163">
-        <v>1.0740000000000001</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F163">
-        <v>21.203000000000401</v>
+        <v>553.19600000000003</v>
       </c>
       <c r="G163">
-        <v>1856</v>
+        <v>14852</v>
       </c>
       <c r="H163">
         <v>80</v>
       </c>
       <c r="I163">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J163" t="s">
-        <v>21</v>
+        <v>1.6284161515828499</v>
       </c>
       <c r="K163" t="s">
-        <v>202</v>
-      </c>
-      <c r="L163" t="s">
-        <v>203</v>
-      </c>
-      <c r="M163" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O163" t="s">
         <v>32</v>
@@ -7935,43 +8022,34 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B164" s="1">
-        <v>40647.910219907404</v>
+        <v>42106.890833333331</v>
       </c>
       <c r="C164" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D164">
-        <v>20.748999999999999</v>
+        <v>94.869</v>
       </c>
       <c r="E164">
-        <v>1.0349999999999999</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F164">
-        <v>21.721999999999799</v>
+        <v>1216.4549999999999</v>
       </c>
       <c r="G164">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H164">
         <v>80</v>
       </c>
       <c r="I164">
-        <v>1</v>
-      </c>
-      <c r="J164" t="s">
-        <v>17</v>
+        <v>1.58337486055827</v>
       </c>
       <c r="K164" t="s">
-        <v>202</v>
-      </c>
-      <c r="L164" t="s">
-        <v>203</v>
-      </c>
-      <c r="M164" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O164" t="s">
         <v>32</v>
@@ -7979,43 +8057,34 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B165" s="1">
-        <v>40647.911585648151</v>
+        <v>42106.980844907404</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D165">
-        <v>20.614000000000001</v>
+        <v>95.006</v>
       </c>
       <c r="E165">
-        <v>1.004</v>
+        <v>3.335</v>
       </c>
       <c r="F165">
-        <v>21.542999999999701</v>
+        <v>1510.02</v>
       </c>
       <c r="G165">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H165">
         <v>80</v>
       </c>
       <c r="I165">
-        <v>0.99</v>
-      </c>
-      <c r="J165" t="s">
-        <v>17</v>
+        <v>1.5833199935014</v>
       </c>
       <c r="K165" t="s">
-        <v>202</v>
-      </c>
-      <c r="L165" t="s">
-        <v>203</v>
-      </c>
-      <c r="M165" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O165" t="s">
         <v>32</v>
@@ -8023,43 +8092,34 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B166" s="1">
-        <v>40647.918564814812</v>
+        <v>42107.289965277778</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D166">
-        <v>20.510999999999999</v>
+        <v>126.211</v>
       </c>
       <c r="E166">
-        <v>1.0049999999999999</v>
+        <v>1.462</v>
       </c>
       <c r="F166">
-        <v>21.440000000000499</v>
+        <v>127.443</v>
       </c>
       <c r="G166">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H166">
         <v>80</v>
       </c>
       <c r="I166">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J166" t="s">
-        <v>21</v>
+        <v>1.92982759815376</v>
       </c>
       <c r="K166" t="s">
-        <v>202</v>
-      </c>
-      <c r="L166" t="s">
-        <v>203</v>
-      </c>
-      <c r="M166" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="O166" t="s">
         <v>32</v>
@@ -8067,40 +8127,34 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B167" s="1">
-        <v>40659.844583333332</v>
+        <v>42107.295682870368</v>
       </c>
       <c r="C167" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D167">
-        <v>3.0630000000000002</v>
+        <v>91.376999999999995</v>
       </c>
       <c r="E167">
-        <v>0.26600000000000001</v>
+        <v>1.498</v>
       </c>
       <c r="F167">
-        <v>93.864000000000502</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="G167">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H167">
         <v>80</v>
       </c>
       <c r="I167">
-        <v>1.6325571524315501</v>
-      </c>
-      <c r="J167" t="s">
-        <v>21</v>
+        <v>1.58384242553734</v>
       </c>
       <c r="K167" t="s">
-        <v>205</v>
-      </c>
-      <c r="N167" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O167" t="s">
         <v>32</v>
@@ -8108,339 +8162,336 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B168" s="1">
-        <v>40659.847118055557</v>
+        <v>42107.301527777781</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D168">
-        <v>2.976</v>
+        <v>230.64400000000001</v>
       </c>
       <c r="E168">
-        <v>0.28299999999999997</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="F168">
-        <v>100.997</v>
+        <v>232.80799999999999</v>
       </c>
       <c r="G168">
-        <v>1856</v>
+        <v>37131</v>
       </c>
       <c r="H168">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I168">
-        <v>1.5866800350352499</v>
-      </c>
-      <c r="J168" t="s">
-        <v>21</v>
+        <v>1.60920568515367</v>
       </c>
       <c r="K168" t="s">
-        <v>207</v>
-      </c>
-      <c r="N168" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O168" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B169" s="1">
-        <v>40659.848344907405</v>
+        <v>42109.907395833332</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D169">
-        <v>2.48</v>
+        <v>12.09</v>
       </c>
       <c r="E169">
-        <v>0.13899999999999901</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F169">
-        <v>9.2620000000006293</v>
+        <v>12.579999999999901</v>
       </c>
       <c r="G169">
         <v>1856</v>
       </c>
       <c r="H169">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I169">
-        <v>1.5317169256021399</v>
+        <v>1.66250101299196</v>
       </c>
       <c r="J169" t="s">
         <v>21</v>
       </c>
       <c r="K169" t="s">
-        <v>208</v>
-      </c>
-      <c r="N169" t="s">
-        <v>206</v>
+        <v>214</v>
+      </c>
+      <c r="L169" t="s">
+        <v>215</v>
+      </c>
+      <c r="M169" t="s">
+        <v>216</v>
       </c>
       <c r="O169" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B170" s="1">
-        <v>40659.85193287037</v>
+        <v>42109.90828703704</v>
       </c>
       <c r="C170" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D170">
-        <v>2.46599999999999</v>
+        <v>20.206</v>
       </c>
       <c r="E170">
-        <v>0.154</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="F170">
-        <v>20.613000000000302</v>
+        <v>21.203000000000401</v>
       </c>
       <c r="G170">
         <v>1856</v>
       </c>
       <c r="H170">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I170">
-        <v>1.5324814378691001</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J170" t="s">
         <v>21</v>
       </c>
       <c r="K170" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L170" t="s">
-        <v>210</v>
-      </c>
-      <c r="N170" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="M170" t="s">
+        <v>216</v>
       </c>
       <c r="O170" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B171" s="1">
-        <v>40659.853425925925</v>
+        <v>42109.910219907404</v>
       </c>
       <c r="C171" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D171">
-        <v>5.2539999999999996</v>
+        <v>20.748999999999999</v>
       </c>
       <c r="E171">
-        <v>0.26300000000000001</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="F171">
-        <v>43.096000000000501</v>
+        <v>21.721999999999799</v>
       </c>
       <c r="G171">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H171">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I171">
-        <v>1.67947876411185</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K171" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L171" t="s">
-        <v>210</v>
-      </c>
-      <c r="N171" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="M171" t="s">
+        <v>216</v>
       </c>
       <c r="O171" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B172" s="1">
-        <v>40659.854687500003</v>
+        <v>42109.911585648151</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D172">
-        <v>5.2880000000000003</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="E172">
-        <v>0.29799999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="F172">
-        <v>58.8149999999996</v>
+        <v>21.542999999999701</v>
       </c>
       <c r="G172">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H172">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I172">
-        <v>1.67947876411185</v>
+        <v>0.99</v>
       </c>
       <c r="J172" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K172" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L172" t="s">
-        <v>212</v>
-      </c>
-      <c r="N172" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="M172" t="s">
+        <v>216</v>
       </c>
       <c r="O172" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B173" s="1">
-        <v>40659.856979166667</v>
+        <v>42109.918564814812</v>
       </c>
       <c r="C173" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D173">
-        <v>9.4990000000000094</v>
+        <v>20.510999999999999</v>
       </c>
       <c r="E173">
-        <v>0.66600000000000004</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F173">
-        <v>45.574000000000503</v>
+        <v>21.440000000000499</v>
       </c>
       <c r="G173">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H173">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I173">
-        <v>1.6391630597812601</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J173" t="s">
         <v>21</v>
       </c>
       <c r="K173" t="s">
-        <v>213</v>
-      </c>
-      <c r="N173" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="L173" t="s">
+        <v>218</v>
+      </c>
+      <c r="M173" t="s">
+        <v>216</v>
       </c>
       <c r="O173" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B174" s="1">
-        <v>40659.860312500001</v>
+        <v>42121.844583333332</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D174">
-        <v>9.7119999999999909</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="E174">
-        <v>0.70799999999999996</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F174">
-        <v>46.558</v>
+        <v>93.864000000000502</v>
       </c>
       <c r="G174">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H174">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I174">
-        <v>1.6391630597812601</v>
+        <v>1.6325571524315501</v>
       </c>
       <c r="J174" t="s">
         <v>21</v>
       </c>
       <c r="K174" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N174" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O174" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B175" s="1">
-        <v>40659.863749999997</v>
+        <v>42121.847118055557</v>
       </c>
       <c r="C175" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D175">
-        <v>5.5699999999999896</v>
+        <v>2.976</v>
       </c>
       <c r="E175">
-        <v>0.30600000000000099</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F175">
-        <v>60.558</v>
+        <v>100.997</v>
       </c>
       <c r="G175">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H175">
         <v>93</v>
       </c>
       <c r="I175">
-        <v>1.5823919857797799</v>
+        <v>1.5866800350352499</v>
       </c>
       <c r="J175" t="s">
         <v>21</v>
       </c>
       <c r="K175" t="s">
-        <v>215</v>
-      </c>
-      <c r="L175" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N175" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O175" t="s">
         <v>39</v>
@@ -8448,379 +8499,678 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B176" s="1">
-        <v>40659.86519675926</v>
+        <v>42121.848344907405</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D176">
-        <v>4.8290000000000104</v>
+        <v>2.48</v>
       </c>
       <c r="E176">
-        <v>0.30399999999999799</v>
+        <v>0.13899999999999901</v>
       </c>
       <c r="F176">
-        <v>55.797999999999803</v>
+        <v>9.2620000000006293</v>
       </c>
       <c r="G176">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H176">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I176">
-        <v>1.6568002530577599</v>
+        <v>1.5317169256021399</v>
       </c>
       <c r="J176" t="s">
         <v>21</v>
       </c>
       <c r="K176" t="s">
-        <v>216</v>
-      </c>
-      <c r="L176" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="N176" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O176" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B177" s="1">
-        <v>40659.867673611108</v>
+        <v>42121.85193287037</v>
       </c>
       <c r="C177" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D177">
-        <v>4.9149999999999903</v>
+        <v>2.46599999999999</v>
       </c>
       <c r="E177">
-        <v>0.315999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="F177">
-        <v>62.327999999999498</v>
+        <v>20.613000000000302</v>
       </c>
       <c r="G177">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H177">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I177">
-        <v>1.65692310884533</v>
+        <v>1.5324814378691001</v>
       </c>
       <c r="J177" t="s">
         <v>21</v>
       </c>
       <c r="K177" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L177" t="s">
-        <v>212</v>
-      </c>
-      <c r="M177" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N177" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O177" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B178" s="1">
-        <v>40659.869687500002</v>
+        <v>42121.853425925925</v>
       </c>
       <c r="C178" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D178">
-        <v>4.9019999999999904</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="E178">
-        <v>0.30499999999999999</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F178">
-        <v>52.561000000000597</v>
+        <v>43.096000000000501</v>
       </c>
       <c r="G178">
         <v>3713</v>
       </c>
       <c r="H178">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I178">
-        <v>1.65804340818409</v>
+        <v>1.67947876411185</v>
       </c>
       <c r="J178" t="s">
         <v>21</v>
       </c>
       <c r="K178" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L178" t="s">
-        <v>218</v>
-      </c>
-      <c r="M178" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N178" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O178" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B179" s="1">
-        <v>40661.520416666666</v>
+        <v>42121.854687500003</v>
       </c>
       <c r="C179" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D179">
-        <v>147.87</v>
+        <v>5.2880000000000003</v>
       </c>
       <c r="E179">
-        <v>0.47</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F179">
-        <v>149.09</v>
+        <v>58.8149999999996</v>
       </c>
       <c r="G179">
-        <v>1861</v>
+        <v>3713</v>
       </c>
       <c r="H179">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I179">
-        <v>0.879687868181247</v>
+        <v>1.67947876411185</v>
       </c>
       <c r="J179" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K179" t="s">
-        <v>220</v>
+        <v>226</v>
+      </c>
+      <c r="L179" t="s">
+        <v>227</v>
       </c>
       <c r="N179" t="s">
         <v>221</v>
       </c>
       <c r="O179" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B180" s="1">
-        <v>40661.526898148149</v>
+        <v>42121.856979166667</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D180">
-        <v>437.02</v>
+        <v>9.4990000000000094</v>
       </c>
       <c r="E180">
-        <v>2.4500000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F180">
-        <v>440.29</v>
+        <v>45.574000000000503</v>
       </c>
       <c r="G180">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="H180">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I180">
-        <v>0.816933944528761</v>
+        <v>1.6391630597812601</v>
       </c>
       <c r="J180" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K180" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N180" t="s">
         <v>221</v>
       </c>
       <c r="O180" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B181" s="1">
-        <v>40661.551562499997</v>
+        <v>42121.860312500001</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D181">
-        <v>1400.45</v>
+        <v>9.7119999999999909</v>
       </c>
       <c r="E181">
-        <v>11.27</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="F181">
-        <v>1413.65</v>
+        <v>46.558</v>
       </c>
       <c r="G181">
-        <v>7429</v>
+        <v>3713</v>
       </c>
       <c r="H181">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I181">
-        <v>0.75435019649979396</v>
+        <v>1.6391630597812601</v>
       </c>
       <c r="J181" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K181" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N181" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O181" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B182" s="1">
-        <v>40661.621365740742</v>
+        <v>42121.863749999997</v>
       </c>
       <c r="C182" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D182">
-        <v>3097.3</v>
+        <v>5.5699999999999896</v>
       </c>
       <c r="E182">
-        <v>23.74</v>
+        <v>0.30600000000000099</v>
       </c>
       <c r="F182">
-        <v>3132.3</v>
+        <v>60.558</v>
       </c>
       <c r="G182">
-        <v>11144</v>
+        <v>3713</v>
       </c>
       <c r="H182">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I182">
-        <v>0.72482857368610298</v>
+        <v>1.5823919857797799</v>
       </c>
       <c r="J182" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K182" t="s">
-        <v>224</v>
+        <v>230</v>
+      </c>
+      <c r="L182" t="s">
+        <v>227</v>
       </c>
       <c r="N182" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O182" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B183" s="1">
-        <v>40652.307604166665</v>
+        <v>42121.86519675926</v>
       </c>
       <c r="C183" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D183">
-        <v>4.0419999999999998</v>
+        <v>4.8290000000000104</v>
       </c>
       <c r="E183">
-        <v>0.107</v>
+        <v>0.30399999999999799</v>
       </c>
       <c r="F183">
-        <v>12.631999999999801</v>
+        <v>55.797999999999803</v>
       </c>
       <c r="G183">
-        <v>1856</v>
+        <v>3713</v>
       </c>
       <c r="H183">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I183">
-        <v>1.5610810802361099</v>
+        <v>1.6568002530577599</v>
       </c>
       <c r="J183" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K183" t="s">
+        <v>231</v>
+      </c>
+      <c r="L183" t="s">
         <v>227</v>
       </c>
+      <c r="N183" t="s">
+        <v>229</v>
+      </c>
       <c r="O183" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B184" s="1">
-        <v>40652.309560185182</v>
+        <v>42121.867673611108</v>
       </c>
       <c r="C184" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D184">
-        <v>7.5640000000000001</v>
+        <v>4.9149999999999903</v>
       </c>
       <c r="E184">
-        <v>0.217</v>
+        <v>0.315999999999999</v>
       </c>
       <c r="F184">
-        <v>21.059999999999899</v>
+        <v>62.327999999999498</v>
       </c>
       <c r="G184">
         <v>3713</v>
       </c>
       <c r="H184">
+        <v>80</v>
+      </c>
+      <c r="I184">
+        <v>1.65692310884533</v>
+      </c>
+      <c r="J184" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" t="s">
+        <v>231</v>
+      </c>
+      <c r="L184" t="s">
+        <v>227</v>
+      </c>
+      <c r="M184" t="s">
+        <v>232</v>
+      </c>
+      <c r="N184" t="s">
+        <v>229</v>
+      </c>
+      <c r="O184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" t="s">
+        <v>208</v>
+      </c>
+      <c r="B185" s="1">
+        <v>42121.869687500002</v>
+      </c>
+      <c r="C185" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185">
+        <v>4.9019999999999904</v>
+      </c>
+      <c r="E185">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F185">
+        <v>52.561000000000597</v>
+      </c>
+      <c r="G185">
+        <v>3713</v>
+      </c>
+      <c r="H185">
+        <v>80</v>
+      </c>
+      <c r="I185">
+        <v>1.65804340818409</v>
+      </c>
+      <c r="J185" t="s">
+        <v>21</v>
+      </c>
+      <c r="K185" t="s">
+        <v>217</v>
+      </c>
+      <c r="L185" t="s">
+        <v>233</v>
+      </c>
+      <c r="M185" t="s">
+        <v>232</v>
+      </c>
+      <c r="N185" t="s">
+        <v>229</v>
+      </c>
+      <c r="O185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" t="s">
+        <v>234</v>
+      </c>
+      <c r="B186" s="1">
+        <v>42123.520416666666</v>
+      </c>
+      <c r="C186" t="s">
+        <v>209</v>
+      </c>
+      <c r="D186">
+        <v>147.87</v>
+      </c>
+      <c r="E186">
+        <v>0.47</v>
+      </c>
+      <c r="F186">
+        <v>149.09</v>
+      </c>
+      <c r="G186">
+        <v>1861</v>
+      </c>
+      <c r="H186">
+        <v>94</v>
+      </c>
+      <c r="I186">
+        <v>0.879687868181247</v>
+      </c>
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" t="s">
+        <v>235</v>
+      </c>
+      <c r="N186" t="s">
+        <v>236</v>
+      </c>
+      <c r="O186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
+        <v>234</v>
+      </c>
+      <c r="B187" s="1">
+        <v>42123.526898148149</v>
+      </c>
+      <c r="C187" t="s">
+        <v>209</v>
+      </c>
+      <c r="D187">
+        <v>437.02</v>
+      </c>
+      <c r="E187">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F187">
+        <v>440.29</v>
+      </c>
+      <c r="G187">
+        <v>3718</v>
+      </c>
+      <c r="H187">
+        <v>94</v>
+      </c>
+      <c r="I187">
+        <v>0.816933944528761</v>
+      </c>
+      <c r="J187" t="s">
+        <v>17</v>
+      </c>
+      <c r="K187" t="s">
+        <v>237</v>
+      </c>
+      <c r="N187" t="s">
+        <v>236</v>
+      </c>
+      <c r="O187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="1">
+        <v>42123.551562499997</v>
+      </c>
+      <c r="C188" t="s">
+        <v>209</v>
+      </c>
+      <c r="D188">
+        <v>1400.45</v>
+      </c>
+      <c r="E188">
+        <v>11.27</v>
+      </c>
+      <c r="F188">
+        <v>1413.65</v>
+      </c>
+      <c r="G188">
+        <v>7429</v>
+      </c>
+      <c r="H188">
+        <v>94</v>
+      </c>
+      <c r="I188">
+        <v>0.75435019649979396</v>
+      </c>
+      <c r="J188" t="s">
+        <v>17</v>
+      </c>
+      <c r="K188" t="s">
+        <v>238</v>
+      </c>
+      <c r="N188" t="s">
+        <v>236</v>
+      </c>
+      <c r="O188" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="1">
+        <v>42123.621365740742</v>
+      </c>
+      <c r="C189" t="s">
+        <v>209</v>
+      </c>
+      <c r="D189">
+        <v>3097.3</v>
+      </c>
+      <c r="E189">
+        <v>23.74</v>
+      </c>
+      <c r="F189">
+        <v>3132.3</v>
+      </c>
+      <c r="G189">
+        <v>11144</v>
+      </c>
+      <c r="H189">
+        <v>94</v>
+      </c>
+      <c r="I189">
+        <v>0.72482857368610298</v>
+      </c>
+      <c r="J189" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" t="s">
+        <v>239</v>
+      </c>
+      <c r="N189" t="s">
+        <v>236</v>
+      </c>
+      <c r="O189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" t="s">
+        <v>240</v>
+      </c>
+      <c r="B190" s="1">
+        <v>42114.307604166665</v>
+      </c>
+      <c r="C190" t="s">
+        <v>241</v>
+      </c>
+      <c r="D190">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="E190">
+        <v>0.107</v>
+      </c>
+      <c r="F190">
+        <v>12.631999999999801</v>
+      </c>
+      <c r="G190">
+        <v>1856</v>
+      </c>
+      <c r="H190">
         <v>93</v>
       </c>
-      <c r="I184">
+      <c r="I190">
+        <v>1.5610810802361099</v>
+      </c>
+      <c r="J190" t="s">
+        <v>17</v>
+      </c>
+      <c r="K190" t="s">
+        <v>242</v>
+      </c>
+      <c r="O190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" t="s">
+        <v>240</v>
+      </c>
+      <c r="B191" s="1">
+        <v>42114.309560185182</v>
+      </c>
+      <c r="C191" t="s">
+        <v>241</v>
+      </c>
+      <c r="D191">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="E191">
+        <v>0.217</v>
+      </c>
+      <c r="F191">
+        <v>21.059999999999899</v>
+      </c>
+      <c r="G191">
+        <v>3713</v>
+      </c>
+      <c r="H191">
+        <v>93</v>
+      </c>
+      <c r="I191">
         <v>1.47755844028469</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J191" t="s">
         <v>17</v>
       </c>
-      <c r="K184" t="s">
-        <v>227</v>
-      </c>
-      <c r="O184" t="s">
+      <c r="K191" t="s">
+        <v>242</v>
+      </c>
+      <c r="O191" t="s">
         <v>39</v>
       </c>
     </row>

--- a/model_results/ConsolidatedModelPerformance.xlsx
+++ b/model_results/ConsolidatedModelPerformance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="520" windowWidth="25040" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ConsolidatedModelPerformance.ts" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelPerformance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="248">
   <si>
     <t>dir</t>
   </si>
@@ -558,6 +558,12 @@
     <t>rf1_2=0.507830273246935,gbm1_2=0.492169660667343</t>
   </si>
   <si>
+    <t>rf1_2=0.50152906915508,gbm1_2=0.498470991769966</t>
+  </si>
+  <si>
+    <t>rf1_2=0.596495829068891,gbm1_2=0.403504163636307</t>
+  </si>
+  <si>
     <t>./src/stk_model/gbm1_1</t>
   </si>
   <si>
@@ -570,6 +576,9 @@
     <t>Class_1.n.trees=250,Class_1.interaction.depth=5,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=4,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=5,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
   </si>
   <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=5,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
     <t>./src/stk_model/gbm1_2</t>
   </si>
   <si>
@@ -594,6 +603,9 @@
     <t>rf1_1.Class_1,rf1_1.Class_2,rf1_1.Class_3,rf1_1.Class_4,rf1_1.Class_5,rf1_1.Class_6,rf1_1.Class_7,rf1_1.Class_8,rf1_1.Class_9,gbm1_1.Class_1,gbm1_1.Class_2,gbm1_1.Class_3,gbm1_1.Class_4,gbm1_1.Class_5,gbm1_1.Class_6,gbm1_1.Class_7,gbm1_1.Class_8,gbm1_1.Class_9,gbm2_1.gbm1_1.Class_1,gbm2_1.gbm1_1.Class_2,gbm2_1.gbm1_1.Class_3,gbm2_1.gbm1_1.Class_4,gbm2_1.gbm1_1.Class_5,gbm2_1.gbm1_1.Class_6,gbm2_1.gbm1_1.Class_7,gbm2_1.gbm1_1.Class_8,gbm2_1.gbm1_1.Class_9,feat_1,feat_2,feat_3,feat_4,feat_5,feat_6,feat_7,feat_8,feat_9,feat_10,feat_11,feat_12,feat_13,feat_14,feat_15,feat_16,feat_17,feat_18,feat_19,feat_20,feat_21,feat_22,feat_23,feat_24,feat_25,feat_26,feat_27,feat_28,feat_29,feat_30,feat_31,feat_32,feat_33,feat_34,feat_35,feat_36,feat_37,feat_38,feat_39,feat_40,feat_41,feat_42,feat_43,feat_44,feat_45,feat_46,feat_47,feat_48,feat_49,feat_50,feat_51,feat_52,feat_53,feat_54,feat_55,feat_56,feat_57,feat_58,feat_59,feat_60,feat_61,feat_62,feat_63,feat_64,feat_65,feat_66,feat_67,feat_68,feat_69,feat_70,feat_71,feat_72,feat_73,feat_74,feat_75,feat_76,feat_77,feat_78,feat_79,feat_80,feat_81,feat_82,feat_83,feat_84,feat_85,feat_86,feat_87,feat_88,feat_89,feat_90,feat_91,feat_92,feat_93,non.zero.count</t>
   </si>
   <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=4,Class_1.shrinkage=0.1,Class_2.n.trees=200,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=200,Class_3.interaction.depth=4,Class_3.shrinkage=0.1,Class_4.n.trees=200,Class_4.interaction.depth=4,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=3,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=4,Class_6.shrinkage=0.1,Class_7.n.trees=200,Class_7.interaction.depth=4,Class_7.shrinkage=0.1,Class_8.n.trees=200,Class_8.interaction.depth=4,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=4,Class_9.shrinkage=0.1</t>
+  </si>
+  <si>
     <t>./src/stk_model/gbm2_1</t>
   </si>
   <si>
@@ -628,6 +640,9 @@
   </si>
   <si>
     <t>gbm one vs all default n.minobsinnode=20</t>
+  </si>
+  <si>
+    <t>Class_1.n.trees=250,Class_1.interaction.depth=5,Class_1.shrinkage=0.1,Class_2.n.trees=250,Class_2.interaction.depth=5,Class_2.shrinkage=0.1,Class_3.n.trees=250,Class_3.interaction.depth=5,Class_3.shrinkage=0.1,Class_4.n.trees=250,Class_4.interaction.depth=5,Class_4.shrinkage=0.1,Class_5.n.trees=200,Class_5.interaction.depth=4,Class_5.shrinkage=0.1,Class_6.n.trees=250,Class_6.interaction.depth=5,Class_6.shrinkage=0.1,Class_7.n.trees=250,Class_7.interaction.depth=5,Class_7.shrinkage=0.1,Class_8.n.trees=250,Class_8.interaction.depth=5,Class_8.shrinkage=0.1,Class_9.n.trees=250,Class_9.interaction.depth=5,Class_9.shrinkage=0.1</t>
   </si>
   <si>
     <t>./src/stk_model/rf1_1</t>
@@ -803,8 +818,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O191" totalsRowShown="0">
-  <autoFilter ref="A1:O191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O198" totalsRowShown="0">
+  <autoFilter ref="A1:O198">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="./src/stk_model/ensemble1_3"/>
+        <filter val="./src/stk_model/gbm1_1"/>
+        <filter val="./src/stk_model/gbm1_2"/>
+        <filter val="./src/stk_model/gbm2_1"/>
+        <filter val="./src/stk_model/rf1_1"/>
+        <filter val="./src/stk_model/rf1_2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A132:O158">
+    <sortCondition ref="I1:I198"/>
+  </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="dir"/>
     <tableColumn id="2" name="date.time" dataDxfId="0"/>
@@ -1148,15 +1177,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O191"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -1216,12 +1246,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" hidden="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>42124.262199074074</v>
+        <v>40662.262199074074</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1257,12 +1287,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" hidden="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>42124.279085648152</v>
+        <v>40662.279085648152</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1298,12 +1328,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>42124.303981481484</v>
+        <v>40662.303981481484</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1339,12 +1369,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" hidden="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>42124.897407407407</v>
+        <v>40662.897407407407</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1380,12 +1410,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>42124.904675925929</v>
+        <v>40662.904675925929</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1421,12 +1451,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>42124.928738425922</v>
+        <v>40662.928738425922</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1462,12 +1492,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>42125.886111111111</v>
+        <v>40663.886111111111</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1503,12 +1533,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>42125.894259259258</v>
+        <v>40663.894259259258</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1544,12 +1574,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>42125.907569444447</v>
+        <v>40663.907569444447</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1585,12 +1615,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>42125.913171296299</v>
+        <v>40663.913171296299</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1626,12 +1656,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>42126.134918981479</v>
+        <v>40664.134918981479</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1667,12 +1697,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>42126.531724537039</v>
+        <v>40664.531724537039</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1708,12 +1738,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>42101.758009259262</v>
+        <v>40639.758009259262</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1743,12 +1773,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>42101.762152777781</v>
+        <v>40639.762152777781</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1778,12 +1808,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>42101.763333333336</v>
+        <v>40639.763333333336</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1813,12 +1843,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>42101.883819444447</v>
+        <v>40639.883819444447</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1848,12 +1878,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>42101.932210648149</v>
+        <v>40639.932210648149</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1883,12 +1913,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>42102.874699074076</v>
+        <v>40640.874699074076</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1918,12 +1948,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>42109.942337962966</v>
+        <v>40647.942337962966</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1959,12 +1989,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>42109.944432870368</v>
+        <v>40647.944432870368</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2000,12 +2030,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>42109.945636574077</v>
+        <v>40647.945636574077</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -2044,12 +2074,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>42111.846215277779</v>
+        <v>40649.846215277779</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -2088,12 +2118,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" hidden="1">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>42111.85328703704</v>
+        <v>40649.85328703704</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -2135,12 +2165,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" hidden="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>42111.876226851855</v>
+        <v>40649.876226851855</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
@@ -2182,12 +2212,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>42114.750289351854</v>
+        <v>40652.750289351854</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -2226,12 +2256,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>42114.759942129633</v>
+        <v>40652.759942129633</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -2273,12 +2303,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>42114.7653587963</v>
+        <v>40652.7653587963</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -2320,12 +2350,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" hidden="1">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>42114.835798611108</v>
+        <v>40652.835798611108</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -2367,12 +2397,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>42114.839166666665</v>
+        <v>40652.839166666665</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -2414,12 +2444,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>42114.848761574074</v>
+        <v>40652.848761574074</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -2461,12 +2491,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>42123.148125</v>
+        <v>40661.148125</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -2502,12 +2532,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" hidden="1">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="1">
-        <v>42108.850069444445</v>
+        <v>40646.850069444445</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -2537,12 +2567,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" hidden="1">
       <c r="A34" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="1">
-        <v>42108.875208333331</v>
+        <v>40646.875208333331</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
@@ -2572,12 +2602,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" hidden="1">
       <c r="A35" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>42108.899583333332</v>
+        <v>40646.899583333332</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
@@ -2607,12 +2637,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" hidden="1">
       <c r="A36" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="1">
-        <v>42108.939062500001</v>
+        <v>40646.939062500001</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -2642,12 +2672,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" hidden="1">
       <c r="A37" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>42110.013703703706</v>
+        <v>40648.013703703706</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
@@ -2689,12 +2719,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" hidden="1">
       <c r="A38" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="1">
-        <v>42110.014513888891</v>
+        <v>40648.014513888891</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -2736,12 +2766,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" hidden="1">
       <c r="A39" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="1">
-        <v>42113.539988425924</v>
+        <v>40651.539988425924</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -2783,12 +2813,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" hidden="1">
       <c r="A40" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="1">
-        <v>42114.868472222224</v>
+        <v>40652.868472222224</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -2830,12 +2860,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" hidden="1">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>42114.928113425929</v>
+        <v>40652.928113425929</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -2877,12 +2907,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" hidden="1">
       <c r="A42" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>42114.988958333335</v>
+        <v>40652.988958333335</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
@@ -2924,12 +2954,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" hidden="1">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="1">
-        <v>42116.282939814817</v>
+        <v>40654.282939814817</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -2971,12 +3001,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" hidden="1">
       <c r="A44" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="1">
-        <v>42116.294745370367</v>
+        <v>40654.294745370367</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -3018,12 +3048,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" hidden="1">
       <c r="A45" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="1">
-        <v>42116.319178240738</v>
+        <v>40654.319178240738</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
@@ -3065,12 +3095,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" hidden="1">
       <c r="A46" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="1">
-        <v>42126.956990740742</v>
+        <v>40664.956990740742</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
@@ -3109,12 +3139,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" hidden="1">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>42126.964074074072</v>
+        <v>40664.964074074072</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
@@ -3153,12 +3183,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" hidden="1">
       <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>42126.973819444444</v>
+        <v>40664.973819444444</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -3197,12 +3227,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" hidden="1">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="1">
-        <v>42127.273530092592</v>
+        <v>40665.273530092592</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
@@ -3241,12 +3271,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" hidden="1">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="1">
-        <v>42127.792708333334</v>
+        <v>40665.792708333334</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -3285,12 +3315,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" hidden="1">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1">
-        <v>42127.892245370371</v>
+        <v>40665.892245370371</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -3329,12 +3359,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" hidden="1">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>42129.467453703706</v>
+        <v>40667.467453703706</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -3373,12 +3403,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" hidden="1">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>42130.054444444446</v>
+        <v>40668.054444444446</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -3417,12 +3447,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" hidden="1">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>42130.983032407406</v>
+        <v>40668.983032407406</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -3461,12 +3491,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" hidden="1">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>42131.452013888891</v>
+        <v>40669.452013888891</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
@@ -3505,12 +3535,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" hidden="1">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>42131.909004629626</v>
+        <v>40669.909004629626</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -3549,12 +3579,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" hidden="1">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>42132.011689814812</v>
+        <v>40670.011689814812</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -3593,12 +3623,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" hidden="1">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58" s="1">
-        <v>42132.112511574072</v>
+        <v>40670.112511574072</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -3637,12 +3667,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" hidden="1">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>42132.958136574074</v>
+        <v>40670.958136574074</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -3681,12 +3711,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" hidden="1">
       <c r="A60" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="1">
-        <v>42133.95034722222</v>
+        <v>40671.95034722222</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -3725,12 +3755,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" hidden="1">
       <c r="A61" t="s">
         <v>55</v>
       </c>
       <c r="B61" s="1">
-        <v>42133.958773148152</v>
+        <v>40671.958773148152</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -3769,12 +3799,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" hidden="1">
       <c r="A62" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="1">
-        <v>42133.960601851853</v>
+        <v>40671.960601851853</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -3813,12 +3843,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" hidden="1">
       <c r="A63" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="1">
-        <v>42112.427997685183</v>
+        <v>40650.427997685183</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -3854,12 +3884,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" hidden="1">
       <c r="A64" t="s">
         <v>97</v>
       </c>
       <c r="B64" s="1">
-        <v>42135.853414351855</v>
+        <v>40673.853414351855</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -3898,12 +3928,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" hidden="1">
       <c r="A65" t="s">
         <v>97</v>
       </c>
       <c r="B65" s="1">
-        <v>42135.873495370368</v>
+        <v>40673.873495370368</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -3942,12 +3972,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" hidden="1">
       <c r="A66" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="1">
-        <v>42135.918078703704</v>
+        <v>40673.918078703704</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -3986,12 +4016,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" hidden="1">
       <c r="A67" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="1">
-        <v>42136.129525462966</v>
+        <v>40674.129525462966</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -4030,12 +4060,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" hidden="1">
       <c r="A68" t="s">
         <v>97</v>
       </c>
       <c r="B68" s="1">
-        <v>42136.248287037037</v>
+        <v>40674.248287037037</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
@@ -4074,12 +4104,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" hidden="1">
       <c r="A69" t="s">
         <v>97</v>
       </c>
       <c r="B69" s="1">
-        <v>42136.686736111114</v>
+        <v>40674.686736111114</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -4118,12 +4148,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" hidden="1">
       <c r="A70" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="1">
-        <v>42137.033009259256</v>
+        <v>40675.033009259256</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -4162,12 +4192,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" hidden="1">
       <c r="A71" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="1">
-        <v>42137.392337962963</v>
+        <v>40675.392337962963</v>
       </c>
       <c r="C71" t="s">
         <v>30</v>
@@ -4206,12 +4236,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" hidden="1">
       <c r="A72" t="s">
         <v>97</v>
       </c>
       <c r="B72" s="1">
-        <v>42137.952581018515</v>
+        <v>40675.952581018515</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -4250,12 +4280,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" hidden="1">
       <c r="A73" t="s">
         <v>97</v>
       </c>
       <c r="B73" s="1">
-        <v>42138.063067129631</v>
+        <v>40676.063067129631</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -4294,12 +4324,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" hidden="1">
       <c r="A74" t="s">
         <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>42138.500439814816</v>
+        <v>40676.500439814816</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -4338,12 +4368,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" hidden="1">
       <c r="A75" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="1">
-        <v>42139.074340277781</v>
+        <v>40677.074340277781</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -4382,12 +4412,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" hidden="1">
       <c r="A76" t="s">
         <v>97</v>
       </c>
       <c r="B76" s="1">
-        <v>42139.172337962962</v>
+        <v>40677.172337962962</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -4426,12 +4456,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" hidden="1">
       <c r="A77" t="s">
         <v>116</v>
       </c>
       <c r="B77" s="1">
-        <v>42110.538935185185</v>
+        <v>40648.538935185185</v>
       </c>
       <c r="C77" t="s">
         <v>117</v>
@@ -4467,12 +4497,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" hidden="1">
       <c r="A78" t="s">
         <v>116</v>
       </c>
       <c r="B78" s="1">
-        <v>42110.539930555555</v>
+        <v>40648.539930555555</v>
       </c>
       <c r="C78" t="s">
         <v>117</v>
@@ -4508,12 +4538,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" hidden="1">
       <c r="A79" t="s">
         <v>116</v>
       </c>
       <c r="B79" s="1">
-        <v>42110.54142361111</v>
+        <v>40648.54142361111</v>
       </c>
       <c r="C79" t="s">
         <v>117</v>
@@ -4549,12 +4579,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" hidden="1">
       <c r="A80" t="s">
         <v>116</v>
       </c>
       <c r="B80" s="1">
-        <v>42110.543449074074</v>
+        <v>40648.543449074074</v>
       </c>
       <c r="C80" t="s">
         <v>117</v>
@@ -4593,12 +4623,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" hidden="1">
       <c r="A81" t="s">
         <v>116</v>
       </c>
       <c r="B81" s="1">
-        <v>42110.54482638889</v>
+        <v>40648.54482638889</v>
       </c>
       <c r="C81" t="s">
         <v>117</v>
@@ -4637,12 +4667,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" hidden="1">
       <c r="A82" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="1">
-        <v>42110.917881944442</v>
+        <v>40648.917881944442</v>
       </c>
       <c r="C82" t="s">
         <v>117</v>
@@ -4681,12 +4711,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" hidden="1">
       <c r="A83" t="s">
         <v>116</v>
       </c>
       <c r="B83" s="1">
-        <v>42110.927546296298</v>
+        <v>40648.927546296298</v>
       </c>
       <c r="C83" t="s">
         <v>117</v>
@@ -4725,12 +4755,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" hidden="1">
       <c r="A84" t="s">
         <v>123</v>
       </c>
       <c r="B84" s="1">
-        <v>42113.289155092592</v>
+        <v>40651.289155092592</v>
       </c>
       <c r="C84" t="s">
         <v>124</v>
@@ -4763,12 +4793,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" hidden="1">
       <c r="A85" t="s">
         <v>123</v>
       </c>
       <c r="B85" s="1">
-        <v>42113.291076388887</v>
+        <v>40651.291076388887</v>
       </c>
       <c r="C85" t="s">
         <v>124</v>
@@ -4801,12 +4831,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" hidden="1">
       <c r="A86" t="s">
         <v>123</v>
       </c>
       <c r="B86" s="1">
-        <v>42113.292847222219</v>
+        <v>40651.292847222219</v>
       </c>
       <c r="C86" t="s">
         <v>124</v>
@@ -4839,12 +4869,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" hidden="1">
       <c r="A87" t="s">
         <v>123</v>
       </c>
       <c r="B87" s="1">
-        <v>42113.297395833331</v>
+        <v>40651.297395833331</v>
       </c>
       <c r="C87" t="s">
         <v>124</v>
@@ -4880,12 +4910,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" hidden="1">
       <c r="A88" t="s">
         <v>127</v>
       </c>
       <c r="B88" s="1">
-        <v>42103.286828703705</v>
+        <v>40641.286828703705</v>
       </c>
       <c r="C88" t="s">
         <v>128</v>
@@ -4918,12 +4948,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" hidden="1">
       <c r="A89" t="s">
         <v>127</v>
       </c>
       <c r="B89" s="1">
-        <v>42103.297395833331</v>
+        <v>40641.297395833331</v>
       </c>
       <c r="C89" t="s">
         <v>128</v>
@@ -4956,12 +4986,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" hidden="1">
       <c r="A90" t="s">
         <v>127</v>
       </c>
       <c r="B90" s="1">
-        <v>42103.298993055556</v>
+        <v>40641.298993055556</v>
       </c>
       <c r="C90" t="s">
         <v>128</v>
@@ -4994,12 +5024,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" hidden="1">
       <c r="A91" t="s">
         <v>127</v>
       </c>
       <c r="B91" s="1">
-        <v>42103.301504629628</v>
+        <v>40641.301504629628</v>
       </c>
       <c r="C91" t="s">
         <v>128</v>
@@ -5032,12 +5062,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" hidden="1">
       <c r="A92" t="s">
         <v>127</v>
       </c>
       <c r="B92" s="1">
-        <v>42103.304837962962</v>
+        <v>40641.304837962962</v>
       </c>
       <c r="C92" t="s">
         <v>128</v>
@@ -5070,12 +5100,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" hidden="1">
       <c r="A93" t="s">
         <v>127</v>
       </c>
       <c r="B93" s="1">
-        <v>42103.314687500002</v>
+        <v>40641.314687500002</v>
       </c>
       <c r="C93" t="s">
         <v>128</v>
@@ -5108,12 +5138,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" hidden="1">
       <c r="A94" t="s">
         <v>127</v>
       </c>
       <c r="B94" s="1">
-        <v>42103.619097222225</v>
+        <v>40641.619097222225</v>
       </c>
       <c r="C94" t="s">
         <v>128</v>
@@ -5146,12 +5176,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" hidden="1">
       <c r="A95" t="s">
         <v>127</v>
       </c>
       <c r="B95" s="1">
-        <v>42103.62332175926</v>
+        <v>40641.62332175926</v>
       </c>
       <c r="C95" t="s">
         <v>128</v>
@@ -5184,12 +5214,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" hidden="1">
       <c r="A96" t="s">
         <v>127</v>
       </c>
       <c r="B96" s="1">
-        <v>42103.868738425925</v>
+        <v>40641.868738425925</v>
       </c>
       <c r="C96" t="s">
         <v>128</v>
@@ -5222,12 +5252,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" hidden="1">
       <c r="A97" t="s">
         <v>127</v>
       </c>
       <c r="B97" s="1">
-        <v>42103.892905092594</v>
+        <v>40641.892905092594</v>
       </c>
       <c r="C97" t="s">
         <v>128</v>
@@ -5260,12 +5290,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" hidden="1">
       <c r="A98" t="s">
         <v>127</v>
       </c>
       <c r="B98" s="1">
-        <v>42103.962881944448</v>
+        <v>40641.962881944448</v>
       </c>
       <c r="C98" t="s">
         <v>128</v>
@@ -5298,12 +5328,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" hidden="1">
       <c r="A99" t="s">
         <v>127</v>
       </c>
       <c r="B99" s="1">
-        <v>42109.280289351853</v>
+        <v>40647.280289351853</v>
       </c>
       <c r="C99" t="s">
         <v>128</v>
@@ -5336,12 +5366,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" hidden="1">
       <c r="A100" t="s">
         <v>127</v>
       </c>
       <c r="B100" s="1">
-        <v>42109.967615740738</v>
+        <v>40647.967615740738</v>
       </c>
       <c r="C100" t="s">
         <v>128</v>
@@ -5380,12 +5410,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" hidden="1">
       <c r="A101" t="s">
         <v>136</v>
       </c>
       <c r="B101" s="1">
-        <v>42116.849768518521</v>
+        <v>40654.849768518521</v>
       </c>
       <c r="C101" t="s">
         <v>128</v>
@@ -5421,12 +5451,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" hidden="1">
       <c r="A102" t="s">
         <v>136</v>
       </c>
       <c r="B102" s="1">
-        <v>42116.853946759256</v>
+        <v>40654.853946759256</v>
       </c>
       <c r="C102" t="s">
         <v>128</v>
@@ -5465,12 +5495,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" hidden="1">
       <c r="A103" t="s">
         <v>136</v>
       </c>
       <c r="B103" s="1">
-        <v>42116.860844907409</v>
+        <v>40654.860844907409</v>
       </c>
       <c r="C103" t="s">
         <v>128</v>
@@ -5512,12 +5542,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" hidden="1">
       <c r="A104" t="s">
         <v>136</v>
       </c>
       <c r="B104" s="1">
-        <v>42116.866481481484</v>
+        <v>40654.866481481484</v>
       </c>
       <c r="C104" t="s">
         <v>128</v>
@@ -5559,12 +5589,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" hidden="1">
       <c r="A105" t="s">
         <v>136</v>
       </c>
       <c r="B105" s="1">
-        <v>42116.897719907407</v>
+        <v>40654.897719907407</v>
       </c>
       <c r="C105" t="s">
         <v>128</v>
@@ -5606,12 +5636,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" hidden="1">
       <c r="A106" t="s">
         <v>136</v>
       </c>
       <c r="B106" s="1">
-        <v>42117.898888888885</v>
+        <v>40655.898888888885</v>
       </c>
       <c r="C106" t="s">
         <v>128</v>
@@ -5653,12 +5683,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" hidden="1">
       <c r="A107" t="s">
         <v>136</v>
       </c>
       <c r="B107" s="1">
-        <v>42118.284328703703</v>
+        <v>40656.284328703703</v>
       </c>
       <c r="C107" t="s">
         <v>140</v>
@@ -5694,12 +5724,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" hidden="1">
       <c r="A108" t="s">
         <v>136</v>
       </c>
       <c r="B108" s="1">
-        <v>42118.825995370367</v>
+        <v>40656.825995370367</v>
       </c>
       <c r="C108" t="s">
         <v>140</v>
@@ -5738,12 +5768,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" hidden="1">
       <c r="A109" t="s">
         <v>136</v>
       </c>
       <c r="B109" s="1">
-        <v>42118.831354166665</v>
+        <v>40656.831354166665</v>
       </c>
       <c r="C109" t="s">
         <v>140</v>
@@ -5782,12 +5812,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" hidden="1">
       <c r="A110" t="s">
         <v>136</v>
       </c>
       <c r="B110" s="1">
-        <v>42118.837557870371</v>
+        <v>40656.837557870371</v>
       </c>
       <c r="C110" t="s">
         <v>140</v>
@@ -5826,12 +5856,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" hidden="1">
       <c r="A111" t="s">
         <v>136</v>
       </c>
       <c r="B111" s="1">
-        <v>42118.869560185187</v>
+        <v>40656.869560185187</v>
       </c>
       <c r="C111" t="s">
         <v>140</v>
@@ -5870,12 +5900,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" hidden="1">
       <c r="A112" t="s">
         <v>136</v>
       </c>
       <c r="B112" s="1">
-        <v>42118.87060185185</v>
+        <v>40656.87060185185</v>
       </c>
       <c r="C112" t="s">
         <v>140</v>
@@ -5914,12 +5944,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" hidden="1">
       <c r="A113" t="s">
         <v>136</v>
       </c>
       <c r="B113" s="1">
-        <v>42118.872812499998</v>
+        <v>40656.872812499998</v>
       </c>
       <c r="C113" t="s">
         <v>140</v>
@@ -5958,12 +5988,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" hidden="1">
       <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114" s="1">
-        <v>42118.878275462965</v>
+        <v>40656.878275462965</v>
       </c>
       <c r="C114" t="s">
         <v>140</v>
@@ -6002,12 +6032,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" hidden="1">
       <c r="A115" t="s">
         <v>136</v>
       </c>
       <c r="B115" s="1">
-        <v>42118.884027777778</v>
+        <v>40656.884027777778</v>
       </c>
       <c r="C115" t="s">
         <v>140</v>
@@ -6046,12 +6076,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" hidden="1">
       <c r="A116" t="s">
         <v>136</v>
       </c>
       <c r="B116" s="1">
-        <v>42118.885810185187</v>
+        <v>40656.885810185187</v>
       </c>
       <c r="C116" t="s">
         <v>140</v>
@@ -6090,12 +6120,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" hidden="1">
       <c r="A117" t="s">
         <v>136</v>
       </c>
       <c r="B117" s="1">
-        <v>42118.890127314815</v>
+        <v>40656.890127314815</v>
       </c>
       <c r="C117" t="s">
         <v>140</v>
@@ -6134,12 +6164,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" hidden="1">
       <c r="A118" t="s">
         <v>136</v>
       </c>
       <c r="B118" s="1">
-        <v>42118.894976851851</v>
+        <v>40656.894976851851</v>
       </c>
       <c r="C118" t="s">
         <v>140</v>
@@ -6178,12 +6208,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" hidden="1">
       <c r="A119" t="s">
         <v>136</v>
       </c>
       <c r="B119" s="1">
-        <v>42118.899618055555</v>
+        <v>40656.899618055555</v>
       </c>
       <c r="C119" t="s">
         <v>140</v>
@@ -6222,12 +6252,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" hidden="1">
       <c r="A120" t="s">
         <v>136</v>
       </c>
       <c r="B120" s="1">
-        <v>42118.904513888891</v>
+        <v>40656.904513888891</v>
       </c>
       <c r="C120" t="s">
         <v>140</v>
@@ -6266,12 +6296,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" hidden="1">
       <c r="A121" t="s">
         <v>136</v>
       </c>
       <c r="B121" s="1">
-        <v>42128.813668981478</v>
+        <v>40666.813668981478</v>
       </c>
       <c r="C121" t="s">
         <v>140</v>
@@ -6310,12 +6340,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" hidden="1">
       <c r="A122" t="s">
         <v>136</v>
       </c>
       <c r="B122" s="1">
-        <v>42128.822210648148</v>
+        <v>40666.822210648148</v>
       </c>
       <c r="C122" t="s">
         <v>140</v>
@@ -6354,12 +6384,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" hidden="1">
       <c r="A123" t="s">
         <v>136</v>
       </c>
       <c r="B123" s="1">
-        <v>42128.829050925924</v>
+        <v>40666.829050925924</v>
       </c>
       <c r="C123" t="s">
         <v>140</v>
@@ -6398,12 +6428,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" hidden="1">
       <c r="A124" t="s">
         <v>136</v>
       </c>
       <c r="B124" s="1">
-        <v>42128.858576388891</v>
+        <v>40666.858576388891</v>
       </c>
       <c r="C124" t="s">
         <v>140</v>
@@ -6442,12 +6472,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" hidden="1">
       <c r="A125" t="s">
         <v>136</v>
       </c>
       <c r="B125" s="1">
-        <v>42128.864722222221</v>
+        <v>40666.864722222221</v>
       </c>
       <c r="C125" t="s">
         <v>140</v>
@@ -6486,12 +6516,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" hidden="1">
       <c r="A126" t="s">
         <v>136</v>
       </c>
       <c r="B126" s="1">
-        <v>42128.87090277778</v>
+        <v>40666.87090277778</v>
       </c>
       <c r="C126" t="s">
         <v>140</v>
@@ -6530,12 +6560,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" hidden="1">
       <c r="A127" t="s">
         <v>165</v>
       </c>
       <c r="B127" s="1">
-        <v>42120.815578703703</v>
+        <v>40658.815578703703</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
@@ -6574,12 +6604,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" hidden="1">
       <c r="A128" t="s">
         <v>165</v>
       </c>
       <c r="B128" s="1">
-        <v>42120.824513888889</v>
+        <v>40658.824513888889</v>
       </c>
       <c r="C128" t="s">
         <v>128</v>
@@ -6618,12 +6648,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" hidden="1">
       <c r="A129" t="s">
         <v>165</v>
       </c>
       <c r="B129" s="1">
-        <v>42120.838333333333</v>
+        <v>40658.838333333333</v>
       </c>
       <c r="C129" t="s">
         <v>128</v>
@@ -6662,12 +6692,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" hidden="1">
       <c r="A130" t="s">
         <v>165</v>
       </c>
       <c r="B130" s="1">
-        <v>42120.874039351853</v>
+        <v>40658.874039351853</v>
       </c>
       <c r="C130" t="s">
         <v>128</v>
@@ -6706,12 +6736,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" hidden="1">
       <c r="A131" t="s">
         <v>165</v>
       </c>
       <c r="B131" s="1">
-        <v>42120.947094907409</v>
+        <v>40658.947094907409</v>
       </c>
       <c r="C131" t="s">
         <v>128</v>
@@ -6755,19 +6785,19 @@
         <v>173</v>
       </c>
       <c r="B132" s="1">
-        <v>42161.796435185184</v>
+        <v>40700.790451388886</v>
       </c>
       <c r="C132" t="s">
         <v>174</v>
       </c>
       <c r="D132">
-        <v>26.022000000000201</v>
+        <v>18.509</v>
       </c>
       <c r="E132">
-        <v>0.14399999999999799</v>
+        <v>0.127000000000002</v>
       </c>
       <c r="F132">
-        <v>26.157999999999401</v>
+        <v>18.629999999997398</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6776,13 +6806,13 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0.58309696821273804</v>
+        <v>0.49642533217302398</v>
       </c>
       <c r="J132" t="s">
         <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N132" t="s">
         <v>176</v>
@@ -6790,78 +6820,93 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B133" s="1">
-        <v>42161.934270833335</v>
+        <v>40700.76122685185</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D133">
-        <v>18.367000000000001</v>
+        <v>628.09699999999896</v>
       </c>
       <c r="E133">
-        <v>9.6000000000000099E-2</v>
+        <v>2.238</v>
       </c>
       <c r="F133">
-        <v>18.503999999999898</v>
+        <v>630.64400000000001</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>27838</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I133">
-        <v>0.54292769081275805</v>
+        <v>0.51834682890224804</v>
       </c>
       <c r="J133" t="s">
         <v>17</v>
       </c>
       <c r="K133" t="s">
-        <v>177</v>
+        <v>212</v>
+      </c>
+      <c r="L133" t="s">
+        <v>212</v>
+      </c>
+      <c r="M133" t="s">
+        <v>131</v>
       </c>
       <c r="N133" t="s">
-        <v>176</v>
+        <v>211</v>
+      </c>
+      <c r="O133" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B134" s="1">
-        <v>42161.951678240737</v>
+        <v>40700.787881944445</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="D134">
-        <v>17.998000000000001</v>
+        <v>6140.723</v>
       </c>
       <c r="E134">
-        <v>0.126000000000001</v>
+        <v>84.799000000000007</v>
       </c>
       <c r="F134">
-        <v>18.116</v>
+        <v>2066.518</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>27838</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I134">
-        <v>0.54292769081275805</v>
+        <v>0.521680681584068</v>
       </c>
       <c r="J134" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>177</v>
+        <v>194</v>
+      </c>
+      <c r="M134" t="s">
+        <v>40</v>
       </c>
       <c r="N134" t="s">
-        <v>176</v>
+        <v>188</v>
+      </c>
+      <c r="O134" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -6869,19 +6914,19 @@
         <v>173</v>
       </c>
       <c r="B135" s="1">
-        <v>42162.261076388888</v>
+        <v>40700.678796296299</v>
       </c>
       <c r="C135" t="s">
         <v>174</v>
       </c>
       <c r="D135">
-        <v>11.116</v>
+        <v>10.044</v>
       </c>
       <c r="E135">
-        <v>7.0000000000000104E-2</v>
+        <v>5.2999999999998999E-2</v>
       </c>
       <c r="F135">
-        <v>11.18</v>
+        <v>10.087999999999701</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6890,13 +6935,13 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0.54210109176232901</v>
+        <v>0.54054548853470996</v>
       </c>
       <c r="J135" t="s">
         <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N135" t="s">
         <v>176</v>
@@ -6907,19 +6952,19 @@
         <v>173</v>
       </c>
       <c r="B136" s="1">
-        <v>42162.667824074073</v>
+        <v>40700.261076388888</v>
       </c>
       <c r="C136" t="s">
         <v>174</v>
       </c>
       <c r="D136">
-        <v>11.6619999999999</v>
+        <v>11.116</v>
       </c>
       <c r="E136">
-        <v>5.7999999999999802E-2</v>
+        <v>7.0000000000000104E-2</v>
       </c>
       <c r="F136">
-        <v>11.712999999999701</v>
+        <v>11.18</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6931,7 +6976,7 @@
         <v>0.54210109176232901</v>
       </c>
       <c r="J136" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K136" t="s">
         <v>178</v>
@@ -6942,186 +6987,168 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B137" s="1">
-        <v>42161.592685185184</v>
+        <v>40700.667824074073</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D137">
-        <v>853.95600000000002</v>
+        <v>11.6619999999999</v>
       </c>
       <c r="E137">
-        <v>11.973000000000001</v>
+        <v>5.7999999999999802E-2</v>
       </c>
       <c r="F137">
-        <v>301.11500000000001</v>
+        <v>11.712999999999701</v>
       </c>
       <c r="G137">
-        <v>5573</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0.66626236129503302</v>
+        <v>0.54210109176232901</v>
       </c>
       <c r="J137" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K137" t="s">
-        <v>180</v>
-      </c>
-      <c r="M137" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="N137" t="s">
-        <v>181</v>
-      </c>
-      <c r="O137" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B138" s="1">
-        <v>42161.861921296295</v>
+        <v>40699.934270833335</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D138">
-        <v>2765.0250000000001</v>
+        <v>18.367000000000001</v>
       </c>
       <c r="E138">
-        <v>29.762</v>
+        <v>9.6000000000000099E-2</v>
       </c>
       <c r="F138">
-        <v>776.72</v>
+        <v>18.503999999999898</v>
       </c>
       <c r="G138">
-        <v>13927</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>0.623107636466533</v>
+        <v>0.54292769081275805</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>182</v>
-      </c>
-      <c r="M138" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N138" t="s">
-        <v>181</v>
-      </c>
-      <c r="O138" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B139" s="1">
-        <v>42161.707442129627</v>
+        <v>40699.951678240737</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D139">
-        <v>1177.08</v>
+        <v>17.998000000000001</v>
       </c>
       <c r="E139">
-        <v>17.669</v>
+        <v>0.126000000000001</v>
       </c>
       <c r="F139">
-        <v>331.49</v>
+        <v>18.116</v>
       </c>
       <c r="G139">
-        <v>5573</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>0.60818851565530396</v>
+        <v>0.54292769081275805</v>
       </c>
       <c r="J139" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K139" t="s">
-        <v>184</v>
-      </c>
-      <c r="M139" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N139" t="s">
-        <v>185</v>
-      </c>
-      <c r="O139" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B140" s="1">
-        <v>42161.930277777778</v>
+        <v>40700.626851851855</v>
       </c>
       <c r="C140" t="s">
         <v>30</v>
       </c>
       <c r="D140">
-        <v>17341.705000000002</v>
+        <v>2790.47</v>
       </c>
       <c r="E140">
-        <v>124.589</v>
+        <v>29.757000000000001</v>
       </c>
       <c r="F140">
-        <v>4701.299</v>
+        <v>911.73700000000099</v>
       </c>
       <c r="G140">
         <v>13926</v>
       </c>
       <c r="H140">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="I140">
-        <v>0.56554001799711895</v>
+        <v>0.55557532293027601</v>
       </c>
       <c r="J140" t="s">
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M140" t="s">
         <v>40</v>
       </c>
       <c r="N140" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O140" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B141" s="1">
-        <v>42162.244930555556</v>
+        <v>40700.244930555556</v>
       </c>
       <c r="C141" t="s">
         <v>30</v>
@@ -7148,189 +7175,186 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M141" t="s">
         <v>40</v>
       </c>
       <c r="N141" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O141" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B142" s="1">
-        <v>42162.626851851855</v>
+        <v>40699.930277777778</v>
       </c>
       <c r="C142" t="s">
         <v>30</v>
       </c>
       <c r="D142">
-        <v>2790.47</v>
+        <v>17341.705000000002</v>
       </c>
       <c r="E142">
-        <v>29.757000000000001</v>
+        <v>124.589</v>
       </c>
       <c r="F142">
-        <v>911.73700000000099</v>
+        <v>4701.299</v>
       </c>
       <c r="G142">
         <v>13926</v>
       </c>
       <c r="H142">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I142">
-        <v>0.55557532293027601</v>
+        <v>0.56554001799711895</v>
       </c>
       <c r="J142" t="s">
         <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M142" t="s">
         <v>40</v>
       </c>
       <c r="N142" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="B143" s="1">
-        <v>42162.543749999997</v>
+        <v>40700.614976851852</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D143">
-        <v>2132.36</v>
+        <v>238.864</v>
       </c>
       <c r="E143">
-        <v>22.695</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F143">
-        <v>761.02200000000005</v>
+        <v>239.37900000000101</v>
       </c>
       <c r="G143">
-        <v>13927</v>
+        <v>13926</v>
       </c>
       <c r="H143">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="I143">
-        <v>0.62151911209008603</v>
+        <v>0.56686356751435596</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="L143" t="s">
+        <v>212</v>
       </c>
       <c r="M143" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N143" t="s">
+        <v>211</v>
+      </c>
+      <c r="O143" t="s">
         <v>193</v>
-      </c>
-      <c r="O143" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B144" s="1">
-        <v>42162.553344907406</v>
+        <v>40699.796435185184</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D144">
-        <v>2150.2109999999998</v>
+        <v>26.022000000000201</v>
       </c>
       <c r="E144">
-        <v>25.023</v>
+        <v>0.14399999999999799</v>
       </c>
       <c r="F144">
-        <v>740.88699999999994</v>
+        <v>26.157999999999401</v>
       </c>
       <c r="G144">
-        <v>13927</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0.62559520441015104</v>
+        <v>0.58309696821273804</v>
       </c>
       <c r="J144" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>194</v>
-      </c>
-      <c r="M144" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="N144" t="s">
-        <v>196</v>
-      </c>
-      <c r="O144" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B145" s="1">
-        <v>42162.563090277778</v>
+        <v>40700.708981481483</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="D145">
-        <v>2164.366</v>
+        <v>547.654</v>
       </c>
       <c r="E145">
-        <v>23.768999999999998</v>
+        <v>1.504</v>
       </c>
       <c r="F145">
-        <v>756.34500000000003</v>
+        <v>549.23400000000004</v>
       </c>
       <c r="G145">
-        <v>13927</v>
+        <v>27839</v>
       </c>
       <c r="H145">
         <v>94</v>
       </c>
       <c r="I145">
-        <v>0.61301514600863105</v>
+        <v>0.58394086060519301</v>
       </c>
       <c r="J145" t="s">
         <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>197</v>
+        <v>137</v>
+      </c>
+      <c r="L145" t="s">
+        <v>137</v>
       </c>
       <c r="M145" t="s">
-        <v>198</v>
-      </c>
-      <c r="N145" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="O145" t="s">
         <v>20</v>
@@ -7338,43 +7362,43 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B146" s="1">
-        <v>42162.574155092596</v>
+        <v>40700.750810185185</v>
       </c>
       <c r="C146" t="s">
         <v>30</v>
       </c>
       <c r="D146">
-        <v>2176.8040000000001</v>
+        <v>4550.3919999999998</v>
       </c>
       <c r="E146">
-        <v>24.056999999999999</v>
+        <v>52.856000000000002</v>
       </c>
       <c r="F146">
-        <v>759.88499999999999</v>
+        <v>1573.0619999999999</v>
       </c>
       <c r="G146">
-        <v>13927</v>
+        <v>27839</v>
       </c>
       <c r="H146">
         <v>94</v>
       </c>
       <c r="I146">
-        <v>0.61792130927522304</v>
+        <v>0.60028672462106103</v>
       </c>
       <c r="J146" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N146" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O146" t="s">
         <v>20</v>
@@ -7382,81 +7406,87 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B147" s="1">
-        <v>42161.571192129632</v>
+        <v>40699.707442129627</v>
       </c>
       <c r="C147" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D147">
-        <v>871.49900000000002</v>
+        <v>1177.08</v>
       </c>
       <c r="E147">
-        <v>8.6029999999999998</v>
+        <v>17.669</v>
       </c>
       <c r="F147">
-        <v>241.07300000000001</v>
+        <v>331.49</v>
       </c>
       <c r="G147">
         <v>5573</v>
       </c>
       <c r="H147">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I147">
-        <v>0.68809918722022201</v>
+        <v>0.60818851565530396</v>
       </c>
       <c r="J147" t="s">
         <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="M147" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N147" t="s">
+        <v>188</v>
       </c>
       <c r="O147" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B148" s="1">
-        <v>42161.850671296299</v>
+        <v>40700.730428240742</v>
       </c>
       <c r="C148" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D148">
-        <v>2617.5419999999999</v>
+        <v>4432.2669999999998</v>
       </c>
       <c r="E148">
-        <v>22.308</v>
+        <v>60.412999999999997</v>
       </c>
       <c r="F148">
-        <v>818.97400000000005</v>
+        <v>1545.5229999999999</v>
       </c>
       <c r="G148">
-        <v>13927</v>
+        <v>27839</v>
       </c>
       <c r="H148">
         <v>94</v>
       </c>
       <c r="I148">
-        <v>0.62943452506077502</v>
+        <v>0.60860053221839105</v>
       </c>
       <c r="J148" t="s">
         <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="M148" t="s">
-        <v>131</v>
+        <v>40</v>
+      </c>
+      <c r="N148" t="s">
+        <v>183</v>
       </c>
       <c r="O148" t="s">
         <v>20</v>
@@ -7464,245 +7494,269 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B149" s="1">
-        <v>42161.695405092592</v>
+        <v>40700.563090277778</v>
       </c>
       <c r="C149" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D149">
-        <v>972.75899999999899</v>
+        <v>2164.366</v>
       </c>
       <c r="E149">
-        <v>9.8089999999999993</v>
+        <v>23.768999999999998</v>
       </c>
       <c r="F149">
-        <v>246.960000000001</v>
+        <v>756.34500000000003</v>
       </c>
       <c r="G149">
-        <v>5573</v>
+        <v>13927</v>
       </c>
       <c r="H149">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I149">
-        <v>0.66506875332002702</v>
+        <v>0.61301514600863105</v>
       </c>
       <c r="J149" t="s">
         <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M149" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="N149" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O149" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" s="1">
+        <v>40700.574155092596</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150">
+        <v>2176.8040000000001</v>
+      </c>
+      <c r="E150">
+        <v>24.056999999999999</v>
+      </c>
+      <c r="F150">
+        <v>759.88499999999999</v>
+      </c>
+      <c r="G150">
+        <v>13927</v>
+      </c>
+      <c r="H150">
+        <v>94</v>
+      </c>
+      <c r="I150">
+        <v>0.61792130927522304</v>
+      </c>
+      <c r="J150" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" t="s">
         <v>204</v>
       </c>
-      <c r="B150" s="1">
-        <v>42161.868159722224</v>
-      </c>
-      <c r="C150" t="s">
-        <v>128</v>
-      </c>
-      <c r="D150">
-        <v>206.69200000000001</v>
-      </c>
-      <c r="E150">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="F150">
-        <v>207.304</v>
-      </c>
-      <c r="G150">
-        <v>13926</v>
-      </c>
-      <c r="H150">
-        <v>112</v>
-      </c>
-      <c r="I150">
-        <v>0.62311786296301297</v>
-      </c>
-      <c r="J150" t="s">
-        <v>17</v>
-      </c>
-      <c r="K150" t="s">
+      <c r="M150" t="s">
         <v>205</v>
-      </c>
-      <c r="L150" t="s">
-        <v>205</v>
-      </c>
-      <c r="M150" t="s">
-        <v>131</v>
       </c>
       <c r="N150" t="s">
         <v>206</v>
       </c>
       <c r="O150" t="s">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B151" s="1">
-        <v>42162.614976851852</v>
+        <v>40700.543749999997</v>
       </c>
       <c r="C151" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D151">
-        <v>238.864</v>
+        <v>2132.36</v>
       </c>
       <c r="E151">
-        <v>0.55500000000000005</v>
+        <v>22.695</v>
       </c>
       <c r="F151">
-        <v>239.37900000000101</v>
+        <v>761.02200000000005</v>
       </c>
       <c r="G151">
-        <v>13926</v>
+        <v>13927</v>
       </c>
       <c r="H151">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="I151">
-        <v>0.56686356751435596</v>
+        <v>0.62151911209008603</v>
       </c>
       <c r="J151" t="s">
         <v>17</v>
       </c>
       <c r="K151" t="s">
-        <v>207</v>
-      </c>
-      <c r="L151" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M151" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="N151" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O151" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B152" s="1">
-        <v>42104.007476851853</v>
+        <v>40699.861921296295</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="D152">
-        <v>315.97500000000002</v>
+        <v>2765.0250000000001</v>
       </c>
       <c r="E152">
-        <v>29.097000000000001</v>
+        <v>29.762</v>
       </c>
       <c r="F152">
-        <v>323.35300000000001</v>
+        <v>776.72</v>
       </c>
       <c r="G152">
-        <v>7426</v>
+        <v>13927</v>
       </c>
       <c r="H152">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I152">
-        <v>1.59003529389746</v>
+        <v>0.623107636466533</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
       </c>
       <c r="K152" t="s">
-        <v>210</v>
+        <v>184</v>
+      </c>
+      <c r="M152" t="s">
+        <v>40</v>
+      </c>
+      <c r="N152" t="s">
+        <v>183</v>
       </c>
       <c r="O152" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B153" s="1">
-        <v>42106.830034722225</v>
+        <v>40699.868159722224</v>
       </c>
       <c r="C153" t="s">
+        <v>128</v>
+      </c>
+      <c r="D153">
+        <v>206.69200000000001</v>
+      </c>
+      <c r="E153">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F153">
+        <v>207.304</v>
+      </c>
+      <c r="G153">
+        <v>13926</v>
+      </c>
+      <c r="H153">
+        <v>112</v>
+      </c>
+      <c r="I153">
+        <v>0.62311786296301297</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" t="s">
+        <v>210</v>
+      </c>
+      <c r="L153" t="s">
+        <v>210</v>
+      </c>
+      <c r="M153" t="s">
+        <v>131</v>
+      </c>
+      <c r="N153" t="s">
         <v>211</v>
       </c>
-      <c r="D153">
-        <v>72.912000000000006</v>
-      </c>
-      <c r="E153">
-        <v>2.387</v>
-      </c>
-      <c r="F153">
-        <v>74.873000000000005</v>
-      </c>
-      <c r="G153">
-        <v>7426</v>
-      </c>
-      <c r="H153">
-        <v>80</v>
-      </c>
-      <c r="I153">
-        <v>1.58129073532396</v>
-      </c>
-      <c r="K153" t="s">
-        <v>212</v>
-      </c>
       <c r="O153" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B154" s="1">
-        <v>42106.84652777778</v>
+        <v>40700.553344907406</v>
       </c>
       <c r="C154" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="D154">
-        <v>15.842000000000001</v>
+        <v>2150.2109999999998</v>
       </c>
       <c r="E154">
-        <v>0.49100000000000099</v>
+        <v>25.023</v>
       </c>
       <c r="F154">
-        <v>36.243999999999701</v>
+        <v>740.88699999999994</v>
       </c>
       <c r="G154">
-        <v>7426</v>
+        <v>13927</v>
       </c>
       <c r="H154">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I154">
-        <v>1.5374895271743101</v>
+        <v>0.62559520441015104</v>
+      </c>
+      <c r="J154" t="s">
+        <v>21</v>
       </c>
       <c r="K154" t="s">
-        <v>212</v>
+        <v>198</v>
+      </c>
+      <c r="M154" t="s">
+        <v>199</v>
+      </c>
+      <c r="N154" t="s">
+        <v>200</v>
       </c>
       <c r="O154" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -7710,104 +7764,128 @@
         <v>208</v>
       </c>
       <c r="B155" s="1">
-        <v>42106.848807870374</v>
+        <v>40699.850671296299</v>
       </c>
       <c r="C155" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="D155">
-        <v>15.901</v>
+        <v>2617.5419999999999</v>
       </c>
       <c r="E155">
-        <v>0.44700000000000101</v>
+        <v>22.308</v>
       </c>
       <c r="F155">
-        <v>36.188000000000102</v>
+        <v>818.97400000000005</v>
       </c>
       <c r="G155">
-        <v>7426</v>
+        <v>13927</v>
       </c>
       <c r="H155">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I155">
-        <v>1.5374895271743101</v>
+        <v>0.62943452506077502</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>212</v>
+        <v>137</v>
+      </c>
+      <c r="M155" t="s">
+        <v>131</v>
       </c>
       <c r="O155" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B156" s="1">
-        <v>42106.853368055556</v>
+        <v>40699.695405092592</v>
       </c>
       <c r="C156" t="s">
+        <v>128</v>
+      </c>
+      <c r="D156">
+        <v>972.75899999999899</v>
+      </c>
+      <c r="E156">
+        <v>9.8089999999999993</v>
+      </c>
+      <c r="F156">
+        <v>246.960000000001</v>
+      </c>
+      <c r="G156">
+        <v>5573</v>
+      </c>
+      <c r="H156">
+        <v>112</v>
+      </c>
+      <c r="I156">
+        <v>0.66506875332002702</v>
+      </c>
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" t="s">
+        <v>210</v>
+      </c>
+      <c r="M156" t="s">
+        <v>131</v>
+      </c>
+      <c r="N156" t="s">
         <v>211</v>
       </c>
-      <c r="D156">
-        <v>15.009</v>
-      </c>
-      <c r="E156">
-        <v>0.57799999999999896</v>
-      </c>
-      <c r="F156">
-        <v>114.17400000000001</v>
-      </c>
-      <c r="G156">
-        <v>7426</v>
-      </c>
-      <c r="H156">
-        <v>80</v>
-      </c>
-      <c r="I156">
-        <v>1.5939681680293001</v>
-      </c>
-      <c r="K156" t="s">
-        <v>213</v>
-      </c>
       <c r="O156" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B157" s="1">
-        <v>42106.856076388889</v>
+        <v>40699.592685185184</v>
       </c>
       <c r="C157" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="D157">
-        <v>15.125</v>
+        <v>853.95600000000002</v>
       </c>
       <c r="E157">
-        <v>0.54299999999999904</v>
+        <v>11.973000000000001</v>
       </c>
       <c r="F157">
-        <v>116.895</v>
+        <v>301.11500000000001</v>
       </c>
       <c r="G157">
-        <v>7426</v>
+        <v>5573</v>
       </c>
       <c r="H157">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I157">
-        <v>1.5939681680293001</v>
+        <v>0.66626236129503302</v>
+      </c>
+      <c r="J157" t="s">
+        <v>17</v>
       </c>
       <c r="K157" t="s">
-        <v>213</v>
+        <v>182</v>
+      </c>
+      <c r="M157" t="s">
+        <v>40</v>
+      </c>
+      <c r="N157" t="s">
+        <v>183</v>
       </c>
       <c r="O157" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -7815,124 +7893,130 @@
         <v>208</v>
       </c>
       <c r="B158" s="1">
-        <v>42106.859270833331</v>
+        <v>40699.571192129632</v>
       </c>
       <c r="C158" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="D158">
-        <v>14.928000000000001</v>
+        <v>871.49900000000002</v>
       </c>
       <c r="E158">
-        <v>0.40100000000000002</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="F158">
-        <v>15.249000000000301</v>
+        <v>241.07300000000001</v>
       </c>
       <c r="G158">
-        <v>7426</v>
+        <v>5573</v>
       </c>
       <c r="H158">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I158">
-        <v>1.57773355605539</v>
+        <v>0.68809918722022201</v>
+      </c>
+      <c r="J158" t="s">
+        <v>17</v>
       </c>
       <c r="K158" t="s">
+        <v>137</v>
+      </c>
+      <c r="M158" t="s">
+        <v>131</v>
+      </c>
+      <c r="O158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" hidden="1">
+      <c r="A159" t="s">
         <v>213</v>
       </c>
-      <c r="O158" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" t="s">
-        <v>208</v>
-      </c>
       <c r="B159" s="1">
-        <v>42106.861122685186</v>
+        <v>40642.007476851853</v>
       </c>
       <c r="C159" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D159">
-        <v>16.733000000000001</v>
+        <v>315.97500000000002</v>
       </c>
       <c r="E159">
-        <v>0.47099999999999997</v>
+        <v>29.097000000000001</v>
       </c>
       <c r="F159">
-        <v>17.1170000000002</v>
+        <v>323.35300000000001</v>
       </c>
       <c r="G159">
         <v>7426</v>
       </c>
       <c r="H159">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I159">
-        <v>1.56821048218277</v>
+        <v>1.59003529389746</v>
       </c>
       <c r="K159" t="s">
+        <v>215</v>
+      </c>
+      <c r="O159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" hidden="1">
+      <c r="A160" t="s">
         <v>213</v>
       </c>
-      <c r="O159" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" t="s">
-        <v>208</v>
-      </c>
       <c r="B160" s="1">
-        <v>42106.862372685187</v>
+        <v>40644.830034722225</v>
       </c>
       <c r="C160" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D160">
-        <v>17.763000000000002</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="E160">
-        <v>0.49</v>
+        <v>2.387</v>
       </c>
       <c r="F160">
-        <v>18.158000000000399</v>
+        <v>74.873000000000005</v>
       </c>
       <c r="G160">
         <v>7426</v>
       </c>
       <c r="H160">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I160">
-        <v>1.6500830141598</v>
+        <v>1.58129073532396</v>
       </c>
       <c r="K160" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O160" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" hidden="1">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B161" s="1">
-        <v>42106.863437499997</v>
+        <v>40644.84652777778</v>
       </c>
       <c r="C161" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D161">
-        <v>15.666</v>
+        <v>15.842000000000001</v>
       </c>
       <c r="E161">
-        <v>0.47699999999999998</v>
+        <v>0.49100000000000099</v>
       </c>
       <c r="F161">
-        <v>16.0569999999998</v>
+        <v>36.243999999999701</v>
       </c>
       <c r="G161">
         <v>7426</v>
@@ -7941,1236 +8025,1481 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>1.54316586262694</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K161" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O161" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" hidden="1">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B162" s="1">
-        <v>42106.868576388886</v>
+        <v>40644.848807870374</v>
       </c>
       <c r="C162" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D162">
-        <v>54.494999999999997</v>
+        <v>15.901</v>
       </c>
       <c r="E162">
-        <v>1.0149999999999999</v>
+        <v>0.44700000000000101</v>
       </c>
       <c r="F162">
-        <v>55.336000000000197</v>
+        <v>36.188000000000102</v>
       </c>
       <c r="G162">
-        <v>14852</v>
+        <v>7426</v>
       </c>
       <c r="H162">
         <v>80</v>
       </c>
       <c r="I162">
-        <v>1.8013924389029601</v>
+        <v>1.5374895271743101</v>
       </c>
       <c r="K162" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O162" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" hidden="1">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B163" s="1">
-        <v>42106.876087962963</v>
+        <v>40644.853368055556</v>
       </c>
       <c r="C163" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D163">
-        <v>46.767000000000102</v>
+        <v>15.009</v>
       </c>
       <c r="E163">
-        <v>1.6379999999999999</v>
+        <v>0.57799999999999896</v>
       </c>
       <c r="F163">
-        <v>553.19600000000003</v>
+        <v>114.17400000000001</v>
       </c>
       <c r="G163">
-        <v>14852</v>
+        <v>7426</v>
       </c>
       <c r="H163">
         <v>80</v>
       </c>
       <c r="I163">
-        <v>1.6284161515828499</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K163" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O163" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" hidden="1">
       <c r="A164" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B164" s="1">
-        <v>42106.890833333331</v>
+        <v>40644.856076388889</v>
       </c>
       <c r="C164" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D164">
-        <v>94.869</v>
+        <v>15.125</v>
       </c>
       <c r="E164">
-        <v>3.2869999999999999</v>
+        <v>0.54299999999999904</v>
       </c>
       <c r="F164">
-        <v>1216.4549999999999</v>
+        <v>116.895</v>
       </c>
       <c r="G164">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H164">
         <v>80</v>
       </c>
       <c r="I164">
-        <v>1.58337486055827</v>
+        <v>1.5939681680293001</v>
       </c>
       <c r="K164" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O164" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" hidden="1">
       <c r="A165" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B165" s="1">
-        <v>42106.980844907404</v>
+        <v>40644.859270833331</v>
       </c>
       <c r="C165" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D165">
-        <v>95.006</v>
+        <v>14.928000000000001</v>
       </c>
       <c r="E165">
-        <v>3.335</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="F165">
-        <v>1510.02</v>
+        <v>15.249000000000301</v>
       </c>
       <c r="G165">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H165">
         <v>80</v>
       </c>
       <c r="I165">
-        <v>1.5833199935014</v>
+        <v>1.57773355605539</v>
       </c>
       <c r="K165" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O165" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" hidden="1">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B166" s="1">
-        <v>42107.289965277778</v>
+        <v>40644.861122685186</v>
       </c>
       <c r="C166" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D166">
-        <v>126.211</v>
+        <v>16.733000000000001</v>
       </c>
       <c r="E166">
-        <v>1.462</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="F166">
-        <v>127.443</v>
+        <v>17.1170000000002</v>
       </c>
       <c r="G166">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H166">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I166">
-        <v>1.92982759815376</v>
+        <v>1.56821048218277</v>
       </c>
       <c r="K166" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O166" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" hidden="1">
       <c r="A167" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B167" s="1">
-        <v>42107.295682870368</v>
+        <v>40644.862372685187</v>
       </c>
       <c r="C167" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D167">
-        <v>91.376999999999995</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="E167">
-        <v>1.498</v>
+        <v>0.49</v>
       </c>
       <c r="F167">
-        <v>92.478999999999999</v>
+        <v>18.158000000000399</v>
       </c>
       <c r="G167">
-        <v>22278</v>
+        <v>7426</v>
       </c>
       <c r="H167">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I167">
-        <v>1.58384242553734</v>
+        <v>1.6500830141598</v>
       </c>
       <c r="K167" t="s">
+        <v>217</v>
+      </c>
+      <c r="O167" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" hidden="1">
+      <c r="A168" t="s">
         <v>213</v>
       </c>
-      <c r="O167" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" t="s">
-        <v>208</v>
-      </c>
       <c r="B168" s="1">
-        <v>42107.301527777781</v>
+        <v>40644.863437499997</v>
       </c>
       <c r="C168" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D168">
-        <v>230.64400000000001</v>
+        <v>15.666</v>
       </c>
       <c r="E168">
-        <v>3.0230000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="F168">
-        <v>232.80799999999999</v>
+        <v>16.0569999999998</v>
       </c>
       <c r="G168">
-        <v>37131</v>
+        <v>7426</v>
       </c>
       <c r="H168">
         <v>80</v>
       </c>
       <c r="I168">
-        <v>1.60920568515367</v>
+        <v>1.54316586262694</v>
       </c>
       <c r="K168" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O168" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" hidden="1">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B169" s="1">
-        <v>42109.907395833332</v>
+        <v>40644.868576388886</v>
       </c>
       <c r="C169" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D169">
-        <v>12.09</v>
+        <v>54.494999999999997</v>
       </c>
       <c r="E169">
-        <v>0.53400000000000003</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F169">
-        <v>12.579999999999901</v>
+        <v>55.336000000000197</v>
       </c>
       <c r="G169">
-        <v>1856</v>
+        <v>14852</v>
       </c>
       <c r="H169">
         <v>80</v>
       </c>
       <c r="I169">
-        <v>1.66250101299196</v>
-      </c>
-      <c r="J169" t="s">
-        <v>21</v>
+        <v>1.8013924389029601</v>
       </c>
       <c r="K169" t="s">
-        <v>214</v>
-      </c>
-      <c r="L169" t="s">
-        <v>215</v>
-      </c>
-      <c r="M169" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O169" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" hidden="1">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B170" s="1">
-        <v>42109.90828703704</v>
+        <v>40644.876087962963</v>
       </c>
       <c r="C170" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D170">
-        <v>20.206</v>
+        <v>46.767000000000102</v>
       </c>
       <c r="E170">
-        <v>1.0740000000000001</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="F170">
-        <v>21.203000000000401</v>
+        <v>553.19600000000003</v>
       </c>
       <c r="G170">
-        <v>1856</v>
+        <v>14852</v>
       </c>
       <c r="H170">
         <v>80</v>
       </c>
       <c r="I170">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J170" t="s">
-        <v>21</v>
+        <v>1.6284161515828499</v>
       </c>
       <c r="K170" t="s">
-        <v>217</v>
-      </c>
-      <c r="L170" t="s">
         <v>218</v>
-      </c>
-      <c r="M170" t="s">
-        <v>216</v>
       </c>
       <c r="O170" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" hidden="1">
       <c r="A171" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B171" s="1">
-        <v>42109.910219907404</v>
+        <v>40644.890833333331</v>
       </c>
       <c r="C171" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D171">
-        <v>20.748999999999999</v>
+        <v>94.869</v>
       </c>
       <c r="E171">
-        <v>1.0349999999999999</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F171">
-        <v>21.721999999999799</v>
+        <v>1216.4549999999999</v>
       </c>
       <c r="G171">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H171">
         <v>80</v>
       </c>
       <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171" t="s">
-        <v>17</v>
+        <v>1.58337486055827</v>
       </c>
       <c r="K171" t="s">
-        <v>217</v>
-      </c>
-      <c r="L171" t="s">
         <v>218</v>
-      </c>
-      <c r="M171" t="s">
-        <v>216</v>
       </c>
       <c r="O171" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" hidden="1">
       <c r="A172" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B172" s="1">
-        <v>42109.911585648151</v>
+        <v>40644.980844907404</v>
       </c>
       <c r="C172" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D172">
-        <v>20.614000000000001</v>
+        <v>95.006</v>
       </c>
       <c r="E172">
-        <v>1.004</v>
+        <v>3.335</v>
       </c>
       <c r="F172">
-        <v>21.542999999999701</v>
+        <v>1510.02</v>
       </c>
       <c r="G172">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H172">
         <v>80</v>
       </c>
       <c r="I172">
-        <v>0.99</v>
-      </c>
-      <c r="J172" t="s">
-        <v>17</v>
+        <v>1.5833199935014</v>
       </c>
       <c r="K172" t="s">
-        <v>217</v>
-      </c>
-      <c r="L172" t="s">
         <v>218</v>
-      </c>
-      <c r="M172" t="s">
-        <v>216</v>
       </c>
       <c r="O172" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" hidden="1">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B173" s="1">
-        <v>42109.918564814812</v>
+        <v>40645.289965277778</v>
       </c>
       <c r="C173" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D173">
-        <v>20.510999999999999</v>
+        <v>126.211</v>
       </c>
       <c r="E173">
-        <v>1.0049999999999999</v>
+        <v>1.462</v>
       </c>
       <c r="F173">
-        <v>21.440000000000499</v>
+        <v>127.443</v>
       </c>
       <c r="G173">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H173">
         <v>80</v>
       </c>
       <c r="I173">
-        <v>1.63488299912919</v>
-      </c>
-      <c r="J173" t="s">
-        <v>21</v>
+        <v>1.92982759815376</v>
       </c>
       <c r="K173" t="s">
         <v>217</v>
       </c>
-      <c r="L173" t="s">
-        <v>218</v>
-      </c>
-      <c r="M173" t="s">
-        <v>216</v>
-      </c>
       <c r="O173" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" hidden="1">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B174" s="1">
-        <v>42121.844583333332</v>
+        <v>40645.295682870368</v>
       </c>
       <c r="C174" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D174">
-        <v>3.0630000000000002</v>
+        <v>91.376999999999995</v>
       </c>
       <c r="E174">
-        <v>0.26600000000000001</v>
+        <v>1.498</v>
       </c>
       <c r="F174">
-        <v>93.864000000000502</v>
+        <v>92.478999999999999</v>
       </c>
       <c r="G174">
-        <v>1856</v>
+        <v>22278</v>
       </c>
       <c r="H174">
         <v>80</v>
       </c>
       <c r="I174">
-        <v>1.6325571524315501</v>
-      </c>
-      <c r="J174" t="s">
-        <v>21</v>
+        <v>1.58384242553734</v>
       </c>
       <c r="K174" t="s">
-        <v>220</v>
-      </c>
-      <c r="N174" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O174" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" hidden="1">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B175" s="1">
-        <v>42121.847118055557</v>
+        <v>40645.301527777781</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D175">
-        <v>2.976</v>
+        <v>230.64400000000001</v>
       </c>
       <c r="E175">
-        <v>0.28299999999999997</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="F175">
-        <v>100.997</v>
+        <v>232.80799999999999</v>
       </c>
       <c r="G175">
-        <v>1856</v>
+        <v>37131</v>
       </c>
       <c r="H175">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I175">
-        <v>1.5866800350352499</v>
-      </c>
-      <c r="J175" t="s">
-        <v>21</v>
+        <v>1.60920568515367</v>
       </c>
       <c r="K175" t="s">
-        <v>222</v>
-      </c>
-      <c r="N175" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O175" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" hidden="1">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B176" s="1">
-        <v>42121.848344907405</v>
+        <v>40647.907395833332</v>
       </c>
       <c r="C176" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D176">
-        <v>2.48</v>
+        <v>12.09</v>
       </c>
       <c r="E176">
-        <v>0.13899999999999901</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F176">
-        <v>9.2620000000006293</v>
+        <v>12.579999999999901</v>
       </c>
       <c r="G176">
         <v>1856</v>
       </c>
       <c r="H176">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I176">
-        <v>1.5317169256021399</v>
+        <v>1.66250101299196</v>
       </c>
       <c r="J176" t="s">
         <v>21</v>
       </c>
       <c r="K176" t="s">
-        <v>223</v>
-      </c>
-      <c r="N176" t="s">
+        <v>219</v>
+      </c>
+      <c r="L176" t="s">
+        <v>220</v>
+      </c>
+      <c r="M176" t="s">
         <v>221</v>
       </c>
       <c r="O176" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" hidden="1">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B177" s="1">
-        <v>42121.85193287037</v>
+        <v>40647.90828703704</v>
       </c>
       <c r="C177" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D177">
-        <v>2.46599999999999</v>
+        <v>20.206</v>
       </c>
       <c r="E177">
-        <v>0.154</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="F177">
-        <v>20.613000000000302</v>
+        <v>21.203000000000401</v>
       </c>
       <c r="G177">
         <v>1856</v>
       </c>
       <c r="H177">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I177">
-        <v>1.5324814378691001</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J177" t="s">
         <v>21</v>
       </c>
       <c r="K177" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L177" t="s">
-        <v>225</v>
-      </c>
-      <c r="N177" t="s">
+        <v>223</v>
+      </c>
+      <c r="M177" t="s">
         <v>221</v>
       </c>
       <c r="O177" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" hidden="1">
       <c r="A178" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B178" s="1">
-        <v>42121.853425925925</v>
+        <v>40647.910219907404</v>
       </c>
       <c r="C178" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D178">
-        <v>5.2539999999999996</v>
+        <v>20.748999999999999</v>
       </c>
       <c r="E178">
-        <v>0.26300000000000001</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="F178">
-        <v>43.096000000000501</v>
+        <v>21.721999999999799</v>
       </c>
       <c r="G178">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H178">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I178">
-        <v>1.67947876411185</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K178" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L178" t="s">
-        <v>225</v>
-      </c>
-      <c r="N178" t="s">
+        <v>223</v>
+      </c>
+      <c r="M178" t="s">
         <v>221</v>
       </c>
       <c r="O178" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" hidden="1">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B179" s="1">
-        <v>42121.854687500003</v>
+        <v>40647.911585648151</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D179">
-        <v>5.2880000000000003</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="E179">
-        <v>0.29799999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="F179">
-        <v>58.8149999999996</v>
+        <v>21.542999999999701</v>
       </c>
       <c r="G179">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H179">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I179">
-        <v>1.67947876411185</v>
+        <v>0.99</v>
       </c>
       <c r="J179" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K179" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L179" t="s">
-        <v>227</v>
-      </c>
-      <c r="N179" t="s">
+        <v>223</v>
+      </c>
+      <c r="M179" t="s">
         <v>221</v>
       </c>
       <c r="O179" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" hidden="1">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B180" s="1">
-        <v>42121.856979166667</v>
+        <v>40647.918564814812</v>
       </c>
       <c r="C180" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D180">
-        <v>9.4990000000000094</v>
+        <v>20.510999999999999</v>
       </c>
       <c r="E180">
-        <v>0.66600000000000004</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="F180">
-        <v>45.574000000000503</v>
+        <v>21.440000000000499</v>
       </c>
       <c r="G180">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H180">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I180">
-        <v>1.6391630597812601</v>
+        <v>1.63488299912919</v>
       </c>
       <c r="J180" t="s">
         <v>21</v>
       </c>
       <c r="K180" t="s">
-        <v>228</v>
-      </c>
-      <c r="N180" t="s">
+        <v>222</v>
+      </c>
+      <c r="L180" t="s">
+        <v>223</v>
+      </c>
+      <c r="M180" t="s">
         <v>221</v>
       </c>
       <c r="O180" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" hidden="1">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B181" s="1">
-        <v>42121.860312500001</v>
+        <v>40659.844583333332</v>
       </c>
       <c r="C181" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D181">
-        <v>9.7119999999999909</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="E181">
-        <v>0.70799999999999996</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="F181">
-        <v>46.558</v>
+        <v>93.864000000000502</v>
       </c>
       <c r="G181">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H181">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I181">
-        <v>1.6391630597812601</v>
+        <v>1.6325571524315501</v>
       </c>
       <c r="J181" t="s">
         <v>21</v>
       </c>
       <c r="K181" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N181" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O181" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" hidden="1">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B182" s="1">
-        <v>42121.863749999997</v>
+        <v>40659.847118055557</v>
       </c>
       <c r="C182" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D182">
-        <v>5.5699999999999896</v>
+        <v>2.976</v>
       </c>
       <c r="E182">
-        <v>0.30600000000000099</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F182">
-        <v>60.558</v>
+        <v>100.997</v>
       </c>
       <c r="G182">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H182">
         <v>93</v>
       </c>
       <c r="I182">
-        <v>1.5823919857797799</v>
+        <v>1.5866800350352499</v>
       </c>
       <c r="J182" t="s">
         <v>21</v>
       </c>
       <c r="K182" t="s">
-        <v>230</v>
-      </c>
-      <c r="L182" t="s">
         <v>227</v>
       </c>
       <c r="N182" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O182" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" hidden="1">
       <c r="A183" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B183" s="1">
-        <v>42121.86519675926</v>
+        <v>40659.848344907405</v>
       </c>
       <c r="C183" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D183">
-        <v>4.8290000000000104</v>
+        <v>2.48</v>
       </c>
       <c r="E183">
-        <v>0.30399999999999799</v>
+        <v>0.13899999999999901</v>
       </c>
       <c r="F183">
-        <v>55.797999999999803</v>
+        <v>9.2620000000006293</v>
       </c>
       <c r="G183">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H183">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I183">
-        <v>1.6568002530577599</v>
+        <v>1.5317169256021399</v>
       </c>
       <c r="J183" t="s">
         <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>231</v>
-      </c>
-      <c r="L183" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N183" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O183" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" hidden="1">
       <c r="A184" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B184" s="1">
-        <v>42121.867673611108</v>
+        <v>40659.85193287037</v>
       </c>
       <c r="C184" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D184">
-        <v>4.9149999999999903</v>
+        <v>2.46599999999999</v>
       </c>
       <c r="E184">
-        <v>0.315999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="F184">
-        <v>62.327999999999498</v>
+        <v>20.613000000000302</v>
       </c>
       <c r="G184">
-        <v>3713</v>
+        <v>1856</v>
       </c>
       <c r="H184">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I184">
-        <v>1.65692310884533</v>
+        <v>1.5324814378691001</v>
       </c>
       <c r="J184" t="s">
         <v>21</v>
       </c>
       <c r="K184" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L184" t="s">
-        <v>227</v>
-      </c>
-      <c r="M184" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N184" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O184" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" hidden="1">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B185" s="1">
-        <v>42121.869687500002</v>
+        <v>40659.853425925925</v>
       </c>
       <c r="C185" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D185">
-        <v>4.9019999999999904</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="E185">
-        <v>0.30499999999999999</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F185">
-        <v>52.561000000000597</v>
+        <v>43.096000000000501</v>
       </c>
       <c r="G185">
         <v>3713</v>
       </c>
       <c r="H185">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I185">
-        <v>1.65804340818409</v>
+        <v>1.67947876411185</v>
       </c>
       <c r="J185" t="s">
         <v>21</v>
       </c>
       <c r="K185" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L185" t="s">
+        <v>230</v>
+      </c>
+      <c r="N185" t="s">
+        <v>226</v>
+      </c>
+      <c r="O185" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" hidden="1">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" s="1">
+        <v>40659.854687500003</v>
+      </c>
+      <c r="C186" t="s">
+        <v>216</v>
+      </c>
+      <c r="D186">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="E186">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F186">
+        <v>58.8149999999996</v>
+      </c>
+      <c r="G186">
+        <v>3713</v>
+      </c>
+      <c r="H186">
+        <v>93</v>
+      </c>
+      <c r="I186">
+        <v>1.67947876411185</v>
+      </c>
+      <c r="J186" t="s">
+        <v>21</v>
+      </c>
+      <c r="K186" t="s">
+        <v>231</v>
+      </c>
+      <c r="L186" t="s">
+        <v>232</v>
+      </c>
+      <c r="N186" t="s">
+        <v>226</v>
+      </c>
+      <c r="O186" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" hidden="1">
+      <c r="A187" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" s="1">
+        <v>40659.856979166667</v>
+      </c>
+      <c r="C187" t="s">
+        <v>214</v>
+      </c>
+      <c r="D187">
+        <v>9.4990000000000094</v>
+      </c>
+      <c r="E187">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F187">
+        <v>45.574000000000503</v>
+      </c>
+      <c r="G187">
+        <v>3713</v>
+      </c>
+      <c r="H187">
+        <v>93</v>
+      </c>
+      <c r="I187">
+        <v>1.6391630597812601</v>
+      </c>
+      <c r="J187" t="s">
+        <v>21</v>
+      </c>
+      <c r="K187" t="s">
         <v>233</v>
       </c>
-      <c r="M185" t="s">
+      <c r="N187" t="s">
+        <v>226</v>
+      </c>
+      <c r="O187" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" hidden="1">
+      <c r="A188" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188" s="1">
+        <v>40659.860312500001</v>
+      </c>
+      <c r="C188" t="s">
+        <v>214</v>
+      </c>
+      <c r="D188">
+        <v>9.7119999999999909</v>
+      </c>
+      <c r="E188">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F188">
+        <v>46.558</v>
+      </c>
+      <c r="G188">
+        <v>3713</v>
+      </c>
+      <c r="H188">
+        <v>93</v>
+      </c>
+      <c r="I188">
+        <v>1.6391630597812601</v>
+      </c>
+      <c r="J188" t="s">
+        <v>21</v>
+      </c>
+      <c r="K188" t="s">
+        <v>233</v>
+      </c>
+      <c r="N188" t="s">
+        <v>234</v>
+      </c>
+      <c r="O188" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" hidden="1">
+      <c r="A189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B189" s="1">
+        <v>40659.863749999997</v>
+      </c>
+      <c r="C189" t="s">
+        <v>216</v>
+      </c>
+      <c r="D189">
+        <v>5.5699999999999896</v>
+      </c>
+      <c r="E189">
+        <v>0.30600000000000099</v>
+      </c>
+      <c r="F189">
+        <v>60.558</v>
+      </c>
+      <c r="G189">
+        <v>3713</v>
+      </c>
+      <c r="H189">
+        <v>93</v>
+      </c>
+      <c r="I189">
+        <v>1.5823919857797799</v>
+      </c>
+      <c r="J189" t="s">
+        <v>21</v>
+      </c>
+      <c r="K189" t="s">
+        <v>235</v>
+      </c>
+      <c r="L189" t="s">
         <v>232</v>
       </c>
-      <c r="N185" t="s">
-        <v>229</v>
-      </c>
-      <c r="O185" t="s">
+      <c r="N189" t="s">
+        <v>234</v>
+      </c>
+      <c r="O189" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" hidden="1">
+      <c r="A190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B190" s="1">
+        <v>40659.86519675926</v>
+      </c>
+      <c r="C190" t="s">
+        <v>216</v>
+      </c>
+      <c r="D190">
+        <v>4.8290000000000104</v>
+      </c>
+      <c r="E190">
+        <v>0.30399999999999799</v>
+      </c>
+      <c r="F190">
+        <v>55.797999999999803</v>
+      </c>
+      <c r="G190">
+        <v>3713</v>
+      </c>
+      <c r="H190">
+        <v>80</v>
+      </c>
+      <c r="I190">
+        <v>1.6568002530577599</v>
+      </c>
+      <c r="J190" t="s">
+        <v>21</v>
+      </c>
+      <c r="K190" t="s">
+        <v>236</v>
+      </c>
+      <c r="L190" t="s">
+        <v>232</v>
+      </c>
+      <c r="N190" t="s">
+        <v>234</v>
+      </c>
+      <c r="O190" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
-      <c r="A186" t="s">
-        <v>234</v>
-      </c>
-      <c r="B186" s="1">
-        <v>42123.520416666666</v>
-      </c>
-      <c r="C186" t="s">
-        <v>209</v>
-      </c>
-      <c r="D186">
-        <v>147.87</v>
-      </c>
-      <c r="E186">
-        <v>0.47</v>
-      </c>
-      <c r="F186">
-        <v>149.09</v>
-      </c>
-      <c r="G186">
-        <v>1861</v>
-      </c>
-      <c r="H186">
-        <v>94</v>
-      </c>
-      <c r="I186">
-        <v>0.879687868181247</v>
-      </c>
-      <c r="J186" t="s">
-        <v>17</v>
-      </c>
-      <c r="K186" t="s">
-        <v>235</v>
-      </c>
-      <c r="N186" t="s">
-        <v>236</v>
-      </c>
-      <c r="O186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15">
-      <c r="A187" t="s">
-        <v>234</v>
-      </c>
-      <c r="B187" s="1">
-        <v>42123.526898148149</v>
-      </c>
-      <c r="C187" t="s">
-        <v>209</v>
-      </c>
-      <c r="D187">
-        <v>437.02</v>
-      </c>
-      <c r="E187">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F187">
-        <v>440.29</v>
-      </c>
-      <c r="G187">
-        <v>3718</v>
-      </c>
-      <c r="H187">
-        <v>94</v>
-      </c>
-      <c r="I187">
-        <v>0.816933944528761</v>
-      </c>
-      <c r="J187" t="s">
-        <v>17</v>
-      </c>
-      <c r="K187" t="s">
-        <v>237</v>
-      </c>
-      <c r="N187" t="s">
-        <v>236</v>
-      </c>
-      <c r="O187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15">
-      <c r="A188" t="s">
-        <v>234</v>
-      </c>
-      <c r="B188" s="1">
-        <v>42123.551562499997</v>
-      </c>
-      <c r="C188" t="s">
-        <v>209</v>
-      </c>
-      <c r="D188">
-        <v>1400.45</v>
-      </c>
-      <c r="E188">
-        <v>11.27</v>
-      </c>
-      <c r="F188">
-        <v>1413.65</v>
-      </c>
-      <c r="G188">
-        <v>7429</v>
-      </c>
-      <c r="H188">
-        <v>94</v>
-      </c>
-      <c r="I188">
-        <v>0.75435019649979396</v>
-      </c>
-      <c r="J188" t="s">
-        <v>17</v>
-      </c>
-      <c r="K188" t="s">
-        <v>238</v>
-      </c>
-      <c r="N188" t="s">
-        <v>236</v>
-      </c>
-      <c r="O188" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
-      <c r="A189" t="s">
-        <v>234</v>
-      </c>
-      <c r="B189" s="1">
-        <v>42123.621365740742</v>
-      </c>
-      <c r="C189" t="s">
-        <v>209</v>
-      </c>
-      <c r="D189">
-        <v>3097.3</v>
-      </c>
-      <c r="E189">
-        <v>23.74</v>
-      </c>
-      <c r="F189">
-        <v>3132.3</v>
-      </c>
-      <c r="G189">
-        <v>11144</v>
-      </c>
-      <c r="H189">
-        <v>94</v>
-      </c>
-      <c r="I189">
-        <v>0.72482857368610298</v>
-      </c>
-      <c r="J189" t="s">
-        <v>17</v>
-      </c>
-      <c r="K189" t="s">
-        <v>239</v>
-      </c>
-      <c r="N189" t="s">
-        <v>236</v>
-      </c>
-      <c r="O189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
-      <c r="A190" t="s">
-        <v>240</v>
-      </c>
-      <c r="B190" s="1">
-        <v>42114.307604166665</v>
-      </c>
-      <c r="C190" t="s">
-        <v>241</v>
-      </c>
-      <c r="D190">
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="E190">
-        <v>0.107</v>
-      </c>
-      <c r="F190">
-        <v>12.631999999999801</v>
-      </c>
-      <c r="G190">
-        <v>1856</v>
-      </c>
-      <c r="H190">
-        <v>93</v>
-      </c>
-      <c r="I190">
-        <v>1.5610810802361099</v>
-      </c>
-      <c r="J190" t="s">
-        <v>17</v>
-      </c>
-      <c r="K190" t="s">
-        <v>242</v>
-      </c>
-      <c r="O190" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" hidden="1">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B191" s="1">
-        <v>42114.309560185182</v>
+        <v>40659.867673611108</v>
       </c>
       <c r="C191" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D191">
-        <v>7.5640000000000001</v>
+        <v>4.9149999999999903</v>
       </c>
       <c r="E191">
-        <v>0.217</v>
+        <v>0.315999999999999</v>
       </c>
       <c r="F191">
-        <v>21.059999999999899</v>
+        <v>62.327999999999498</v>
       </c>
       <c r="G191">
         <v>3713</v>
       </c>
       <c r="H191">
+        <v>80</v>
+      </c>
+      <c r="I191">
+        <v>1.65692310884533</v>
+      </c>
+      <c r="J191" t="s">
+        <v>21</v>
+      </c>
+      <c r="K191" t="s">
+        <v>236</v>
+      </c>
+      <c r="L191" t="s">
+        <v>232</v>
+      </c>
+      <c r="M191" t="s">
+        <v>237</v>
+      </c>
+      <c r="N191" t="s">
+        <v>234</v>
+      </c>
+      <c r="O191" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" hidden="1">
+      <c r="A192" t="s">
+        <v>213</v>
+      </c>
+      <c r="B192" s="1">
+        <v>40659.869687500002</v>
+      </c>
+      <c r="C192" t="s">
+        <v>216</v>
+      </c>
+      <c r="D192">
+        <v>4.9019999999999904</v>
+      </c>
+      <c r="E192">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F192">
+        <v>52.561000000000597</v>
+      </c>
+      <c r="G192">
+        <v>3713</v>
+      </c>
+      <c r="H192">
+        <v>80</v>
+      </c>
+      <c r="I192">
+        <v>1.65804340818409</v>
+      </c>
+      <c r="J192" t="s">
+        <v>21</v>
+      </c>
+      <c r="K192" t="s">
+        <v>222</v>
+      </c>
+      <c r="L192" t="s">
+        <v>238</v>
+      </c>
+      <c r="M192" t="s">
+        <v>237</v>
+      </c>
+      <c r="N192" t="s">
+        <v>234</v>
+      </c>
+      <c r="O192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" hidden="1">
+      <c r="A193" t="s">
+        <v>239</v>
+      </c>
+      <c r="B193" s="1">
+        <v>40661.520416666666</v>
+      </c>
+      <c r="C193" t="s">
+        <v>214</v>
+      </c>
+      <c r="D193">
+        <v>147.87</v>
+      </c>
+      <c r="E193">
+        <v>0.47</v>
+      </c>
+      <c r="F193">
+        <v>149.09</v>
+      </c>
+      <c r="G193">
+        <v>1861</v>
+      </c>
+      <c r="H193">
+        <v>94</v>
+      </c>
+      <c r="I193">
+        <v>0.879687868181247</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" t="s">
+        <v>240</v>
+      </c>
+      <c r="N193" t="s">
+        <v>241</v>
+      </c>
+      <c r="O193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" hidden="1">
+      <c r="A194" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" s="1">
+        <v>40661.526898148149</v>
+      </c>
+      <c r="C194" t="s">
+        <v>214</v>
+      </c>
+      <c r="D194">
+        <v>437.02</v>
+      </c>
+      <c r="E194">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F194">
+        <v>440.29</v>
+      </c>
+      <c r="G194">
+        <v>3718</v>
+      </c>
+      <c r="H194">
+        <v>94</v>
+      </c>
+      <c r="I194">
+        <v>0.816933944528761</v>
+      </c>
+      <c r="J194" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" t="s">
+        <v>242</v>
+      </c>
+      <c r="N194" t="s">
+        <v>241</v>
+      </c>
+      <c r="O194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" hidden="1">
+      <c r="A195" t="s">
+        <v>239</v>
+      </c>
+      <c r="B195" s="1">
+        <v>40661.551562499997</v>
+      </c>
+      <c r="C195" t="s">
+        <v>214</v>
+      </c>
+      <c r="D195">
+        <v>1400.45</v>
+      </c>
+      <c r="E195">
+        <v>11.27</v>
+      </c>
+      <c r="F195">
+        <v>1413.65</v>
+      </c>
+      <c r="G195">
+        <v>7429</v>
+      </c>
+      <c r="H195">
+        <v>94</v>
+      </c>
+      <c r="I195">
+        <v>0.75435019649979396</v>
+      </c>
+      <c r="J195" t="s">
+        <v>17</v>
+      </c>
+      <c r="K195" t="s">
+        <v>243</v>
+      </c>
+      <c r="N195" t="s">
+        <v>241</v>
+      </c>
+      <c r="O195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" hidden="1">
+      <c r="A196" t="s">
+        <v>239</v>
+      </c>
+      <c r="B196" s="1">
+        <v>40661.621365740742</v>
+      </c>
+      <c r="C196" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196">
+        <v>3097.3</v>
+      </c>
+      <c r="E196">
+        <v>23.74</v>
+      </c>
+      <c r="F196">
+        <v>3132.3</v>
+      </c>
+      <c r="G196">
+        <v>11144</v>
+      </c>
+      <c r="H196">
+        <v>94</v>
+      </c>
+      <c r="I196">
+        <v>0.72482857368610298</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" t="s">
+        <v>244</v>
+      </c>
+      <c r="N196" t="s">
+        <v>241</v>
+      </c>
+      <c r="O196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" hidden="1">
+      <c r="A197" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" s="1">
+        <v>40652.307604166665</v>
+      </c>
+      <c r="C197" t="s">
+        <v>246</v>
+      </c>
+      <c r="D197">
+        <v>4.0419999999999998</v>
+      </c>
+      <c r="E197">
+        <v>0.107</v>
+      </c>
+      <c r="F197">
+        <v>12.631999999999801</v>
+      </c>
+      <c r="G197">
+        <v>1856</v>
+      </c>
+      <c r="H197">
         <v>93</v>
       </c>
-      <c r="I191">
+      <c r="I197">
+        <v>1.5610810802361099</v>
+      </c>
+      <c r="J197" t="s">
+        <v>17</v>
+      </c>
+      <c r="K197" t="s">
+        <v>247</v>
+      </c>
+      <c r="O197" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" hidden="1">
+      <c r="A198" t="s">
+        <v>245</v>
+      </c>
+      <c r="B198" s="1">
+        <v>40652.309560185182</v>
+      </c>
+      <c r="C198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D198">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="E198">
+        <v>0.217</v>
+      </c>
+      <c r="F198">
+        <v>21.059999999999899</v>
+      </c>
+      <c r="G198">
+        <v>3713</v>
+      </c>
+      <c r="H198">
+        <v>93</v>
+      </c>
+      <c r="I198">
         <v>1.47755844028469</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J198" t="s">
         <v>17</v>
       </c>
-      <c r="K191" t="s">
-        <v>242</v>
-      </c>
-      <c r="O191" t="s">
+      <c r="K198" t="s">
+        <v>247</v>
+      </c>
+      <c r="O198" t="s">
         <v>39</v>
       </c>
     </row>
